--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\개인\POWER BI\업무\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김훈희\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C088C3-348D-4229-B930-3AC156D8454D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7FBDE3CB-3BE6-4858-BD36-C283BF315A42}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2026'!$B$3:$P$162</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="151">
   <si>
     <t>사출 불량 유형</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -540,7 +539,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
@@ -1128,11 +1127,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BC34A0-7885-4B17-9A44-9155E3A920C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q1040329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B286" sqref="B286:P315"/>
+    <sheetView tabSelected="1" topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F306" sqref="F306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9466,11 +9465,23 @@
       <c r="P285" s="11"/>
     </row>
     <row r="286" spans="2:16">
-      <c r="B286" s="14"/>
-      <c r="C286" s="5"/>
-      <c r="D286" s="8"/>
-      <c r="E286" s="8"/>
-      <c r="F286" s="8"/>
+      <c r="B286" s="14">
+        <v>46071</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D286" s="8">
+        <v>264</v>
+      </c>
+      <c r="E286" s="8">
+        <f t="shared" ref="E286:E307" si="6">D286-F286</f>
+        <v>264</v>
+      </c>
+      <c r="F286" s="8">
+        <f>SUM(G286:P286)</f>
+        <v>0</v>
+      </c>
       <c r="G286" s="11"/>
       <c r="H286" s="11"/>
       <c r="I286" s="11"/>
@@ -9483,11 +9494,23 @@
       <c r="P286" s="11"/>
     </row>
     <row r="287" spans="2:16">
-      <c r="B287" s="14"/>
-      <c r="C287" s="5"/>
-      <c r="D287" s="8"/>
-      <c r="E287" s="8"/>
-      <c r="F287" s="8"/>
+      <c r="B287" s="14">
+        <v>46071</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D287" s="8">
+        <v>600</v>
+      </c>
+      <c r="E287" s="8">
+        <f t="shared" si="6"/>
+        <v>600</v>
+      </c>
+      <c r="F287" s="8">
+        <f t="shared" ref="F287:F307" si="7">SUM(G287:P287)</f>
+        <v>0</v>
+      </c>
       <c r="G287" s="11"/>
       <c r="H287" s="11"/>
       <c r="I287" s="11"/>
@@ -9500,13 +9523,28 @@
       <c r="P287" s="11"/>
     </row>
     <row r="288" spans="2:16">
-      <c r="B288" s="14"/>
-      <c r="C288" s="5"/>
-      <c r="D288" s="8"/>
-      <c r="E288" s="8"/>
-      <c r="F288" s="8"/>
-      <c r="G288" s="11"/>
-      <c r="H288" s="11"/>
+      <c r="B288" s="14">
+        <v>46071</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D288" s="8">
+        <v>808</v>
+      </c>
+      <c r="E288" s="8">
+        <f t="shared" si="6"/>
+        <v>208</v>
+      </c>
+      <c r="F288" s="8">
+        <v>600</v>
+      </c>
+      <c r="G288" s="11">
+        <v>13</v>
+      </c>
+      <c r="H288" s="11">
+        <v>5</v>
+      </c>
       <c r="I288" s="11"/>
       <c r="J288" s="11"/>
       <c r="K288" s="11"/>
@@ -9517,13 +9555,29 @@
       <c r="P288" s="11"/>
     </row>
     <row r="289" spans="2:16">
-      <c r="B289" s="14"/>
-      <c r="C289" s="5"/>
-      <c r="D289" s="8"/>
-      <c r="E289" s="8"/>
-      <c r="F289" s="8"/>
-      <c r="G289" s="11"/>
-      <c r="H289" s="11"/>
+      <c r="B289" s="14">
+        <v>46071</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D289" s="8">
+        <v>808</v>
+      </c>
+      <c r="E289" s="8">
+        <f t="shared" si="6"/>
+        <v>790</v>
+      </c>
+      <c r="F289" s="8">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="G289" s="11">
+        <v>13</v>
+      </c>
+      <c r="H289" s="11">
+        <v>5</v>
+      </c>
       <c r="I289" s="11"/>
       <c r="J289" s="11"/>
       <c r="K289" s="11"/>
@@ -9534,30 +9588,63 @@
       <c r="P289" s="11"/>
     </row>
     <row r="290" spans="2:16">
-      <c r="B290" s="14"/>
-      <c r="C290" s="5"/>
-      <c r="D290" s="8"/>
-      <c r="E290" s="8"/>
-      <c r="F290" s="8"/>
+      <c r="B290" s="14">
+        <v>46071</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D290" s="8">
+        <v>3695</v>
+      </c>
+      <c r="E290" s="8">
+        <f t="shared" si="6"/>
+        <v>3620</v>
+      </c>
+      <c r="F290" s="8">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
       <c r="G290" s="11"/>
-      <c r="H290" s="11"/>
+      <c r="H290" s="11">
+        <v>21</v>
+      </c>
       <c r="I290" s="11"/>
-      <c r="J290" s="11"/>
+      <c r="J290" s="11">
+        <f>44-8</f>
+        <v>36</v>
+      </c>
       <c r="K290" s="11"/>
-      <c r="L290" s="11"/>
+      <c r="L290" s="11">
+        <v>18</v>
+      </c>
       <c r="M290" s="11"/>
       <c r="N290" s="11"/>
       <c r="O290" s="11"/>
       <c r="P290" s="11"/>
     </row>
     <row r="291" spans="2:16">
-      <c r="B291" s="14"/>
-      <c r="C291" s="5"/>
-      <c r="D291" s="8"/>
-      <c r="E291" s="8"/>
-      <c r="F291" s="8"/>
+      <c r="B291" s="14">
+        <v>46071</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D291" s="8">
+        <v>1068</v>
+      </c>
+      <c r="E291" s="8">
+        <f t="shared" si="6"/>
+        <v>1050</v>
+      </c>
+      <c r="F291" s="8">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
       <c r="G291" s="11"/>
-      <c r="H291" s="11"/>
+      <c r="H291" s="11">
+        <v>18</v>
+      </c>
       <c r="I291" s="11"/>
       <c r="J291" s="11"/>
       <c r="K291" s="11"/>
@@ -9568,13 +9655,27 @@
       <c r="P291" s="11"/>
     </row>
     <row r="292" spans="2:16">
-      <c r="B292" s="14"/>
-      <c r="C292" s="5"/>
-      <c r="D292" s="8"/>
-      <c r="E292" s="8"/>
-      <c r="F292" s="8"/>
+      <c r="B292" s="14">
+        <v>46071</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D292" s="8">
+        <v>1017</v>
+      </c>
+      <c r="E292" s="8">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="F292" s="8">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
       <c r="G292" s="11"/>
-      <c r="H292" s="11"/>
+      <c r="H292" s="11">
+        <v>17</v>
+      </c>
       <c r="I292" s="11"/>
       <c r="J292" s="11"/>
       <c r="K292" s="11"/>
@@ -9585,11 +9686,23 @@
       <c r="P292" s="11"/>
     </row>
     <row r="293" spans="2:16">
-      <c r="B293" s="14"/>
-      <c r="C293" s="5"/>
-      <c r="D293" s="8"/>
-      <c r="E293" s="8"/>
-      <c r="F293" s="8"/>
+      <c r="B293" s="14">
+        <v>46071</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D293" s="8">
+        <v>2448</v>
+      </c>
+      <c r="E293" s="8">
+        <f t="shared" si="6"/>
+        <v>2448</v>
+      </c>
+      <c r="F293" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="G293" s="11"/>
       <c r="H293" s="11"/>
       <c r="I293" s="11"/>
@@ -9602,11 +9715,23 @@
       <c r="P293" s="11"/>
     </row>
     <row r="294" spans="2:16">
-      <c r="B294" s="14"/>
-      <c r="C294" s="5"/>
-      <c r="D294" s="8"/>
-      <c r="E294" s="8"/>
-      <c r="F294" s="8"/>
+      <c r="B294" s="14">
+        <v>46071</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D294" s="8">
+        <v>420</v>
+      </c>
+      <c r="E294" s="8">
+        <f t="shared" si="6"/>
+        <v>420</v>
+      </c>
+      <c r="F294" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="G294" s="11"/>
       <c r="H294" s="11"/>
       <c r="I294" s="11"/>
@@ -9619,12 +9744,26 @@
       <c r="P294" s="11"/>
     </row>
     <row r="295" spans="2:16">
-      <c r="B295" s="14"/>
-      <c r="C295" s="5"/>
-      <c r="D295" s="8"/>
-      <c r="E295" s="8"/>
-      <c r="F295" s="8"/>
-      <c r="G295" s="11"/>
+      <c r="B295" s="14">
+        <v>46071</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D295" s="8">
+        <v>1001</v>
+      </c>
+      <c r="E295" s="8">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="F295" s="8">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G295" s="11">
+        <v>1</v>
+      </c>
       <c r="H295" s="11"/>
       <c r="I295" s="11"/>
       <c r="J295" s="11"/>
@@ -9636,11 +9775,23 @@
       <c r="P295" s="11"/>
     </row>
     <row r="296" spans="2:16">
-      <c r="B296" s="14"/>
-      <c r="C296" s="5"/>
-      <c r="D296" s="8"/>
-      <c r="E296" s="8"/>
-      <c r="F296" s="8"/>
+      <c r="B296" s="14">
+        <v>46071</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D296" s="8">
+        <v>312</v>
+      </c>
+      <c r="E296" s="8">
+        <f t="shared" si="6"/>
+        <v>312</v>
+      </c>
+      <c r="F296" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="G296" s="11"/>
       <c r="H296" s="11"/>
       <c r="I296" s="11"/>
@@ -9653,13 +9804,29 @@
       <c r="P296" s="11"/>
     </row>
     <row r="297" spans="2:16">
-      <c r="B297" s="14"/>
-      <c r="C297" s="5"/>
-      <c r="D297" s="8"/>
-      <c r="E297" s="8"/>
-      <c r="F297" s="8"/>
-      <c r="G297" s="11"/>
-      <c r="H297" s="11"/>
+      <c r="B297" s="14">
+        <v>46071</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D297" s="8">
+        <v>1908</v>
+      </c>
+      <c r="E297" s="8">
+        <f t="shared" si="6"/>
+        <v>1888</v>
+      </c>
+      <c r="F297" s="8">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="G297" s="11">
+        <v>10</v>
+      </c>
+      <c r="H297" s="11">
+        <v>10</v>
+      </c>
       <c r="I297" s="11"/>
       <c r="J297" s="11"/>
       <c r="K297" s="11"/>
@@ -9670,11 +9837,23 @@
       <c r="P297" s="11"/>
     </row>
     <row r="298" spans="2:16">
-      <c r="B298" s="14"/>
-      <c r="C298" s="5"/>
-      <c r="D298" s="8"/>
-      <c r="E298" s="8"/>
-      <c r="F298" s="8"/>
+      <c r="B298" s="14">
+        <v>46071</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D298" s="8">
+        <v>590</v>
+      </c>
+      <c r="E298" s="8">
+        <f t="shared" si="6"/>
+        <v>590</v>
+      </c>
+      <c r="F298" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="G298" s="11"/>
       <c r="H298" s="11"/>
       <c r="I298" s="11"/>
@@ -9687,11 +9866,23 @@
       <c r="P298" s="11"/>
     </row>
     <row r="299" spans="2:16">
-      <c r="B299" s="14"/>
-      <c r="C299" s="5"/>
-      <c r="D299" s="8"/>
-      <c r="E299" s="8"/>
-      <c r="F299" s="8"/>
+      <c r="B299" s="14">
+        <v>46071</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D299" s="8">
+        <v>60</v>
+      </c>
+      <c r="E299" s="8">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="F299" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="G299" s="11"/>
       <c r="H299" s="11"/>
       <c r="I299" s="11"/>
@@ -9704,11 +9895,23 @@
       <c r="P299" s="11"/>
     </row>
     <row r="300" spans="2:16">
-      <c r="B300" s="14"/>
-      <c r="C300" s="5"/>
-      <c r="D300" s="8"/>
-      <c r="E300" s="8"/>
-      <c r="F300" s="8"/>
+      <c r="B300" s="14">
+        <v>46071</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D300" s="8">
+        <v>1780</v>
+      </c>
+      <c r="E300" s="8">
+        <f t="shared" si="6"/>
+        <v>1780</v>
+      </c>
+      <c r="F300" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="G300" s="11"/>
       <c r="H300" s="11"/>
       <c r="I300" s="11"/>
@@ -9721,11 +9924,23 @@
       <c r="P300" s="11"/>
     </row>
     <row r="301" spans="2:16">
-      <c r="B301" s="14"/>
-      <c r="C301" s="5"/>
-      <c r="D301" s="8"/>
-      <c r="E301" s="8"/>
-      <c r="F301" s="8"/>
+      <c r="B301" s="14">
+        <v>46071</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D301" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E301" s="8">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="F301" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="G301" s="11"/>
       <c r="H301" s="11"/>
       <c r="I301" s="11"/>
@@ -9738,11 +9953,23 @@
       <c r="P301" s="11"/>
     </row>
     <row r="302" spans="2:16">
-      <c r="B302" s="14"/>
-      <c r="C302" s="5"/>
-      <c r="D302" s="8"/>
-      <c r="E302" s="8"/>
-      <c r="F302" s="8"/>
+      <c r="B302" s="14">
+        <v>46071</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D302" s="8">
+        <v>1200</v>
+      </c>
+      <c r="E302" s="8">
+        <f t="shared" si="6"/>
+        <v>1200</v>
+      </c>
+      <c r="F302" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="G302" s="11"/>
       <c r="H302" s="11"/>
       <c r="I302" s="11"/>
@@ -9755,11 +9982,23 @@
       <c r="P302" s="11"/>
     </row>
     <row r="303" spans="2:16">
-      <c r="B303" s="14"/>
-      <c r="C303" s="5"/>
-      <c r="D303" s="8"/>
-      <c r="E303" s="8"/>
-      <c r="F303" s="8"/>
+      <c r="B303" s="14">
+        <v>46071</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D303" s="8">
+        <v>252</v>
+      </c>
+      <c r="E303" s="8">
+        <f t="shared" si="6"/>
+        <v>250</v>
+      </c>
+      <c r="F303" s="8">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
       <c r="G303" s="11"/>
       <c r="H303" s="11"/>
       <c r="I303" s="11"/>
@@ -9769,18 +10008,38 @@
       <c r="M303" s="11"/>
       <c r="N303" s="11"/>
       <c r="O303" s="11"/>
-      <c r="P303" s="11"/>
+      <c r="P303" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="304" spans="2:16">
-      <c r="B304" s="14"/>
-      <c r="C304" s="5"/>
-      <c r="D304" s="8"/>
-      <c r="E304" s="8"/>
-      <c r="F304" s="8"/>
-      <c r="G304" s="11"/>
-      <c r="H304" s="11"/>
+      <c r="B304" s="14">
+        <v>46071</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D304" s="8">
+        <v>814</v>
+      </c>
+      <c r="E304" s="8">
+        <f t="shared" si="6"/>
+        <v>780</v>
+      </c>
+      <c r="F304" s="8">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="G304" s="11">
+        <v>5</v>
+      </c>
+      <c r="H304" s="11">
+        <v>24</v>
+      </c>
       <c r="I304" s="11"/>
-      <c r="J304" s="11"/>
+      <c r="J304" s="11">
+        <v>5</v>
+      </c>
       <c r="K304" s="11"/>
       <c r="L304" s="11"/>
       <c r="M304" s="11"/>
@@ -9789,13 +10048,26 @@
       <c r="P304" s="11"/>
     </row>
     <row r="305" spans="2:16">
-      <c r="B305" s="14"/>
-      <c r="C305" s="5"/>
-      <c r="D305" s="8"/>
-      <c r="E305" s="8"/>
-      <c r="F305" s="8"/>
+      <c r="B305" s="14">
+        <v>46071</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D305" s="8">
+        <v>1622</v>
+      </c>
+      <c r="E305" s="8">
+        <f t="shared" si="6"/>
+        <v>1322</v>
+      </c>
+      <c r="F305" s="8">
+        <v>300</v>
+      </c>
       <c r="G305" s="11"/>
-      <c r="H305" s="11"/>
+      <c r="H305" s="11">
+        <v>2</v>
+      </c>
       <c r="I305" s="11"/>
       <c r="J305" s="11"/>
       <c r="K305" s="11"/>
@@ -9806,11 +10078,23 @@
       <c r="P305" s="11"/>
     </row>
     <row r="306" spans="2:16">
-      <c r="B306" s="14"/>
-      <c r="C306" s="5"/>
-      <c r="D306" s="8"/>
-      <c r="E306" s="8"/>
-      <c r="F306" s="8"/>
+      <c r="B306" s="14">
+        <v>46071</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D306" s="8">
+        <v>720</v>
+      </c>
+      <c r="E306" s="8">
+        <f t="shared" si="6"/>
+        <v>720</v>
+      </c>
+      <c r="F306" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="G306" s="11"/>
       <c r="H306" s="11"/>
       <c r="I306" s="11"/>
@@ -9823,11 +10107,23 @@
       <c r="P306" s="11"/>
     </row>
     <row r="307" spans="2:16">
-      <c r="B307" s="14"/>
-      <c r="C307" s="5"/>
-      <c r="D307" s="8"/>
-      <c r="E307" s="8"/>
-      <c r="F307" s="8"/>
+      <c r="B307" s="14">
+        <v>46071</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D307" s="8">
+        <v>786</v>
+      </c>
+      <c r="E307" s="8">
+        <f t="shared" si="6"/>
+        <v>786</v>
+      </c>
+      <c r="F307" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="G307" s="11"/>
       <c r="H307" s="11"/>
       <c r="I307" s="11"/>
@@ -9985,7 +10281,7 @@
       <c r="B1040329" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:P162" xr:uid="{99BC34A0-7885-4B17-9A44-9155E3A920C9}"/>
+  <autoFilter ref="B3:P162"/>
   <mergeCells count="2">
     <mergeCell ref="G2:P2"/>
     <mergeCell ref="B2:F2"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="151">
   <si>
     <t>사출 불량 유형</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1131,7 +1131,7 @@
   <dimension ref="B2:Q1040329"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F306" sqref="F306"/>
+      <selection activeCell="D297" sqref="D297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9465,23 +9465,11 @@
       <c r="P285" s="11"/>
     </row>
     <row r="286" spans="2:16">
-      <c r="B286" s="14">
-        <v>46071</v>
-      </c>
-      <c r="C286" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D286" s="8">
-        <v>264</v>
-      </c>
-      <c r="E286" s="8">
-        <f t="shared" ref="E286:E307" si="6">D286-F286</f>
-        <v>264</v>
-      </c>
-      <c r="F286" s="8">
-        <f>SUM(G286:P286)</f>
-        <v>0</v>
-      </c>
+      <c r="B286" s="14"/>
+      <c r="C286" s="5"/>
+      <c r="D286" s="8"/>
+      <c r="E286" s="8"/>
+      <c r="F286" s="8"/>
       <c r="G286" s="11"/>
       <c r="H286" s="11"/>
       <c r="I286" s="11"/>
@@ -9494,23 +9482,11 @@
       <c r="P286" s="11"/>
     </row>
     <row r="287" spans="2:16">
-      <c r="B287" s="14">
-        <v>46071</v>
-      </c>
-      <c r="C287" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D287" s="8">
-        <v>600</v>
-      </c>
-      <c r="E287" s="8">
-        <f t="shared" si="6"/>
-        <v>600</v>
-      </c>
-      <c r="F287" s="8">
-        <f t="shared" ref="F287:F307" si="7">SUM(G287:P287)</f>
-        <v>0</v>
-      </c>
+      <c r="B287" s="14"/>
+      <c r="C287" s="5"/>
+      <c r="D287" s="8"/>
+      <c r="E287" s="8"/>
+      <c r="F287" s="8"/>
       <c r="G287" s="11"/>
       <c r="H287" s="11"/>
       <c r="I287" s="11"/>
@@ -9523,28 +9499,13 @@
       <c r="P287" s="11"/>
     </row>
     <row r="288" spans="2:16">
-      <c r="B288" s="14">
-        <v>46071</v>
-      </c>
-      <c r="C288" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D288" s="8">
-        <v>808</v>
-      </c>
-      <c r="E288" s="8">
-        <f t="shared" si="6"/>
-        <v>208</v>
-      </c>
-      <c r="F288" s="8">
-        <v>600</v>
-      </c>
-      <c r="G288" s="11">
-        <v>13</v>
-      </c>
-      <c r="H288" s="11">
-        <v>5</v>
-      </c>
+      <c r="B288" s="14"/>
+      <c r="C288" s="5"/>
+      <c r="D288" s="8"/>
+      <c r="E288" s="8"/>
+      <c r="F288" s="8"/>
+      <c r="G288" s="11"/>
+      <c r="H288" s="11"/>
       <c r="I288" s="11"/>
       <c r="J288" s="11"/>
       <c r="K288" s="11"/>
@@ -9555,29 +9516,13 @@
       <c r="P288" s="11"/>
     </row>
     <row r="289" spans="2:16">
-      <c r="B289" s="14">
-        <v>46071</v>
-      </c>
-      <c r="C289" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D289" s="8">
-        <v>808</v>
-      </c>
-      <c r="E289" s="8">
-        <f t="shared" si="6"/>
-        <v>790</v>
-      </c>
-      <c r="F289" s="8">
-        <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="G289" s="11">
-        <v>13</v>
-      </c>
-      <c r="H289" s="11">
-        <v>5</v>
-      </c>
+      <c r="B289" s="14"/>
+      <c r="C289" s="5"/>
+      <c r="D289" s="8"/>
+      <c r="E289" s="8"/>
+      <c r="F289" s="8"/>
+      <c r="G289" s="11"/>
+      <c r="H289" s="11"/>
       <c r="I289" s="11"/>
       <c r="J289" s="11"/>
       <c r="K289" s="11"/>
@@ -9588,63 +9533,30 @@
       <c r="P289" s="11"/>
     </row>
     <row r="290" spans="2:16">
-      <c r="B290" s="14">
-        <v>46071</v>
-      </c>
-      <c r="C290" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D290" s="8">
-        <v>3695</v>
-      </c>
-      <c r="E290" s="8">
-        <f t="shared" si="6"/>
-        <v>3620</v>
-      </c>
-      <c r="F290" s="8">
-        <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
+      <c r="B290" s="14"/>
+      <c r="C290" s="5"/>
+      <c r="D290" s="8"/>
+      <c r="E290" s="8"/>
+      <c r="F290" s="8"/>
       <c r="G290" s="11"/>
-      <c r="H290" s="11">
-        <v>21</v>
-      </c>
+      <c r="H290" s="11"/>
       <c r="I290" s="11"/>
-      <c r="J290" s="11">
-        <f>44-8</f>
-        <v>36</v>
-      </c>
+      <c r="J290" s="11"/>
       <c r="K290" s="11"/>
-      <c r="L290" s="11">
-        <v>18</v>
-      </c>
+      <c r="L290" s="11"/>
       <c r="M290" s="11"/>
       <c r="N290" s="11"/>
       <c r="O290" s="11"/>
       <c r="P290" s="11"/>
     </row>
     <row r="291" spans="2:16">
-      <c r="B291" s="14">
-        <v>46071</v>
-      </c>
-      <c r="C291" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D291" s="8">
-        <v>1068</v>
-      </c>
-      <c r="E291" s="8">
-        <f t="shared" si="6"/>
-        <v>1050</v>
-      </c>
-      <c r="F291" s="8">
-        <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
+      <c r="B291" s="14"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="8"/>
+      <c r="E291" s="8"/>
+      <c r="F291" s="8"/>
       <c r="G291" s="11"/>
-      <c r="H291" s="11">
-        <v>18</v>
-      </c>
+      <c r="H291" s="11"/>
       <c r="I291" s="11"/>
       <c r="J291" s="11"/>
       <c r="K291" s="11"/>
@@ -9655,27 +9567,13 @@
       <c r="P291" s="11"/>
     </row>
     <row r="292" spans="2:16">
-      <c r="B292" s="14">
-        <v>46071</v>
-      </c>
-      <c r="C292" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D292" s="8">
-        <v>1017</v>
-      </c>
-      <c r="E292" s="8">
-        <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="F292" s="8">
-        <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
+      <c r="B292" s="14"/>
+      <c r="C292" s="5"/>
+      <c r="D292" s="8"/>
+      <c r="E292" s="8"/>
+      <c r="F292" s="8"/>
       <c r="G292" s="11"/>
-      <c r="H292" s="11">
-        <v>17</v>
-      </c>
+      <c r="H292" s="11"/>
       <c r="I292" s="11"/>
       <c r="J292" s="11"/>
       <c r="K292" s="11"/>
@@ -9686,23 +9584,11 @@
       <c r="P292" s="11"/>
     </row>
     <row r="293" spans="2:16">
-      <c r="B293" s="14">
-        <v>46071</v>
-      </c>
-      <c r="C293" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D293" s="8">
-        <v>2448</v>
-      </c>
-      <c r="E293" s="8">
-        <f t="shared" si="6"/>
-        <v>2448</v>
-      </c>
-      <c r="F293" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="B293" s="14"/>
+      <c r="C293" s="5"/>
+      <c r="D293" s="8"/>
+      <c r="E293" s="8"/>
+      <c r="F293" s="8"/>
       <c r="G293" s="11"/>
       <c r="H293" s="11"/>
       <c r="I293" s="11"/>
@@ -9715,23 +9601,11 @@
       <c r="P293" s="11"/>
     </row>
     <row r="294" spans="2:16">
-      <c r="B294" s="14">
-        <v>46071</v>
-      </c>
-      <c r="C294" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D294" s="8">
-        <v>420</v>
-      </c>
-      <c r="E294" s="8">
-        <f t="shared" si="6"/>
-        <v>420</v>
-      </c>
-      <c r="F294" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="B294" s="14"/>
+      <c r="C294" s="5"/>
+      <c r="D294" s="8"/>
+      <c r="E294" s="8"/>
+      <c r="F294" s="8"/>
       <c r="G294" s="11"/>
       <c r="H294" s="11"/>
       <c r="I294" s="11"/>
@@ -9744,26 +9618,12 @@
       <c r="P294" s="11"/>
     </row>
     <row r="295" spans="2:16">
-      <c r="B295" s="14">
-        <v>46071</v>
-      </c>
-      <c r="C295" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D295" s="8">
-        <v>1001</v>
-      </c>
-      <c r="E295" s="8">
-        <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="F295" s="8">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="G295" s="11">
-        <v>1</v>
-      </c>
+      <c r="B295" s="14"/>
+      <c r="C295" s="5"/>
+      <c r="D295" s="8"/>
+      <c r="E295" s="8"/>
+      <c r="F295" s="8"/>
+      <c r="G295" s="11"/>
       <c r="H295" s="11"/>
       <c r="I295" s="11"/>
       <c r="J295" s="11"/>
@@ -9775,23 +9635,11 @@
       <c r="P295" s="11"/>
     </row>
     <row r="296" spans="2:16">
-      <c r="B296" s="14">
-        <v>46071</v>
-      </c>
-      <c r="C296" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D296" s="8">
-        <v>312</v>
-      </c>
-      <c r="E296" s="8">
-        <f t="shared" si="6"/>
-        <v>312</v>
-      </c>
-      <c r="F296" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="B296" s="14"/>
+      <c r="C296" s="5"/>
+      <c r="D296" s="8"/>
+      <c r="E296" s="8"/>
+      <c r="F296" s="8"/>
       <c r="G296" s="11"/>
       <c r="H296" s="11"/>
       <c r="I296" s="11"/>
@@ -9804,29 +9652,13 @@
       <c r="P296" s="11"/>
     </row>
     <row r="297" spans="2:16">
-      <c r="B297" s="14">
-        <v>46071</v>
-      </c>
-      <c r="C297" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D297" s="8">
-        <v>1908</v>
-      </c>
-      <c r="E297" s="8">
-        <f t="shared" si="6"/>
-        <v>1888</v>
-      </c>
-      <c r="F297" s="8">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="G297" s="11">
-        <v>10</v>
-      </c>
-      <c r="H297" s="11">
-        <v>10</v>
-      </c>
+      <c r="B297" s="14"/>
+      <c r="C297" s="5"/>
+      <c r="D297" s="8"/>
+      <c r="E297" s="8"/>
+      <c r="F297" s="8"/>
+      <c r="G297" s="11"/>
+      <c r="H297" s="11"/>
       <c r="I297" s="11"/>
       <c r="J297" s="11"/>
       <c r="K297" s="11"/>
@@ -9837,23 +9669,11 @@
       <c r="P297" s="11"/>
     </row>
     <row r="298" spans="2:16">
-      <c r="B298" s="14">
-        <v>46071</v>
-      </c>
-      <c r="C298" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D298" s="8">
-        <v>590</v>
-      </c>
-      <c r="E298" s="8">
-        <f t="shared" si="6"/>
-        <v>590</v>
-      </c>
-      <c r="F298" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="B298" s="14"/>
+      <c r="C298" s="5"/>
+      <c r="D298" s="8"/>
+      <c r="E298" s="8"/>
+      <c r="F298" s="8"/>
       <c r="G298" s="11"/>
       <c r="H298" s="11"/>
       <c r="I298" s="11"/>
@@ -9866,23 +9686,11 @@
       <c r="P298" s="11"/>
     </row>
     <row r="299" spans="2:16">
-      <c r="B299" s="14">
-        <v>46071</v>
-      </c>
-      <c r="C299" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D299" s="8">
-        <v>60</v>
-      </c>
-      <c r="E299" s="8">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="F299" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="B299" s="14"/>
+      <c r="C299" s="5"/>
+      <c r="D299" s="8"/>
+      <c r="E299" s="8"/>
+      <c r="F299" s="8"/>
       <c r="G299" s="11"/>
       <c r="H299" s="11"/>
       <c r="I299" s="11"/>
@@ -9895,23 +9703,11 @@
       <c r="P299" s="11"/>
     </row>
     <row r="300" spans="2:16">
-      <c r="B300" s="14">
-        <v>46071</v>
-      </c>
-      <c r="C300" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D300" s="8">
-        <v>1780</v>
-      </c>
-      <c r="E300" s="8">
-        <f t="shared" si="6"/>
-        <v>1780</v>
-      </c>
-      <c r="F300" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="B300" s="14"/>
+      <c r="C300" s="5"/>
+      <c r="D300" s="8"/>
+      <c r="E300" s="8"/>
+      <c r="F300" s="8"/>
       <c r="G300" s="11"/>
       <c r="H300" s="11"/>
       <c r="I300" s="11"/>
@@ -9924,23 +9720,11 @@
       <c r="P300" s="11"/>
     </row>
     <row r="301" spans="2:16">
-      <c r="B301" s="14">
-        <v>46071</v>
-      </c>
-      <c r="C301" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D301" s="8">
-        <v>1000</v>
-      </c>
-      <c r="E301" s="8">
-        <f t="shared" si="6"/>
-        <v>1000</v>
-      </c>
-      <c r="F301" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="B301" s="14"/>
+      <c r="C301" s="5"/>
+      <c r="D301" s="8"/>
+      <c r="E301" s="8"/>
+      <c r="F301" s="8"/>
       <c r="G301" s="11"/>
       <c r="H301" s="11"/>
       <c r="I301" s="11"/>
@@ -9953,23 +9737,11 @@
       <c r="P301" s="11"/>
     </row>
     <row r="302" spans="2:16">
-      <c r="B302" s="14">
-        <v>46071</v>
-      </c>
-      <c r="C302" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D302" s="8">
-        <v>1200</v>
-      </c>
-      <c r="E302" s="8">
-        <f t="shared" si="6"/>
-        <v>1200</v>
-      </c>
-      <c r="F302" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="B302" s="14"/>
+      <c r="C302" s="5"/>
+      <c r="D302" s="8"/>
+      <c r="E302" s="8"/>
+      <c r="F302" s="8"/>
       <c r="G302" s="11"/>
       <c r="H302" s="11"/>
       <c r="I302" s="11"/>
@@ -9982,23 +9754,11 @@
       <c r="P302" s="11"/>
     </row>
     <row r="303" spans="2:16">
-      <c r="B303" s="14">
-        <v>46071</v>
-      </c>
-      <c r="C303" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D303" s="8">
-        <v>252</v>
-      </c>
-      <c r="E303" s="8">
-        <f t="shared" si="6"/>
-        <v>250</v>
-      </c>
-      <c r="F303" s="8">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
+      <c r="B303" s="14"/>
+      <c r="C303" s="5"/>
+      <c r="D303" s="8"/>
+      <c r="E303" s="8"/>
+      <c r="F303" s="8"/>
       <c r="G303" s="11"/>
       <c r="H303" s="11"/>
       <c r="I303" s="11"/>
@@ -10008,38 +9768,18 @@
       <c r="M303" s="11"/>
       <c r="N303" s="11"/>
       <c r="O303" s="11"/>
-      <c r="P303" s="11">
-        <v>2</v>
-      </c>
+      <c r="P303" s="11"/>
     </row>
     <row r="304" spans="2:16">
-      <c r="B304" s="14">
-        <v>46071</v>
-      </c>
-      <c r="C304" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D304" s="8">
-        <v>814</v>
-      </c>
-      <c r="E304" s="8">
-        <f t="shared" si="6"/>
-        <v>780</v>
-      </c>
-      <c r="F304" s="8">
-        <f t="shared" si="7"/>
-        <v>34</v>
-      </c>
-      <c r="G304" s="11">
-        <v>5</v>
-      </c>
-      <c r="H304" s="11">
-        <v>24</v>
-      </c>
+      <c r="B304" s="14"/>
+      <c r="C304" s="5"/>
+      <c r="D304" s="8"/>
+      <c r="E304" s="8"/>
+      <c r="F304" s="8"/>
+      <c r="G304" s="11"/>
+      <c r="H304" s="11"/>
       <c r="I304" s="11"/>
-      <c r="J304" s="11">
-        <v>5</v>
-      </c>
+      <c r="J304" s="11"/>
       <c r="K304" s="11"/>
       <c r="L304" s="11"/>
       <c r="M304" s="11"/>
@@ -10048,26 +9788,13 @@
       <c r="P304" s="11"/>
     </row>
     <row r="305" spans="2:16">
-      <c r="B305" s="14">
-        <v>46071</v>
-      </c>
-      <c r="C305" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D305" s="8">
-        <v>1622</v>
-      </c>
-      <c r="E305" s="8">
-        <f t="shared" si="6"/>
-        <v>1322</v>
-      </c>
-      <c r="F305" s="8">
-        <v>300</v>
-      </c>
+      <c r="B305" s="14"/>
+      <c r="C305" s="5"/>
+      <c r="D305" s="8"/>
+      <c r="E305" s="8"/>
+      <c r="F305" s="8"/>
       <c r="G305" s="11"/>
-      <c r="H305" s="11">
-        <v>2</v>
-      </c>
+      <c r="H305" s="11"/>
       <c r="I305" s="11"/>
       <c r="J305" s="11"/>
       <c r="K305" s="11"/>
@@ -10078,23 +9805,11 @@
       <c r="P305" s="11"/>
     </row>
     <row r="306" spans="2:16">
-      <c r="B306" s="14">
-        <v>46071</v>
-      </c>
-      <c r="C306" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D306" s="8">
-        <v>720</v>
-      </c>
-      <c r="E306" s="8">
-        <f t="shared" si="6"/>
-        <v>720</v>
-      </c>
-      <c r="F306" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="B306" s="14"/>
+      <c r="C306" s="5"/>
+      <c r="D306" s="8"/>
+      <c r="E306" s="8"/>
+      <c r="F306" s="8"/>
       <c r="G306" s="11"/>
       <c r="H306" s="11"/>
       <c r="I306" s="11"/>
@@ -10107,23 +9822,11 @@
       <c r="P306" s="11"/>
     </row>
     <row r="307" spans="2:16">
-      <c r="B307" s="14">
-        <v>46071</v>
-      </c>
-      <c r="C307" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D307" s="8">
-        <v>786</v>
-      </c>
-      <c r="E307" s="8">
-        <f t="shared" si="6"/>
-        <v>786</v>
-      </c>
-      <c r="F307" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="B307" s="14"/>
+      <c r="C307" s="5"/>
+      <c r="D307" s="8"/>
+      <c r="E307" s="8"/>
+      <c r="F307" s="8"/>
       <c r="G307" s="11"/>
       <c r="H307" s="11"/>
       <c r="I307" s="11"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1131,7 +1131,7 @@
   <dimension ref="B2:Q1040329"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D297" sqref="D297"/>
+      <selection activeCell="E293" sqref="E293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김훈희\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\개인\POWER BI\남도금형 대시보드\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDABF5D4-4A6D-4FD2-8A91-EEBB63CE71A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7FBDE3CB-3BE6-4858-BD36-C283BF315A42}"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2026'!$B$3:$P$162</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="169">
   <si>
     <t>사출 불량 유형</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,12 +535,66 @@
   </si>
   <si>
     <t>BRKT RR BEAM UPR,CTR   86632-CH100</t>
+  </si>
+  <si>
+    <t>NQ5PE COVER HUD BLANKING</t>
+  </si>
+  <si>
+    <t>PANEL ASSY-LWR,RH (84760-5L100)</t>
+  </si>
+  <si>
+    <t>7196 REAR SCREEN BEZEL</t>
+  </si>
+  <si>
+    <t>BRKT-RR CORNER RADAR MTG, LH   866G1-BS010</t>
+  </si>
+  <si>
+    <t>OV1 BRKT RR BUMPER NO.3/4 86627/8-X9500</t>
+  </si>
+  <si>
+    <t>PNL ASSY-CRASH PAD (84760-5H001)(소형)</t>
+  </si>
+  <si>
+    <t>HOLDER-RR ULTRASONIC NO.1/4   86681/4-Q5700</t>
+  </si>
+  <si>
+    <t>PY HOLDER-CUP CONSOLE</t>
+  </si>
+  <si>
+    <t>OV1 BRKT-FR BUMPER FLANGE, L/RH 865A7/8-X9000</t>
+  </si>
+  <si>
+    <t>#7118 Bolt cover</t>
+  </si>
+  <si>
+    <t>SL GUARD-RADIATOR GRILLE UPR </t>
+  </si>
+  <si>
+    <t>PSEV UPR COVER R/GRILLE</t>
+  </si>
+  <si>
+    <t>COVER ASSY-A/C PIPE  상측</t>
+  </si>
+  <si>
+    <t>BRKT-RR DR GARNISH NO.2, LH/RH</t>
+  </si>
+  <si>
+    <t>DECORATION SIDE(SANTORINI BEIGE)</t>
+  </si>
+  <si>
+    <t>태형 휴즈박스(FUSE BOX)</t>
+  </si>
+  <si>
+    <t>CAP-RR HOOK   86617-BS300</t>
+  </si>
+  <si>
+    <t>BRKT-FR BUMPER SIDE UPR,L/RH 86525/6-X9500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
@@ -1127,11 +1182,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BC34A0-7885-4B17-9A44-9155E3A920C9}">
   <dimension ref="B2:Q1040329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E293" sqref="E293"/>
+    <sheetView tabSelected="1" topLeftCell="A379" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E386" sqref="E386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9465,13 +9520,25 @@
       <c r="P285" s="11"/>
     </row>
     <row r="286" spans="2:16">
-      <c r="B286" s="14"/>
-      <c r="C286" s="5"/>
-      <c r="D286" s="8"/>
-      <c r="E286" s="8"/>
-      <c r="F286" s="8"/>
+      <c r="B286" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D286" s="8">
+        <v>1055</v>
+      </c>
+      <c r="E286" s="8">
+        <v>1040</v>
+      </c>
+      <c r="F286" s="8">
+        <v>15</v>
+      </c>
       <c r="G286" s="11"/>
-      <c r="H286" s="11"/>
+      <c r="H286" s="11">
+        <v>15</v>
+      </c>
       <c r="I286" s="11"/>
       <c r="J286" s="11"/>
       <c r="K286" s="11"/>
@@ -9482,12 +9549,24 @@
       <c r="P286" s="11"/>
     </row>
     <row r="287" spans="2:16">
-      <c r="B287" s="14"/>
-      <c r="C287" s="5"/>
-      <c r="D287" s="8"/>
-      <c r="E287" s="8"/>
-      <c r="F287" s="8"/>
-      <c r="G287" s="11"/>
+      <c r="B287" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D287" s="8">
+        <v>284</v>
+      </c>
+      <c r="E287" s="8">
+        <v>280</v>
+      </c>
+      <c r="F287" s="8">
+        <v>4</v>
+      </c>
+      <c r="G287" s="11">
+        <v>4</v>
+      </c>
       <c r="H287" s="11"/>
       <c r="I287" s="11"/>
       <c r="J287" s="11"/>
@@ -9499,30 +9578,54 @@
       <c r="P287" s="11"/>
     </row>
     <row r="288" spans="2:16">
-      <c r="B288" s="14"/>
-      <c r="C288" s="5"/>
-      <c r="D288" s="8"/>
-      <c r="E288" s="8"/>
-      <c r="F288" s="8"/>
+      <c r="B288" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D288" s="8">
+        <v>438</v>
+      </c>
+      <c r="E288" s="8">
+        <v>420</v>
+      </c>
+      <c r="F288" s="8">
+        <v>18</v>
+      </c>
       <c r="G288" s="11"/>
       <c r="H288" s="11"/>
       <c r="I288" s="11"/>
       <c r="J288" s="11"/>
       <c r="K288" s="11"/>
-      <c r="L288" s="11"/>
+      <c r="L288" s="11">
+        <v>18</v>
+      </c>
       <c r="M288" s="11"/>
       <c r="N288" s="11"/>
       <c r="O288" s="11"/>
       <c r="P288" s="11"/>
     </row>
     <row r="289" spans="2:16">
-      <c r="B289" s="14"/>
-      <c r="C289" s="5"/>
-      <c r="D289" s="8"/>
-      <c r="E289" s="8"/>
-      <c r="F289" s="8"/>
+      <c r="B289" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D289" s="8">
+        <v>451</v>
+      </c>
+      <c r="E289" s="8">
+        <v>420</v>
+      </c>
+      <c r="F289" s="8">
+        <v>31</v>
+      </c>
       <c r="G289" s="11"/>
-      <c r="H289" s="11"/>
+      <c r="H289" s="11">
+        <v>31</v>
+      </c>
       <c r="I289" s="11"/>
       <c r="J289" s="11"/>
       <c r="K289" s="11"/>
@@ -9533,28 +9636,52 @@
       <c r="P289" s="11"/>
     </row>
     <row r="290" spans="2:16">
-      <c r="B290" s="14"/>
-      <c r="C290" s="5"/>
-      <c r="D290" s="8"/>
-      <c r="E290" s="8"/>
-      <c r="F290" s="8"/>
+      <c r="B290" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D290" s="8">
+        <v>241</v>
+      </c>
+      <c r="E290" s="8">
+        <v>228</v>
+      </c>
+      <c r="F290" s="8">
+        <v>13</v>
+      </c>
       <c r="G290" s="11"/>
       <c r="H290" s="11"/>
       <c r="I290" s="11"/>
       <c r="J290" s="11"/>
       <c r="K290" s="11"/>
-      <c r="L290" s="11"/>
+      <c r="L290" s="11">
+        <v>8</v>
+      </c>
       <c r="M290" s="11"/>
       <c r="N290" s="11"/>
       <c r="O290" s="11"/>
-      <c r="P290" s="11"/>
+      <c r="P290" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="291" spans="2:16">
-      <c r="B291" s="14"/>
-      <c r="C291" s="5"/>
-      <c r="D291" s="8"/>
-      <c r="E291" s="8"/>
-      <c r="F291" s="8"/>
+      <c r="B291" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D291" s="8">
+        <v>90</v>
+      </c>
+      <c r="E291" s="8">
+        <v>90</v>
+      </c>
+      <c r="F291" s="8">
+        <v>0</v>
+      </c>
       <c r="G291" s="11"/>
       <c r="H291" s="11"/>
       <c r="I291" s="11"/>
@@ -9567,30 +9694,56 @@
       <c r="P291" s="11"/>
     </row>
     <row r="292" spans="2:16">
-      <c r="B292" s="14"/>
-      <c r="C292" s="5"/>
-      <c r="D292" s="8"/>
-      <c r="E292" s="8"/>
-      <c r="F292" s="8"/>
+      <c r="B292" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D292" s="8">
+        <v>761</v>
+      </c>
+      <c r="E292" s="8">
+        <v>730</v>
+      </c>
+      <c r="F292" s="8">
+        <v>31</v>
+      </c>
       <c r="G292" s="11"/>
-      <c r="H292" s="11"/>
+      <c r="H292" s="11">
+        <v>10</v>
+      </c>
       <c r="I292" s="11"/>
       <c r="J292" s="11"/>
       <c r="K292" s="11"/>
-      <c r="L292" s="11"/>
+      <c r="L292" s="11">
+        <v>21</v>
+      </c>
       <c r="M292" s="11"/>
       <c r="N292" s="11"/>
       <c r="O292" s="11"/>
       <c r="P292" s="11"/>
     </row>
     <row r="293" spans="2:16">
-      <c r="B293" s="14"/>
-      <c r="C293" s="5"/>
-      <c r="D293" s="8"/>
-      <c r="E293" s="8"/>
-      <c r="F293" s="8"/>
+      <c r="B293" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D293" s="8">
+        <v>838</v>
+      </c>
+      <c r="E293" s="8">
+        <v>830</v>
+      </c>
+      <c r="F293" s="8">
+        <v>8</v>
+      </c>
       <c r="G293" s="11"/>
-      <c r="H293" s="11"/>
+      <c r="H293" s="11">
+        <v>8</v>
+      </c>
       <c r="I293" s="11"/>
       <c r="J293" s="11"/>
       <c r="K293" s="11"/>
@@ -9601,13 +9754,25 @@
       <c r="P293" s="11"/>
     </row>
     <row r="294" spans="2:16">
-      <c r="B294" s="14"/>
-      <c r="C294" s="5"/>
-      <c r="D294" s="8"/>
-      <c r="E294" s="8"/>
-      <c r="F294" s="8"/>
+      <c r="B294" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D294" s="8">
+        <v>2119</v>
+      </c>
+      <c r="E294" s="8">
+        <v>2090</v>
+      </c>
+      <c r="F294" s="8">
+        <v>29</v>
+      </c>
       <c r="G294" s="11"/>
-      <c r="H294" s="11"/>
+      <c r="H294" s="11">
+        <v>29</v>
+      </c>
       <c r="I294" s="11"/>
       <c r="J294" s="11"/>
       <c r="K294" s="11"/>
@@ -9618,13 +9783,25 @@
       <c r="P294" s="11"/>
     </row>
     <row r="295" spans="2:16">
-      <c r="B295" s="14"/>
-      <c r="C295" s="5"/>
-      <c r="D295" s="8"/>
-      <c r="E295" s="8"/>
-      <c r="F295" s="8"/>
+      <c r="B295" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D295" s="8">
+        <v>262</v>
+      </c>
+      <c r="E295" s="8">
+        <v>240</v>
+      </c>
+      <c r="F295" s="8">
+        <v>22</v>
+      </c>
       <c r="G295" s="11"/>
-      <c r="H295" s="11"/>
+      <c r="H295" s="11">
+        <v>22</v>
+      </c>
       <c r="I295" s="11"/>
       <c r="J295" s="11"/>
       <c r="K295" s="11"/>
@@ -9635,13 +9812,25 @@
       <c r="P295" s="11"/>
     </row>
     <row r="296" spans="2:16">
-      <c r="B296" s="14"/>
-      <c r="C296" s="5"/>
-      <c r="D296" s="8"/>
-      <c r="E296" s="8"/>
-      <c r="F296" s="8"/>
+      <c r="B296" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D296" s="8">
+        <v>619</v>
+      </c>
+      <c r="E296" s="8">
+        <v>592</v>
+      </c>
+      <c r="F296" s="8">
+        <v>27</v>
+      </c>
       <c r="G296" s="11"/>
-      <c r="H296" s="11"/>
+      <c r="H296" s="11">
+        <v>27</v>
+      </c>
       <c r="I296" s="11"/>
       <c r="J296" s="11"/>
       <c r="K296" s="11"/>
@@ -9652,13 +9841,27 @@
       <c r="P296" s="11"/>
     </row>
     <row r="297" spans="2:16">
-      <c r="B297" s="14"/>
-      <c r="C297" s="5"/>
-      <c r="D297" s="8"/>
-      <c r="E297" s="8"/>
-      <c r="F297" s="8"/>
-      <c r="G297" s="11"/>
-      <c r="H297" s="11"/>
+      <c r="B297" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D297" s="8">
+        <v>564</v>
+      </c>
+      <c r="E297" s="8">
+        <v>560</v>
+      </c>
+      <c r="F297" s="8">
+        <v>4</v>
+      </c>
+      <c r="G297" s="11">
+        <v>2</v>
+      </c>
+      <c r="H297" s="11">
+        <v>2</v>
+      </c>
       <c r="I297" s="11"/>
       <c r="J297" s="11"/>
       <c r="K297" s="11"/>
@@ -9669,13 +9872,25 @@
       <c r="P297" s="11"/>
     </row>
     <row r="298" spans="2:16">
-      <c r="B298" s="14"/>
-      <c r="C298" s="5"/>
-      <c r="D298" s="8"/>
-      <c r="E298" s="8"/>
-      <c r="F298" s="8"/>
+      <c r="B298" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D298" s="8">
+        <v>713</v>
+      </c>
+      <c r="E298" s="8">
+        <v>704</v>
+      </c>
+      <c r="F298" s="8">
+        <v>9</v>
+      </c>
       <c r="G298" s="11"/>
-      <c r="H298" s="11"/>
+      <c r="H298" s="11">
+        <v>9</v>
+      </c>
       <c r="I298" s="11"/>
       <c r="J298" s="11"/>
       <c r="K298" s="11"/>
@@ -9686,12 +9901,24 @@
       <c r="P298" s="11"/>
     </row>
     <row r="299" spans="2:16">
-      <c r="B299" s="14"/>
-      <c r="C299" s="5"/>
-      <c r="D299" s="8"/>
-      <c r="E299" s="8"/>
-      <c r="F299" s="8"/>
-      <c r="G299" s="11"/>
+      <c r="B299" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D299" s="8">
+        <v>582</v>
+      </c>
+      <c r="E299" s="8">
+        <v>580</v>
+      </c>
+      <c r="F299" s="8">
+        <v>2</v>
+      </c>
+      <c r="G299" s="11">
+        <v>2</v>
+      </c>
       <c r="H299" s="11"/>
       <c r="I299" s="11"/>
       <c r="J299" s="11"/>
@@ -9703,11 +9930,21 @@
       <c r="P299" s="11"/>
     </row>
     <row r="300" spans="2:16">
-      <c r="B300" s="14"/>
-      <c r="C300" s="5"/>
-      <c r="D300" s="8"/>
-      <c r="E300" s="8"/>
-      <c r="F300" s="8"/>
+      <c r="B300" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D300" s="8">
+        <v>1936</v>
+      </c>
+      <c r="E300" s="8">
+        <v>1936</v>
+      </c>
+      <c r="F300" s="8">
+        <v>0</v>
+      </c>
       <c r="G300" s="11"/>
       <c r="H300" s="11"/>
       <c r="I300" s="11"/>
@@ -9720,13 +9957,25 @@
       <c r="P300" s="11"/>
     </row>
     <row r="301" spans="2:16">
-      <c r="B301" s="14"/>
-      <c r="C301" s="5"/>
-      <c r="D301" s="8"/>
-      <c r="E301" s="8"/>
-      <c r="F301" s="8"/>
+      <c r="B301" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D301" s="8">
+        <v>2675</v>
+      </c>
+      <c r="E301" s="8">
+        <v>2666</v>
+      </c>
+      <c r="F301" s="8">
+        <v>9</v>
+      </c>
       <c r="G301" s="11"/>
-      <c r="H301" s="11"/>
+      <c r="H301" s="11">
+        <v>9</v>
+      </c>
       <c r="I301" s="11"/>
       <c r="J301" s="11"/>
       <c r="K301" s="11"/>
@@ -9737,11 +9986,21 @@
       <c r="P301" s="11"/>
     </row>
     <row r="302" spans="2:16">
-      <c r="B302" s="14"/>
-      <c r="C302" s="5"/>
-      <c r="D302" s="8"/>
-      <c r="E302" s="8"/>
-      <c r="F302" s="8"/>
+      <c r="B302" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D302" s="8">
+        <v>540</v>
+      </c>
+      <c r="E302" s="8">
+        <v>540</v>
+      </c>
+      <c r="F302" s="8">
+        <v>0</v>
+      </c>
       <c r="G302" s="11"/>
       <c r="H302" s="11"/>
       <c r="I302" s="11"/>
@@ -9754,13 +10013,25 @@
       <c r="P302" s="11"/>
     </row>
     <row r="303" spans="2:16">
-      <c r="B303" s="14"/>
-      <c r="C303" s="5"/>
-      <c r="D303" s="8"/>
-      <c r="E303" s="8"/>
-      <c r="F303" s="8"/>
+      <c r="B303" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D303" s="8">
+        <v>902</v>
+      </c>
+      <c r="E303" s="8">
+        <v>900</v>
+      </c>
+      <c r="F303" s="8">
+        <v>2</v>
+      </c>
       <c r="G303" s="11"/>
-      <c r="H303" s="11"/>
+      <c r="H303" s="11">
+        <v>2</v>
+      </c>
       <c r="I303" s="11"/>
       <c r="J303" s="11"/>
       <c r="K303" s="11"/>
@@ -9771,11 +10042,21 @@
       <c r="P303" s="11"/>
     </row>
     <row r="304" spans="2:16">
-      <c r="B304" s="14"/>
-      <c r="C304" s="5"/>
-      <c r="D304" s="8"/>
-      <c r="E304" s="8"/>
-      <c r="F304" s="8"/>
+      <c r="B304" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D304" s="8">
+        <v>1174</v>
+      </c>
+      <c r="E304" s="8">
+        <v>1174</v>
+      </c>
+      <c r="F304" s="8">
+        <v>0</v>
+      </c>
       <c r="G304" s="11"/>
       <c r="H304" s="11"/>
       <c r="I304" s="11"/>
@@ -9788,11 +10069,21 @@
       <c r="P304" s="11"/>
     </row>
     <row r="305" spans="2:16">
-      <c r="B305" s="14"/>
-      <c r="C305" s="5"/>
-      <c r="D305" s="8"/>
-      <c r="E305" s="8"/>
-      <c r="F305" s="8"/>
+      <c r="B305" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D305" s="8">
+        <v>2450</v>
+      </c>
+      <c r="E305" s="8">
+        <v>2450</v>
+      </c>
+      <c r="F305" s="8">
+        <v>0</v>
+      </c>
       <c r="G305" s="11"/>
       <c r="H305" s="11"/>
       <c r="I305" s="11"/>
@@ -9805,13 +10096,25 @@
       <c r="P305" s="11"/>
     </row>
     <row r="306" spans="2:16">
-      <c r="B306" s="14"/>
-      <c r="C306" s="5"/>
-      <c r="D306" s="8"/>
-      <c r="E306" s="8"/>
-      <c r="F306" s="8"/>
+      <c r="B306" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D306" s="8">
+        <v>1364</v>
+      </c>
+      <c r="E306" s="8">
+        <v>1360</v>
+      </c>
+      <c r="F306" s="8">
+        <v>4</v>
+      </c>
       <c r="G306" s="11"/>
-      <c r="H306" s="11"/>
+      <c r="H306" s="11">
+        <v>4</v>
+      </c>
       <c r="I306" s="11"/>
       <c r="J306" s="11"/>
       <c r="K306" s="11"/>
@@ -9822,13 +10125,25 @@
       <c r="P306" s="11"/>
     </row>
     <row r="307" spans="2:16">
-      <c r="B307" s="14"/>
-      <c r="C307" s="5"/>
-      <c r="D307" s="8"/>
-      <c r="E307" s="8"/>
-      <c r="F307" s="8"/>
+      <c r="B307" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" s="8">
+        <v>1364</v>
+      </c>
+      <c r="E307" s="8">
+        <v>1360</v>
+      </c>
+      <c r="F307" s="8">
+        <v>4</v>
+      </c>
       <c r="G307" s="11"/>
-      <c r="H307" s="11"/>
+      <c r="H307" s="11">
+        <v>4</v>
+      </c>
       <c r="I307" s="11"/>
       <c r="J307" s="11"/>
       <c r="K307" s="11"/>
@@ -9839,11 +10154,21 @@
       <c r="P307" s="11"/>
     </row>
     <row r="308" spans="2:16">
-      <c r="B308" s="14"/>
-      <c r="C308" s="5"/>
-      <c r="D308" s="8"/>
-      <c r="E308" s="8"/>
-      <c r="F308" s="8"/>
+      <c r="B308" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D308" s="8">
+        <v>317</v>
+      </c>
+      <c r="E308" s="8">
+        <v>317</v>
+      </c>
+      <c r="F308" s="8">
+        <v>0</v>
+      </c>
       <c r="G308" s="11"/>
       <c r="H308" s="11"/>
       <c r="I308" s="11"/>
@@ -9856,13 +10181,25 @@
       <c r="P308" s="11"/>
     </row>
     <row r="309" spans="2:16">
-      <c r="B309" s="14"/>
-      <c r="C309" s="5"/>
-      <c r="D309" s="8"/>
-      <c r="E309" s="8"/>
-      <c r="F309" s="8"/>
+      <c r="B309" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D309" s="8">
+        <v>831</v>
+      </c>
+      <c r="E309" s="8">
+        <v>800</v>
+      </c>
+      <c r="F309" s="8">
+        <v>31</v>
+      </c>
       <c r="G309" s="11"/>
-      <c r="H309" s="11"/>
+      <c r="H309" s="11">
+        <v>31</v>
+      </c>
       <c r="I309" s="11"/>
       <c r="J309" s="11"/>
       <c r="K309" s="11"/>
@@ -9873,14 +10210,30 @@
       <c r="P309" s="11"/>
     </row>
     <row r="310" spans="2:16">
-      <c r="B310" s="14"/>
-      <c r="C310" s="5"/>
-      <c r="D310" s="8"/>
-      <c r="E310" s="8"/>
-      <c r="F310" s="8"/>
-      <c r="G310" s="11"/>
-      <c r="H310" s="11"/>
-      <c r="I310" s="11"/>
+      <c r="B310" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D310" s="8">
+        <v>799</v>
+      </c>
+      <c r="E310" s="8">
+        <v>736</v>
+      </c>
+      <c r="F310" s="8">
+        <v>63</v>
+      </c>
+      <c r="G310" s="11">
+        <v>10</v>
+      </c>
+      <c r="H310" s="11">
+        <v>33</v>
+      </c>
+      <c r="I310" s="11">
+        <v>20</v>
+      </c>
       <c r="J310" s="11"/>
       <c r="K310" s="11"/>
       <c r="L310" s="11"/>
@@ -9890,12 +10243,24 @@
       <c r="P310" s="11"/>
     </row>
     <row r="311" spans="2:16">
-      <c r="B311" s="14"/>
-      <c r="C311" s="5"/>
-      <c r="D311" s="8"/>
-      <c r="E311" s="8"/>
-      <c r="F311" s="8"/>
-      <c r="G311" s="11"/>
+      <c r="B311" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D311" s="8">
+        <v>1878</v>
+      </c>
+      <c r="E311" s="8">
+        <v>1874</v>
+      </c>
+      <c r="F311" s="8">
+        <v>4</v>
+      </c>
+      <c r="G311" s="11">
+        <v>4</v>
+      </c>
       <c r="H311" s="11"/>
       <c r="I311" s="11"/>
       <c r="J311" s="11"/>
@@ -9907,13 +10272,25 @@
       <c r="P311" s="11"/>
     </row>
     <row r="312" spans="2:16">
-      <c r="B312" s="14"/>
-      <c r="C312" s="5"/>
-      <c r="D312" s="8"/>
-      <c r="E312" s="8"/>
-      <c r="F312" s="8"/>
+      <c r="B312" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D312" s="8">
+        <v>2599</v>
+      </c>
+      <c r="E312" s="8">
+        <v>2592</v>
+      </c>
+      <c r="F312" s="8">
+        <v>7</v>
+      </c>
       <c r="G312" s="11"/>
-      <c r="H312" s="11"/>
+      <c r="H312" s="11">
+        <v>7</v>
+      </c>
       <c r="I312" s="11"/>
       <c r="J312" s="11"/>
       <c r="K312" s="11"/>
@@ -9924,11 +10301,21 @@
       <c r="P312" s="11"/>
     </row>
     <row r="313" spans="2:16">
-      <c r="B313" s="14"/>
-      <c r="C313" s="5"/>
-      <c r="D313" s="8"/>
-      <c r="E313" s="8"/>
-      <c r="F313" s="8"/>
+      <c r="B313" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D313" s="8">
+        <v>6934</v>
+      </c>
+      <c r="E313" s="8">
+        <v>6927</v>
+      </c>
+      <c r="F313" s="8">
+        <v>7</v>
+      </c>
       <c r="G313" s="11"/>
       <c r="H313" s="11"/>
       <c r="I313" s="11"/>
@@ -9936,16 +10323,28 @@
       <c r="K313" s="11"/>
       <c r="L313" s="11"/>
       <c r="M313" s="11"/>
-      <c r="N313" s="11"/>
+      <c r="N313" s="11">
+        <v>7</v>
+      </c>
       <c r="O313" s="11"/>
       <c r="P313" s="11"/>
     </row>
     <row r="314" spans="2:16">
-      <c r="B314" s="14"/>
-      <c r="C314" s="5"/>
-      <c r="D314" s="8"/>
-      <c r="E314" s="8"/>
-      <c r="F314" s="8"/>
+      <c r="B314" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D314" s="8">
+        <v>439</v>
+      </c>
+      <c r="E314" s="8">
+        <v>439</v>
+      </c>
+      <c r="F314" s="8">
+        <v>0</v>
+      </c>
       <c r="G314" s="11"/>
       <c r="H314" s="11"/>
       <c r="I314" s="11"/>
@@ -9958,13 +10357,25 @@
       <c r="P314" s="11"/>
     </row>
     <row r="315" spans="2:16">
-      <c r="B315" s="14"/>
-      <c r="C315" s="5"/>
-      <c r="D315" s="8"/>
-      <c r="E315" s="8"/>
-      <c r="F315" s="8"/>
+      <c r="B315" s="14">
+        <v>46060</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D315" s="8">
+        <v>1974</v>
+      </c>
+      <c r="E315" s="8">
+        <v>1968</v>
+      </c>
+      <c r="F315" s="8">
+        <v>6</v>
+      </c>
       <c r="G315" s="11"/>
-      <c r="H315" s="11"/>
+      <c r="H315" s="11">
+        <v>6</v>
+      </c>
       <c r="I315" s="11"/>
       <c r="J315" s="11"/>
       <c r="K315" s="11"/>
@@ -9974,6 +10385,1897 @@
       <c r="O315" s="11"/>
       <c r="P315" s="11"/>
     </row>
+    <row r="316" spans="2:16">
+      <c r="B316" s="14">
+        <v>46062</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D316" s="9">
+        <v>703</v>
+      </c>
+      <c r="E316" s="9">
+        <v>690</v>
+      </c>
+      <c r="F316" s="9">
+        <v>13</v>
+      </c>
+      <c r="G316" s="12">
+        <v>6</v>
+      </c>
+      <c r="H316" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" spans="2:16">
+      <c r="B317" s="14">
+        <v>46062</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D317" s="9">
+        <v>374</v>
+      </c>
+      <c r="E317" s="9">
+        <v>374</v>
+      </c>
+      <c r="F317" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="2:16">
+      <c r="B318" s="14">
+        <v>46062</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D318" s="9">
+        <v>152</v>
+      </c>
+      <c r="E318" s="9">
+        <v>150</v>
+      </c>
+      <c r="F318" s="9">
+        <v>2</v>
+      </c>
+      <c r="H318" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="2:16">
+      <c r="B319" s="14">
+        <v>46062</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D319" s="9">
+        <v>312</v>
+      </c>
+      <c r="E319" s="9">
+        <v>308</v>
+      </c>
+      <c r="F319" s="9">
+        <v>4</v>
+      </c>
+      <c r="G319" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="2:16">
+      <c r="B320" s="14">
+        <v>46062</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D320" s="9">
+        <v>494</v>
+      </c>
+      <c r="E320" s="9">
+        <v>490</v>
+      </c>
+      <c r="F320" s="9">
+        <v>4</v>
+      </c>
+      <c r="H320" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="2:10">
+      <c r="B321" s="14">
+        <v>46062</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D321" s="9">
+        <v>1200</v>
+      </c>
+      <c r="E321" s="9">
+        <v>1200</v>
+      </c>
+      <c r="F321" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="2:10">
+      <c r="B322" s="14">
+        <v>46062</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D322" s="9">
+        <v>330</v>
+      </c>
+      <c r="E322" s="9">
+        <v>312</v>
+      </c>
+      <c r="F322" s="9">
+        <v>18</v>
+      </c>
+      <c r="H322" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="323" spans="2:10">
+      <c r="B323" s="14">
+        <v>46062</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D323" s="9">
+        <v>336</v>
+      </c>
+      <c r="E323" s="9">
+        <v>330</v>
+      </c>
+      <c r="F323" s="9">
+        <v>6</v>
+      </c>
+      <c r="G323" s="12">
+        <v>2</v>
+      </c>
+      <c r="H323" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="2:10">
+      <c r="B324" s="14">
+        <v>46062</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D324" s="9">
+        <v>338</v>
+      </c>
+      <c r="E324" s="9">
+        <v>330</v>
+      </c>
+      <c r="F324" s="9">
+        <v>8</v>
+      </c>
+      <c r="G324" s="12">
+        <v>2</v>
+      </c>
+      <c r="H324" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="2:10">
+      <c r="B325" s="14">
+        <v>46062</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D325" s="9">
+        <v>1700</v>
+      </c>
+      <c r="E325" s="9">
+        <v>1700</v>
+      </c>
+      <c r="F325" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="2:10">
+      <c r="B326" s="14">
+        <v>46062</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D326" s="9">
+        <v>591</v>
+      </c>
+      <c r="E326" s="9">
+        <v>570</v>
+      </c>
+      <c r="F326" s="9">
+        <v>21</v>
+      </c>
+      <c r="J326" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="327" spans="2:10">
+      <c r="B327" s="14">
+        <v>46062</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D327" s="9">
+        <v>1440</v>
+      </c>
+      <c r="E327" s="9">
+        <v>1440</v>
+      </c>
+      <c r="F327" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="2:10">
+      <c r="B328" s="14">
+        <v>46062</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D328" s="9">
+        <v>139</v>
+      </c>
+      <c r="E328" s="9">
+        <v>130</v>
+      </c>
+      <c r="F328" s="9">
+        <v>9</v>
+      </c>
+      <c r="G328" s="12">
+        <v>5</v>
+      </c>
+      <c r="H328" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="2:10">
+      <c r="B329" s="14">
+        <v>46062</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D329" s="9">
+        <v>1038</v>
+      </c>
+      <c r="E329" s="9">
+        <v>1020</v>
+      </c>
+      <c r="F329" s="9">
+        <v>18</v>
+      </c>
+      <c r="G329" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="330" spans="2:10">
+      <c r="B330" s="14">
+        <v>46062</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D330" s="9">
+        <v>224</v>
+      </c>
+      <c r="E330" s="9">
+        <v>224</v>
+      </c>
+      <c r="F330" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="2:10">
+      <c r="B331" s="14">
+        <v>46062</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D331" s="9">
+        <v>1384</v>
+      </c>
+      <c r="E331" s="9">
+        <v>1380</v>
+      </c>
+      <c r="F331" s="9">
+        <v>4</v>
+      </c>
+      <c r="H331" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="2:10">
+      <c r="B332" s="14">
+        <v>46062</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D332" s="9">
+        <v>1328</v>
+      </c>
+      <c r="E332" s="9">
+        <v>1328</v>
+      </c>
+      <c r="F332" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="2:10">
+      <c r="B333" s="14">
+        <v>46062</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D333" s="9">
+        <v>50</v>
+      </c>
+      <c r="E333" s="9">
+        <v>50</v>
+      </c>
+      <c r="F333" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="2:10">
+      <c r="B334" s="14">
+        <v>46062</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D334" s="9">
+        <v>160</v>
+      </c>
+      <c r="E334" s="9">
+        <v>160</v>
+      </c>
+      <c r="F334" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="2:10">
+      <c r="B335" s="14">
+        <v>46062</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D335" s="9">
+        <v>50</v>
+      </c>
+      <c r="E335" s="9">
+        <v>50</v>
+      </c>
+      <c r="F335" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="2:10">
+      <c r="B336" s="14">
+        <v>46062</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D336" s="9">
+        <v>452</v>
+      </c>
+      <c r="E336" s="9">
+        <v>420</v>
+      </c>
+      <c r="F336" s="9">
+        <v>32</v>
+      </c>
+      <c r="H336" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="337" spans="2:8">
+      <c r="B337" s="14">
+        <v>46062</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D337" s="9">
+        <v>208</v>
+      </c>
+      <c r="E337" s="9">
+        <v>208</v>
+      </c>
+      <c r="F337" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="2:8">
+      <c r="B338" s="14">
+        <v>46062</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D338" s="9">
+        <v>183</v>
+      </c>
+      <c r="E338" s="9">
+        <v>183</v>
+      </c>
+      <c r="F338" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="2:8">
+      <c r="B339" s="14">
+        <v>46062</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D339" s="9">
+        <v>418</v>
+      </c>
+      <c r="E339" s="9">
+        <v>418</v>
+      </c>
+      <c r="F339" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="2:8">
+      <c r="B340" s="14">
+        <v>46062</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D340" s="9">
+        <v>589</v>
+      </c>
+      <c r="E340" s="9">
+        <v>589</v>
+      </c>
+      <c r="F340" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="2:8">
+      <c r="B341" s="14">
+        <v>46063</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D341" s="9">
+        <v>240</v>
+      </c>
+      <c r="E341" s="9">
+        <v>240</v>
+      </c>
+      <c r="F341" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="2:8">
+      <c r="B342" s="14">
+        <v>46063</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D342" s="9">
+        <v>260</v>
+      </c>
+      <c r="E342" s="9">
+        <v>260</v>
+      </c>
+      <c r="F342" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="2:8">
+      <c r="B343" s="14">
+        <v>46063</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D343" s="9">
+        <v>380</v>
+      </c>
+      <c r="E343" s="9">
+        <v>369</v>
+      </c>
+      <c r="F343" s="9">
+        <v>11</v>
+      </c>
+      <c r="H343" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="344" spans="2:8">
+      <c r="B344" s="14">
+        <v>46063</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D344" s="9">
+        <v>119</v>
+      </c>
+      <c r="E344" s="9">
+        <v>110</v>
+      </c>
+      <c r="F344" s="9">
+        <v>9</v>
+      </c>
+      <c r="G344" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="2:8">
+      <c r="B345" s="14">
+        <v>46063</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D345" s="9">
+        <v>500</v>
+      </c>
+      <c r="E345" s="9">
+        <v>500</v>
+      </c>
+      <c r="F345" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="2:8">
+      <c r="B346" s="14">
+        <v>46063</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D346" s="9">
+        <v>199</v>
+      </c>
+      <c r="E346" s="9">
+        <v>190</v>
+      </c>
+      <c r="F346" s="9">
+        <v>9</v>
+      </c>
+      <c r="G346" s="12">
+        <v>5</v>
+      </c>
+      <c r="H346" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="2:8">
+      <c r="B347" s="14">
+        <v>46063</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D347" s="9">
+        <v>304</v>
+      </c>
+      <c r="E347" s="9">
+        <v>304</v>
+      </c>
+      <c r="F347" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="2:8">
+      <c r="B348" s="14">
+        <v>46063</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D348" s="9">
+        <v>144</v>
+      </c>
+      <c r="E348" s="9">
+        <v>140</v>
+      </c>
+      <c r="F348" s="9">
+        <v>4</v>
+      </c>
+      <c r="H348" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="2:8">
+      <c r="B349" s="14">
+        <v>46063</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D349" s="9">
+        <v>1280</v>
+      </c>
+      <c r="E349" s="9">
+        <v>1280</v>
+      </c>
+      <c r="F349" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="2:8">
+      <c r="B350" s="14">
+        <v>46063</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D350" s="9">
+        <v>98</v>
+      </c>
+      <c r="E350" s="9">
+        <v>98</v>
+      </c>
+      <c r="F350" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="2:8">
+      <c r="B351" s="14">
+        <v>46063</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D351" s="9">
+        <v>386</v>
+      </c>
+      <c r="E351" s="9">
+        <v>380</v>
+      </c>
+      <c r="F351" s="9">
+        <v>6</v>
+      </c>
+      <c r="H351" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="352" spans="2:8">
+      <c r="B352" s="14">
+        <v>46063</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D352" s="9">
+        <v>386</v>
+      </c>
+      <c r="E352" s="9">
+        <v>380</v>
+      </c>
+      <c r="F352" s="9">
+        <v>6</v>
+      </c>
+      <c r="H352" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="353" spans="2:16">
+      <c r="B353" s="14">
+        <v>46063</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D353" s="9">
+        <v>1620</v>
+      </c>
+      <c r="E353" s="9">
+        <v>1620</v>
+      </c>
+      <c r="F353" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="2:16">
+      <c r="B354" s="14">
+        <v>46063</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D354" s="9">
+        <v>567</v>
+      </c>
+      <c r="E354" s="9">
+        <v>530</v>
+      </c>
+      <c r="F354" s="9">
+        <v>37</v>
+      </c>
+      <c r="J354" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="355" spans="2:16">
+      <c r="B355" s="14">
+        <v>46063</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D355" s="9">
+        <v>1058</v>
+      </c>
+      <c r="E355" s="9">
+        <v>1056</v>
+      </c>
+      <c r="F355" s="9">
+        <v>2</v>
+      </c>
+      <c r="J355" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="2:16">
+      <c r="B356" s="14">
+        <v>46063</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D356" s="9">
+        <v>410</v>
+      </c>
+      <c r="E356" s="9">
+        <v>410</v>
+      </c>
+      <c r="F356" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="2:16">
+      <c r="B357" s="14">
+        <v>46063</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D357" s="9">
+        <v>336</v>
+      </c>
+      <c r="E357" s="9">
+        <v>336</v>
+      </c>
+      <c r="F357" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="2:16">
+      <c r="B358" s="14">
+        <v>46063</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D358" s="9">
+        <v>1080</v>
+      </c>
+      <c r="E358" s="9">
+        <v>1080</v>
+      </c>
+      <c r="F358" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="2:16">
+      <c r="B359" s="14">
+        <v>46063</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D359" s="9">
+        <v>150</v>
+      </c>
+      <c r="E359" s="9">
+        <v>150</v>
+      </c>
+      <c r="F359" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="2:16">
+      <c r="B360" s="14">
+        <v>46063</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D360" s="9">
+        <v>230</v>
+      </c>
+      <c r="E360" s="9">
+        <v>230</v>
+      </c>
+      <c r="F360" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="2:16">
+      <c r="B361" s="14">
+        <v>46063</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D361" s="9">
+        <v>1128</v>
+      </c>
+      <c r="E361" s="9">
+        <v>1128</v>
+      </c>
+      <c r="F361" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="2:16">
+      <c r="B362" s="14">
+        <v>46063</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D362" s="9">
+        <v>304</v>
+      </c>
+      <c r="E362" s="9">
+        <v>300</v>
+      </c>
+      <c r="F362" s="9">
+        <v>4</v>
+      </c>
+      <c r="P362" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="2:16">
+      <c r="B363" s="14">
+        <v>46063</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D363" s="9">
+        <v>389</v>
+      </c>
+      <c r="E363" s="9">
+        <v>360</v>
+      </c>
+      <c r="F363" s="9">
+        <v>29</v>
+      </c>
+      <c r="H363" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="364" spans="2:16">
+      <c r="B364" s="14">
+        <v>46063</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D364" s="9">
+        <v>1374</v>
+      </c>
+      <c r="E364" s="9">
+        <v>1374</v>
+      </c>
+      <c r="F364" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="2:16">
+      <c r="B365" s="14">
+        <v>46063</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D365" s="9">
+        <v>1954</v>
+      </c>
+      <c r="E365" s="9">
+        <v>1936</v>
+      </c>
+      <c r="F365" s="9">
+        <v>18</v>
+      </c>
+      <c r="H365" s="12">
+        <v>17</v>
+      </c>
+      <c r="P365" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="2:16">
+      <c r="B366" s="14">
+        <v>46064</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D366" s="9">
+        <v>525</v>
+      </c>
+      <c r="E366" s="9">
+        <v>510</v>
+      </c>
+      <c r="F366" s="9">
+        <v>15</v>
+      </c>
+      <c r="G366" s="12">
+        <v>8</v>
+      </c>
+      <c r="H366" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367" spans="2:16">
+      <c r="B367" s="14">
+        <v>46064</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D367" s="9">
+        <v>189</v>
+      </c>
+      <c r="E367" s="9">
+        <v>180</v>
+      </c>
+      <c r="F367" s="9">
+        <v>9</v>
+      </c>
+      <c r="G367" s="12">
+        <v>7</v>
+      </c>
+      <c r="H367" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="2:16">
+      <c r="B368" s="14">
+        <v>46064</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D368" s="9">
+        <v>170</v>
+      </c>
+      <c r="E368" s="9">
+        <v>170</v>
+      </c>
+      <c r="F368" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="2:16">
+      <c r="B369" s="14">
+        <v>46064</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D369" s="9">
+        <v>25</v>
+      </c>
+      <c r="E369" s="9">
+        <v>25</v>
+      </c>
+      <c r="F369" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="2:16">
+      <c r="B370" s="14">
+        <v>46064</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D370" s="9">
+        <v>120</v>
+      </c>
+      <c r="E370" s="9">
+        <v>120</v>
+      </c>
+      <c r="F370" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="2:16">
+      <c r="B371" s="14">
+        <v>46064</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D371" s="9">
+        <v>116</v>
+      </c>
+      <c r="E371" s="9">
+        <v>116</v>
+      </c>
+      <c r="F371" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="2:16">
+      <c r="B372" s="14">
+        <v>46064</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D372" s="9">
+        <v>200</v>
+      </c>
+      <c r="E372" s="9">
+        <v>200</v>
+      </c>
+      <c r="F372" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="2:16">
+      <c r="B373" s="14">
+        <v>46064</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D373" s="9">
+        <v>374</v>
+      </c>
+      <c r="E373" s="9">
+        <v>370</v>
+      </c>
+      <c r="F373" s="9">
+        <v>4</v>
+      </c>
+      <c r="H373" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="2:16">
+      <c r="B374" s="14">
+        <v>46064</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D374" s="9">
+        <v>72</v>
+      </c>
+      <c r="E374" s="9">
+        <v>72</v>
+      </c>
+      <c r="F374" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="2:16">
+      <c r="B375" s="14">
+        <v>46064</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D375" s="9">
+        <v>480</v>
+      </c>
+      <c r="E375" s="9">
+        <v>480</v>
+      </c>
+      <c r="F375" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="2:16">
+      <c r="B376" s="14">
+        <v>46064</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D376" s="9">
+        <v>403</v>
+      </c>
+      <c r="E376" s="9">
+        <v>385</v>
+      </c>
+      <c r="F376" s="9">
+        <v>18</v>
+      </c>
+      <c r="H376" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="377" spans="2:16">
+      <c r="B377" s="14">
+        <v>46064</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D377" s="9">
+        <v>1680</v>
+      </c>
+      <c r="E377" s="9">
+        <v>1680</v>
+      </c>
+      <c r="F377" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="2:16">
+      <c r="B378" s="14">
+        <v>46064</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D378" s="9">
+        <v>761</v>
+      </c>
+      <c r="E378" s="9">
+        <v>760</v>
+      </c>
+      <c r="F378" s="9">
+        <v>1</v>
+      </c>
+      <c r="H378" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="2:16">
+      <c r="B379" s="14">
+        <v>46064</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D379" s="9">
+        <v>512</v>
+      </c>
+      <c r="E379" s="9">
+        <v>512</v>
+      </c>
+      <c r="F379" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="2:16">
+      <c r="B380" s="14">
+        <v>46064</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D380" s="9">
+        <v>224</v>
+      </c>
+      <c r="E380" s="9">
+        <v>224</v>
+      </c>
+      <c r="F380" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="2:16">
+      <c r="B381" s="14">
+        <v>46064</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D381" s="9">
+        <v>450</v>
+      </c>
+      <c r="E381" s="9">
+        <v>450</v>
+      </c>
+      <c r="F381" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="2:16">
+      <c r="B382" s="14">
+        <v>46064</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D382" s="9">
+        <v>704</v>
+      </c>
+      <c r="E382" s="9">
+        <v>650</v>
+      </c>
+      <c r="F382" s="9">
+        <v>54</v>
+      </c>
+      <c r="P382" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="383" spans="2:16">
+      <c r="B383" s="14">
+        <v>46064</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D383" s="9">
+        <v>680</v>
+      </c>
+      <c r="E383" s="9">
+        <v>678</v>
+      </c>
+      <c r="F383" s="9">
+        <v>2</v>
+      </c>
+      <c r="L383" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="2:16">
+      <c r="B384" s="14">
+        <v>46064</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D384" s="9">
+        <v>940</v>
+      </c>
+      <c r="E384" s="9">
+        <v>940</v>
+      </c>
+      <c r="F384" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="2:16">
+      <c r="B385" s="14">
+        <v>46064</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D385" s="9">
+        <v>360</v>
+      </c>
+      <c r="E385" s="9">
+        <v>360</v>
+      </c>
+      <c r="F385" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="2:16">
+      <c r="B386" s="14">
+        <v>46064</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D386" s="9">
+        <v>1300</v>
+      </c>
+      <c r="E386" s="9">
+        <v>1300</v>
+      </c>
+      <c r="F386" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="2:16">
+      <c r="B387" s="14">
+        <v>46064</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D387" s="9">
+        <v>263</v>
+      </c>
+      <c r="E387" s="9">
+        <v>260</v>
+      </c>
+      <c r="F387" s="9">
+        <v>3</v>
+      </c>
+      <c r="P387" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="2:16">
+      <c r="B388" s="14">
+        <v>46064</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D388" s="9">
+        <v>380</v>
+      </c>
+      <c r="E388" s="9">
+        <v>360</v>
+      </c>
+      <c r="F388" s="9">
+        <v>20</v>
+      </c>
+      <c r="H388" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="389" spans="2:16">
+      <c r="B389" s="14">
+        <v>46064</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D389" s="9">
+        <v>513</v>
+      </c>
+      <c r="E389" s="9">
+        <v>504</v>
+      </c>
+      <c r="F389" s="9">
+        <v>9</v>
+      </c>
+      <c r="G389" s="12">
+        <v>5</v>
+      </c>
+      <c r="H389" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="2:16">
+      <c r="B390" s="14">
+        <v>46064</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D390" s="9">
+        <v>757</v>
+      </c>
+      <c r="E390" s="9">
+        <v>750</v>
+      </c>
+      <c r="F390" s="9">
+        <v>7</v>
+      </c>
+      <c r="G390" s="12">
+        <v>3</v>
+      </c>
+      <c r="H390" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="2:16">
+      <c r="B391" s="14">
+        <v>46064</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D391" s="9">
+        <v>2209</v>
+      </c>
+      <c r="E391" s="9">
+        <v>2209</v>
+      </c>
+      <c r="F391" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="2:16">
+      <c r="B392" s="14">
+        <v>46065</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D392" s="9">
+        <v>528</v>
+      </c>
+      <c r="E392" s="9">
+        <v>516</v>
+      </c>
+      <c r="F392" s="9">
+        <v>12</v>
+      </c>
+      <c r="G392" s="12">
+        <v>2</v>
+      </c>
+      <c r="H392" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="393" spans="2:16">
+      <c r="B393" s="14">
+        <v>46065</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D393" s="9">
+        <v>698</v>
+      </c>
+      <c r="E393" s="9">
+        <v>680</v>
+      </c>
+      <c r="F393" s="9">
+        <v>18</v>
+      </c>
+      <c r="L393" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="394" spans="2:16">
+      <c r="B394" s="14">
+        <v>46065</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D394" s="9">
+        <v>144</v>
+      </c>
+      <c r="E394" s="9">
+        <v>140</v>
+      </c>
+      <c r="F394" s="9">
+        <v>4</v>
+      </c>
+      <c r="G394" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395" spans="2:16">
+      <c r="B395" s="14">
+        <v>46065</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D395" s="9">
+        <v>544</v>
+      </c>
+      <c r="E395" s="9">
+        <v>540</v>
+      </c>
+      <c r="F395" s="9">
+        <v>4</v>
+      </c>
+      <c r="G395" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396" spans="2:16">
+      <c r="B396" s="14">
+        <v>46065</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D396" s="9">
+        <v>181</v>
+      </c>
+      <c r="E396" s="9">
+        <v>180</v>
+      </c>
+      <c r="F396" s="9">
+        <v>1</v>
+      </c>
+      <c r="H396" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="2:16">
+      <c r="B397" s="14">
+        <v>46065</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D397" s="9">
+        <v>420</v>
+      </c>
+      <c r="E397" s="9">
+        <v>420</v>
+      </c>
+      <c r="F397" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="2:16">
+      <c r="B398" s="14">
+        <v>46065</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D398" s="9">
+        <v>1280</v>
+      </c>
+      <c r="E398" s="9">
+        <v>1280</v>
+      </c>
+      <c r="F398" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="2:16">
+      <c r="B399" s="14">
+        <v>46065</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D399" s="9">
+        <v>416</v>
+      </c>
+      <c r="E399" s="9">
+        <v>416</v>
+      </c>
+      <c r="F399" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="2:16">
+      <c r="B400" s="14">
+        <v>46065</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D400" s="9">
+        <v>900</v>
+      </c>
+      <c r="E400" s="9">
+        <v>900</v>
+      </c>
+      <c r="F400" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="2:16">
+      <c r="B401" s="14">
+        <v>46065</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D401" s="9">
+        <v>808</v>
+      </c>
+      <c r="E401" s="9">
+        <v>800</v>
+      </c>
+      <c r="F401" s="9">
+        <v>8</v>
+      </c>
+      <c r="H401" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="402" spans="2:16">
+      <c r="B402" s="14">
+        <v>46065</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D402" s="9">
+        <v>688</v>
+      </c>
+      <c r="E402" s="9">
+        <v>688</v>
+      </c>
+      <c r="F402" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="2:16">
+      <c r="B403" s="14">
+        <v>46065</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D403" s="9">
+        <v>144</v>
+      </c>
+      <c r="E403" s="9">
+        <v>144</v>
+      </c>
+      <c r="F403" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="2:16">
+      <c r="B404" s="14">
+        <v>46065</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D404" s="9">
+        <v>660</v>
+      </c>
+      <c r="E404" s="9">
+        <v>660</v>
+      </c>
+      <c r="F404" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="2:16">
+      <c r="B405" s="14">
+        <v>46065</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D405" s="9">
+        <v>170</v>
+      </c>
+      <c r="E405" s="9">
+        <v>170</v>
+      </c>
+      <c r="F405" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="2:16">
+      <c r="B406" s="14">
+        <v>46065</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D406" s="9">
+        <v>240</v>
+      </c>
+      <c r="E406" s="9">
+        <v>240</v>
+      </c>
+      <c r="F406" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="2:16">
+      <c r="B407" s="14">
+        <v>46065</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D407" s="9">
+        <v>258</v>
+      </c>
+      <c r="E407" s="9">
+        <v>256</v>
+      </c>
+      <c r="F407" s="9">
+        <v>2</v>
+      </c>
+      <c r="P407" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="2:16">
+      <c r="B408" s="14">
+        <v>46065</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D408" s="9">
+        <v>280</v>
+      </c>
+      <c r="E408" s="9">
+        <v>280</v>
+      </c>
+      <c r="F408" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="2:16">
+      <c r="B409" s="14">
+        <v>46065</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D409" s="9">
+        <v>1040</v>
+      </c>
+      <c r="E409" s="9">
+        <v>1024</v>
+      </c>
+      <c r="F409" s="9">
+        <v>16</v>
+      </c>
+      <c r="H409" s="12">
+        <v>10</v>
+      </c>
+      <c r="J409" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="410" spans="2:16">
+      <c r="B410" s="14">
+        <v>46065</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D410" s="9">
+        <v>80</v>
+      </c>
+      <c r="E410" s="9">
+        <v>80</v>
+      </c>
+      <c r="F410" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="2:16">
+      <c r="B411" s="14">
+        <v>46065</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D411" s="9">
+        <v>340</v>
+      </c>
+      <c r="E411" s="9">
+        <v>340</v>
+      </c>
+      <c r="F411" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="2:16">
+      <c r="B412" s="14">
+        <v>46065</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D412" s="9">
+        <v>384</v>
+      </c>
+      <c r="E412" s="9">
+        <v>360</v>
+      </c>
+      <c r="F412" s="9">
+        <v>24</v>
+      </c>
+      <c r="G412" s="12">
+        <v>3</v>
+      </c>
+      <c r="H412" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="413" spans="2:16">
+      <c r="B413" s="14">
+        <v>46065</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D413" s="9">
+        <v>798</v>
+      </c>
+      <c r="E413" s="9">
+        <v>780</v>
+      </c>
+      <c r="F413" s="9">
+        <v>18</v>
+      </c>
+      <c r="G413" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="414" spans="2:16">
+      <c r="B414" s="14">
+        <v>46065</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D414" s="9">
+        <v>601</v>
+      </c>
+      <c r="E414" s="9">
+        <v>580</v>
+      </c>
+      <c r="F414" s="9">
+        <v>21</v>
+      </c>
+      <c r="P414" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="415" spans="2:16">
+      <c r="B415" s="14">
+        <v>46065</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D415" s="9">
+        <v>1112</v>
+      </c>
+      <c r="E415" s="9">
+        <v>1112</v>
+      </c>
+      <c r="F415" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="2:16">
+      <c r="B416" s="14">
+        <v>46065</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D416" s="9">
+        <v>100</v>
+      </c>
+      <c r="E416" s="9">
+        <v>100</v>
+      </c>
+      <c r="F416" s="9">
+        <v>0</v>
+      </c>
+    </row>
     <row r="63289" spans="2:2">
       <c r="B63289" s="15"/>
     </row>
@@ -9984,7 +12286,7 @@
       <c r="B1040329" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:P162"/>
+  <autoFilter ref="B3:P162" xr:uid="{99BC34A0-7885-4B17-9A44-9155E3A920C9}"/>
   <mergeCells count="2">
     <mergeCell ref="G2:P2"/>
     <mergeCell ref="B2:F2"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\개인\POWER BI\남도금형 대시보드\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDABF5D4-4A6D-4FD2-8A91-EEBB63CE71A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4255B9-1016-4F76-84D9-185FEDBE3BE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7FBDE3CB-3BE6-4858-BD36-C283BF315A42}"/>
   </bookViews>
@@ -1185,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BC34A0-7885-4B17-9A44-9155E3A920C9}">
   <dimension ref="B2:Q1040329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E386" sqref="E386"/>
+    <sheetView tabSelected="1" topLeftCell="A370" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B416" sqref="B416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\개인\POWER BI\남도금형 대시보드\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4255B9-1016-4F76-84D9-185FEDBE3BE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3EF1D4-F781-4D37-88F7-0858FDD2B5F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7FBDE3CB-3BE6-4858-BD36-C283BF315A42}"/>
   </bookViews>
@@ -1185,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BC34A0-7885-4B17-9A44-9155E3A920C9}">
   <dimension ref="B2:Q1040329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B416" sqref="B416"/>
+    <sheetView tabSelected="1" topLeftCell="A395" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B392" sqref="B392:B416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\개인\POWER BI\남도금형 대시보드\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3EF1D4-F781-4D37-88F7-0858FDD2B5F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ECAE2E-B7AA-4544-8F89-218923A714C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7FBDE3CB-3BE6-4858-BD36-C283BF315A42}"/>
   </bookViews>
@@ -1185,7 +1185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BC34A0-7885-4B17-9A44-9155E3A920C9}">
   <dimension ref="B2:Q1040329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A386" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B392" sqref="B392:B416"/>
     </sheetView>
   </sheetViews>
@@ -11811,7 +11811,7 @@
     </row>
     <row r="392" spans="2:16">
       <c r="B392" s="14">
-        <v>46065</v>
+        <v>46069</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>18</v>
@@ -11834,7 +11834,7 @@
     </row>
     <row r="393" spans="2:16">
       <c r="B393" s="14">
-        <v>46065</v>
+        <v>46069</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>71</v>
@@ -11854,7 +11854,7 @@
     </row>
     <row r="394" spans="2:16">
       <c r="B394" s="14">
-        <v>46065</v>
+        <v>46069</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>19</v>
@@ -11874,7 +11874,7 @@
     </row>
     <row r="395" spans="2:16">
       <c r="B395" s="14">
-        <v>46065</v>
+        <v>46069</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>121</v>
@@ -11894,7 +11894,7 @@
     </row>
     <row r="396" spans="2:16">
       <c r="B396" s="14">
-        <v>46065</v>
+        <v>46069</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>42</v>
@@ -11914,7 +11914,7 @@
     </row>
     <row r="397" spans="2:16">
       <c r="B397" s="14">
-        <v>46065</v>
+        <v>46069</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>23</v>
@@ -11931,7 +11931,7 @@
     </row>
     <row r="398" spans="2:16">
       <c r="B398" s="14">
-        <v>46065</v>
+        <v>46069</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>24</v>
@@ -11948,7 +11948,7 @@
     </row>
     <row r="399" spans="2:16">
       <c r="B399" s="14">
-        <v>46065</v>
+        <v>46069</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>51</v>
@@ -11965,7 +11965,7 @@
     </row>
     <row r="400" spans="2:16">
       <c r="B400" s="14">
-        <v>46065</v>
+        <v>46069</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>28</v>
@@ -11982,7 +11982,7 @@
     </row>
     <row r="401" spans="2:16">
       <c r="B401" s="14">
-        <v>46065</v>
+        <v>46069</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>53</v>
@@ -12002,7 +12002,7 @@
     </row>
     <row r="402" spans="2:16">
       <c r="B402" s="14">
-        <v>46065</v>
+        <v>46069</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>30</v>
@@ -12019,7 +12019,7 @@
     </row>
     <row r="403" spans="2:16">
       <c r="B403" s="14">
-        <v>46065</v>
+        <v>46069</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>64</v>
@@ -12036,7 +12036,7 @@
     </row>
     <row r="404" spans="2:16">
       <c r="B404" s="14">
-        <v>46065</v>
+        <v>46069</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>75</v>
@@ -12053,7 +12053,7 @@
     </row>
     <row r="405" spans="2:16">
       <c r="B405" s="14">
-        <v>46065</v>
+        <v>46069</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>166</v>
@@ -12070,7 +12070,7 @@
     </row>
     <row r="406" spans="2:16">
       <c r="B406" s="14">
-        <v>46065</v>
+        <v>46069</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>13</v>
@@ -12087,7 +12087,7 @@
     </row>
     <row r="407" spans="2:16">
       <c r="B407" s="14">
-        <v>46065</v>
+        <v>46069</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>85</v>
@@ -12107,7 +12107,7 @@
     </row>
     <row r="408" spans="2:16">
       <c r="B408" s="14">
-        <v>46065</v>
+        <v>46069</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>80</v>
@@ -12124,7 +12124,7 @@
     </row>
     <row r="409" spans="2:16">
       <c r="B409" s="14">
-        <v>46065</v>
+        <v>46069</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>167</v>
@@ -12147,7 +12147,7 @@
     </row>
     <row r="410" spans="2:16">
       <c r="B410" s="14">
-        <v>46065</v>
+        <v>46069</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>67</v>
@@ -12164,7 +12164,7 @@
     </row>
     <row r="411" spans="2:16">
       <c r="B411" s="14">
-        <v>46065</v>
+        <v>46069</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>16</v>
@@ -12181,7 +12181,7 @@
     </row>
     <row r="412" spans="2:16">
       <c r="B412" s="14">
-        <v>46065</v>
+        <v>46069</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>33</v>
@@ -12204,7 +12204,7 @@
     </row>
     <row r="413" spans="2:16">
       <c r="B413" s="14">
-        <v>46065</v>
+        <v>46069</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>17</v>
@@ -12224,7 +12224,7 @@
     </row>
     <row r="414" spans="2:16">
       <c r="B414" s="14">
-        <v>46065</v>
+        <v>46069</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>34</v>
@@ -12244,7 +12244,7 @@
     </row>
     <row r="415" spans="2:16">
       <c r="B415" s="14">
-        <v>46065</v>
+        <v>46069</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>124</v>
@@ -12261,7 +12261,7 @@
     </row>
     <row r="416" spans="2:16">
       <c r="B416" s="14">
-        <v>46065</v>
+        <v>46069</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>168</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\개인\POWER BI\남도금형 대시보드\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ECAE2E-B7AA-4544-8F89-218923A714C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2A1C13-7B92-4134-9F5B-4259864A235A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7FBDE3CB-3BE6-4858-BD36-C283BF315A42}"/>
   </bookViews>
@@ -11811,7 +11811,7 @@
     </row>
     <row r="392" spans="2:16">
       <c r="B392" s="14">
-        <v>46069</v>
+        <v>46065</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>18</v>
@@ -11834,7 +11834,7 @@
     </row>
     <row r="393" spans="2:16">
       <c r="B393" s="14">
-        <v>46069</v>
+        <v>46065</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>71</v>
@@ -11854,7 +11854,7 @@
     </row>
     <row r="394" spans="2:16">
       <c r="B394" s="14">
-        <v>46069</v>
+        <v>46065</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>19</v>
@@ -11874,7 +11874,7 @@
     </row>
     <row r="395" spans="2:16">
       <c r="B395" s="14">
-        <v>46069</v>
+        <v>46065</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>121</v>
@@ -11894,7 +11894,7 @@
     </row>
     <row r="396" spans="2:16">
       <c r="B396" s="14">
-        <v>46069</v>
+        <v>46065</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>42</v>
@@ -11914,7 +11914,7 @@
     </row>
     <row r="397" spans="2:16">
       <c r="B397" s="14">
-        <v>46069</v>
+        <v>46065</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>23</v>
@@ -11931,7 +11931,7 @@
     </row>
     <row r="398" spans="2:16">
       <c r="B398" s="14">
-        <v>46069</v>
+        <v>46065</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>24</v>
@@ -11948,7 +11948,7 @@
     </row>
     <row r="399" spans="2:16">
       <c r="B399" s="14">
-        <v>46069</v>
+        <v>46065</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>51</v>
@@ -11965,7 +11965,7 @@
     </row>
     <row r="400" spans="2:16">
       <c r="B400" s="14">
-        <v>46069</v>
+        <v>46065</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>28</v>
@@ -11982,7 +11982,7 @@
     </row>
     <row r="401" spans="2:16">
       <c r="B401" s="14">
-        <v>46069</v>
+        <v>46065</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>53</v>
@@ -12002,7 +12002,7 @@
     </row>
     <row r="402" spans="2:16">
       <c r="B402" s="14">
-        <v>46069</v>
+        <v>46065</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>30</v>
@@ -12019,7 +12019,7 @@
     </row>
     <row r="403" spans="2:16">
       <c r="B403" s="14">
-        <v>46069</v>
+        <v>46065</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>64</v>
@@ -12036,7 +12036,7 @@
     </row>
     <row r="404" spans="2:16">
       <c r="B404" s="14">
-        <v>46069</v>
+        <v>46065</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>75</v>
@@ -12053,7 +12053,7 @@
     </row>
     <row r="405" spans="2:16">
       <c r="B405" s="14">
-        <v>46069</v>
+        <v>46065</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>166</v>
@@ -12070,7 +12070,7 @@
     </row>
     <row r="406" spans="2:16">
       <c r="B406" s="14">
-        <v>46069</v>
+        <v>46065</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>13</v>
@@ -12087,7 +12087,7 @@
     </row>
     <row r="407" spans="2:16">
       <c r="B407" s="14">
-        <v>46069</v>
+        <v>46065</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>85</v>
@@ -12107,7 +12107,7 @@
     </row>
     <row r="408" spans="2:16">
       <c r="B408" s="14">
-        <v>46069</v>
+        <v>46065</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>80</v>
@@ -12124,7 +12124,7 @@
     </row>
     <row r="409" spans="2:16">
       <c r="B409" s="14">
-        <v>46069</v>
+        <v>46065</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>167</v>
@@ -12147,7 +12147,7 @@
     </row>
     <row r="410" spans="2:16">
       <c r="B410" s="14">
-        <v>46069</v>
+        <v>46065</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>67</v>
@@ -12164,7 +12164,7 @@
     </row>
     <row r="411" spans="2:16">
       <c r="B411" s="14">
-        <v>46069</v>
+        <v>46065</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>16</v>
@@ -12181,7 +12181,7 @@
     </row>
     <row r="412" spans="2:16">
       <c r="B412" s="14">
-        <v>46069</v>
+        <v>46065</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>33</v>
@@ -12204,7 +12204,7 @@
     </row>
     <row r="413" spans="2:16">
       <c r="B413" s="14">
-        <v>46069</v>
+        <v>46065</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>17</v>
@@ -12224,7 +12224,7 @@
     </row>
     <row r="414" spans="2:16">
       <c r="B414" s="14">
-        <v>46069</v>
+        <v>46065</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>34</v>
@@ -12244,7 +12244,7 @@
     </row>
     <row r="415" spans="2:16">
       <c r="B415" s="14">
-        <v>46069</v>
+        <v>46065</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>124</v>
@@ -12261,7 +12261,7 @@
     </row>
     <row r="416" spans="2:16">
       <c r="B416" s="14">
-        <v>46069</v>
+        <v>46065</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>168</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\개인\POWER BI\남도금형 대시보드\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김훈희\Downloads\namdogeum-dashboard-main\namdogeum-dashboard-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2A1C13-7B92-4134-9F5B-4259864A235A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7FBDE3CB-3BE6-4858-BD36-C283BF315A42}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2026'!$B$3:$P$162</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="170">
   <si>
     <t>사출 불량 유형</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -589,12 +588,16 @@
   </si>
   <si>
     <t>BRKT-FR BUMPER SIDE UPR,L/RH 86525/6-X9500</t>
+  </si>
+  <si>
+    <t>ASSY COVER-OVER HEAD CONSOLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
@@ -1182,11 +1185,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BC34A0-7885-4B17-9A44-9155E3A920C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q1040329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A386" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B392" sqref="B392:B416"/>
+    <sheetView tabSelected="1" topLeftCell="A401" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G417" sqref="G417:G429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12276,6 +12279,266 @@
         <v>0</v>
       </c>
     </row>
+    <row r="417" spans="2:7">
+      <c r="B417" s="14">
+        <v>46066</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D417" s="9">
+        <v>1112</v>
+      </c>
+      <c r="E417" s="9">
+        <v>1112</v>
+      </c>
+      <c r="F417" s="9">
+        <v>112</v>
+      </c>
+      <c r="G417" s="9">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="418" spans="2:7">
+      <c r="B418" s="14">
+        <v>46066</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D418" s="9">
+        <v>1112</v>
+      </c>
+      <c r="E418" s="9">
+        <v>1112</v>
+      </c>
+      <c r="F418" s="9">
+        <v>112</v>
+      </c>
+      <c r="G418" s="9">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="419" spans="2:7">
+      <c r="B419" s="14">
+        <v>46066</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D419" s="9">
+        <v>1112</v>
+      </c>
+      <c r="E419" s="9">
+        <v>1112</v>
+      </c>
+      <c r="F419" s="9">
+        <v>112</v>
+      </c>
+      <c r="G419" s="9">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="420" spans="2:7">
+      <c r="B420" s="14">
+        <v>46066</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D420" s="9">
+        <v>1112</v>
+      </c>
+      <c r="E420" s="9">
+        <v>1112</v>
+      </c>
+      <c r="F420" s="9">
+        <v>112</v>
+      </c>
+      <c r="G420" s="9">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="421" spans="2:7">
+      <c r="B421" s="14">
+        <v>46066</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D421" s="9">
+        <v>1112</v>
+      </c>
+      <c r="E421" s="9">
+        <v>1112</v>
+      </c>
+      <c r="F421" s="9">
+        <v>112</v>
+      </c>
+      <c r="G421" s="9">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="422" spans="2:7">
+      <c r="B422" s="14">
+        <v>46066</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D422" s="9">
+        <v>1112</v>
+      </c>
+      <c r="E422" s="9">
+        <v>1112</v>
+      </c>
+      <c r="F422" s="9">
+        <v>112</v>
+      </c>
+      <c r="G422" s="9">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="423" spans="2:7">
+      <c r="B423" s="14">
+        <v>46066</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D423" s="9">
+        <v>1112</v>
+      </c>
+      <c r="E423" s="9">
+        <v>1112</v>
+      </c>
+      <c r="F423" s="9">
+        <v>112</v>
+      </c>
+      <c r="G423" s="9">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="424" spans="2:7">
+      <c r="B424" s="14">
+        <v>46066</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D424" s="9">
+        <v>1112</v>
+      </c>
+      <c r="E424" s="9">
+        <v>1112</v>
+      </c>
+      <c r="F424" s="9">
+        <v>112</v>
+      </c>
+      <c r="G424" s="9">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="425" spans="2:7">
+      <c r="B425" s="14">
+        <v>46066</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D425" s="9">
+        <v>1112</v>
+      </c>
+      <c r="E425" s="9">
+        <v>1112</v>
+      </c>
+      <c r="F425" s="9">
+        <v>112</v>
+      </c>
+      <c r="G425" s="9">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="426" spans="2:7">
+      <c r="B426" s="14">
+        <v>46066</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D426" s="9">
+        <v>1112</v>
+      </c>
+      <c r="E426" s="9">
+        <v>1112</v>
+      </c>
+      <c r="F426" s="9">
+        <v>112</v>
+      </c>
+      <c r="G426" s="9">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="427" spans="2:7">
+      <c r="B427" s="14">
+        <v>46066</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D427" s="9">
+        <v>1112</v>
+      </c>
+      <c r="E427" s="9">
+        <v>1112</v>
+      </c>
+      <c r="F427" s="9">
+        <v>112</v>
+      </c>
+      <c r="G427" s="9">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="428" spans="2:7">
+      <c r="B428" s="14">
+        <v>46066</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D428" s="9">
+        <v>1112</v>
+      </c>
+      <c r="E428" s="9">
+        <v>1112</v>
+      </c>
+      <c r="F428" s="9">
+        <v>112</v>
+      </c>
+      <c r="G428" s="9">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="429" spans="2:7">
+      <c r="B429" s="14">
+        <v>46066</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D429" s="9">
+        <v>1112</v>
+      </c>
+      <c r="E429" s="9">
+        <v>1112</v>
+      </c>
+      <c r="F429" s="9">
+        <v>112</v>
+      </c>
+      <c r="G429" s="9">
+        <v>112</v>
+      </c>
+    </row>
     <row r="63289" spans="2:2">
       <c r="B63289" s="15"/>
     </row>
@@ -12286,7 +12549,7 @@
       <c r="B1040329" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:P162" xr:uid="{99BC34A0-7885-4B17-9A44-9155E3A920C9}"/>
+  <autoFilter ref="B3:P162"/>
   <mergeCells count="2">
     <mergeCell ref="G2:P2"/>
     <mergeCell ref="B2:F2"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김훈희\Downloads\namdogeum-dashboard-main\namdogeum-dashboard-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCDB9CC9-8C10-4F9F-A909-49AFAB465B3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7FBDE3CB-3BE6-4858-BD36-C283BF315A42}"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2026'!$B$3:$P$162</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -30,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="194">
   <si>
     <t>사출 불량 유형</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -536,73 +546,187 @@
     <t>BRKT RR BEAM UPR,CTR   86632-CH100</t>
   </si>
   <si>
+    <t>SP2 GARNISH-RR DR SIDE, L/RH(OPT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PANEL ASSY-LWR,RH (84760-5L100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP2 GARNISH-RR DR SIDE, L/RH(부식)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP2 PIECE-RR DR GARNISH, L/RH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7196 REAR SCREEN BEZEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#6987 TRACER DVR OB LHD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QV BEZEL TGS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRKT-RR CORNER RADAR MTG, LH   866G1-BS010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6243 JL HDL FRT LH HSG w/SWITCH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRKT-TAIL GATE GARNISH LH/RH   87733/4-BS000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OV1 BRKT RR BUMPER NO.3/4 86627/8-X9500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NQ5-PE COVER-RR BUMPER LWR-P1510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRKT-FR BUMPER SIDE UPR,L/RH 86525/6-X9000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>NQ5PE COVER HUD BLANKING</t>
-  </si>
-  <si>
-    <t>PANEL ASSY-LWR,RH (84760-5L100)</t>
-  </si>
-  <si>
-    <t>7196 REAR SCREEN BEZEL</t>
-  </si>
-  <si>
-    <t>BRKT-RR CORNER RADAR MTG, LH   866G1-BS010</t>
-  </si>
-  <si>
-    <t>OV1 BRKT RR BUMPER NO.3/4 86627/8-X9500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PNL ASSY-CRASH PAD (84760-5H001)(소형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HOLDER-RR ULTRASONIC NO.1/4   86681/4-Q5700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP2 BRKT C-PAD SUPPORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PY HOLDER-CUP CONSOLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>OV1 BRKT-FR BUMPER FLANGE, L/RH 865A7/8-X9000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#7118 Bolt cover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SL GUARD-RADIATOR GRILLE UPR </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PSEV UPR COVER R/GRILLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>COVER ASSY-A/C PIPE  상측</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASSY COVER-OVER HEAD CONSOLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHEEL COVER(태형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BRKT-RR DR GARNISH NO.2, LH/RH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#7375 WL PSG LHD APLQ MIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OV1 BRKT-TAIL GATE GARNISH CTR  87395-X9000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DECORATION SIDE(SANTORINI BEIGE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOZZLE-DEFROSTER NO.2(RHD+) / WK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>태형 휴즈박스(FUSE BOX)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECORATION(SANTORINI BEIGE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CAP-RR HOOK   86617-BS300</t>
-  </si>
-  <si>
-    <t>BRKT-FR BUMPER SIDE UPR,L/RH 86525/6-X9500</t>
-  </si>
-  <si>
-    <t>ASSY COVER-OVER HEAD CONSOLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OV1 BRKT-FR BUMPER FLANGE, L/RH 865A7/8-X9500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QT OVERHEAD CONSOLE LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QT OVERHEAD CONSOLE RH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECORATION SIDE(GREEN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7126 WL Speaker Cover RH,LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME BACK(WHITE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME FRONT(FEBBLE GRAY)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QL GUARD ASSY-AIR, LH(북미 외)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QL BRKT-FR BPR UPR SIDE, L/RH (대여도)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QV TRAY-SMALL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,6 +812,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -715,7 +847,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -764,13 +896,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -845,6 +1053,69 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1185,11 +1456,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BC34A0-7885-4B17-9A44-9155E3A920C9}">
   <dimension ref="B2:Q1040329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G417" sqref="G417:G429"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D443" sqref="D443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1207,25 +1478,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="31.5" customHeight="1">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1">
       <c r="B3" s="13" t="s">
@@ -8893,7 +9164,7 @@
         <v>600</v>
       </c>
       <c r="F265" s="8">
-        <f t="shared" ref="F265:F285" si="5">SUM(G265:P265)</f>
+        <f t="shared" ref="F265:F328" si="5">SUM(G265:P265)</f>
         <v>0</v>
       </c>
       <c r="G265" s="11"/>
@@ -9523,3021 +9794,5318 @@
       <c r="P285" s="11"/>
     </row>
     <row r="286" spans="2:16">
-      <c r="B286" s="14">
-        <v>46060</v>
+      <c r="B286" s="25">
+        <v>46062</v>
       </c>
       <c r="C286" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D286" s="26">
+        <v>703</v>
+      </c>
+      <c r="E286" s="26">
+        <f>D286-F286</f>
+        <v>690</v>
+      </c>
+      <c r="F286" s="8">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="G286" s="26">
+        <v>6</v>
+      </c>
+      <c r="H286" s="26">
+        <v>7</v>
+      </c>
+      <c r="I286" s="33"/>
+      <c r="J286" s="33"/>
+      <c r="K286" s="33"/>
+      <c r="L286" s="26"/>
+      <c r="M286" s="26"/>
+      <c r="N286" s="26"/>
+      <c r="O286" s="26"/>
+      <c r="P286" s="33"/>
+    </row>
+    <row r="287" spans="2:16">
+      <c r="B287" s="25">
+        <v>46062</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D287" s="26">
+        <v>374</v>
+      </c>
+      <c r="E287" s="26">
+        <f t="shared" ref="E287:E310" si="6">D287-F287</f>
+        <v>374</v>
+      </c>
+      <c r="F287" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G287" s="26"/>
+      <c r="H287" s="26"/>
+      <c r="I287" s="26"/>
+      <c r="J287" s="26"/>
+      <c r="K287" s="26"/>
+      <c r="L287" s="26"/>
+      <c r="M287" s="26"/>
+      <c r="N287" s="26"/>
+      <c r="O287" s="26"/>
+      <c r="P287" s="26"/>
+    </row>
+    <row r="288" spans="2:16">
+      <c r="B288" s="25">
+        <v>46062</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D288" s="26">
+        <v>152</v>
+      </c>
+      <c r="E288" s="26">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="F288" s="8">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G288" s="26"/>
+      <c r="H288" s="26">
+        <v>2</v>
+      </c>
+      <c r="I288" s="26"/>
+      <c r="J288" s="26"/>
+      <c r="K288" s="26"/>
+      <c r="L288" s="26"/>
+      <c r="M288" s="26"/>
+      <c r="N288" s="26"/>
+      <c r="O288" s="26"/>
+      <c r="P288" s="26"/>
+    </row>
+    <row r="289" spans="2:16">
+      <c r="B289" s="27">
+        <v>46062</v>
+      </c>
+      <c r="C289" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D289" s="26">
+        <v>312</v>
+      </c>
+      <c r="E289" s="26">
+        <f t="shared" si="6"/>
+        <v>308</v>
+      </c>
+      <c r="F289" s="8">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G289" s="26">
+        <v>4</v>
+      </c>
+      <c r="H289" s="26"/>
+      <c r="I289" s="26"/>
+      <c r="J289" s="26"/>
+      <c r="K289" s="26"/>
+      <c r="L289" s="26"/>
+      <c r="M289" s="26"/>
+      <c r="N289" s="26"/>
+      <c r="O289" s="26"/>
+      <c r="P289" s="26"/>
+    </row>
+    <row r="290" spans="2:16">
+      <c r="B290" s="27">
+        <v>46062</v>
+      </c>
+      <c r="C290" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D290" s="26">
+        <v>494</v>
+      </c>
+      <c r="E290" s="26">
+        <f t="shared" si="6"/>
+        <v>490</v>
+      </c>
+      <c r="F290" s="8">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G290" s="26"/>
+      <c r="H290" s="26">
+        <v>4</v>
+      </c>
+      <c r="I290" s="26"/>
+      <c r="J290" s="26"/>
+      <c r="K290" s="26"/>
+      <c r="L290" s="26"/>
+      <c r="M290" s="26"/>
+      <c r="N290" s="26"/>
+      <c r="O290" s="26"/>
+      <c r="P290" s="26"/>
+    </row>
+    <row r="291" spans="2:16">
+      <c r="B291" s="27">
+        <v>46062</v>
+      </c>
+      <c r="C291" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D291" s="26">
+        <v>1200</v>
+      </c>
+      <c r="E291" s="26">
+        <f t="shared" si="6"/>
+        <v>1200</v>
+      </c>
+      <c r="F291" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G291" s="26"/>
+      <c r="H291" s="26"/>
+      <c r="I291" s="26"/>
+      <c r="J291" s="26"/>
+      <c r="K291" s="26"/>
+      <c r="L291" s="26"/>
+      <c r="M291" s="26"/>
+      <c r="N291" s="26"/>
+      <c r="O291" s="26"/>
+      <c r="P291" s="26"/>
+    </row>
+    <row r="292" spans="2:16">
+      <c r="B292" s="27">
+        <v>46062</v>
+      </c>
+      <c r="C292" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D292" s="26">
+        <v>330</v>
+      </c>
+      <c r="E292" s="26">
+        <f t="shared" si="6"/>
+        <v>312</v>
+      </c>
+      <c r="F292" s="8">
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="D286" s="8">
-        <v>1055</v>
-      </c>
-      <c r="E286" s="8">
+      <c r="G292" s="26"/>
+      <c r="H292" s="26">
+        <v>18</v>
+      </c>
+      <c r="I292" s="26"/>
+      <c r="J292" s="26"/>
+      <c r="K292" s="26"/>
+      <c r="L292" s="26"/>
+      <c r="M292" s="26"/>
+      <c r="N292" s="26"/>
+      <c r="O292" s="26"/>
+      <c r="P292" s="26"/>
+    </row>
+    <row r="293" spans="2:16">
+      <c r="B293" s="27">
+        <v>46062</v>
+      </c>
+      <c r="C293" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D293" s="26">
+        <v>336</v>
+      </c>
+      <c r="E293" s="26">
+        <f t="shared" si="6"/>
+        <v>330</v>
+      </c>
+      <c r="F293" s="8">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="G293" s="26">
+        <v>2</v>
+      </c>
+      <c r="H293" s="26">
+        <v>4</v>
+      </c>
+      <c r="I293" s="26"/>
+      <c r="J293" s="26"/>
+      <c r="K293" s="26"/>
+      <c r="L293" s="26"/>
+      <c r="M293" s="26"/>
+      <c r="N293" s="26"/>
+      <c r="O293" s="26"/>
+      <c r="P293" s="26"/>
+    </row>
+    <row r="294" spans="2:16">
+      <c r="B294" s="27">
+        <v>46062</v>
+      </c>
+      <c r="C294" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D294" s="26">
+        <v>338</v>
+      </c>
+      <c r="E294" s="26">
+        <f t="shared" si="6"/>
+        <v>330</v>
+      </c>
+      <c r="F294" s="8">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="G294" s="26">
+        <v>2</v>
+      </c>
+      <c r="H294" s="26">
+        <v>6</v>
+      </c>
+      <c r="I294" s="26"/>
+      <c r="J294" s="26"/>
+      <c r="K294" s="26"/>
+      <c r="L294" s="26"/>
+      <c r="M294" s="26"/>
+      <c r="N294" s="26"/>
+      <c r="O294" s="26"/>
+      <c r="P294" s="26"/>
+    </row>
+    <row r="295" spans="2:16">
+      <c r="B295" s="27">
+        <v>46062</v>
+      </c>
+      <c r="C295" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D295" s="26">
+        <v>1700</v>
+      </c>
+      <c r="E295" s="26">
+        <f t="shared" si="6"/>
+        <v>1700</v>
+      </c>
+      <c r="F295" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G295" s="26"/>
+      <c r="H295" s="26"/>
+      <c r="I295" s="26"/>
+      <c r="J295" s="26"/>
+      <c r="K295" s="26"/>
+      <c r="L295" s="34"/>
+      <c r="M295" s="26"/>
+      <c r="N295" s="26"/>
+      <c r="O295" s="26"/>
+      <c r="P295" s="26"/>
+    </row>
+    <row r="296" spans="2:16">
+      <c r="B296" s="27">
+        <v>46062</v>
+      </c>
+      <c r="C296" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D296" s="26">
+        <v>591</v>
+      </c>
+      <c r="E296" s="26">
+        <f t="shared" si="6"/>
+        <v>570</v>
+      </c>
+      <c r="F296" s="8">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="G296" s="26"/>
+      <c r="H296" s="26"/>
+      <c r="I296" s="26"/>
+      <c r="J296" s="26">
+        <v>21</v>
+      </c>
+      <c r="K296" s="26"/>
+      <c r="L296" s="26"/>
+      <c r="M296" s="26"/>
+      <c r="N296" s="26"/>
+      <c r="O296" s="26"/>
+      <c r="P296" s="26"/>
+    </row>
+    <row r="297" spans="2:16">
+      <c r="B297" s="27">
+        <v>46062</v>
+      </c>
+      <c r="C297" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D297" s="26">
+        <v>1440</v>
+      </c>
+      <c r="E297" s="26">
+        <f t="shared" si="6"/>
+        <v>1440</v>
+      </c>
+      <c r="F297" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G297" s="26"/>
+      <c r="H297" s="26"/>
+      <c r="I297" s="26"/>
+      <c r="J297" s="26"/>
+      <c r="K297" s="26"/>
+      <c r="L297" s="26"/>
+      <c r="M297" s="26"/>
+      <c r="N297" s="26"/>
+      <c r="O297" s="26"/>
+      <c r="P297" s="26"/>
+    </row>
+    <row r="298" spans="2:16">
+      <c r="B298" s="27">
+        <v>46062</v>
+      </c>
+      <c r="C298" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D298" s="26">
+        <v>139</v>
+      </c>
+      <c r="E298" s="26">
+        <f t="shared" si="6"/>
+        <v>130</v>
+      </c>
+      <c r="F298" s="8">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="G298" s="26">
+        <v>5</v>
+      </c>
+      <c r="H298" s="26">
+        <v>4</v>
+      </c>
+      <c r="I298" s="26"/>
+      <c r="J298" s="26"/>
+      <c r="K298" s="26"/>
+      <c r="L298" s="26"/>
+      <c r="M298" s="26"/>
+      <c r="N298" s="26"/>
+      <c r="O298" s="26"/>
+      <c r="P298" s="26"/>
+    </row>
+    <row r="299" spans="2:16">
+      <c r="B299" s="27">
+        <v>46062</v>
+      </c>
+      <c r="C299" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D299" s="26">
+        <v>1038</v>
+      </c>
+      <c r="E299" s="26">
+        <f t="shared" si="6"/>
+        <v>1020</v>
+      </c>
+      <c r="F299" s="8">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="G299" s="26">
+        <v>18</v>
+      </c>
+      <c r="H299" s="26"/>
+      <c r="I299" s="26"/>
+      <c r="J299" s="26"/>
+      <c r="K299" s="26"/>
+      <c r="L299" s="26"/>
+      <c r="M299" s="26"/>
+      <c r="N299" s="26"/>
+      <c r="O299" s="26"/>
+      <c r="P299" s="26"/>
+    </row>
+    <row r="300" spans="2:16">
+      <c r="B300" s="27">
+        <v>46062</v>
+      </c>
+      <c r="C300" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D300" s="26">
+        <v>224</v>
+      </c>
+      <c r="E300" s="26">
+        <f t="shared" si="6"/>
+        <v>224</v>
+      </c>
+      <c r="F300" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G300" s="26"/>
+      <c r="H300" s="26"/>
+      <c r="I300" s="26"/>
+      <c r="J300" s="26"/>
+      <c r="K300" s="26"/>
+      <c r="L300" s="26"/>
+      <c r="M300" s="26"/>
+      <c r="N300" s="26"/>
+      <c r="O300" s="26"/>
+      <c r="P300" s="26"/>
+    </row>
+    <row r="301" spans="2:16">
+      <c r="B301" s="27">
+        <v>46062</v>
+      </c>
+      <c r="C301" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D301" s="26">
+        <v>1384</v>
+      </c>
+      <c r="E301" s="26">
+        <f t="shared" si="6"/>
+        <v>1380</v>
+      </c>
+      <c r="F301" s="8">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G301" s="26"/>
+      <c r="H301" s="26">
+        <v>4</v>
+      </c>
+      <c r="I301" s="26"/>
+      <c r="J301" s="26"/>
+      <c r="K301" s="26"/>
+      <c r="L301" s="26"/>
+      <c r="M301" s="26"/>
+      <c r="N301" s="26"/>
+      <c r="O301" s="26"/>
+      <c r="P301" s="26"/>
+    </row>
+    <row r="302" spans="2:16">
+      <c r="B302" s="27">
+        <v>46062</v>
+      </c>
+      <c r="C302" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D302" s="26">
+        <v>1328</v>
+      </c>
+      <c r="E302" s="26">
+        <f t="shared" si="6"/>
+        <v>1328</v>
+      </c>
+      <c r="F302" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G302" s="26"/>
+      <c r="H302" s="26"/>
+      <c r="I302" s="26"/>
+      <c r="J302" s="26"/>
+      <c r="K302" s="26"/>
+      <c r="L302" s="26"/>
+      <c r="M302" s="26"/>
+      <c r="N302" s="26"/>
+      <c r="O302" s="26"/>
+      <c r="P302" s="26"/>
+    </row>
+    <row r="303" spans="2:16">
+      <c r="B303" s="27">
+        <v>46062</v>
+      </c>
+      <c r="C303" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D303" s="26">
+        <v>50</v>
+      </c>
+      <c r="E303" s="26">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="F303" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G303" s="26"/>
+      <c r="H303" s="26"/>
+      <c r="I303" s="26"/>
+      <c r="J303" s="26"/>
+      <c r="K303" s="26"/>
+      <c r="L303" s="26"/>
+      <c r="M303" s="26"/>
+      <c r="N303" s="26"/>
+      <c r="O303" s="26"/>
+      <c r="P303" s="26"/>
+    </row>
+    <row r="304" spans="2:16">
+      <c r="B304" s="27">
+        <v>46062</v>
+      </c>
+      <c r="C304" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D304" s="26">
+        <v>160</v>
+      </c>
+      <c r="E304" s="26">
+        <f t="shared" si="6"/>
+        <v>160</v>
+      </c>
+      <c r="F304" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G304" s="26"/>
+      <c r="H304" s="35"/>
+      <c r="I304" s="26"/>
+      <c r="J304" s="26"/>
+      <c r="K304" s="26"/>
+      <c r="L304" s="26"/>
+      <c r="M304" s="26"/>
+      <c r="N304" s="26"/>
+      <c r="O304" s="26"/>
+      <c r="P304" s="26"/>
+    </row>
+    <row r="305" spans="2:16">
+      <c r="B305" s="27">
+        <v>46062</v>
+      </c>
+      <c r="C305" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D305" s="26">
+        <v>50</v>
+      </c>
+      <c r="E305" s="26">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="F305" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G305" s="26"/>
+      <c r="H305" s="26"/>
+      <c r="I305" s="26"/>
+      <c r="J305" s="26"/>
+      <c r="K305" s="26"/>
+      <c r="L305" s="26"/>
+      <c r="M305" s="26"/>
+      <c r="N305" s="26"/>
+      <c r="O305" s="26"/>
+      <c r="P305" s="26"/>
+    </row>
+    <row r="306" spans="2:16">
+      <c r="B306" s="27">
+        <v>46062</v>
+      </c>
+      <c r="C306" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D306" s="26">
+        <v>452</v>
+      </c>
+      <c r="E306" s="26">
+        <f t="shared" si="6"/>
+        <v>420</v>
+      </c>
+      <c r="F306" s="8">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="G306" s="26"/>
+      <c r="H306" s="26">
+        <v>32</v>
+      </c>
+      <c r="I306" s="26"/>
+      <c r="J306" s="26"/>
+      <c r="K306" s="26"/>
+      <c r="L306" s="26"/>
+      <c r="M306" s="26"/>
+      <c r="N306" s="26"/>
+      <c r="O306" s="26"/>
+      <c r="P306" s="26"/>
+    </row>
+    <row r="307" spans="2:16">
+      <c r="B307" s="27">
+        <v>46062</v>
+      </c>
+      <c r="C307" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D307" s="26">
+        <v>208</v>
+      </c>
+      <c r="E307" s="26">
+        <f t="shared" si="6"/>
+        <v>208</v>
+      </c>
+      <c r="F307" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G307" s="26"/>
+      <c r="H307" s="26"/>
+      <c r="I307" s="26"/>
+      <c r="J307" s="26"/>
+      <c r="K307" s="26"/>
+      <c r="L307" s="26"/>
+      <c r="M307" s="26"/>
+      <c r="N307" s="26"/>
+      <c r="O307" s="26"/>
+      <c r="P307" s="26"/>
+    </row>
+    <row r="308" spans="2:16">
+      <c r="B308" s="27">
+        <v>46062</v>
+      </c>
+      <c r="C308" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D308" s="26">
+        <v>183</v>
+      </c>
+      <c r="E308" s="26">
+        <f t="shared" si="6"/>
+        <v>183</v>
+      </c>
+      <c r="F308" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G308" s="26"/>
+      <c r="H308" s="26"/>
+      <c r="I308" s="26"/>
+      <c r="J308" s="26"/>
+      <c r="K308" s="26"/>
+      <c r="L308" s="26"/>
+      <c r="M308" s="26"/>
+      <c r="N308" s="26"/>
+      <c r="O308" s="26"/>
+      <c r="P308" s="26"/>
+    </row>
+    <row r="309" spans="2:16">
+      <c r="B309" s="27">
+        <v>46062</v>
+      </c>
+      <c r="C309" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D309" s="26">
+        <v>418</v>
+      </c>
+      <c r="E309" s="26">
+        <f t="shared" si="6"/>
+        <v>418</v>
+      </c>
+      <c r="F309" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G309" s="26"/>
+      <c r="H309" s="26"/>
+      <c r="I309" s="26"/>
+      <c r="J309" s="26"/>
+      <c r="K309" s="26"/>
+      <c r="L309" s="26"/>
+      <c r="M309" s="26"/>
+      <c r="N309" s="26"/>
+      <c r="O309" s="26"/>
+      <c r="P309" s="26"/>
+    </row>
+    <row r="310" spans="2:16">
+      <c r="B310" s="36">
+        <v>46062</v>
+      </c>
+      <c r="C310" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D310" s="26">
+        <v>589</v>
+      </c>
+      <c r="E310" s="26">
+        <f t="shared" si="6"/>
+        <v>589</v>
+      </c>
+      <c r="F310" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G310" s="26"/>
+      <c r="H310" s="26"/>
+      <c r="I310" s="26"/>
+      <c r="J310" s="26"/>
+      <c r="K310" s="26"/>
+      <c r="L310" s="26"/>
+      <c r="M310" s="26"/>
+      <c r="N310" s="26"/>
+      <c r="O310" s="26"/>
+      <c r="P310" s="26"/>
+    </row>
+    <row r="311" spans="2:16">
+      <c r="B311" s="27">
+        <v>46063</v>
+      </c>
+      <c r="C311" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D311" s="26">
+        <v>240</v>
+      </c>
+      <c r="E311" s="26">
+        <f>D311-F311</f>
+        <v>240</v>
+      </c>
+      <c r="F311" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G311" s="26"/>
+      <c r="H311" s="26"/>
+      <c r="I311" s="33"/>
+      <c r="J311" s="33"/>
+      <c r="K311" s="33"/>
+      <c r="L311" s="26"/>
+      <c r="M311" s="26"/>
+      <c r="N311" s="26"/>
+      <c r="O311" s="26"/>
+      <c r="P311" s="33"/>
+    </row>
+    <row r="312" spans="2:16">
+      <c r="B312" s="27">
+        <v>46063</v>
+      </c>
+      <c r="C312" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D312" s="26">
+        <v>260</v>
+      </c>
+      <c r="E312" s="26">
+        <f t="shared" ref="E312:E335" si="7">D312-F312</f>
+        <v>260</v>
+      </c>
+      <c r="F312" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G312" s="26"/>
+      <c r="H312" s="26"/>
+      <c r="I312" s="26"/>
+      <c r="J312" s="26"/>
+      <c r="K312" s="26"/>
+      <c r="L312" s="26"/>
+      <c r="M312" s="26"/>
+      <c r="N312" s="26"/>
+      <c r="O312" s="26"/>
+      <c r="P312" s="26"/>
+    </row>
+    <row r="313" spans="2:16">
+      <c r="B313" s="27">
+        <v>46063</v>
+      </c>
+      <c r="C313" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D313" s="26">
+        <v>380</v>
+      </c>
+      <c r="E313" s="26">
+        <f t="shared" si="7"/>
+        <v>369</v>
+      </c>
+      <c r="F313" s="8">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="G313" s="26"/>
+      <c r="H313" s="26">
+        <v>11</v>
+      </c>
+      <c r="I313" s="26"/>
+      <c r="J313" s="26"/>
+      <c r="K313" s="26"/>
+      <c r="L313" s="26"/>
+      <c r="M313" s="26"/>
+      <c r="N313" s="26"/>
+      <c r="O313" s="26"/>
+      <c r="P313" s="26"/>
+    </row>
+    <row r="314" spans="2:16">
+      <c r="B314" s="27">
+        <v>46063</v>
+      </c>
+      <c r="C314" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D314" s="26">
+        <v>119</v>
+      </c>
+      <c r="E314" s="26">
+        <f t="shared" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="F314" s="8">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="G314" s="26">
+        <v>9</v>
+      </c>
+      <c r="H314" s="26"/>
+      <c r="I314" s="26"/>
+      <c r="J314" s="26"/>
+      <c r="K314" s="26"/>
+      <c r="L314" s="26"/>
+      <c r="M314" s="26"/>
+      <c r="N314" s="26"/>
+      <c r="O314" s="26"/>
+      <c r="P314" s="26"/>
+    </row>
+    <row r="315" spans="2:16">
+      <c r="B315" s="27">
+        <v>46063</v>
+      </c>
+      <c r="C315" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D315" s="26">
+        <v>500</v>
+      </c>
+      <c r="E315" s="26">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="F315" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G315" s="26"/>
+      <c r="H315" s="26"/>
+      <c r="I315" s="26"/>
+      <c r="J315" s="26"/>
+      <c r="K315" s="26"/>
+      <c r="L315" s="26"/>
+      <c r="M315" s="26"/>
+      <c r="N315" s="26"/>
+      <c r="O315" s="26"/>
+      <c r="P315" s="26"/>
+    </row>
+    <row r="316" spans="2:16">
+      <c r="B316" s="27">
+        <v>46063</v>
+      </c>
+      <c r="C316" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="D316" s="26">
+        <v>199</v>
+      </c>
+      <c r="E316" s="26">
+        <f t="shared" si="7"/>
+        <v>190</v>
+      </c>
+      <c r="F316" s="8">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="G316" s="26">
+        <v>5</v>
+      </c>
+      <c r="H316" s="26">
+        <v>4</v>
+      </c>
+      <c r="I316" s="26"/>
+      <c r="J316" s="26"/>
+      <c r="K316" s="26"/>
+      <c r="L316" s="26"/>
+      <c r="M316" s="26"/>
+      <c r="N316" s="26"/>
+      <c r="O316" s="26"/>
+      <c r="P316" s="26"/>
+    </row>
+    <row r="317" spans="2:16">
+      <c r="B317" s="27">
+        <v>46063</v>
+      </c>
+      <c r="C317" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D317" s="26">
+        <v>304</v>
+      </c>
+      <c r="E317" s="26">
+        <f t="shared" si="7"/>
+        <v>304</v>
+      </c>
+      <c r="F317" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G317" s="26"/>
+      <c r="H317" s="26"/>
+      <c r="I317" s="26"/>
+      <c r="J317" s="26"/>
+      <c r="K317" s="26"/>
+      <c r="L317" s="26"/>
+      <c r="M317" s="26"/>
+      <c r="N317" s="26"/>
+      <c r="O317" s="26"/>
+      <c r="P317" s="26"/>
+    </row>
+    <row r="318" spans="2:16">
+      <c r="B318" s="27">
+        <v>46063</v>
+      </c>
+      <c r="C318" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D318" s="26">
+        <v>144</v>
+      </c>
+      <c r="E318" s="26">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="F318" s="8">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G318" s="26"/>
+      <c r="H318" s="26">
+        <v>4</v>
+      </c>
+      <c r="I318" s="26"/>
+      <c r="J318" s="26"/>
+      <c r="K318" s="26"/>
+      <c r="L318" s="26"/>
+      <c r="M318" s="26"/>
+      <c r="N318" s="26"/>
+      <c r="O318" s="26"/>
+      <c r="P318" s="26"/>
+    </row>
+    <row r="319" spans="2:16">
+      <c r="B319" s="27">
+        <v>46063</v>
+      </c>
+      <c r="C319" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D319" s="26">
+        <v>1280</v>
+      </c>
+      <c r="E319" s="26">
+        <f t="shared" si="7"/>
+        <v>1280</v>
+      </c>
+      <c r="F319" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G319" s="26"/>
+      <c r="H319" s="26"/>
+      <c r="I319" s="26"/>
+      <c r="J319" s="26"/>
+      <c r="K319" s="26"/>
+      <c r="L319" s="26"/>
+      <c r="M319" s="26"/>
+      <c r="N319" s="26"/>
+      <c r="O319" s="26"/>
+      <c r="P319" s="26"/>
+    </row>
+    <row r="320" spans="2:16">
+      <c r="B320" s="27">
+        <v>46063</v>
+      </c>
+      <c r="C320" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D320" s="26">
+        <v>98</v>
+      </c>
+      <c r="E320" s="26">
+        <f t="shared" si="7"/>
+        <v>98</v>
+      </c>
+      <c r="F320" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G320" s="26"/>
+      <c r="H320" s="26"/>
+      <c r="I320" s="26"/>
+      <c r="J320" s="26"/>
+      <c r="K320" s="26"/>
+      <c r="L320" s="26"/>
+      <c r="M320" s="26"/>
+      <c r="N320" s="26"/>
+      <c r="O320" s="26"/>
+      <c r="P320" s="26"/>
+    </row>
+    <row r="321" spans="2:16">
+      <c r="B321" s="27">
+        <v>46063</v>
+      </c>
+      <c r="C321" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D321" s="26">
+        <v>386</v>
+      </c>
+      <c r="E321" s="26">
+        <f t="shared" si="7"/>
+        <v>380</v>
+      </c>
+      <c r="F321" s="8">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="G321" s="26"/>
+      <c r="H321" s="26">
+        <v>6</v>
+      </c>
+      <c r="I321" s="26"/>
+      <c r="J321" s="26"/>
+      <c r="K321" s="26"/>
+      <c r="L321" s="26"/>
+      <c r="M321" s="26"/>
+      <c r="N321" s="26"/>
+      <c r="O321" s="26"/>
+      <c r="P321" s="26"/>
+    </row>
+    <row r="322" spans="2:16">
+      <c r="B322" s="27">
+        <v>46063</v>
+      </c>
+      <c r="C322" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D322" s="26">
+        <v>386</v>
+      </c>
+      <c r="E322" s="26">
+        <f t="shared" si="7"/>
+        <v>380</v>
+      </c>
+      <c r="F322" s="8">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="G322" s="26"/>
+      <c r="H322" s="26">
+        <v>6</v>
+      </c>
+      <c r="I322" s="26"/>
+      <c r="J322" s="26"/>
+      <c r="K322" s="26"/>
+      <c r="L322" s="26"/>
+      <c r="M322" s="26"/>
+      <c r="N322" s="26"/>
+      <c r="O322" s="26"/>
+      <c r="P322" s="26"/>
+    </row>
+    <row r="323" spans="2:16">
+      <c r="B323" s="27">
+        <v>46063</v>
+      </c>
+      <c r="C323" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D323" s="26">
+        <v>1620</v>
+      </c>
+      <c r="E323" s="26">
+        <f t="shared" si="7"/>
+        <v>1620</v>
+      </c>
+      <c r="F323" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G323" s="26"/>
+      <c r="H323" s="26"/>
+      <c r="I323" s="26"/>
+      <c r="J323" s="26"/>
+      <c r="K323" s="26"/>
+      <c r="L323" s="26"/>
+      <c r="M323" s="26"/>
+      <c r="N323" s="26"/>
+      <c r="O323" s="26"/>
+      <c r="P323" s="26"/>
+    </row>
+    <row r="324" spans="2:16">
+      <c r="B324" s="27">
+        <v>46063</v>
+      </c>
+      <c r="C324" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D324" s="26">
+        <v>567</v>
+      </c>
+      <c r="E324" s="26">
+        <f t="shared" si="7"/>
+        <v>530</v>
+      </c>
+      <c r="F324" s="8">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="G324" s="26"/>
+      <c r="H324" s="26"/>
+      <c r="I324" s="26"/>
+      <c r="J324" s="26">
+        <v>37</v>
+      </c>
+      <c r="K324" s="26"/>
+      <c r="L324" s="26"/>
+      <c r="M324" s="26"/>
+      <c r="N324" s="26"/>
+      <c r="O324" s="26"/>
+      <c r="P324" s="26"/>
+    </row>
+    <row r="325" spans="2:16">
+      <c r="B325" s="27">
+        <v>46063</v>
+      </c>
+      <c r="C325" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D325" s="26">
+        <v>1058</v>
+      </c>
+      <c r="E325" s="26">
+        <f t="shared" si="7"/>
+        <v>1056</v>
+      </c>
+      <c r="F325" s="8">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G325" s="26"/>
+      <c r="H325" s="26"/>
+      <c r="I325" s="26"/>
+      <c r="J325" s="26">
+        <v>2</v>
+      </c>
+      <c r="K325" s="26"/>
+      <c r="L325" s="26"/>
+      <c r="M325" s="26"/>
+      <c r="N325" s="26"/>
+      <c r="O325" s="26"/>
+      <c r="P325" s="26"/>
+    </row>
+    <row r="326" spans="2:16">
+      <c r="B326" s="27">
+        <v>46063</v>
+      </c>
+      <c r="C326" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="D326" s="26">
+        <v>410</v>
+      </c>
+      <c r="E326" s="26">
+        <f t="shared" si="7"/>
+        <v>410</v>
+      </c>
+      <c r="F326" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G326" s="26"/>
+      <c r="H326" s="26"/>
+      <c r="I326" s="26"/>
+      <c r="J326" s="26"/>
+      <c r="K326" s="26"/>
+      <c r="L326" s="26"/>
+      <c r="M326" s="26"/>
+      <c r="N326" s="26"/>
+      <c r="O326" s="26"/>
+      <c r="P326" s="26"/>
+    </row>
+    <row r="327" spans="2:16">
+      <c r="B327" s="27">
+        <v>46063</v>
+      </c>
+      <c r="C327" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D327" s="26">
+        <v>336</v>
+      </c>
+      <c r="E327" s="26">
+        <f t="shared" si="7"/>
+        <v>336</v>
+      </c>
+      <c r="F327" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G327" s="26"/>
+      <c r="H327" s="26"/>
+      <c r="I327" s="26"/>
+      <c r="J327" s="26"/>
+      <c r="K327" s="26"/>
+      <c r="L327" s="26"/>
+      <c r="M327" s="26"/>
+      <c r="N327" s="26"/>
+      <c r="O327" s="26"/>
+      <c r="P327" s="26"/>
+    </row>
+    <row r="328" spans="2:16">
+      <c r="B328" s="27">
+        <v>46063</v>
+      </c>
+      <c r="C328" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D328" s="26">
+        <v>1080</v>
+      </c>
+      <c r="E328" s="26">
+        <f t="shared" si="7"/>
+        <v>1080</v>
+      </c>
+      <c r="F328" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G328" s="26"/>
+      <c r="H328" s="26"/>
+      <c r="I328" s="26"/>
+      <c r="J328" s="26"/>
+      <c r="K328" s="26"/>
+      <c r="L328" s="26"/>
+      <c r="M328" s="26"/>
+      <c r="N328" s="26"/>
+      <c r="O328" s="26"/>
+      <c r="P328" s="26"/>
+    </row>
+    <row r="329" spans="2:16">
+      <c r="B329" s="27">
+        <v>46063</v>
+      </c>
+      <c r="C329" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="D329" s="26">
+        <v>150</v>
+      </c>
+      <c r="E329" s="26">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="F329" s="8">
+        <f t="shared" ref="F329:F392" si="8">SUM(G329:P329)</f>
+        <v>0</v>
+      </c>
+      <c r="G329" s="26"/>
+      <c r="H329" s="26"/>
+      <c r="I329" s="26"/>
+      <c r="J329" s="26"/>
+      <c r="K329" s="26"/>
+      <c r="L329" s="26"/>
+      <c r="M329" s="26"/>
+      <c r="N329" s="26"/>
+      <c r="O329" s="26"/>
+      <c r="P329" s="26"/>
+    </row>
+    <row r="330" spans="2:16">
+      <c r="B330" s="27">
+        <v>46063</v>
+      </c>
+      <c r="C330" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D330" s="26">
+        <v>230</v>
+      </c>
+      <c r="E330" s="26">
+        <f t="shared" si="7"/>
+        <v>230</v>
+      </c>
+      <c r="F330" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G330" s="26"/>
+      <c r="H330" s="26"/>
+      <c r="I330" s="26"/>
+      <c r="J330" s="26"/>
+      <c r="K330" s="26"/>
+      <c r="L330" s="26"/>
+      <c r="M330" s="26"/>
+      <c r="N330" s="26"/>
+      <c r="O330" s="26"/>
+      <c r="P330" s="26"/>
+    </row>
+    <row r="331" spans="2:16">
+      <c r="B331" s="27">
+        <v>46063</v>
+      </c>
+      <c r="C331" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="D331" s="26">
+        <v>1128</v>
+      </c>
+      <c r="E331" s="26">
+        <f t="shared" si="7"/>
+        <v>1128</v>
+      </c>
+      <c r="F331" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G331" s="26"/>
+      <c r="H331" s="26"/>
+      <c r="I331" s="26"/>
+      <c r="J331" s="26"/>
+      <c r="K331" s="26"/>
+      <c r="L331" s="26"/>
+      <c r="M331" s="26"/>
+      <c r="N331" s="26"/>
+      <c r="O331" s="26"/>
+      <c r="P331" s="26"/>
+    </row>
+    <row r="332" spans="2:16">
+      <c r="B332" s="27">
+        <v>46063</v>
+      </c>
+      <c r="C332" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D332" s="26">
+        <v>304</v>
+      </c>
+      <c r="E332" s="26">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+      <c r="F332" s="8">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="G332" s="26"/>
+      <c r="H332" s="26"/>
+      <c r="I332" s="26"/>
+      <c r="J332" s="26"/>
+      <c r="K332" s="26"/>
+      <c r="L332" s="26"/>
+      <c r="M332" s="26"/>
+      <c r="N332" s="26"/>
+      <c r="O332" s="26"/>
+      <c r="P332" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="2:16">
+      <c r="B333" s="27">
+        <v>46063</v>
+      </c>
+      <c r="C333" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D333" s="26">
+        <v>389</v>
+      </c>
+      <c r="E333" s="26">
+        <f t="shared" si="7"/>
+        <v>360</v>
+      </c>
+      <c r="F333" s="8">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="G333" s="26"/>
+      <c r="H333" s="26">
+        <v>29</v>
+      </c>
+      <c r="I333" s="26"/>
+      <c r="J333" s="26"/>
+      <c r="K333" s="26"/>
+      <c r="L333" s="26"/>
+      <c r="M333" s="26"/>
+      <c r="N333" s="26"/>
+      <c r="O333" s="26"/>
+      <c r="P333" s="26"/>
+    </row>
+    <row r="334" spans="2:16">
+      <c r="B334" s="27">
+        <v>46063</v>
+      </c>
+      <c r="C334" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D334" s="26">
+        <v>1374</v>
+      </c>
+      <c r="E334" s="26">
+        <f t="shared" si="7"/>
+        <v>1374</v>
+      </c>
+      <c r="F334" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G334" s="26"/>
+      <c r="H334" s="26"/>
+      <c r="I334" s="26"/>
+      <c r="J334" s="26"/>
+      <c r="K334" s="26"/>
+      <c r="L334" s="26"/>
+      <c r="M334" s="26"/>
+      <c r="N334" s="26"/>
+      <c r="O334" s="26"/>
+      <c r="P334" s="26"/>
+    </row>
+    <row r="335" spans="2:16">
+      <c r="B335" s="27">
+        <v>46063</v>
+      </c>
+      <c r="C335" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D335" s="26">
+        <v>1954</v>
+      </c>
+      <c r="E335" s="26">
+        <f t="shared" si="7"/>
+        <v>1936</v>
+      </c>
+      <c r="F335" s="8">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="G335" s="26"/>
+      <c r="H335" s="26">
+        <v>17</v>
+      </c>
+      <c r="I335" s="26"/>
+      <c r="J335" s="26"/>
+      <c r="K335" s="26"/>
+      <c r="L335" s="26"/>
+      <c r="M335" s="26"/>
+      <c r="N335" s="26"/>
+      <c r="O335" s="26"/>
+      <c r="P335" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="2:16">
+      <c r="B336" s="36">
+        <v>46064</v>
+      </c>
+      <c r="C336" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D336" s="26">
+        <v>525</v>
+      </c>
+      <c r="E336" s="26">
+        <f>D336-F336</f>
+        <v>510</v>
+      </c>
+      <c r="F336" s="8">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="G336" s="26">
+        <v>8</v>
+      </c>
+      <c r="H336" s="26">
+        <v>7</v>
+      </c>
+      <c r="I336" s="33"/>
+      <c r="J336" s="33"/>
+      <c r="K336" s="33"/>
+      <c r="L336" s="26"/>
+      <c r="M336" s="26"/>
+      <c r="N336" s="26"/>
+      <c r="O336" s="26"/>
+      <c r="P336" s="33"/>
+    </row>
+    <row r="337" spans="2:16">
+      <c r="B337" s="27">
+        <v>46064</v>
+      </c>
+      <c r="C337" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D337" s="26">
+        <v>189</v>
+      </c>
+      <c r="E337" s="26">
+        <f t="shared" ref="E337:E361" si="9">D337-F337</f>
+        <v>180</v>
+      </c>
+      <c r="F337" s="8">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="G337" s="26">
+        <v>7</v>
+      </c>
+      <c r="H337" s="26">
+        <v>2</v>
+      </c>
+      <c r="I337" s="26"/>
+      <c r="J337" s="26"/>
+      <c r="K337" s="26"/>
+      <c r="L337" s="26"/>
+      <c r="M337" s="26"/>
+      <c r="N337" s="26"/>
+      <c r="O337" s="26"/>
+      <c r="P337" s="26"/>
+    </row>
+    <row r="338" spans="2:16">
+      <c r="B338" s="36">
+        <v>46064</v>
+      </c>
+      <c r="C338" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="D338" s="26">
+        <v>170</v>
+      </c>
+      <c r="E338" s="26">
+        <f t="shared" si="9"/>
+        <v>170</v>
+      </c>
+      <c r="F338" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G338" s="26"/>
+      <c r="H338" s="26"/>
+      <c r="I338" s="26"/>
+      <c r="J338" s="26"/>
+      <c r="K338" s="26"/>
+      <c r="L338" s="26"/>
+      <c r="M338" s="26"/>
+      <c r="N338" s="26"/>
+      <c r="O338" s="26"/>
+      <c r="P338" s="26"/>
+    </row>
+    <row r="339" spans="2:16">
+      <c r="B339" s="27">
+        <v>46064</v>
+      </c>
+      <c r="C339" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D339" s="26">
+        <v>25</v>
+      </c>
+      <c r="E339" s="26">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="F339" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G339" s="26"/>
+      <c r="H339" s="26"/>
+      <c r="I339" s="26"/>
+      <c r="J339" s="26"/>
+      <c r="K339" s="26"/>
+      <c r="L339" s="26"/>
+      <c r="M339" s="26"/>
+      <c r="N339" s="26"/>
+      <c r="O339" s="26"/>
+      <c r="P339" s="26"/>
+    </row>
+    <row r="340" spans="2:16">
+      <c r="B340" s="36">
+        <v>46064</v>
+      </c>
+      <c r="C340" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D340" s="26">
+        <v>120</v>
+      </c>
+      <c r="E340" s="26">
+        <f t="shared" si="9"/>
+        <v>120</v>
+      </c>
+      <c r="F340" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G340" s="26"/>
+      <c r="H340" s="26"/>
+      <c r="I340" s="26"/>
+      <c r="J340" s="26"/>
+      <c r="K340" s="26"/>
+      <c r="L340" s="26"/>
+      <c r="M340" s="26"/>
+      <c r="N340" s="26"/>
+      <c r="O340" s="26"/>
+      <c r="P340" s="26"/>
+    </row>
+    <row r="341" spans="2:16">
+      <c r="B341" s="27">
+        <v>46064</v>
+      </c>
+      <c r="C341" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="D341" s="26">
+        <v>116</v>
+      </c>
+      <c r="E341" s="26">
+        <f t="shared" si="9"/>
+        <v>116</v>
+      </c>
+      <c r="F341" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G341" s="26"/>
+      <c r="H341" s="26"/>
+      <c r="I341" s="26"/>
+      <c r="J341" s="26"/>
+      <c r="K341" s="26"/>
+      <c r="L341" s="26"/>
+      <c r="M341" s="26"/>
+      <c r="N341" s="26"/>
+      <c r="O341" s="26"/>
+      <c r="P341" s="26"/>
+    </row>
+    <row r="342" spans="2:16">
+      <c r="B342" s="36">
+        <v>46064</v>
+      </c>
+      <c r="C342" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="D342" s="26">
+        <v>200</v>
+      </c>
+      <c r="E342" s="26">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="F342" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G342" s="26"/>
+      <c r="H342" s="26"/>
+      <c r="I342" s="26"/>
+      <c r="J342" s="26"/>
+      <c r="K342" s="26"/>
+      <c r="L342" s="26"/>
+      <c r="M342" s="26"/>
+      <c r="N342" s="26"/>
+      <c r="O342" s="26"/>
+      <c r="P342" s="26"/>
+    </row>
+    <row r="343" spans="2:16">
+      <c r="B343" s="27">
+        <v>46064</v>
+      </c>
+      <c r="C343" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D343" s="26">
+        <v>374</v>
+      </c>
+      <c r="E343" s="26">
+        <f t="shared" si="9"/>
+        <v>370</v>
+      </c>
+      <c r="F343" s="8">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="G343" s="26"/>
+      <c r="H343" s="26">
+        <v>4</v>
+      </c>
+      <c r="I343" s="26"/>
+      <c r="J343" s="26"/>
+      <c r="K343" s="26"/>
+      <c r="L343" s="26"/>
+      <c r="M343" s="26"/>
+      <c r="N343" s="26"/>
+      <c r="O343" s="26"/>
+      <c r="P343" s="26"/>
+    </row>
+    <row r="344" spans="2:16">
+      <c r="B344" s="36">
+        <v>46064</v>
+      </c>
+      <c r="C344" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="D344" s="26">
+        <v>72</v>
+      </c>
+      <c r="E344" s="26">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="F344" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G344" s="26"/>
+      <c r="H344" s="26"/>
+      <c r="I344" s="26"/>
+      <c r="J344" s="26"/>
+      <c r="K344" s="26"/>
+      <c r="L344" s="26"/>
+      <c r="M344" s="26"/>
+      <c r="N344" s="26"/>
+      <c r="O344" s="26"/>
+      <c r="P344" s="26"/>
+    </row>
+    <row r="345" spans="2:16">
+      <c r="B345" s="27">
+        <v>46064</v>
+      </c>
+      <c r="C345" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D345" s="26">
+        <v>480</v>
+      </c>
+      <c r="E345" s="26">
+        <f t="shared" si="9"/>
+        <v>480</v>
+      </c>
+      <c r="F345" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G345" s="26"/>
+      <c r="H345" s="26"/>
+      <c r="I345" s="26"/>
+      <c r="J345" s="26"/>
+      <c r="K345" s="34"/>
+      <c r="L345" s="26"/>
+      <c r="M345" s="26"/>
+      <c r="N345" s="26"/>
+      <c r="O345" s="26"/>
+      <c r="P345" s="26"/>
+    </row>
+    <row r="346" spans="2:16">
+      <c r="B346" s="36">
+        <v>46064</v>
+      </c>
+      <c r="C346" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D346" s="26">
+        <v>403</v>
+      </c>
+      <c r="E346" s="26">
+        <f t="shared" si="9"/>
+        <v>385</v>
+      </c>
+      <c r="F346" s="8">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="G346" s="26"/>
+      <c r="H346" s="26">
+        <v>18</v>
+      </c>
+      <c r="I346" s="26"/>
+      <c r="J346" s="26"/>
+      <c r="K346" s="26"/>
+      <c r="L346" s="26"/>
+      <c r="M346" s="26"/>
+      <c r="N346" s="26"/>
+      <c r="O346" s="26"/>
+      <c r="P346" s="26"/>
+    </row>
+    <row r="347" spans="2:16">
+      <c r="B347" s="27">
+        <v>46064</v>
+      </c>
+      <c r="C347" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D347" s="26">
+        <v>1680</v>
+      </c>
+      <c r="E347" s="26">
+        <f t="shared" si="9"/>
+        <v>1680</v>
+      </c>
+      <c r="F347" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G347" s="26"/>
+      <c r="H347" s="26"/>
+      <c r="I347" s="26"/>
+      <c r="J347" s="26"/>
+      <c r="K347" s="26"/>
+      <c r="L347" s="26"/>
+      <c r="M347" s="26"/>
+      <c r="N347" s="26"/>
+      <c r="O347" s="26"/>
+      <c r="P347" s="26"/>
+    </row>
+    <row r="348" spans="2:16">
+      <c r="B348" s="36">
+        <v>46064</v>
+      </c>
+      <c r="C348" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D348" s="26">
+        <v>761</v>
+      </c>
+      <c r="E348" s="26">
+        <f t="shared" si="9"/>
+        <v>760</v>
+      </c>
+      <c r="F348" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G348" s="26"/>
+      <c r="H348" s="26">
+        <v>1</v>
+      </c>
+      <c r="I348" s="26"/>
+      <c r="J348" s="26"/>
+      <c r="K348" s="26"/>
+      <c r="L348" s="26"/>
+      <c r="M348" s="26"/>
+      <c r="N348" s="26"/>
+      <c r="O348" s="26"/>
+      <c r="P348" s="26"/>
+    </row>
+    <row r="349" spans="2:16">
+      <c r="B349" s="27">
+        <v>46064</v>
+      </c>
+      <c r="C349" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="D349" s="26">
+        <v>512</v>
+      </c>
+      <c r="E349" s="26">
+        <f t="shared" si="9"/>
+        <v>512</v>
+      </c>
+      <c r="F349" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G349" s="26"/>
+      <c r="H349" s="26"/>
+      <c r="I349" s="26"/>
+      <c r="J349" s="26"/>
+      <c r="K349" s="26"/>
+      <c r="L349" s="26"/>
+      <c r="M349" s="26"/>
+      <c r="N349" s="26"/>
+      <c r="O349" s="26"/>
+      <c r="P349" s="26"/>
+    </row>
+    <row r="350" spans="2:16">
+      <c r="B350" s="36">
+        <v>46064</v>
+      </c>
+      <c r="C350" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D350" s="26">
+        <v>224</v>
+      </c>
+      <c r="E350" s="26">
+        <f t="shared" si="9"/>
+        <v>224</v>
+      </c>
+      <c r="F350" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G350" s="26"/>
+      <c r="H350" s="26"/>
+      <c r="I350" s="26"/>
+      <c r="J350" s="26"/>
+      <c r="K350" s="26"/>
+      <c r="L350" s="26"/>
+      <c r="M350" s="26"/>
+      <c r="N350" s="26"/>
+      <c r="O350" s="26"/>
+      <c r="P350" s="26"/>
+    </row>
+    <row r="351" spans="2:16">
+      <c r="B351" s="27">
+        <v>46064</v>
+      </c>
+      <c r="C351" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D351" s="26">
+        <v>450</v>
+      </c>
+      <c r="E351" s="26">
+        <f t="shared" si="9"/>
+        <v>450</v>
+      </c>
+      <c r="F351" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G351" s="26"/>
+      <c r="H351" s="26"/>
+      <c r="I351" s="26"/>
+      <c r="J351" s="26"/>
+      <c r="K351" s="26"/>
+      <c r="L351" s="26"/>
+      <c r="M351" s="26"/>
+      <c r="N351" s="26"/>
+      <c r="O351" s="26"/>
+      <c r="P351" s="26"/>
+    </row>
+    <row r="352" spans="2:16">
+      <c r="B352" s="36">
+        <v>46064</v>
+      </c>
+      <c r="C352" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D352" s="26">
+        <v>704</v>
+      </c>
+      <c r="E352" s="26">
+        <f t="shared" si="9"/>
+        <v>650</v>
+      </c>
+      <c r="F352" s="8">
+        <f t="shared" si="8"/>
+        <v>54</v>
+      </c>
+      <c r="G352" s="26"/>
+      <c r="H352" s="26"/>
+      <c r="I352" s="26"/>
+      <c r="J352" s="26"/>
+      <c r="K352" s="26"/>
+      <c r="L352" s="26"/>
+      <c r="M352" s="26"/>
+      <c r="N352" s="26"/>
+      <c r="O352" s="26"/>
+      <c r="P352" s="26">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="353" spans="2:16">
+      <c r="B353" s="27">
+        <v>46064</v>
+      </c>
+      <c r="C353" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D353" s="26">
+        <v>680</v>
+      </c>
+      <c r="E353" s="26">
+        <f t="shared" si="9"/>
+        <v>678</v>
+      </c>
+      <c r="F353" s="8">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="G353" s="26"/>
+      <c r="H353" s="26"/>
+      <c r="I353" s="26"/>
+      <c r="J353" s="26"/>
+      <c r="K353" s="26"/>
+      <c r="L353" s="26">
+        <v>2</v>
+      </c>
+      <c r="M353" s="26"/>
+      <c r="N353" s="26"/>
+      <c r="O353" s="26"/>
+      <c r="P353" s="26"/>
+    </row>
+    <row r="354" spans="2:16">
+      <c r="B354" s="36">
+        <v>46064</v>
+      </c>
+      <c r="C354" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D354" s="26">
+        <v>940</v>
+      </c>
+      <c r="E354" s="26">
+        <f t="shared" si="9"/>
+        <v>940</v>
+      </c>
+      <c r="F354" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G354" s="26"/>
+      <c r="H354" s="26"/>
+      <c r="I354" s="26"/>
+      <c r="J354" s="26"/>
+      <c r="K354" s="26"/>
+      <c r="L354" s="26"/>
+      <c r="M354" s="26"/>
+      <c r="N354" s="26"/>
+      <c r="O354" s="26"/>
+      <c r="P354" s="26"/>
+    </row>
+    <row r="355" spans="2:16">
+      <c r="B355" s="27">
+        <v>46064</v>
+      </c>
+      <c r="C355" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D355" s="26">
+        <v>360</v>
+      </c>
+      <c r="E355" s="26">
+        <f t="shared" si="9"/>
+        <v>360</v>
+      </c>
+      <c r="F355" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G355" s="26"/>
+      <c r="H355" s="26"/>
+      <c r="I355" s="26"/>
+      <c r="J355" s="26"/>
+      <c r="K355" s="26"/>
+      <c r="L355" s="26"/>
+      <c r="M355" s="26"/>
+      <c r="N355" s="26"/>
+      <c r="O355" s="26"/>
+      <c r="P355" s="26"/>
+    </row>
+    <row r="356" spans="2:16">
+      <c r="B356" s="36">
+        <v>46064</v>
+      </c>
+      <c r="C356" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D356" s="26">
+        <v>1300</v>
+      </c>
+      <c r="E356" s="26">
+        <f t="shared" si="9"/>
+        <v>1300</v>
+      </c>
+      <c r="F356" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G356" s="26"/>
+      <c r="H356" s="26"/>
+      <c r="I356" s="26"/>
+      <c r="J356" s="26"/>
+      <c r="K356" s="26"/>
+      <c r="L356" s="26"/>
+      <c r="M356" s="26"/>
+      <c r="N356" s="26"/>
+      <c r="O356" s="26"/>
+      <c r="P356" s="26"/>
+    </row>
+    <row r="357" spans="2:16">
+      <c r="B357" s="27">
+        <v>46064</v>
+      </c>
+      <c r="C357" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D357" s="26">
+        <v>263</v>
+      </c>
+      <c r="E357" s="26">
+        <f t="shared" si="9"/>
+        <v>260</v>
+      </c>
+      <c r="F357" s="8">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="G357" s="26"/>
+      <c r="H357" s="26"/>
+      <c r="I357" s="26"/>
+      <c r="J357" s="26"/>
+      <c r="K357" s="26"/>
+      <c r="L357" s="26"/>
+      <c r="M357" s="26"/>
+      <c r="N357" s="26"/>
+      <c r="O357" s="26"/>
+      <c r="P357" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="2:16">
+      <c r="B358" s="36">
+        <v>46064</v>
+      </c>
+      <c r="C358" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D358" s="26">
+        <v>380</v>
+      </c>
+      <c r="E358" s="26">
+        <f t="shared" si="9"/>
+        <v>360</v>
+      </c>
+      <c r="F358" s="8">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="G358" s="26"/>
+      <c r="H358" s="26">
+        <v>20</v>
+      </c>
+      <c r="I358" s="26"/>
+      <c r="J358" s="26"/>
+      <c r="K358" s="26"/>
+      <c r="L358" s="26"/>
+      <c r="M358" s="26"/>
+      <c r="N358" s="26"/>
+      <c r="O358" s="26"/>
+      <c r="P358" s="26"/>
+    </row>
+    <row r="359" spans="2:16">
+      <c r="B359" s="27">
+        <v>46064</v>
+      </c>
+      <c r="C359" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D359" s="26">
+        <v>513</v>
+      </c>
+      <c r="E359" s="26">
+        <f t="shared" si="9"/>
+        <v>504</v>
+      </c>
+      <c r="F359" s="8">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="G359" s="26">
+        <v>5</v>
+      </c>
+      <c r="H359" s="26">
+        <v>4</v>
+      </c>
+      <c r="I359" s="26"/>
+      <c r="J359" s="26"/>
+      <c r="K359" s="26"/>
+      <c r="L359" s="26"/>
+      <c r="M359" s="26"/>
+      <c r="N359" s="26"/>
+      <c r="O359" s="26"/>
+      <c r="P359" s="26"/>
+    </row>
+    <row r="360" spans="2:16">
+      <c r="B360" s="36">
+        <v>46064</v>
+      </c>
+      <c r="C360" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D360" s="26">
+        <v>757</v>
+      </c>
+      <c r="E360" s="26">
+        <f t="shared" si="9"/>
+        <v>750</v>
+      </c>
+      <c r="F360" s="8">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="G360" s="26">
+        <v>3</v>
+      </c>
+      <c r="H360" s="26">
+        <v>4</v>
+      </c>
+      <c r="I360" s="26"/>
+      <c r="J360" s="26"/>
+      <c r="K360" s="26"/>
+      <c r="L360" s="26"/>
+      <c r="M360" s="26"/>
+      <c r="N360" s="26"/>
+      <c r="O360" s="26"/>
+      <c r="P360" s="26"/>
+    </row>
+    <row r="361" spans="2:16">
+      <c r="B361" s="27">
+        <v>46064</v>
+      </c>
+      <c r="C361" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D361" s="26">
+        <v>2209</v>
+      </c>
+      <c r="E361" s="26">
+        <f t="shared" si="9"/>
+        <v>2209</v>
+      </c>
+      <c r="F361" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G361" s="26"/>
+      <c r="H361" s="26"/>
+      <c r="I361" s="26"/>
+      <c r="J361" s="26"/>
+      <c r="K361" s="26"/>
+      <c r="L361" s="26"/>
+      <c r="M361" s="26"/>
+      <c r="N361" s="26"/>
+      <c r="O361" s="26"/>
+      <c r="P361" s="26"/>
+    </row>
+    <row r="362" spans="2:16">
+      <c r="B362" s="36">
+        <v>46065</v>
+      </c>
+      <c r="C362" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D362" s="26">
+        <v>528</v>
+      </c>
+      <c r="E362" s="26">
+        <f>D362-F362</f>
+        <v>516</v>
+      </c>
+      <c r="F362" s="8">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="G362" s="28">
+        <v>2</v>
+      </c>
+      <c r="H362" s="28">
+        <v>10</v>
+      </c>
+      <c r="I362" s="39"/>
+      <c r="J362" s="39"/>
+      <c r="K362" s="39"/>
+      <c r="L362" s="28"/>
+      <c r="M362" s="28"/>
+      <c r="N362" s="28"/>
+      <c r="O362" s="28"/>
+      <c r="P362" s="39"/>
+    </row>
+    <row r="363" spans="2:16">
+      <c r="B363" s="27">
+        <v>46065</v>
+      </c>
+      <c r="C363" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D363" s="26">
+        <v>698</v>
+      </c>
+      <c r="E363" s="26">
+        <f t="shared" ref="E363:E399" si="10">D363-F363</f>
+        <v>680</v>
+      </c>
+      <c r="F363" s="8">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="G363" s="28"/>
+      <c r="H363" s="28"/>
+      <c r="I363" s="28"/>
+      <c r="J363" s="28"/>
+      <c r="K363" s="28"/>
+      <c r="L363" s="28">
+        <v>18</v>
+      </c>
+      <c r="M363" s="28"/>
+      <c r="N363" s="28"/>
+      <c r="O363" s="28"/>
+      <c r="P363" s="28"/>
+    </row>
+    <row r="364" spans="2:16">
+      <c r="B364" s="36">
+        <v>46065</v>
+      </c>
+      <c r="C364" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D364" s="26">
+        <v>144</v>
+      </c>
+      <c r="E364" s="26">
+        <f t="shared" si="10"/>
+        <v>140</v>
+      </c>
+      <c r="F364" s="8">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="G364" s="28">
+        <v>4</v>
+      </c>
+      <c r="H364" s="28"/>
+      <c r="I364" s="28"/>
+      <c r="J364" s="28"/>
+      <c r="K364" s="28"/>
+      <c r="L364" s="28"/>
+      <c r="M364" s="28"/>
+      <c r="N364" s="28"/>
+      <c r="O364" s="28"/>
+      <c r="P364" s="28"/>
+    </row>
+    <row r="365" spans="2:16">
+      <c r="B365" s="27">
+        <v>46065</v>
+      </c>
+      <c r="C365" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D365" s="26">
+        <v>544</v>
+      </c>
+      <c r="E365" s="26">
+        <f t="shared" si="10"/>
+        <v>540</v>
+      </c>
+      <c r="F365" s="8">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="G365" s="28">
+        <v>4</v>
+      </c>
+      <c r="H365" s="28"/>
+      <c r="I365" s="28"/>
+      <c r="J365" s="28"/>
+      <c r="K365" s="28"/>
+      <c r="L365" s="28"/>
+      <c r="M365" s="28"/>
+      <c r="N365" s="28"/>
+      <c r="O365" s="28"/>
+      <c r="P365" s="28"/>
+    </row>
+    <row r="366" spans="2:16">
+      <c r="B366" s="36">
+        <v>46065</v>
+      </c>
+      <c r="C366" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D366" s="26">
+        <v>181</v>
+      </c>
+      <c r="E366" s="26">
+        <f t="shared" si="10"/>
+        <v>180</v>
+      </c>
+      <c r="F366" s="8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G366" s="28"/>
+      <c r="H366" s="28">
+        <v>1</v>
+      </c>
+      <c r="I366" s="28"/>
+      <c r="J366" s="28"/>
+      <c r="K366" s="28"/>
+      <c r="L366" s="28"/>
+      <c r="M366" s="28"/>
+      <c r="N366" s="28"/>
+      <c r="O366" s="28"/>
+      <c r="P366" s="28"/>
+    </row>
+    <row r="367" spans="2:16">
+      <c r="B367" s="27">
+        <v>46065</v>
+      </c>
+      <c r="C367" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D367" s="26">
+        <v>420</v>
+      </c>
+      <c r="E367" s="26">
+        <f t="shared" si="10"/>
+        <v>420</v>
+      </c>
+      <c r="F367" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G367" s="28"/>
+      <c r="H367" s="28"/>
+      <c r="I367" s="28"/>
+      <c r="J367" s="28"/>
+      <c r="K367" s="28"/>
+      <c r="L367" s="28"/>
+      <c r="M367" s="28"/>
+      <c r="N367" s="28"/>
+      <c r="O367" s="28"/>
+      <c r="P367" s="28"/>
+    </row>
+    <row r="368" spans="2:16">
+      <c r="B368" s="36">
+        <v>46065</v>
+      </c>
+      <c r="C368" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D368" s="26">
+        <v>1280</v>
+      </c>
+      <c r="E368" s="26">
+        <f t="shared" si="10"/>
+        <v>1280</v>
+      </c>
+      <c r="F368" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G368" s="28"/>
+      <c r="H368" s="28"/>
+      <c r="I368" s="28"/>
+      <c r="J368" s="28"/>
+      <c r="K368" s="28"/>
+      <c r="L368" s="28"/>
+      <c r="M368" s="28"/>
+      <c r="N368" s="28"/>
+      <c r="O368" s="28"/>
+      <c r="P368" s="28"/>
+    </row>
+    <row r="369" spans="2:16">
+      <c r="B369" s="27">
+        <v>46065</v>
+      </c>
+      <c r="C369" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D369" s="26">
+        <v>416</v>
+      </c>
+      <c r="E369" s="26">
+        <f t="shared" si="10"/>
+        <v>416</v>
+      </c>
+      <c r="F369" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G369" s="28"/>
+      <c r="H369" s="28"/>
+      <c r="I369" s="28"/>
+      <c r="J369" s="28"/>
+      <c r="K369" s="28"/>
+      <c r="L369" s="28"/>
+      <c r="M369" s="28"/>
+      <c r="N369" s="28"/>
+      <c r="O369" s="28"/>
+      <c r="P369" s="28"/>
+    </row>
+    <row r="370" spans="2:16">
+      <c r="B370" s="36">
+        <v>46065</v>
+      </c>
+      <c r="C370" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D370" s="26">
+        <v>900</v>
+      </c>
+      <c r="E370" s="26">
+        <f t="shared" si="10"/>
+        <v>900</v>
+      </c>
+      <c r="F370" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G370" s="28"/>
+      <c r="H370" s="28"/>
+      <c r="I370" s="28"/>
+      <c r="J370" s="28"/>
+      <c r="K370" s="28"/>
+      <c r="L370" s="28"/>
+      <c r="M370" s="28"/>
+      <c r="N370" s="28"/>
+      <c r="O370" s="28"/>
+      <c r="P370" s="28"/>
+    </row>
+    <row r="371" spans="2:16">
+      <c r="B371" s="27">
+        <v>46065</v>
+      </c>
+      <c r="C371" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D371" s="26">
+        <v>808</v>
+      </c>
+      <c r="E371" s="26">
+        <f t="shared" si="10"/>
+        <v>800</v>
+      </c>
+      <c r="F371" s="8">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G371" s="28"/>
+      <c r="H371" s="28">
+        <v>8</v>
+      </c>
+      <c r="I371" s="28"/>
+      <c r="J371" s="28"/>
+      <c r="K371" s="28"/>
+      <c r="L371" s="28"/>
+      <c r="M371" s="28"/>
+      <c r="N371" s="28"/>
+      <c r="O371" s="28"/>
+      <c r="P371" s="28"/>
+    </row>
+    <row r="372" spans="2:16">
+      <c r="B372" s="36">
+        <v>46065</v>
+      </c>
+      <c r="C372" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D372" s="26">
+        <v>688</v>
+      </c>
+      <c r="E372" s="26">
+        <f t="shared" si="10"/>
+        <v>688</v>
+      </c>
+      <c r="F372" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G372" s="28"/>
+      <c r="H372" s="28"/>
+      <c r="I372" s="28"/>
+      <c r="J372" s="28"/>
+      <c r="K372" s="28"/>
+      <c r="L372" s="28"/>
+      <c r="M372" s="28"/>
+      <c r="N372" s="28"/>
+      <c r="O372" s="28"/>
+      <c r="P372" s="28"/>
+    </row>
+    <row r="373" spans="2:16">
+      <c r="B373" s="27">
+        <v>46065</v>
+      </c>
+      <c r="C373" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D373" s="26">
+        <v>144</v>
+      </c>
+      <c r="E373" s="26">
+        <f t="shared" si="10"/>
+        <v>144</v>
+      </c>
+      <c r="F373" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G373" s="28"/>
+      <c r="H373" s="28"/>
+      <c r="I373" s="28"/>
+      <c r="J373" s="28"/>
+      <c r="K373" s="28"/>
+      <c r="L373" s="28"/>
+      <c r="M373" s="28"/>
+      <c r="N373" s="28"/>
+      <c r="O373" s="28"/>
+      <c r="P373" s="28"/>
+    </row>
+    <row r="374" spans="2:16">
+      <c r="B374" s="36">
+        <v>46065</v>
+      </c>
+      <c r="C374" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="D374" s="26">
+        <v>660</v>
+      </c>
+      <c r="E374" s="26">
+        <f t="shared" si="10"/>
+        <v>660</v>
+      </c>
+      <c r="F374" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G374" s="28"/>
+      <c r="H374" s="28"/>
+      <c r="I374" s="28"/>
+      <c r="J374" s="28"/>
+      <c r="K374" s="28"/>
+      <c r="L374" s="28"/>
+      <c r="M374" s="28"/>
+      <c r="N374" s="28"/>
+      <c r="O374" s="28"/>
+      <c r="P374" s="28"/>
+    </row>
+    <row r="375" spans="2:16">
+      <c r="B375" s="27">
+        <v>46065</v>
+      </c>
+      <c r="C375" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D375" s="26">
+        <v>170</v>
+      </c>
+      <c r="E375" s="26">
+        <f t="shared" si="10"/>
+        <v>170</v>
+      </c>
+      <c r="F375" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G375" s="28"/>
+      <c r="H375" s="28"/>
+      <c r="I375" s="28"/>
+      <c r="J375" s="28"/>
+      <c r="K375" s="28"/>
+      <c r="L375" s="28"/>
+      <c r="M375" s="28"/>
+      <c r="N375" s="28"/>
+      <c r="O375" s="28"/>
+      <c r="P375" s="28"/>
+    </row>
+    <row r="376" spans="2:16">
+      <c r="B376" s="36">
+        <v>46065</v>
+      </c>
+      <c r="C376" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D376" s="26">
+        <v>240</v>
+      </c>
+      <c r="E376" s="26">
+        <f t="shared" si="10"/>
+        <v>240</v>
+      </c>
+      <c r="F376" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G376" s="28"/>
+      <c r="H376" s="28"/>
+      <c r="I376" s="28"/>
+      <c r="J376" s="28"/>
+      <c r="K376" s="28"/>
+      <c r="L376" s="28"/>
+      <c r="M376" s="28"/>
+      <c r="N376" s="28"/>
+      <c r="O376" s="28"/>
+      <c r="P376" s="28"/>
+    </row>
+    <row r="377" spans="2:16">
+      <c r="B377" s="27">
+        <v>46065</v>
+      </c>
+      <c r="C377" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D377" s="26">
+        <v>258</v>
+      </c>
+      <c r="E377" s="26">
+        <f t="shared" si="10"/>
+        <v>256</v>
+      </c>
+      <c r="F377" s="8">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="G377" s="28"/>
+      <c r="H377" s="28"/>
+      <c r="I377" s="28"/>
+      <c r="J377" s="28"/>
+      <c r="K377" s="28"/>
+      <c r="L377" s="28"/>
+      <c r="M377" s="28"/>
+      <c r="N377" s="28"/>
+      <c r="O377" s="28"/>
+      <c r="P377" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="2:16">
+      <c r="B378" s="36">
+        <v>46065</v>
+      </c>
+      <c r="C378" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D378" s="26">
+        <v>280</v>
+      </c>
+      <c r="E378" s="26">
+        <f t="shared" si="10"/>
+        <v>280</v>
+      </c>
+      <c r="F378" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G378" s="28"/>
+      <c r="H378" s="28"/>
+      <c r="I378" s="28"/>
+      <c r="J378" s="28"/>
+      <c r="K378" s="28"/>
+      <c r="L378" s="28"/>
+      <c r="M378" s="28"/>
+      <c r="N378" s="28"/>
+      <c r="O378" s="28"/>
+      <c r="P378" s="28"/>
+    </row>
+    <row r="379" spans="2:16">
+      <c r="B379" s="27">
+        <v>46065</v>
+      </c>
+      <c r="C379" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D379" s="26">
         <v>1040</v>
       </c>
-      <c r="F286" s="8">
+      <c r="E379" s="26">
+        <f t="shared" si="10"/>
+        <v>1024</v>
+      </c>
+      <c r="F379" s="8">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="G379" s="28"/>
+      <c r="H379" s="28">
+        <v>10</v>
+      </c>
+      <c r="I379" s="28"/>
+      <c r="J379" s="28">
+        <v>6</v>
+      </c>
+      <c r="K379" s="28"/>
+      <c r="L379" s="28"/>
+      <c r="M379" s="28"/>
+      <c r="N379" s="28"/>
+      <c r="O379" s="28"/>
+      <c r="P379" s="28"/>
+    </row>
+    <row r="380" spans="2:16">
+      <c r="B380" s="36">
+        <v>46065</v>
+      </c>
+      <c r="C380" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D380" s="26">
+        <v>80</v>
+      </c>
+      <c r="E380" s="26">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="F380" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G380" s="28"/>
+      <c r="H380" s="28"/>
+      <c r="I380" s="28"/>
+      <c r="J380" s="28"/>
+      <c r="K380" s="28"/>
+      <c r="L380" s="28"/>
+      <c r="M380" s="28"/>
+      <c r="N380" s="28"/>
+      <c r="O380" s="28"/>
+      <c r="P380" s="28"/>
+    </row>
+    <row r="381" spans="2:16">
+      <c r="B381" s="27">
+        <v>46065</v>
+      </c>
+      <c r="C381" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D381" s="26">
+        <v>340</v>
+      </c>
+      <c r="E381" s="26">
+        <f t="shared" si="10"/>
+        <v>340</v>
+      </c>
+      <c r="F381" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G381" s="28"/>
+      <c r="H381" s="28"/>
+      <c r="I381" s="28"/>
+      <c r="J381" s="28"/>
+      <c r="K381" s="28"/>
+      <c r="L381" s="28"/>
+      <c r="M381" s="28"/>
+      <c r="N381" s="28"/>
+      <c r="O381" s="28"/>
+      <c r="P381" s="28"/>
+    </row>
+    <row r="382" spans="2:16">
+      <c r="B382" s="36">
+        <v>46065</v>
+      </c>
+      <c r="C382" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D382" s="26">
+        <v>384</v>
+      </c>
+      <c r="E382" s="26">
+        <f t="shared" si="10"/>
+        <v>360</v>
+      </c>
+      <c r="F382" s="8">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="G382" s="28">
+        <v>3</v>
+      </c>
+      <c r="H382" s="28">
+        <v>21</v>
+      </c>
+      <c r="I382" s="28"/>
+      <c r="J382" s="28"/>
+      <c r="K382" s="28"/>
+      <c r="L382" s="28"/>
+      <c r="M382" s="28"/>
+      <c r="N382" s="28"/>
+      <c r="O382" s="28"/>
+      <c r="P382" s="28"/>
+    </row>
+    <row r="383" spans="2:16">
+      <c r="B383" s="27">
+        <v>46065</v>
+      </c>
+      <c r="C383" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D383" s="26">
+        <v>798</v>
+      </c>
+      <c r="E383" s="26">
+        <f t="shared" si="10"/>
+        <v>780</v>
+      </c>
+      <c r="F383" s="8">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="G383" s="28">
+        <v>18</v>
+      </c>
+      <c r="H383" s="28"/>
+      <c r="I383" s="28"/>
+      <c r="J383" s="28"/>
+      <c r="K383" s="28"/>
+      <c r="L383" s="28"/>
+      <c r="M383" s="28"/>
+      <c r="N383" s="28"/>
+      <c r="O383" s="28"/>
+      <c r="P383" s="28"/>
+    </row>
+    <row r="384" spans="2:16">
+      <c r="B384" s="36">
+        <v>46065</v>
+      </c>
+      <c r="C384" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D384" s="26">
+        <v>601</v>
+      </c>
+      <c r="E384" s="26">
+        <f t="shared" si="10"/>
+        <v>580</v>
+      </c>
+      <c r="F384" s="8">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="G384" s="28"/>
+      <c r="H384" s="28"/>
+      <c r="I384" s="28"/>
+      <c r="J384" s="28"/>
+      <c r="K384" s="28"/>
+      <c r="L384" s="28"/>
+      <c r="M384" s="28"/>
+      <c r="N384" s="28"/>
+      <c r="O384" s="28"/>
+      <c r="P384" s="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="385" spans="2:16">
+      <c r="B385" s="27">
+        <v>46065</v>
+      </c>
+      <c r="C385" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D385" s="26">
+        <v>1112</v>
+      </c>
+      <c r="E385" s="26">
+        <f t="shared" si="10"/>
+        <v>1112</v>
+      </c>
+      <c r="F385" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G385" s="28"/>
+      <c r="H385" s="28"/>
+      <c r="I385" s="28"/>
+      <c r="J385" s="28"/>
+      <c r="K385" s="28"/>
+      <c r="L385" s="28"/>
+      <c r="M385" s="28"/>
+      <c r="N385" s="28"/>
+      <c r="O385" s="28"/>
+      <c r="P385" s="28"/>
+    </row>
+    <row r="386" spans="2:16">
+      <c r="B386" s="36">
+        <v>46065</v>
+      </c>
+      <c r="C386" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D386" s="26">
+        <v>100</v>
+      </c>
+      <c r="E386" s="26">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="F386" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G386" s="28"/>
+      <c r="H386" s="28"/>
+      <c r="I386" s="28"/>
+      <c r="J386" s="28"/>
+      <c r="K386" s="28"/>
+      <c r="L386" s="28"/>
+      <c r="M386" s="28"/>
+      <c r="N386" s="28"/>
+      <c r="O386" s="28"/>
+      <c r="P386" s="28"/>
+    </row>
+    <row r="387" spans="2:16">
+      <c r="B387" s="27">
+        <v>46066</v>
+      </c>
+      <c r="C387" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D387" s="26">
+        <v>306</v>
+      </c>
+      <c r="E387" s="26">
+        <f t="shared" si="10"/>
+        <v>302</v>
+      </c>
+      <c r="F387" s="8">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="G387" s="26"/>
+      <c r="H387" s="26">
+        <v>4</v>
+      </c>
+      <c r="I387" s="33"/>
+      <c r="J387" s="33"/>
+      <c r="K387" s="33"/>
+      <c r="L387" s="26"/>
+      <c r="M387" s="26"/>
+      <c r="N387" s="26"/>
+      <c r="O387" s="26"/>
+      <c r="P387" s="33"/>
+    </row>
+    <row r="388" spans="2:16">
+      <c r="B388" s="27">
+        <v>46066</v>
+      </c>
+      <c r="C388" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D388" s="26">
+        <v>456</v>
+      </c>
+      <c r="E388" s="26">
+        <f t="shared" si="10"/>
+        <v>456</v>
+      </c>
+      <c r="F388" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G388" s="26"/>
+      <c r="H388" s="26"/>
+      <c r="I388" s="26"/>
+      <c r="J388" s="26"/>
+      <c r="K388" s="26"/>
+      <c r="L388" s="26"/>
+      <c r="M388" s="26"/>
+      <c r="N388" s="26"/>
+      <c r="O388" s="26"/>
+      <c r="P388" s="26"/>
+    </row>
+    <row r="389" spans="2:16">
+      <c r="B389" s="27">
+        <v>46066</v>
+      </c>
+      <c r="C389" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D389" s="26">
+        <v>1036</v>
+      </c>
+      <c r="E389" s="26">
+        <f t="shared" si="10"/>
+        <v>1026</v>
+      </c>
+      <c r="F389" s="8">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="G389" s="26"/>
+      <c r="H389" s="26">
+        <v>5</v>
+      </c>
+      <c r="I389" s="26"/>
+      <c r="J389" s="26">
+        <v>5</v>
+      </c>
+      <c r="K389" s="26"/>
+      <c r="L389" s="26"/>
+      <c r="M389" s="26"/>
+      <c r="N389" s="26"/>
+      <c r="O389" s="26"/>
+      <c r="P389" s="26"/>
+    </row>
+    <row r="390" spans="2:16">
+      <c r="B390" s="27">
+        <v>46066</v>
+      </c>
+      <c r="C390" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D390" s="26">
+        <v>564</v>
+      </c>
+      <c r="E390" s="26">
+        <f t="shared" si="10"/>
+        <v>560</v>
+      </c>
+      <c r="F390" s="8">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="G390" s="26"/>
+      <c r="H390" s="26">
+        <v>4</v>
+      </c>
+      <c r="I390" s="26"/>
+      <c r="J390" s="26"/>
+      <c r="K390" s="26"/>
+      <c r="L390" s="26"/>
+      <c r="M390" s="26"/>
+      <c r="N390" s="26"/>
+      <c r="O390" s="26"/>
+      <c r="P390" s="26"/>
+    </row>
+    <row r="391" spans="2:16">
+      <c r="B391" s="27">
+        <v>46066</v>
+      </c>
+      <c r="C391" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D391" s="26">
+        <v>357</v>
+      </c>
+      <c r="E391" s="26">
+        <f t="shared" si="10"/>
+        <v>354</v>
+      </c>
+      <c r="F391" s="8">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="G391" s="26"/>
+      <c r="H391" s="26"/>
+      <c r="I391" s="26"/>
+      <c r="J391" s="26">
+        <v>3</v>
+      </c>
+      <c r="K391" s="26"/>
+      <c r="L391" s="26"/>
+      <c r="M391" s="26"/>
+      <c r="N391" s="26"/>
+      <c r="O391" s="26"/>
+      <c r="P391" s="26"/>
+    </row>
+    <row r="392" spans="2:16">
+      <c r="B392" s="27">
+        <v>46066</v>
+      </c>
+      <c r="C392" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="D392" s="26">
+        <v>580</v>
+      </c>
+      <c r="E392" s="26">
+        <f t="shared" si="10"/>
+        <v>580</v>
+      </c>
+      <c r="F392" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G392" s="26"/>
+      <c r="H392" s="26"/>
+      <c r="I392" s="26"/>
+      <c r="J392" s="26"/>
+      <c r="K392" s="26"/>
+      <c r="L392" s="26"/>
+      <c r="M392" s="26"/>
+      <c r="N392" s="26"/>
+      <c r="O392" s="26"/>
+      <c r="P392" s="26"/>
+    </row>
+    <row r="393" spans="2:16">
+      <c r="B393" s="27">
+        <v>46066</v>
+      </c>
+      <c r="C393" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D393" s="26">
+        <v>391</v>
+      </c>
+      <c r="E393" s="26">
+        <f t="shared" si="10"/>
+        <v>391</v>
+      </c>
+      <c r="F393" s="8">
+        <f t="shared" ref="F393:F436" si="11">SUM(G393:P393)</f>
+        <v>0</v>
+      </c>
+      <c r="G393" s="26"/>
+      <c r="H393" s="26"/>
+      <c r="I393" s="26"/>
+      <c r="J393" s="26"/>
+      <c r="K393" s="26"/>
+      <c r="L393" s="26"/>
+      <c r="M393" s="26"/>
+      <c r="N393" s="26"/>
+      <c r="O393" s="26"/>
+      <c r="P393" s="26"/>
+    </row>
+    <row r="394" spans="2:16">
+      <c r="B394" s="27">
+        <v>46066</v>
+      </c>
+      <c r="C394" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D394" s="26">
+        <v>125</v>
+      </c>
+      <c r="E394" s="26">
+        <f t="shared" si="10"/>
+        <v>125</v>
+      </c>
+      <c r="F394" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G394" s="26"/>
+      <c r="H394" s="26"/>
+      <c r="I394" s="26"/>
+      <c r="J394" s="26"/>
+      <c r="K394" s="26"/>
+      <c r="L394" s="26"/>
+      <c r="M394" s="26"/>
+      <c r="N394" s="26"/>
+      <c r="O394" s="26"/>
+      <c r="P394" s="26"/>
+    </row>
+    <row r="395" spans="2:16">
+      <c r="B395" s="27">
+        <v>46066</v>
+      </c>
+      <c r="C395" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D395" s="26">
+        <v>100</v>
+      </c>
+      <c r="E395" s="26">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="F395" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G395" s="26"/>
+      <c r="H395" s="26"/>
+      <c r="I395" s="26"/>
+      <c r="J395" s="26"/>
+      <c r="K395" s="26"/>
+      <c r="L395" s="26"/>
+      <c r="M395" s="26"/>
+      <c r="N395" s="26"/>
+      <c r="O395" s="26"/>
+      <c r="P395" s="26"/>
+    </row>
+    <row r="396" spans="2:16">
+      <c r="B396" s="27">
+        <v>46066</v>
+      </c>
+      <c r="C396" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D396" s="26">
+        <v>322</v>
+      </c>
+      <c r="E396" s="26">
+        <f t="shared" si="10"/>
+        <v>312</v>
+      </c>
+      <c r="F396" s="8">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="G396" s="26"/>
+      <c r="H396" s="26">
+        <v>10</v>
+      </c>
+      <c r="I396" s="26"/>
+      <c r="J396" s="26"/>
+      <c r="K396" s="26"/>
+      <c r="L396" s="35"/>
+      <c r="M396" s="26"/>
+      <c r="N396" s="26"/>
+      <c r="O396" s="26"/>
+      <c r="P396" s="26"/>
+    </row>
+    <row r="397" spans="2:16">
+      <c r="B397" s="27">
+        <v>46066</v>
+      </c>
+      <c r="C397" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D397" s="26">
+        <v>827</v>
+      </c>
+      <c r="E397" s="26">
+        <f t="shared" si="10"/>
+        <v>810</v>
+      </c>
+      <c r="F397" s="8">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="G397" s="26">
+        <v>5</v>
+      </c>
+      <c r="H397" s="26">
+        <v>12</v>
+      </c>
+      <c r="I397" s="26"/>
+      <c r="J397" s="26"/>
+      <c r="K397" s="26"/>
+      <c r="L397" s="26"/>
+      <c r="M397" s="26"/>
+      <c r="N397" s="26"/>
+      <c r="O397" s="26"/>
+      <c r="P397" s="26"/>
+    </row>
+    <row r="398" spans="2:16">
+      <c r="B398" s="27">
+        <v>46066</v>
+      </c>
+      <c r="C398" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D398" s="26">
+        <v>564</v>
+      </c>
+      <c r="E398" s="26">
+        <f t="shared" si="10"/>
+        <v>541</v>
+      </c>
+      <c r="F398" s="8">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="G398" s="26">
+        <v>8</v>
+      </c>
+      <c r="H398" s="26">
+        <v>5</v>
+      </c>
+      <c r="I398" s="26"/>
+      <c r="J398" s="26"/>
+      <c r="K398" s="26"/>
+      <c r="L398" s="26"/>
+      <c r="M398" s="26"/>
+      <c r="N398" s="26"/>
+      <c r="O398" s="26"/>
+      <c r="P398" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="399" spans="2:16">
+      <c r="B399" s="27">
+        <v>46066</v>
+      </c>
+      <c r="C399" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D399" s="26">
+        <v>459</v>
+      </c>
+      <c r="E399" s="26">
+        <f t="shared" si="10"/>
+        <v>450</v>
+      </c>
+      <c r="F399" s="8">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="G399" s="26"/>
+      <c r="H399" s="26">
+        <v>9</v>
+      </c>
+      <c r="I399" s="26"/>
+      <c r="J399" s="26"/>
+      <c r="K399" s="26"/>
+      <c r="L399" s="26"/>
+      <c r="M399" s="26"/>
+      <c r="N399" s="26"/>
+      <c r="O399" s="26"/>
+      <c r="P399" s="26"/>
+    </row>
+    <row r="400" spans="2:16">
+      <c r="B400" s="27">
+        <v>46072</v>
+      </c>
+      <c r="C400" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D400" s="26">
+        <v>527</v>
+      </c>
+      <c r="E400" s="26">
+        <f>D400-F400</f>
+        <v>520</v>
+      </c>
+      <c r="F400" s="8">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="G400" s="26">
+        <v>4</v>
+      </c>
+      <c r="H400" s="26">
+        <v>3</v>
+      </c>
+      <c r="I400" s="33"/>
+      <c r="J400" s="33"/>
+      <c r="K400" s="33"/>
+      <c r="L400" s="26"/>
+      <c r="M400" s="26"/>
+      <c r="N400" s="26"/>
+      <c r="O400" s="26"/>
+      <c r="P400" s="33"/>
+    </row>
+    <row r="401" spans="2:16">
+      <c r="B401" s="27">
+        <v>46072</v>
+      </c>
+      <c r="C401" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="D401" s="26">
+        <v>149</v>
+      </c>
+      <c r="E401" s="26">
+        <f t="shared" ref="E401:E436" si="12">D401-F401</f>
+        <v>145</v>
+      </c>
+      <c r="F401" s="8">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="G401" s="26">
+        <v>4</v>
+      </c>
+      <c r="H401" s="26"/>
+      <c r="I401" s="26"/>
+      <c r="J401" s="26"/>
+      <c r="K401" s="26"/>
+      <c r="L401" s="26"/>
+      <c r="M401" s="26"/>
+      <c r="N401" s="26"/>
+      <c r="O401" s="26"/>
+      <c r="P401" s="26"/>
+    </row>
+    <row r="402" spans="2:16">
+      <c r="B402" s="27">
+        <v>46072</v>
+      </c>
+      <c r="C402" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D402" s="26">
+        <v>144</v>
+      </c>
+      <c r="E402" s="26">
+        <f t="shared" si="12"/>
+        <v>140</v>
+      </c>
+      <c r="F402" s="8">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="G402" s="26">
+        <v>4</v>
+      </c>
+      <c r="H402" s="26"/>
+      <c r="I402" s="26"/>
+      <c r="J402" s="26"/>
+      <c r="K402" s="26"/>
+      <c r="L402" s="26"/>
+      <c r="M402" s="26"/>
+      <c r="N402" s="26"/>
+      <c r="O402" s="26"/>
+      <c r="P402" s="26"/>
+    </row>
+    <row r="403" spans="2:16">
+      <c r="B403" s="27">
+        <v>46072</v>
+      </c>
+      <c r="C403" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D403" s="26">
+        <v>597</v>
+      </c>
+      <c r="E403" s="26">
+        <f t="shared" si="12"/>
+        <v>592</v>
+      </c>
+      <c r="F403" s="8">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="G403" s="26"/>
+      <c r="H403" s="26"/>
+      <c r="I403" s="26"/>
+      <c r="J403" s="26"/>
+      <c r="K403" s="26"/>
+      <c r="L403" s="26"/>
+      <c r="M403" s="26"/>
+      <c r="N403" s="26"/>
+      <c r="O403" s="26"/>
+      <c r="P403" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404" spans="2:16">
+      <c r="B404" s="27">
+        <v>46072</v>
+      </c>
+      <c r="C404" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D404" s="26">
+        <v>499</v>
+      </c>
+      <c r="E404" s="26">
+        <f t="shared" si="12"/>
+        <v>495</v>
+      </c>
+      <c r="F404" s="8">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="G404" s="26">
+        <v>1</v>
+      </c>
+      <c r="H404" s="26">
+        <v>3</v>
+      </c>
+      <c r="I404" s="26"/>
+      <c r="J404" s="26"/>
+      <c r="K404" s="26"/>
+      <c r="L404" s="26"/>
+      <c r="M404" s="26"/>
+      <c r="N404" s="26"/>
+      <c r="O404" s="26"/>
+      <c r="P404" s="26"/>
+    </row>
+    <row r="405" spans="2:16">
+      <c r="B405" s="27">
+        <v>46072</v>
+      </c>
+      <c r="C405" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D405" s="26">
+        <v>1414</v>
+      </c>
+      <c r="E405" s="26">
+        <f t="shared" si="12"/>
+        <v>1399</v>
+      </c>
+      <c r="F405" s="8">
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="G286" s="11"/>
-      <c r="H286" s="11">
+      <c r="G405" s="26"/>
+      <c r="H405" s="26">
+        <v>5</v>
+      </c>
+      <c r="I405" s="26"/>
+      <c r="J405" s="26">
+        <v>5</v>
+      </c>
+      <c r="K405" s="26"/>
+      <c r="L405" s="26">
+        <v>5</v>
+      </c>
+      <c r="M405" s="26"/>
+      <c r="N405" s="26"/>
+      <c r="O405" s="26"/>
+      <c r="P405" s="26"/>
+    </row>
+    <row r="406" spans="2:16">
+      <c r="B406" s="27">
+        <v>46072</v>
+      </c>
+      <c r="C406" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D406" s="26">
+        <v>763</v>
+      </c>
+      <c r="E406" s="26">
+        <f t="shared" si="12"/>
+        <v>758</v>
+      </c>
+      <c r="F406" s="8">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="G406" s="26"/>
+      <c r="H406" s="26">
+        <v>5</v>
+      </c>
+      <c r="I406" s="26"/>
+      <c r="J406" s="26"/>
+      <c r="K406" s="26"/>
+      <c r="L406" s="26"/>
+      <c r="M406" s="26"/>
+      <c r="N406" s="26"/>
+      <c r="O406" s="26"/>
+      <c r="P406" s="26"/>
+    </row>
+    <row r="407" spans="2:16">
+      <c r="B407" s="27">
+        <v>46072</v>
+      </c>
+      <c r="C407" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D407" s="26">
+        <v>949</v>
+      </c>
+      <c r="E407" s="26">
+        <f t="shared" si="12"/>
+        <v>936</v>
+      </c>
+      <c r="F407" s="8">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="G407" s="26">
+        <v>5</v>
+      </c>
+      <c r="H407" s="26">
+        <v>8</v>
+      </c>
+      <c r="I407" s="26"/>
+      <c r="J407" s="26"/>
+      <c r="K407" s="26"/>
+      <c r="L407" s="26"/>
+      <c r="M407" s="26"/>
+      <c r="N407" s="26"/>
+      <c r="O407" s="26"/>
+      <c r="P407" s="26"/>
+    </row>
+    <row r="408" spans="2:16">
+      <c r="B408" s="27">
+        <v>46072</v>
+      </c>
+      <c r="C408" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D408" s="26">
+        <v>327</v>
+      </c>
+      <c r="E408" s="26">
+        <f t="shared" si="12"/>
+        <v>325</v>
+      </c>
+      <c r="F408" s="8">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="G408" s="26"/>
+      <c r="H408" s="26"/>
+      <c r="I408" s="26"/>
+      <c r="J408" s="26"/>
+      <c r="K408" s="26"/>
+      <c r="L408" s="26"/>
+      <c r="M408" s="26"/>
+      <c r="N408" s="26"/>
+      <c r="O408" s="26">
+        <v>2</v>
+      </c>
+      <c r="P408" s="26"/>
+    </row>
+    <row r="409" spans="2:16">
+      <c r="B409" s="27">
+        <v>46072</v>
+      </c>
+      <c r="C409" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D409" s="26">
+        <v>60</v>
+      </c>
+      <c r="E409" s="26">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="F409" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G409" s="26"/>
+      <c r="H409" s="26"/>
+      <c r="I409" s="26"/>
+      <c r="J409" s="26"/>
+      <c r="K409" s="26"/>
+      <c r="L409" s="26"/>
+      <c r="M409" s="26"/>
+      <c r="N409" s="26"/>
+      <c r="O409" s="26"/>
+      <c r="P409" s="26"/>
+    </row>
+    <row r="410" spans="2:16">
+      <c r="B410" s="27">
+        <v>46072</v>
+      </c>
+      <c r="C410" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D410" s="26">
+        <v>877</v>
+      </c>
+      <c r="E410" s="26">
+        <f t="shared" si="12"/>
+        <v>869</v>
+      </c>
+      <c r="F410" s="8">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="G410" s="26">
+        <v>3</v>
+      </c>
+      <c r="H410" s="26">
+        <v>5</v>
+      </c>
+      <c r="I410" s="26"/>
+      <c r="J410" s="26"/>
+      <c r="K410" s="26"/>
+      <c r="L410" s="26"/>
+      <c r="M410" s="26"/>
+      <c r="N410" s="26"/>
+      <c r="O410" s="26"/>
+      <c r="P410" s="26"/>
+    </row>
+    <row r="411" spans="2:16">
+      <c r="B411" s="27">
+        <v>46072</v>
+      </c>
+      <c r="C411" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="D411" s="26">
+        <v>100</v>
+      </c>
+      <c r="E411" s="26">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="F411" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G411" s="26"/>
+      <c r="H411" s="26"/>
+      <c r="I411" s="26"/>
+      <c r="J411" s="26"/>
+      <c r="K411" s="26"/>
+      <c r="L411" s="26"/>
+      <c r="M411" s="26"/>
+      <c r="N411" s="26"/>
+      <c r="O411" s="26"/>
+      <c r="P411" s="26"/>
+    </row>
+    <row r="412" spans="2:16">
+      <c r="B412" s="27">
+        <v>46072</v>
+      </c>
+      <c r="C412" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D412" s="26">
+        <v>5</v>
+      </c>
+      <c r="E412" s="26">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="F412" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G412" s="26"/>
+      <c r="H412" s="26"/>
+      <c r="I412" s="26"/>
+      <c r="J412" s="26"/>
+      <c r="K412" s="26"/>
+      <c r="L412" s="26"/>
+      <c r="M412" s="26"/>
+      <c r="N412" s="26"/>
+      <c r="O412" s="26"/>
+      <c r="P412" s="26"/>
+    </row>
+    <row r="413" spans="2:16">
+      <c r="B413" s="27">
+        <v>46072</v>
+      </c>
+      <c r="C413" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D413" s="26">
+        <v>521</v>
+      </c>
+      <c r="E413" s="26">
+        <f t="shared" si="12"/>
+        <v>521</v>
+      </c>
+      <c r="F413" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G413" s="26"/>
+      <c r="H413" s="26"/>
+      <c r="I413" s="26"/>
+      <c r="J413" s="26"/>
+      <c r="K413" s="26"/>
+      <c r="L413" s="26"/>
+      <c r="M413" s="26"/>
+      <c r="N413" s="26"/>
+      <c r="O413" s="26"/>
+      <c r="P413" s="26"/>
+    </row>
+    <row r="414" spans="2:16">
+      <c r="B414" s="27">
+        <v>46072</v>
+      </c>
+      <c r="C414" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D414" s="26">
+        <v>656</v>
+      </c>
+      <c r="E414" s="26">
+        <f t="shared" si="12"/>
+        <v>656</v>
+      </c>
+      <c r="F414" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G414" s="26"/>
+      <c r="H414" s="26"/>
+      <c r="I414" s="26"/>
+      <c r="J414" s="26"/>
+      <c r="K414" s="26"/>
+      <c r="L414" s="26"/>
+      <c r="M414" s="26"/>
+      <c r="N414" s="26"/>
+      <c r="O414" s="26"/>
+      <c r="P414" s="26"/>
+    </row>
+    <row r="415" spans="2:16">
+      <c r="B415" s="27">
+        <v>46072</v>
+      </c>
+      <c r="C415" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D415" s="26">
+        <v>233</v>
+      </c>
+      <c r="E415" s="26">
+        <f t="shared" si="12"/>
+        <v>219</v>
+      </c>
+      <c r="F415" s="8">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="G415" s="26"/>
+      <c r="H415" s="26">
+        <v>5</v>
+      </c>
+      <c r="I415" s="26"/>
+      <c r="J415" s="26"/>
+      <c r="K415" s="26"/>
+      <c r="L415" s="26"/>
+      <c r="M415" s="26"/>
+      <c r="N415" s="26"/>
+      <c r="O415" s="26"/>
+      <c r="P415" s="26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="416" spans="2:16">
+      <c r="B416" s="27">
+        <v>46072</v>
+      </c>
+      <c r="C416" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D416" s="26">
+        <v>402</v>
+      </c>
+      <c r="E416" s="26">
+        <f t="shared" si="12"/>
+        <v>392</v>
+      </c>
+      <c r="F416" s="8">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="G416" s="26"/>
+      <c r="H416" s="26">
+        <v>5</v>
+      </c>
+      <c r="I416" s="26"/>
+      <c r="J416" s="26">
+        <v>5</v>
+      </c>
+      <c r="K416" s="26"/>
+      <c r="L416" s="26"/>
+      <c r="M416" s="26"/>
+      <c r="N416" s="26"/>
+      <c r="O416" s="26"/>
+      <c r="P416" s="26"/>
+    </row>
+    <row r="417" spans="2:16">
+      <c r="B417" s="27">
+        <v>46072</v>
+      </c>
+      <c r="C417" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D417" s="26">
+        <v>778</v>
+      </c>
+      <c r="E417" s="26">
+        <f t="shared" si="12"/>
+        <v>768</v>
+      </c>
+      <c r="F417" s="8">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="G417" s="26"/>
+      <c r="H417" s="26">
+        <v>10</v>
+      </c>
+      <c r="I417" s="26"/>
+      <c r="J417" s="26"/>
+      <c r="K417" s="26"/>
+      <c r="L417" s="26"/>
+      <c r="M417" s="26"/>
+      <c r="N417" s="26"/>
+      <c r="O417" s="26"/>
+      <c r="P417" s="26"/>
+    </row>
+    <row r="418" spans="2:16">
+      <c r="B418" s="27">
+        <v>46072</v>
+      </c>
+      <c r="C418" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D418" s="26">
+        <v>500</v>
+      </c>
+      <c r="E418" s="26">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="F418" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G418" s="26"/>
+      <c r="H418" s="26"/>
+      <c r="I418" s="26"/>
+      <c r="J418" s="26"/>
+      <c r="K418" s="26"/>
+      <c r="L418" s="26"/>
+      <c r="M418" s="26"/>
+      <c r="N418" s="26"/>
+      <c r="O418" s="26"/>
+      <c r="P418" s="26"/>
+    </row>
+    <row r="419" spans="2:16">
+      <c r="B419" s="27">
+        <v>46072</v>
+      </c>
+      <c r="C419" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="D419" s="26">
+        <v>350</v>
+      </c>
+      <c r="E419" s="26">
+        <f t="shared" si="12"/>
+        <v>350</v>
+      </c>
+      <c r="F419" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G419" s="26"/>
+      <c r="H419" s="26"/>
+      <c r="I419" s="26"/>
+      <c r="J419" s="26"/>
+      <c r="K419" s="26"/>
+      <c r="L419" s="26"/>
+      <c r="M419" s="26"/>
+      <c r="N419" s="26"/>
+      <c r="O419" s="26"/>
+      <c r="P419" s="26"/>
+    </row>
+    <row r="420" spans="2:16">
+      <c r="B420" s="27">
+        <v>46073</v>
+      </c>
+      <c r="C420" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D420" s="26">
+        <v>244</v>
+      </c>
+      <c r="E420" s="26">
+        <f t="shared" si="12"/>
+        <v>240</v>
+      </c>
+      <c r="F420" s="8">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="G420" s="26"/>
+      <c r="H420" s="26">
+        <v>4</v>
+      </c>
+      <c r="I420" s="33"/>
+      <c r="J420" s="33"/>
+      <c r="K420" s="33"/>
+      <c r="L420" s="26"/>
+      <c r="M420" s="26"/>
+      <c r="N420" s="26"/>
+      <c r="O420" s="26"/>
+      <c r="P420" s="33"/>
+    </row>
+    <row r="421" spans="2:16">
+      <c r="B421" s="27">
+        <v>46073</v>
+      </c>
+      <c r="C421" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D421" s="26">
+        <v>750</v>
+      </c>
+      <c r="E421" s="26">
+        <f t="shared" si="12"/>
+        <v>730</v>
+      </c>
+      <c r="F421" s="8">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="G421" s="26">
+        <v>8</v>
+      </c>
+      <c r="H421" s="26">
+        <v>12</v>
+      </c>
+      <c r="I421" s="26"/>
+      <c r="J421" s="26"/>
+      <c r="K421" s="26"/>
+      <c r="L421" s="26"/>
+      <c r="M421" s="26"/>
+      <c r="N421" s="26"/>
+      <c r="O421" s="26"/>
+      <c r="P421" s="26"/>
+    </row>
+    <row r="422" spans="2:16">
+      <c r="B422" s="27">
+        <v>46073</v>
+      </c>
+      <c r="C422" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D422" s="26">
+        <v>370</v>
+      </c>
+      <c r="E422" s="26">
+        <f t="shared" si="12"/>
+        <v>370</v>
+      </c>
+      <c r="F422" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G422" s="26"/>
+      <c r="H422" s="26"/>
+      <c r="I422" s="26"/>
+      <c r="J422" s="26"/>
+      <c r="K422" s="26"/>
+      <c r="L422" s="26"/>
+      <c r="M422" s="26"/>
+      <c r="N422" s="26"/>
+      <c r="O422" s="26"/>
+      <c r="P422" s="26"/>
+    </row>
+    <row r="423" spans="2:16">
+      <c r="B423" s="27">
+        <v>46073</v>
+      </c>
+      <c r="C423" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="D423" s="26">
+        <v>840</v>
+      </c>
+      <c r="E423" s="26">
+        <f t="shared" si="12"/>
+        <v>840</v>
+      </c>
+      <c r="F423" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G423" s="26"/>
+      <c r="H423" s="26"/>
+      <c r="I423" s="26"/>
+      <c r="J423" s="26"/>
+      <c r="K423" s="26"/>
+      <c r="L423" s="26"/>
+      <c r="M423" s="26"/>
+      <c r="N423" s="26"/>
+      <c r="O423" s="26"/>
+      <c r="P423" s="26"/>
+    </row>
+    <row r="424" spans="2:16">
+      <c r="B424" s="27">
+        <v>46073</v>
+      </c>
+      <c r="C424" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D424" s="26">
+        <v>840</v>
+      </c>
+      <c r="E424" s="26">
+        <f t="shared" si="12"/>
+        <v>840</v>
+      </c>
+      <c r="F424" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G424" s="26"/>
+      <c r="H424" s="26"/>
+      <c r="I424" s="26"/>
+      <c r="J424" s="26"/>
+      <c r="K424" s="26"/>
+      <c r="L424" s="26"/>
+      <c r="M424" s="26"/>
+      <c r="N424" s="26"/>
+      <c r="O424" s="26"/>
+      <c r="P424" s="26"/>
+    </row>
+    <row r="425" spans="2:16">
+      <c r="B425" s="27">
+        <v>46073</v>
+      </c>
+      <c r="C425" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D425" s="26">
+        <v>600</v>
+      </c>
+      <c r="E425" s="26">
+        <f t="shared" si="12"/>
+        <v>600</v>
+      </c>
+      <c r="F425" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G425" s="26"/>
+      <c r="H425" s="26"/>
+      <c r="I425" s="26"/>
+      <c r="J425" s="26"/>
+      <c r="K425" s="26"/>
+      <c r="L425" s="26"/>
+      <c r="M425" s="26"/>
+      <c r="N425" s="26"/>
+      <c r="O425" s="26"/>
+      <c r="P425" s="26"/>
+    </row>
+    <row r="426" spans="2:16">
+      <c r="B426" s="27">
+        <v>46073</v>
+      </c>
+      <c r="C426" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="D426" s="26">
+        <v>1082</v>
+      </c>
+      <c r="E426" s="26">
+        <f t="shared" si="12"/>
+        <v>1080</v>
+      </c>
+      <c r="F426" s="8">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="G426" s="26">
+        <v>2</v>
+      </c>
+      <c r="H426" s="26"/>
+      <c r="I426" s="26"/>
+      <c r="J426" s="26"/>
+      <c r="K426" s="26"/>
+      <c r="L426" s="26"/>
+      <c r="M426" s="26"/>
+      <c r="N426" s="26"/>
+      <c r="O426" s="26"/>
+      <c r="P426" s="26"/>
+    </row>
+    <row r="427" spans="2:16">
+      <c r="B427" s="27">
+        <v>46073</v>
+      </c>
+      <c r="C427" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D427" s="26">
+        <v>1032</v>
+      </c>
+      <c r="E427" s="26">
+        <f t="shared" si="12"/>
+        <v>1030</v>
+      </c>
+      <c r="F427" s="8">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="G427" s="26"/>
+      <c r="H427" s="26">
+        <v>2</v>
+      </c>
+      <c r="I427" s="26"/>
+      <c r="J427" s="26"/>
+      <c r="K427" s="26"/>
+      <c r="L427" s="26"/>
+      <c r="M427" s="26"/>
+      <c r="N427" s="26"/>
+      <c r="O427" s="26"/>
+      <c r="P427" s="26"/>
+    </row>
+    <row r="428" spans="2:16">
+      <c r="B428" s="27">
+        <v>46073</v>
+      </c>
+      <c r="C428" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D428" s="26">
+        <v>506</v>
+      </c>
+      <c r="E428" s="26">
+        <f t="shared" si="12"/>
+        <v>504</v>
+      </c>
+      <c r="F428" s="8">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="G428" s="26"/>
+      <c r="H428" s="26">
+        <v>2</v>
+      </c>
+      <c r="I428" s="26"/>
+      <c r="J428" s="26"/>
+      <c r="K428" s="26"/>
+      <c r="L428" s="26"/>
+      <c r="M428" s="26"/>
+      <c r="N428" s="26"/>
+      <c r="O428" s="26"/>
+      <c r="P428" s="26"/>
+    </row>
+    <row r="429" spans="2:16">
+      <c r="B429" s="27">
+        <v>46073</v>
+      </c>
+      <c r="C429" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D429" s="26">
+        <v>381</v>
+      </c>
+      <c r="E429" s="26">
+        <f t="shared" si="12"/>
+        <v>381</v>
+      </c>
+      <c r="F429" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G429" s="26"/>
+      <c r="H429" s="26"/>
+      <c r="I429" s="26"/>
+      <c r="J429" s="26"/>
+      <c r="K429" s="26"/>
+      <c r="L429" s="35"/>
+      <c r="M429" s="26"/>
+      <c r="N429" s="26"/>
+      <c r="O429" s="26"/>
+      <c r="P429" s="26"/>
+    </row>
+    <row r="430" spans="2:16">
+      <c r="B430" s="27">
+        <v>46073</v>
+      </c>
+      <c r="C430" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D430" s="26">
+        <v>629</v>
+      </c>
+      <c r="E430" s="26">
+        <f t="shared" si="12"/>
+        <v>620</v>
+      </c>
+      <c r="F430" s="8">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="G430" s="26"/>
+      <c r="H430" s="26">
+        <v>5</v>
+      </c>
+      <c r="I430" s="26"/>
+      <c r="J430" s="26">
+        <v>4</v>
+      </c>
+      <c r="K430" s="26"/>
+      <c r="L430" s="26"/>
+      <c r="M430" s="26"/>
+      <c r="N430" s="26"/>
+      <c r="O430" s="26"/>
+      <c r="P430" s="26"/>
+    </row>
+    <row r="431" spans="2:16">
+      <c r="B431" s="27">
+        <v>46073</v>
+      </c>
+      <c r="C431" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D431" s="26">
+        <v>220</v>
+      </c>
+      <c r="E431" s="26">
+        <f t="shared" si="12"/>
+        <v>220</v>
+      </c>
+      <c r="F431" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G431" s="26"/>
+      <c r="H431" s="26"/>
+      <c r="I431" s="26"/>
+      <c r="J431" s="26"/>
+      <c r="K431" s="26"/>
+      <c r="L431" s="26"/>
+      <c r="M431" s="26"/>
+      <c r="N431" s="26"/>
+      <c r="O431" s="26"/>
+      <c r="P431" s="26"/>
+    </row>
+    <row r="432" spans="2:16">
+      <c r="B432" s="27">
+        <v>46073</v>
+      </c>
+      <c r="C432" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D432" s="26">
+        <v>609</v>
+      </c>
+      <c r="E432" s="26">
+        <f t="shared" si="12"/>
+        <v>600</v>
+      </c>
+      <c r="F432" s="8">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="G432" s="26">
+        <v>5</v>
+      </c>
+      <c r="H432" s="26">
+        <v>4</v>
+      </c>
+      <c r="I432" s="26"/>
+      <c r="J432" s="26"/>
+      <c r="K432" s="26"/>
+      <c r="L432" s="26"/>
+      <c r="M432" s="26"/>
+      <c r="N432" s="26"/>
+      <c r="O432" s="26"/>
+      <c r="P432" s="26"/>
+    </row>
+    <row r="433" spans="2:16">
+      <c r="B433" s="27">
+        <v>46073</v>
+      </c>
+      <c r="C433" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D433" s="26">
+        <v>135</v>
+      </c>
+      <c r="E433" s="26">
+        <f t="shared" si="12"/>
+        <v>135</v>
+      </c>
+      <c r="F433" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G433" s="26"/>
+      <c r="H433" s="26"/>
+      <c r="I433" s="26"/>
+      <c r="J433" s="26"/>
+      <c r="K433" s="26"/>
+      <c r="L433" s="26"/>
+      <c r="M433" s="26"/>
+      <c r="N433" s="26"/>
+      <c r="O433" s="26"/>
+      <c r="P433" s="26"/>
+    </row>
+    <row r="434" spans="2:16">
+      <c r="B434" s="27">
+        <v>46073</v>
+      </c>
+      <c r="C434" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D434" s="26">
+        <v>650</v>
+      </c>
+      <c r="E434" s="26">
+        <f t="shared" si="12"/>
+        <v>650</v>
+      </c>
+      <c r="F434" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G434" s="26"/>
+      <c r="H434" s="26"/>
+      <c r="I434" s="26"/>
+      <c r="J434" s="26"/>
+      <c r="K434" s="26"/>
+      <c r="L434" s="26"/>
+      <c r="M434" s="26"/>
+      <c r="N434" s="26"/>
+      <c r="O434" s="26"/>
+      <c r="P434" s="26"/>
+    </row>
+    <row r="435" spans="2:16">
+      <c r="B435" s="27">
+        <v>46073</v>
+      </c>
+      <c r="C435" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D435" s="26">
+        <v>382</v>
+      </c>
+      <c r="E435" s="26">
+        <f t="shared" si="12"/>
+        <v>360</v>
+      </c>
+      <c r="F435" s="8">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="G435" s="26"/>
+      <c r="H435" s="26">
+        <v>12</v>
+      </c>
+      <c r="I435" s="26"/>
+      <c r="J435" s="26">
+        <v>10</v>
+      </c>
+      <c r="K435" s="26"/>
+      <c r="L435" s="26"/>
+      <c r="M435" s="26"/>
+      <c r="N435" s="26"/>
+      <c r="O435" s="26"/>
+      <c r="P435" s="26"/>
+    </row>
+    <row r="436" spans="2:16">
+      <c r="B436" s="27">
+        <v>46073</v>
+      </c>
+      <c r="C436" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D436" s="44">
+        <v>1685</v>
+      </c>
+      <c r="E436" s="44">
+        <f t="shared" si="12"/>
+        <v>1670</v>
+      </c>
+      <c r="F436" s="8">
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="I286" s="11"/>
-      <c r="J286" s="11"/>
-      <c r="K286" s="11"/>
-      <c r="L286" s="11"/>
-      <c r="M286" s="11"/>
-      <c r="N286" s="11"/>
-      <c r="O286" s="11"/>
-      <c r="P286" s="11"/>
-    </row>
-    <row r="287" spans="2:16">
-      <c r="B287" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C287" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D287" s="8">
-        <v>284</v>
-      </c>
-      <c r="E287" s="8">
-        <v>280</v>
-      </c>
-      <c r="F287" s="8">
-        <v>4</v>
-      </c>
-      <c r="G287" s="11">
-        <v>4</v>
-      </c>
-      <c r="H287" s="11"/>
-      <c r="I287" s="11"/>
-      <c r="J287" s="11"/>
-      <c r="K287" s="11"/>
-      <c r="L287" s="11"/>
-      <c r="M287" s="11"/>
-      <c r="N287" s="11"/>
-      <c r="O287" s="11"/>
-      <c r="P287" s="11"/>
-    </row>
-    <row r="288" spans="2:16">
-      <c r="B288" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C288" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D288" s="8">
-        <v>438</v>
-      </c>
-      <c r="E288" s="8">
-        <v>420</v>
-      </c>
-      <c r="F288" s="8">
-        <v>18</v>
-      </c>
-      <c r="G288" s="11"/>
-      <c r="H288" s="11"/>
-      <c r="I288" s="11"/>
-      <c r="J288" s="11"/>
-      <c r="K288" s="11"/>
-      <c r="L288" s="11">
-        <v>18</v>
-      </c>
-      <c r="M288" s="11"/>
-      <c r="N288" s="11"/>
-      <c r="O288" s="11"/>
-      <c r="P288" s="11"/>
-    </row>
-    <row r="289" spans="2:16">
-      <c r="B289" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C289" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D289" s="8">
-        <v>451</v>
-      </c>
-      <c r="E289" s="8">
-        <v>420</v>
-      </c>
-      <c r="F289" s="8">
-        <v>31</v>
-      </c>
-      <c r="G289" s="11"/>
-      <c r="H289" s="11">
-        <v>31</v>
-      </c>
-      <c r="I289" s="11"/>
-      <c r="J289" s="11"/>
-      <c r="K289" s="11"/>
-      <c r="L289" s="11"/>
-      <c r="M289" s="11"/>
-      <c r="N289" s="11"/>
-      <c r="O289" s="11"/>
-      <c r="P289" s="11"/>
-    </row>
-    <row r="290" spans="2:16">
-      <c r="B290" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C290" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D290" s="8">
-        <v>241</v>
-      </c>
-      <c r="E290" s="8">
-        <v>228</v>
-      </c>
-      <c r="F290" s="8">
-        <v>13</v>
-      </c>
-      <c r="G290" s="11"/>
-      <c r="H290" s="11"/>
-      <c r="I290" s="11"/>
-      <c r="J290" s="11"/>
-      <c r="K290" s="11"/>
-      <c r="L290" s="11">
-        <v>8</v>
-      </c>
-      <c r="M290" s="11"/>
-      <c r="N290" s="11"/>
-      <c r="O290" s="11"/>
-      <c r="P290" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="291" spans="2:16">
-      <c r="B291" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C291" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D291" s="8">
-        <v>90</v>
-      </c>
-      <c r="E291" s="8">
-        <v>90</v>
-      </c>
-      <c r="F291" s="8">
-        <v>0</v>
-      </c>
-      <c r="G291" s="11"/>
-      <c r="H291" s="11"/>
-      <c r="I291" s="11"/>
-      <c r="J291" s="11"/>
-      <c r="K291" s="11"/>
-      <c r="L291" s="11"/>
-      <c r="M291" s="11"/>
-      <c r="N291" s="11"/>
-      <c r="O291" s="11"/>
-      <c r="P291" s="11"/>
-    </row>
-    <row r="292" spans="2:16">
-      <c r="B292" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C292" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D292" s="8">
-        <v>761</v>
-      </c>
-      <c r="E292" s="8">
-        <v>730</v>
-      </c>
-      <c r="F292" s="8">
-        <v>31</v>
-      </c>
-      <c r="G292" s="11"/>
-      <c r="H292" s="11">
-        <v>10</v>
-      </c>
-      <c r="I292" s="11"/>
-      <c r="J292" s="11"/>
-      <c r="K292" s="11"/>
-      <c r="L292" s="11">
-        <v>21</v>
-      </c>
-      <c r="M292" s="11"/>
-      <c r="N292" s="11"/>
-      <c r="O292" s="11"/>
-      <c r="P292" s="11"/>
-    </row>
-    <row r="293" spans="2:16">
-      <c r="B293" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C293" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D293" s="8">
-        <v>838</v>
-      </c>
-      <c r="E293" s="8">
-        <v>830</v>
-      </c>
-      <c r="F293" s="8">
-        <v>8</v>
-      </c>
-      <c r="G293" s="11"/>
-      <c r="H293" s="11">
-        <v>8</v>
-      </c>
-      <c r="I293" s="11"/>
-      <c r="J293" s="11"/>
-      <c r="K293" s="11"/>
-      <c r="L293" s="11"/>
-      <c r="M293" s="11"/>
-      <c r="N293" s="11"/>
-      <c r="O293" s="11"/>
-      <c r="P293" s="11"/>
-    </row>
-    <row r="294" spans="2:16">
-      <c r="B294" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C294" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D294" s="8">
-        <v>2119</v>
-      </c>
-      <c r="E294" s="8">
-        <v>2090</v>
-      </c>
-      <c r="F294" s="8">
-        <v>29</v>
-      </c>
-      <c r="G294" s="11"/>
-      <c r="H294" s="11">
-        <v>29</v>
-      </c>
-      <c r="I294" s="11"/>
-      <c r="J294" s="11"/>
-      <c r="K294" s="11"/>
-      <c r="L294" s="11"/>
-      <c r="M294" s="11"/>
-      <c r="N294" s="11"/>
-      <c r="O294" s="11"/>
-      <c r="P294" s="11"/>
-    </row>
-    <row r="295" spans="2:16">
-      <c r="B295" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C295" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D295" s="8">
-        <v>262</v>
-      </c>
-      <c r="E295" s="8">
-        <v>240</v>
-      </c>
-      <c r="F295" s="8">
-        <v>22</v>
-      </c>
-      <c r="G295" s="11"/>
-      <c r="H295" s="11">
-        <v>22</v>
-      </c>
-      <c r="I295" s="11"/>
-      <c r="J295" s="11"/>
-      <c r="K295" s="11"/>
-      <c r="L295" s="11"/>
-      <c r="M295" s="11"/>
-      <c r="N295" s="11"/>
-      <c r="O295" s="11"/>
-      <c r="P295" s="11"/>
-    </row>
-    <row r="296" spans="2:16">
-      <c r="B296" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C296" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D296" s="8">
-        <v>619</v>
-      </c>
-      <c r="E296" s="8">
-        <v>592</v>
-      </c>
-      <c r="F296" s="8">
-        <v>27</v>
-      </c>
-      <c r="G296" s="11"/>
-      <c r="H296" s="11">
-        <v>27</v>
-      </c>
-      <c r="I296" s="11"/>
-      <c r="J296" s="11"/>
-      <c r="K296" s="11"/>
-      <c r="L296" s="11"/>
-      <c r="M296" s="11"/>
-      <c r="N296" s="11"/>
-      <c r="O296" s="11"/>
-      <c r="P296" s="11"/>
-    </row>
-    <row r="297" spans="2:16">
-      <c r="B297" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C297" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D297" s="8">
-        <v>564</v>
-      </c>
-      <c r="E297" s="8">
-        <v>560</v>
-      </c>
-      <c r="F297" s="8">
-        <v>4</v>
-      </c>
-      <c r="G297" s="11">
-        <v>2</v>
-      </c>
-      <c r="H297" s="11">
-        <v>2</v>
-      </c>
-      <c r="I297" s="11"/>
-      <c r="J297" s="11"/>
-      <c r="K297" s="11"/>
-      <c r="L297" s="11"/>
-      <c r="M297" s="11"/>
-      <c r="N297" s="11"/>
-      <c r="O297" s="11"/>
-      <c r="P297" s="11"/>
-    </row>
-    <row r="298" spans="2:16">
-      <c r="B298" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C298" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D298" s="8">
-        <v>713</v>
-      </c>
-      <c r="E298" s="8">
-        <v>704</v>
-      </c>
-      <c r="F298" s="8">
-        <v>9</v>
-      </c>
-      <c r="G298" s="11"/>
-      <c r="H298" s="11">
-        <v>9</v>
-      </c>
-      <c r="I298" s="11"/>
-      <c r="J298" s="11"/>
-      <c r="K298" s="11"/>
-      <c r="L298" s="11"/>
-      <c r="M298" s="11"/>
-      <c r="N298" s="11"/>
-      <c r="O298" s="11"/>
-      <c r="P298" s="11"/>
-    </row>
-    <row r="299" spans="2:16">
-      <c r="B299" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C299" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D299" s="8">
-        <v>582</v>
-      </c>
-      <c r="E299" s="8">
-        <v>580</v>
-      </c>
-      <c r="F299" s="8">
-        <v>2</v>
-      </c>
-      <c r="G299" s="11">
-        <v>2</v>
-      </c>
-      <c r="H299" s="11"/>
-      <c r="I299" s="11"/>
-      <c r="J299" s="11"/>
-      <c r="K299" s="11"/>
-      <c r="L299" s="11"/>
-      <c r="M299" s="11"/>
-      <c r="N299" s="11"/>
-      <c r="O299" s="11"/>
-      <c r="P299" s="11"/>
-    </row>
-    <row r="300" spans="2:16">
-      <c r="B300" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C300" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D300" s="8">
-        <v>1936</v>
-      </c>
-      <c r="E300" s="8">
-        <v>1936</v>
-      </c>
-      <c r="F300" s="8">
-        <v>0</v>
-      </c>
-      <c r="G300" s="11"/>
-      <c r="H300" s="11"/>
-      <c r="I300" s="11"/>
-      <c r="J300" s="11"/>
-      <c r="K300" s="11"/>
-      <c r="L300" s="11"/>
-      <c r="M300" s="11"/>
-      <c r="N300" s="11"/>
-      <c r="O300" s="11"/>
-      <c r="P300" s="11"/>
-    </row>
-    <row r="301" spans="2:16">
-      <c r="B301" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C301" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D301" s="8">
-        <v>2675</v>
-      </c>
-      <c r="E301" s="8">
-        <v>2666</v>
-      </c>
-      <c r="F301" s="8">
-        <v>9</v>
-      </c>
-      <c r="G301" s="11"/>
-      <c r="H301" s="11">
-        <v>9</v>
-      </c>
-      <c r="I301" s="11"/>
-      <c r="J301" s="11"/>
-      <c r="K301" s="11"/>
-      <c r="L301" s="11"/>
-      <c r="M301" s="11"/>
-      <c r="N301" s="11"/>
-      <c r="O301" s="11"/>
-      <c r="P301" s="11"/>
-    </row>
-    <row r="302" spans="2:16">
-      <c r="B302" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C302" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D302" s="8">
-        <v>540</v>
-      </c>
-      <c r="E302" s="8">
-        <v>540</v>
-      </c>
-      <c r="F302" s="8">
-        <v>0</v>
-      </c>
-      <c r="G302" s="11"/>
-      <c r="H302" s="11"/>
-      <c r="I302" s="11"/>
-      <c r="J302" s="11"/>
-      <c r="K302" s="11"/>
-      <c r="L302" s="11"/>
-      <c r="M302" s="11"/>
-      <c r="N302" s="11"/>
-      <c r="O302" s="11"/>
-      <c r="P302" s="11"/>
-    </row>
-    <row r="303" spans="2:16">
-      <c r="B303" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C303" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D303" s="8">
-        <v>902</v>
-      </c>
-      <c r="E303" s="8">
-        <v>900</v>
-      </c>
-      <c r="F303" s="8">
-        <v>2</v>
-      </c>
-      <c r="G303" s="11"/>
-      <c r="H303" s="11">
-        <v>2</v>
-      </c>
-      <c r="I303" s="11"/>
-      <c r="J303" s="11"/>
-      <c r="K303" s="11"/>
-      <c r="L303" s="11"/>
-      <c r="M303" s="11"/>
-      <c r="N303" s="11"/>
-      <c r="O303" s="11"/>
-      <c r="P303" s="11"/>
-    </row>
-    <row r="304" spans="2:16">
-      <c r="B304" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C304" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D304" s="8">
-        <v>1174</v>
-      </c>
-      <c r="E304" s="8">
-        <v>1174</v>
-      </c>
-      <c r="F304" s="8">
-        <v>0</v>
-      </c>
-      <c r="G304" s="11"/>
-      <c r="H304" s="11"/>
-      <c r="I304" s="11"/>
-      <c r="J304" s="11"/>
-      <c r="K304" s="11"/>
-      <c r="L304" s="11"/>
-      <c r="M304" s="11"/>
-      <c r="N304" s="11"/>
-      <c r="O304" s="11"/>
-      <c r="P304" s="11"/>
-    </row>
-    <row r="305" spans="2:16">
-      <c r="B305" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C305" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D305" s="8">
-        <v>2450</v>
-      </c>
-      <c r="E305" s="8">
-        <v>2450</v>
-      </c>
-      <c r="F305" s="8">
-        <v>0</v>
-      </c>
-      <c r="G305" s="11"/>
-      <c r="H305" s="11"/>
-      <c r="I305" s="11"/>
-      <c r="J305" s="11"/>
-      <c r="K305" s="11"/>
-      <c r="L305" s="11"/>
-      <c r="M305" s="11"/>
-      <c r="N305" s="11"/>
-      <c r="O305" s="11"/>
-      <c r="P305" s="11"/>
-    </row>
-    <row r="306" spans="2:16">
-      <c r="B306" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C306" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D306" s="8">
-        <v>1364</v>
-      </c>
-      <c r="E306" s="8">
-        <v>1360</v>
-      </c>
-      <c r="F306" s="8">
-        <v>4</v>
-      </c>
-      <c r="G306" s="11"/>
-      <c r="H306" s="11">
-        <v>4</v>
-      </c>
-      <c r="I306" s="11"/>
-      <c r="J306" s="11"/>
-      <c r="K306" s="11"/>
-      <c r="L306" s="11"/>
-      <c r="M306" s="11"/>
-      <c r="N306" s="11"/>
-      <c r="O306" s="11"/>
-      <c r="P306" s="11"/>
-    </row>
-    <row r="307" spans="2:16">
-      <c r="B307" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C307" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D307" s="8">
-        <v>1364</v>
-      </c>
-      <c r="E307" s="8">
-        <v>1360</v>
-      </c>
-      <c r="F307" s="8">
-        <v>4</v>
-      </c>
-      <c r="G307" s="11"/>
-      <c r="H307" s="11">
-        <v>4</v>
-      </c>
-      <c r="I307" s="11"/>
-      <c r="J307" s="11"/>
-      <c r="K307" s="11"/>
-      <c r="L307" s="11"/>
-      <c r="M307" s="11"/>
-      <c r="N307" s="11"/>
-      <c r="O307" s="11"/>
-      <c r="P307" s="11"/>
-    </row>
-    <row r="308" spans="2:16">
-      <c r="B308" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C308" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D308" s="8">
-        <v>317</v>
-      </c>
-      <c r="E308" s="8">
-        <v>317</v>
-      </c>
-      <c r="F308" s="8">
-        <v>0</v>
-      </c>
-      <c r="G308" s="11"/>
-      <c r="H308" s="11"/>
-      <c r="I308" s="11"/>
-      <c r="J308" s="11"/>
-      <c r="K308" s="11"/>
-      <c r="L308" s="11"/>
-      <c r="M308" s="11"/>
-      <c r="N308" s="11"/>
-      <c r="O308" s="11"/>
-      <c r="P308" s="11"/>
-    </row>
-    <row r="309" spans="2:16">
-      <c r="B309" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C309" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D309" s="8">
-        <v>831</v>
-      </c>
-      <c r="E309" s="8">
-        <v>800</v>
-      </c>
-      <c r="F309" s="8">
-        <v>31</v>
-      </c>
-      <c r="G309" s="11"/>
-      <c r="H309" s="11">
-        <v>31</v>
-      </c>
-      <c r="I309" s="11"/>
-      <c r="J309" s="11"/>
-      <c r="K309" s="11"/>
-      <c r="L309" s="11"/>
-      <c r="M309" s="11"/>
-      <c r="N309" s="11"/>
-      <c r="O309" s="11"/>
-      <c r="P309" s="11"/>
-    </row>
-    <row r="310" spans="2:16">
-      <c r="B310" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C310" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D310" s="8">
-        <v>799</v>
-      </c>
-      <c r="E310" s="8">
-        <v>736</v>
-      </c>
-      <c r="F310" s="8">
-        <v>63</v>
-      </c>
-      <c r="G310" s="11">
-        <v>10</v>
-      </c>
-      <c r="H310" s="11">
-        <v>33</v>
-      </c>
-      <c r="I310" s="11">
-        <v>20</v>
-      </c>
-      <c r="J310" s="11"/>
-      <c r="K310" s="11"/>
-      <c r="L310" s="11"/>
-      <c r="M310" s="11"/>
-      <c r="N310" s="11"/>
-      <c r="O310" s="11"/>
-      <c r="P310" s="11"/>
-    </row>
-    <row r="311" spans="2:16">
-      <c r="B311" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C311" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D311" s="8">
-        <v>1878</v>
-      </c>
-      <c r="E311" s="8">
-        <v>1874</v>
-      </c>
-      <c r="F311" s="8">
-        <v>4</v>
-      </c>
-      <c r="G311" s="11">
-        <v>4</v>
-      </c>
-      <c r="H311" s="11"/>
-      <c r="I311" s="11"/>
-      <c r="J311" s="11"/>
-      <c r="K311" s="11"/>
-      <c r="L311" s="11"/>
-      <c r="M311" s="11"/>
-      <c r="N311" s="11"/>
-      <c r="O311" s="11"/>
-      <c r="P311" s="11"/>
-    </row>
-    <row r="312" spans="2:16">
-      <c r="B312" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C312" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D312" s="8">
-        <v>2599</v>
-      </c>
-      <c r="E312" s="8">
-        <v>2592</v>
-      </c>
-      <c r="F312" s="8">
-        <v>7</v>
-      </c>
-      <c r="G312" s="11"/>
-      <c r="H312" s="11">
-        <v>7</v>
-      </c>
-      <c r="I312" s="11"/>
-      <c r="J312" s="11"/>
-      <c r="K312" s="11"/>
-      <c r="L312" s="11"/>
-      <c r="M312" s="11"/>
-      <c r="N312" s="11"/>
-      <c r="O312" s="11"/>
-      <c r="P312" s="11"/>
-    </row>
-    <row r="313" spans="2:16">
-      <c r="B313" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C313" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D313" s="8">
-        <v>6934</v>
-      </c>
-      <c r="E313" s="8">
-        <v>6927</v>
-      </c>
-      <c r="F313" s="8">
-        <v>7</v>
-      </c>
-      <c r="G313" s="11"/>
-      <c r="H313" s="11"/>
-      <c r="I313" s="11"/>
-      <c r="J313" s="11"/>
-      <c r="K313" s="11"/>
-      <c r="L313" s="11"/>
-      <c r="M313" s="11"/>
-      <c r="N313" s="11">
-        <v>7</v>
-      </c>
-      <c r="O313" s="11"/>
-      <c r="P313" s="11"/>
-    </row>
-    <row r="314" spans="2:16">
-      <c r="B314" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C314" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D314" s="8">
-        <v>439</v>
-      </c>
-      <c r="E314" s="8">
-        <v>439</v>
-      </c>
-      <c r="F314" s="8">
-        <v>0</v>
-      </c>
-      <c r="G314" s="11"/>
-      <c r="H314" s="11"/>
-      <c r="I314" s="11"/>
-      <c r="J314" s="11"/>
-      <c r="K314" s="11"/>
-      <c r="L314" s="11"/>
-      <c r="M314" s="11"/>
-      <c r="N314" s="11"/>
-      <c r="O314" s="11"/>
-      <c r="P314" s="11"/>
-    </row>
-    <row r="315" spans="2:16">
-      <c r="B315" s="14">
-        <v>46060</v>
-      </c>
-      <c r="C315" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D315" s="8">
-        <v>1974</v>
-      </c>
-      <c r="E315" s="8">
-        <v>1968</v>
-      </c>
-      <c r="F315" s="8">
-        <v>6</v>
-      </c>
-      <c r="G315" s="11"/>
-      <c r="H315" s="11">
-        <v>6</v>
-      </c>
-      <c r="I315" s="11"/>
-      <c r="J315" s="11"/>
-      <c r="K315" s="11"/>
-      <c r="L315" s="11"/>
-      <c r="M315" s="11"/>
-      <c r="N315" s="11"/>
-      <c r="O315" s="11"/>
-      <c r="P315" s="11"/>
-    </row>
-    <row r="316" spans="2:16">
-      <c r="B316" s="14">
-        <v>46062</v>
-      </c>
-      <c r="C316" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D316" s="9">
-        <v>703</v>
-      </c>
-      <c r="E316" s="9">
-        <v>690</v>
-      </c>
-      <c r="F316" s="9">
-        <v>13</v>
-      </c>
-      <c r="G316" s="12">
-        <v>6</v>
-      </c>
-      <c r="H316" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="317" spans="2:16">
-      <c r="B317" s="14">
-        <v>46062</v>
-      </c>
-      <c r="C317" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D317" s="9">
-        <v>374</v>
-      </c>
-      <c r="E317" s="9">
-        <v>374</v>
-      </c>
-      <c r="F317" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="2:16">
-      <c r="B318" s="14">
-        <v>46062</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D318" s="9">
-        <v>152</v>
-      </c>
-      <c r="E318" s="9">
-        <v>150</v>
-      </c>
-      <c r="F318" s="9">
-        <v>2</v>
-      </c>
-      <c r="H318" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="319" spans="2:16">
-      <c r="B319" s="14">
-        <v>46062</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D319" s="9">
-        <v>312</v>
-      </c>
-      <c r="E319" s="9">
-        <v>308</v>
-      </c>
-      <c r="F319" s="9">
-        <v>4</v>
-      </c>
-      <c r="G319" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="320" spans="2:16">
-      <c r="B320" s="14">
-        <v>46062</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D320" s="9">
-        <v>494</v>
-      </c>
-      <c r="E320" s="9">
-        <v>490</v>
-      </c>
-      <c r="F320" s="9">
-        <v>4</v>
-      </c>
-      <c r="H320" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="321" spans="2:10">
-      <c r="B321" s="14">
-        <v>46062</v>
-      </c>
-      <c r="C321" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D321" s="9">
-        <v>1200</v>
-      </c>
-      <c r="E321" s="9">
-        <v>1200</v>
-      </c>
-      <c r="F321" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="2:10">
-      <c r="B322" s="14">
-        <v>46062</v>
-      </c>
-      <c r="C322" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D322" s="9">
-        <v>330</v>
-      </c>
-      <c r="E322" s="9">
-        <v>312</v>
-      </c>
-      <c r="F322" s="9">
-        <v>18</v>
-      </c>
-      <c r="H322" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="323" spans="2:10">
-      <c r="B323" s="14">
-        <v>46062</v>
-      </c>
-      <c r="C323" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D323" s="9">
-        <v>336</v>
-      </c>
-      <c r="E323" s="9">
-        <v>330</v>
-      </c>
-      <c r="F323" s="9">
-        <v>6</v>
-      </c>
-      <c r="G323" s="12">
-        <v>2</v>
-      </c>
-      <c r="H323" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="324" spans="2:10">
-      <c r="B324" s="14">
-        <v>46062</v>
-      </c>
-      <c r="C324" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D324" s="9">
-        <v>338</v>
-      </c>
-      <c r="E324" s="9">
-        <v>330</v>
-      </c>
-      <c r="F324" s="9">
-        <v>8</v>
-      </c>
-      <c r="G324" s="12">
-        <v>2</v>
-      </c>
-      <c r="H324" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="325" spans="2:10">
-      <c r="B325" s="14">
-        <v>46062</v>
-      </c>
-      <c r="C325" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D325" s="9">
-        <v>1700</v>
-      </c>
-      <c r="E325" s="9">
-        <v>1700</v>
-      </c>
-      <c r="F325" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="2:10">
-      <c r="B326" s="14">
-        <v>46062</v>
-      </c>
-      <c r="C326" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D326" s="9">
-        <v>591</v>
-      </c>
-      <c r="E326" s="9">
-        <v>570</v>
-      </c>
-      <c r="F326" s="9">
-        <v>21</v>
-      </c>
-      <c r="J326" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="327" spans="2:10">
-      <c r="B327" s="14">
-        <v>46062</v>
-      </c>
-      <c r="C327" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D327" s="9">
-        <v>1440</v>
-      </c>
-      <c r="E327" s="9">
-        <v>1440</v>
-      </c>
-      <c r="F327" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="2:10">
-      <c r="B328" s="14">
-        <v>46062</v>
-      </c>
-      <c r="C328" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D328" s="9">
-        <v>139</v>
-      </c>
-      <c r="E328" s="9">
-        <v>130</v>
-      </c>
-      <c r="F328" s="9">
-        <v>9</v>
-      </c>
-      <c r="G328" s="12">
-        <v>5</v>
-      </c>
-      <c r="H328" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="329" spans="2:10">
-      <c r="B329" s="14">
-        <v>46062</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D329" s="9">
-        <v>1038</v>
-      </c>
-      <c r="E329" s="9">
-        <v>1020</v>
-      </c>
-      <c r="F329" s="9">
-        <v>18</v>
-      </c>
-      <c r="G329" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="330" spans="2:10">
-      <c r="B330" s="14">
-        <v>46062</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D330" s="9">
-        <v>224</v>
-      </c>
-      <c r="E330" s="9">
-        <v>224</v>
-      </c>
-      <c r="F330" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="2:10">
-      <c r="B331" s="14">
-        <v>46062</v>
-      </c>
-      <c r="C331" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D331" s="9">
-        <v>1384</v>
-      </c>
-      <c r="E331" s="9">
-        <v>1380</v>
-      </c>
-      <c r="F331" s="9">
-        <v>4</v>
-      </c>
-      <c r="H331" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="332" spans="2:10">
-      <c r="B332" s="14">
-        <v>46062</v>
-      </c>
-      <c r="C332" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D332" s="9">
-        <v>1328</v>
-      </c>
-      <c r="E332" s="9">
-        <v>1328</v>
-      </c>
-      <c r="F332" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="2:10">
-      <c r="B333" s="14">
-        <v>46062</v>
-      </c>
-      <c r="C333" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D333" s="9">
-        <v>50</v>
-      </c>
-      <c r="E333" s="9">
-        <v>50</v>
-      </c>
-      <c r="F333" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="2:10">
-      <c r="B334" s="14">
-        <v>46062</v>
-      </c>
-      <c r="C334" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D334" s="9">
-        <v>160</v>
-      </c>
-      <c r="E334" s="9">
-        <v>160</v>
-      </c>
-      <c r="F334" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="2:10">
-      <c r="B335" s="14">
-        <v>46062</v>
-      </c>
-      <c r="C335" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D335" s="9">
-        <v>50</v>
-      </c>
-      <c r="E335" s="9">
-        <v>50</v>
-      </c>
-      <c r="F335" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="2:10">
-      <c r="B336" s="14">
-        <v>46062</v>
-      </c>
-      <c r="C336" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D336" s="9">
-        <v>452</v>
-      </c>
-      <c r="E336" s="9">
-        <v>420</v>
-      </c>
-      <c r="F336" s="9">
-        <v>32</v>
-      </c>
-      <c r="H336" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="337" spans="2:8">
-      <c r="B337" s="14">
-        <v>46062</v>
-      </c>
-      <c r="C337" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D337" s="9">
-        <v>208</v>
-      </c>
-      <c r="E337" s="9">
-        <v>208</v>
-      </c>
-      <c r="F337" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="2:8">
-      <c r="B338" s="14">
-        <v>46062</v>
-      </c>
-      <c r="C338" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D338" s="9">
-        <v>183</v>
-      </c>
-      <c r="E338" s="9">
-        <v>183</v>
-      </c>
-      <c r="F338" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="2:8">
-      <c r="B339" s="14">
-        <v>46062</v>
-      </c>
-      <c r="C339" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D339" s="9">
-        <v>418</v>
-      </c>
-      <c r="E339" s="9">
-        <v>418</v>
-      </c>
-      <c r="F339" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="2:8">
-      <c r="B340" s="14">
-        <v>46062</v>
-      </c>
-      <c r="C340" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D340" s="9">
-        <v>589</v>
-      </c>
-      <c r="E340" s="9">
-        <v>589</v>
-      </c>
-      <c r="F340" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="2:8">
-      <c r="B341" s="14">
-        <v>46063</v>
-      </c>
-      <c r="C341" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D341" s="9">
-        <v>240</v>
-      </c>
-      <c r="E341" s="9">
-        <v>240</v>
-      </c>
-      <c r="F341" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="2:8">
-      <c r="B342" s="14">
-        <v>46063</v>
-      </c>
-      <c r="C342" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D342" s="9">
-        <v>260</v>
-      </c>
-      <c r="E342" s="9">
-        <v>260</v>
-      </c>
-      <c r="F342" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="2:8">
-      <c r="B343" s="14">
-        <v>46063</v>
-      </c>
-      <c r="C343" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D343" s="9">
-        <v>380</v>
-      </c>
-      <c r="E343" s="9">
-        <v>369</v>
-      </c>
-      <c r="F343" s="9">
-        <v>11</v>
-      </c>
-      <c r="H343" s="12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="344" spans="2:8">
-      <c r="B344" s="14">
-        <v>46063</v>
-      </c>
-      <c r="C344" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D344" s="9">
-        <v>119</v>
-      </c>
-      <c r="E344" s="9">
-        <v>110</v>
-      </c>
-      <c r="F344" s="9">
-        <v>9</v>
-      </c>
-      <c r="G344" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="345" spans="2:8">
-      <c r="B345" s="14">
-        <v>46063</v>
-      </c>
-      <c r="C345" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D345" s="9">
-        <v>500</v>
-      </c>
-      <c r="E345" s="9">
-        <v>500</v>
-      </c>
-      <c r="F345" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="2:8">
-      <c r="B346" s="14">
-        <v>46063</v>
-      </c>
-      <c r="C346" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D346" s="9">
-        <v>199</v>
-      </c>
-      <c r="E346" s="9">
-        <v>190</v>
-      </c>
-      <c r="F346" s="9">
-        <v>9</v>
-      </c>
-      <c r="G346" s="12">
-        <v>5</v>
-      </c>
-      <c r="H346" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="347" spans="2:8">
-      <c r="B347" s="14">
-        <v>46063</v>
-      </c>
-      <c r="C347" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D347" s="9">
-        <v>304</v>
-      </c>
-      <c r="E347" s="9">
-        <v>304</v>
-      </c>
-      <c r="F347" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="2:8">
-      <c r="B348" s="14">
-        <v>46063</v>
-      </c>
-      <c r="C348" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D348" s="9">
-        <v>144</v>
-      </c>
-      <c r="E348" s="9">
-        <v>140</v>
-      </c>
-      <c r="F348" s="9">
-        <v>4</v>
-      </c>
-      <c r="H348" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="349" spans="2:8">
-      <c r="B349" s="14">
-        <v>46063</v>
-      </c>
-      <c r="C349" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D349" s="9">
-        <v>1280</v>
-      </c>
-      <c r="E349" s="9">
-        <v>1280</v>
-      </c>
-      <c r="F349" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="2:8">
-      <c r="B350" s="14">
-        <v>46063</v>
-      </c>
-      <c r="C350" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D350" s="9">
-        <v>98</v>
-      </c>
-      <c r="E350" s="9">
-        <v>98</v>
-      </c>
-      <c r="F350" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="2:8">
-      <c r="B351" s="14">
-        <v>46063</v>
-      </c>
-      <c r="C351" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D351" s="9">
-        <v>386</v>
-      </c>
-      <c r="E351" s="9">
-        <v>380</v>
-      </c>
-      <c r="F351" s="9">
-        <v>6</v>
-      </c>
-      <c r="H351" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="352" spans="2:8">
-      <c r="B352" s="14">
-        <v>46063</v>
-      </c>
-      <c r="C352" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D352" s="9">
-        <v>386</v>
-      </c>
-      <c r="E352" s="9">
-        <v>380</v>
-      </c>
-      <c r="F352" s="9">
-        <v>6</v>
-      </c>
-      <c r="H352" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="353" spans="2:16">
-      <c r="B353" s="14">
-        <v>46063</v>
-      </c>
-      <c r="C353" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D353" s="9">
-        <v>1620</v>
-      </c>
-      <c r="E353" s="9">
-        <v>1620</v>
-      </c>
-      <c r="F353" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="2:16">
-      <c r="B354" s="14">
-        <v>46063</v>
-      </c>
-      <c r="C354" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D354" s="9">
-        <v>567</v>
-      </c>
-      <c r="E354" s="9">
-        <v>530</v>
-      </c>
-      <c r="F354" s="9">
-        <v>37</v>
-      </c>
-      <c r="J354" s="12">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="355" spans="2:16">
-      <c r="B355" s="14">
-        <v>46063</v>
-      </c>
-      <c r="C355" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D355" s="9">
-        <v>1058</v>
-      </c>
-      <c r="E355" s="9">
-        <v>1056</v>
-      </c>
-      <c r="F355" s="9">
-        <v>2</v>
-      </c>
-      <c r="J355" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="356" spans="2:16">
-      <c r="B356" s="14">
-        <v>46063</v>
-      </c>
-      <c r="C356" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D356" s="9">
-        <v>410</v>
-      </c>
-      <c r="E356" s="9">
-        <v>410</v>
-      </c>
-      <c r="F356" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="2:16">
-      <c r="B357" s="14">
-        <v>46063</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D357" s="9">
-        <v>336</v>
-      </c>
-      <c r="E357" s="9">
-        <v>336</v>
-      </c>
-      <c r="F357" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="2:16">
-      <c r="B358" s="14">
-        <v>46063</v>
-      </c>
-      <c r="C358" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D358" s="9">
-        <v>1080</v>
-      </c>
-      <c r="E358" s="9">
-        <v>1080</v>
-      </c>
-      <c r="F358" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="2:16">
-      <c r="B359" s="14">
-        <v>46063</v>
-      </c>
-      <c r="C359" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D359" s="9">
-        <v>150</v>
-      </c>
-      <c r="E359" s="9">
-        <v>150</v>
-      </c>
-      <c r="F359" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="2:16">
-      <c r="B360" s="14">
-        <v>46063</v>
-      </c>
-      <c r="C360" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D360" s="9">
-        <v>230</v>
-      </c>
-      <c r="E360" s="9">
-        <v>230</v>
-      </c>
-      <c r="F360" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="2:16">
-      <c r="B361" s="14">
-        <v>46063</v>
-      </c>
-      <c r="C361" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D361" s="9">
-        <v>1128</v>
-      </c>
-      <c r="E361" s="9">
-        <v>1128</v>
-      </c>
-      <c r="F361" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="2:16">
-      <c r="B362" s="14">
-        <v>46063</v>
-      </c>
-      <c r="C362" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D362" s="9">
-        <v>304</v>
-      </c>
-      <c r="E362" s="9">
-        <v>300</v>
-      </c>
-      <c r="F362" s="9">
-        <v>4</v>
-      </c>
-      <c r="P362" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="363" spans="2:16">
-      <c r="B363" s="14">
-        <v>46063</v>
-      </c>
-      <c r="C363" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D363" s="9">
-        <v>389</v>
-      </c>
-      <c r="E363" s="9">
-        <v>360</v>
-      </c>
-      <c r="F363" s="9">
-        <v>29</v>
-      </c>
-      <c r="H363" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="364" spans="2:16">
-      <c r="B364" s="14">
-        <v>46063</v>
-      </c>
-      <c r="C364" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D364" s="9">
-        <v>1374</v>
-      </c>
-      <c r="E364" s="9">
-        <v>1374</v>
-      </c>
-      <c r="F364" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="2:16">
-      <c r="B365" s="14">
-        <v>46063</v>
-      </c>
-      <c r="C365" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D365" s="9">
-        <v>1954</v>
-      </c>
-      <c r="E365" s="9">
-        <v>1936</v>
-      </c>
-      <c r="F365" s="9">
-        <v>18</v>
-      </c>
-      <c r="H365" s="12">
-        <v>17</v>
-      </c>
-      <c r="P365" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366" spans="2:16">
-      <c r="B366" s="14">
-        <v>46064</v>
-      </c>
-      <c r="C366" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D366" s="9">
-        <v>525</v>
-      </c>
-      <c r="E366" s="9">
-        <v>510</v>
-      </c>
-      <c r="F366" s="9">
+      <c r="G436" s="44"/>
+      <c r="H436" s="45">
         <v>15</v>
       </c>
-      <c r="G366" s="12">
-        <v>8</v>
-      </c>
-      <c r="H366" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="367" spans="2:16">
-      <c r="B367" s="14">
-        <v>46064</v>
-      </c>
-      <c r="C367" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D367" s="9">
-        <v>189</v>
-      </c>
-      <c r="E367" s="9">
-        <v>180</v>
-      </c>
-      <c r="F367" s="9">
-        <v>9</v>
-      </c>
-      <c r="G367" s="12">
-        <v>7</v>
-      </c>
-      <c r="H367" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="368" spans="2:16">
-      <c r="B368" s="14">
-        <v>46064</v>
-      </c>
-      <c r="C368" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D368" s="9">
-        <v>170</v>
-      </c>
-      <c r="E368" s="9">
-        <v>170</v>
-      </c>
-      <c r="F368" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="2:16">
-      <c r="B369" s="14">
-        <v>46064</v>
-      </c>
-      <c r="C369" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D369" s="9">
-        <v>25</v>
-      </c>
-      <c r="E369" s="9">
-        <v>25</v>
-      </c>
-      <c r="F369" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="2:16">
-      <c r="B370" s="14">
-        <v>46064</v>
-      </c>
-      <c r="C370" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D370" s="9">
-        <v>120</v>
-      </c>
-      <c r="E370" s="9">
-        <v>120</v>
-      </c>
-      <c r="F370" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="2:16">
-      <c r="B371" s="14">
-        <v>46064</v>
-      </c>
-      <c r="C371" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D371" s="9">
-        <v>116</v>
-      </c>
-      <c r="E371" s="9">
-        <v>116</v>
-      </c>
-      <c r="F371" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="2:16">
-      <c r="B372" s="14">
-        <v>46064</v>
-      </c>
-      <c r="C372" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D372" s="9">
-        <v>200</v>
-      </c>
-      <c r="E372" s="9">
-        <v>200</v>
-      </c>
-      <c r="F372" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="2:16">
-      <c r="B373" s="14">
-        <v>46064</v>
-      </c>
-      <c r="C373" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D373" s="9">
-        <v>374</v>
-      </c>
-      <c r="E373" s="9">
-        <v>370</v>
-      </c>
-      <c r="F373" s="9">
-        <v>4</v>
-      </c>
-      <c r="H373" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="374" spans="2:16">
-      <c r="B374" s="14">
-        <v>46064</v>
-      </c>
-      <c r="C374" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D374" s="9">
-        <v>72</v>
-      </c>
-      <c r="E374" s="9">
-        <v>72</v>
-      </c>
-      <c r="F374" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="2:16">
-      <c r="B375" s="14">
-        <v>46064</v>
-      </c>
-      <c r="C375" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D375" s="9">
-        <v>480</v>
-      </c>
-      <c r="E375" s="9">
-        <v>480</v>
-      </c>
-      <c r="F375" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="2:16">
-      <c r="B376" s="14">
-        <v>46064</v>
-      </c>
-      <c r="C376" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D376" s="9">
-        <v>403</v>
-      </c>
-      <c r="E376" s="9">
-        <v>385</v>
-      </c>
-      <c r="F376" s="9">
-        <v>18</v>
-      </c>
-      <c r="H376" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="377" spans="2:16">
-      <c r="B377" s="14">
-        <v>46064</v>
-      </c>
-      <c r="C377" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D377" s="9">
-        <v>1680</v>
-      </c>
-      <c r="E377" s="9">
-        <v>1680</v>
-      </c>
-      <c r="F377" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="2:16">
-      <c r="B378" s="14">
-        <v>46064</v>
-      </c>
-      <c r="C378" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D378" s="9">
-        <v>761</v>
-      </c>
-      <c r="E378" s="9">
-        <v>760</v>
-      </c>
-      <c r="F378" s="9">
-        <v>1</v>
-      </c>
-      <c r="H378" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="2:16">
-      <c r="B379" s="14">
-        <v>46064</v>
-      </c>
-      <c r="C379" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D379" s="9">
-        <v>512</v>
-      </c>
-      <c r="E379" s="9">
-        <v>512</v>
-      </c>
-      <c r="F379" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="2:16">
-      <c r="B380" s="14">
-        <v>46064</v>
-      </c>
-      <c r="C380" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D380" s="9">
-        <v>224</v>
-      </c>
-      <c r="E380" s="9">
-        <v>224</v>
-      </c>
-      <c r="F380" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="2:16">
-      <c r="B381" s="14">
-        <v>46064</v>
-      </c>
-      <c r="C381" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D381" s="9">
-        <v>450</v>
-      </c>
-      <c r="E381" s="9">
-        <v>450</v>
-      </c>
-      <c r="F381" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="2:16">
-      <c r="B382" s="14">
-        <v>46064</v>
-      </c>
-      <c r="C382" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D382" s="9">
-        <v>704</v>
-      </c>
-      <c r="E382" s="9">
-        <v>650</v>
-      </c>
-      <c r="F382" s="9">
-        <v>54</v>
-      </c>
-      <c r="P382" s="12">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="383" spans="2:16">
-      <c r="B383" s="14">
-        <v>46064</v>
-      </c>
-      <c r="C383" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D383" s="9">
-        <v>680</v>
-      </c>
-      <c r="E383" s="9">
-        <v>678</v>
-      </c>
-      <c r="F383" s="9">
-        <v>2</v>
-      </c>
-      <c r="L383" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="384" spans="2:16">
-      <c r="B384" s="14">
-        <v>46064</v>
-      </c>
-      <c r="C384" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D384" s="9">
-        <v>940</v>
-      </c>
-      <c r="E384" s="9">
-        <v>940</v>
-      </c>
-      <c r="F384" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="2:16">
-      <c r="B385" s="14">
-        <v>46064</v>
-      </c>
-      <c r="C385" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D385" s="9">
-        <v>360</v>
-      </c>
-      <c r="E385" s="9">
-        <v>360</v>
-      </c>
-      <c r="F385" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="2:16">
-      <c r="B386" s="14">
-        <v>46064</v>
-      </c>
-      <c r="C386" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D386" s="9">
-        <v>1300</v>
-      </c>
-      <c r="E386" s="9">
-        <v>1300</v>
-      </c>
-      <c r="F386" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="2:16">
-      <c r="B387" s="14">
-        <v>46064</v>
-      </c>
-      <c r="C387" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D387" s="9">
-        <v>263</v>
-      </c>
-      <c r="E387" s="9">
-        <v>260</v>
-      </c>
-      <c r="F387" s="9">
-        <v>3</v>
-      </c>
-      <c r="P387" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="388" spans="2:16">
-      <c r="B388" s="14">
-        <v>46064</v>
-      </c>
-      <c r="C388" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D388" s="9">
-        <v>380</v>
-      </c>
-      <c r="E388" s="9">
-        <v>360</v>
-      </c>
-      <c r="F388" s="9">
-        <v>20</v>
-      </c>
-      <c r="H388" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="389" spans="2:16">
-      <c r="B389" s="14">
-        <v>46064</v>
-      </c>
-      <c r="C389" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D389" s="9">
-        <v>513</v>
-      </c>
-      <c r="E389" s="9">
-        <v>504</v>
-      </c>
-      <c r="F389" s="9">
-        <v>9</v>
-      </c>
-      <c r="G389" s="12">
-        <v>5</v>
-      </c>
-      <c r="H389" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="390" spans="2:16">
-      <c r="B390" s="14">
-        <v>46064</v>
-      </c>
-      <c r="C390" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D390" s="9">
-        <v>757</v>
-      </c>
-      <c r="E390" s="9">
-        <v>750</v>
-      </c>
-      <c r="F390" s="9">
-        <v>7</v>
-      </c>
-      <c r="G390" s="12">
-        <v>3</v>
-      </c>
-      <c r="H390" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="391" spans="2:16">
-      <c r="B391" s="14">
-        <v>46064</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D391" s="9">
-        <v>2209</v>
-      </c>
-      <c r="E391" s="9">
-        <v>2209</v>
-      </c>
-      <c r="F391" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="2:16">
-      <c r="B392" s="14">
-        <v>46065</v>
-      </c>
-      <c r="C392" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D392" s="9">
-        <v>528</v>
-      </c>
-      <c r="E392" s="9">
-        <v>516</v>
-      </c>
-      <c r="F392" s="9">
-        <v>12</v>
-      </c>
-      <c r="G392" s="12">
-        <v>2</v>
-      </c>
-      <c r="H392" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="393" spans="2:16">
-      <c r="B393" s="14">
-        <v>46065</v>
-      </c>
-      <c r="C393" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D393" s="9">
-        <v>698</v>
-      </c>
-      <c r="E393" s="9">
-        <v>680</v>
-      </c>
-      <c r="F393" s="9">
-        <v>18</v>
-      </c>
-      <c r="L393" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="394" spans="2:16">
-      <c r="B394" s="14">
-        <v>46065</v>
-      </c>
-      <c r="C394" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D394" s="9">
-        <v>144</v>
-      </c>
-      <c r="E394" s="9">
-        <v>140</v>
-      </c>
-      <c r="F394" s="9">
-        <v>4</v>
-      </c>
-      <c r="G394" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="395" spans="2:16">
-      <c r="B395" s="14">
-        <v>46065</v>
-      </c>
-      <c r="C395" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D395" s="9">
-        <v>544</v>
-      </c>
-      <c r="E395" s="9">
-        <v>540</v>
-      </c>
-      <c r="F395" s="9">
-        <v>4</v>
-      </c>
-      <c r="G395" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="396" spans="2:16">
-      <c r="B396" s="14">
-        <v>46065</v>
-      </c>
-      <c r="C396" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D396" s="9">
-        <v>181</v>
-      </c>
-      <c r="E396" s="9">
-        <v>180</v>
-      </c>
-      <c r="F396" s="9">
-        <v>1</v>
-      </c>
-      <c r="H396" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="397" spans="2:16">
-      <c r="B397" s="14">
-        <v>46065</v>
-      </c>
-      <c r="C397" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D397" s="9">
-        <v>420</v>
-      </c>
-      <c r="E397" s="9">
-        <v>420</v>
-      </c>
-      <c r="F397" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="2:16">
-      <c r="B398" s="14">
-        <v>46065</v>
-      </c>
-      <c r="C398" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D398" s="9">
-        <v>1280</v>
-      </c>
-      <c r="E398" s="9">
-        <v>1280</v>
-      </c>
-      <c r="F398" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="2:16">
-      <c r="B399" s="14">
-        <v>46065</v>
-      </c>
-      <c r="C399" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D399" s="9">
-        <v>416</v>
-      </c>
-      <c r="E399" s="9">
-        <v>416</v>
-      </c>
-      <c r="F399" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="2:16">
-      <c r="B400" s="14">
-        <v>46065</v>
-      </c>
-      <c r="C400" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D400" s="9">
-        <v>900</v>
-      </c>
-      <c r="E400" s="9">
-        <v>900</v>
-      </c>
-      <c r="F400" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="2:16">
-      <c r="B401" s="14">
-        <v>46065</v>
-      </c>
-      <c r="C401" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D401" s="9">
-        <v>808</v>
-      </c>
-      <c r="E401" s="9">
-        <v>800</v>
-      </c>
-      <c r="F401" s="9">
-        <v>8</v>
-      </c>
-      <c r="H401" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="402" spans="2:16">
-      <c r="B402" s="14">
-        <v>46065</v>
-      </c>
-      <c r="C402" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D402" s="9">
-        <v>688</v>
-      </c>
-      <c r="E402" s="9">
-        <v>688</v>
-      </c>
-      <c r="F402" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="2:16">
-      <c r="B403" s="14">
-        <v>46065</v>
-      </c>
-      <c r="C403" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D403" s="9">
-        <v>144</v>
-      </c>
-      <c r="E403" s="9">
-        <v>144</v>
-      </c>
-      <c r="F403" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="2:16">
-      <c r="B404" s="14">
-        <v>46065</v>
-      </c>
-      <c r="C404" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D404" s="9">
-        <v>660</v>
-      </c>
-      <c r="E404" s="9">
-        <v>660</v>
-      </c>
-      <c r="F404" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="2:16">
-      <c r="B405" s="14">
-        <v>46065</v>
-      </c>
-      <c r="C405" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D405" s="9">
-        <v>170</v>
-      </c>
-      <c r="E405" s="9">
-        <v>170</v>
-      </c>
-      <c r="F405" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="2:16">
-      <c r="B406" s="14">
-        <v>46065</v>
-      </c>
-      <c r="C406" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D406" s="9">
-        <v>240</v>
-      </c>
-      <c r="E406" s="9">
-        <v>240</v>
-      </c>
-      <c r="F406" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="2:16">
-      <c r="B407" s="14">
-        <v>46065</v>
-      </c>
-      <c r="C407" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D407" s="9">
-        <v>258</v>
-      </c>
-      <c r="E407" s="9">
-        <v>256</v>
-      </c>
-      <c r="F407" s="9">
-        <v>2</v>
-      </c>
-      <c r="P407" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="408" spans="2:16">
-      <c r="B408" s="14">
-        <v>46065</v>
-      </c>
-      <c r="C408" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D408" s="9">
-        <v>280</v>
-      </c>
-      <c r="E408" s="9">
-        <v>280</v>
-      </c>
-      <c r="F408" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="2:16">
-      <c r="B409" s="14">
-        <v>46065</v>
-      </c>
-      <c r="C409" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D409" s="9">
-        <v>1040</v>
-      </c>
-      <c r="E409" s="9">
-        <v>1024</v>
-      </c>
-      <c r="F409" s="9">
-        <v>16</v>
-      </c>
-      <c r="H409" s="12">
-        <v>10</v>
-      </c>
-      <c r="J409" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="410" spans="2:16">
-      <c r="B410" s="14">
-        <v>46065</v>
-      </c>
-      <c r="C410" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D410" s="9">
-        <v>80</v>
-      </c>
-      <c r="E410" s="9">
-        <v>80</v>
-      </c>
-      <c r="F410" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="2:16">
-      <c r="B411" s="14">
-        <v>46065</v>
-      </c>
-      <c r="C411" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D411" s="9">
-        <v>340</v>
-      </c>
-      <c r="E411" s="9">
-        <v>340</v>
-      </c>
-      <c r="F411" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="2:16">
-      <c r="B412" s="14">
-        <v>46065</v>
-      </c>
-      <c r="C412" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D412" s="9">
-        <v>384</v>
-      </c>
-      <c r="E412" s="9">
-        <v>360</v>
-      </c>
-      <c r="F412" s="9">
-        <v>24</v>
-      </c>
-      <c r="G412" s="12">
-        <v>3</v>
-      </c>
-      <c r="H412" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="413" spans="2:16">
-      <c r="B413" s="14">
-        <v>46065</v>
-      </c>
-      <c r="C413" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D413" s="9">
-        <v>798</v>
-      </c>
-      <c r="E413" s="9">
-        <v>780</v>
-      </c>
-      <c r="F413" s="9">
-        <v>18</v>
-      </c>
-      <c r="G413" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="414" spans="2:16">
-      <c r="B414" s="14">
-        <v>46065</v>
-      </c>
-      <c r="C414" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D414" s="9">
-        <v>601</v>
-      </c>
-      <c r="E414" s="9">
-        <v>580</v>
-      </c>
-      <c r="F414" s="9">
-        <v>21</v>
-      </c>
-      <c r="P414" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="415" spans="2:16">
-      <c r="B415" s="14">
-        <v>46065</v>
-      </c>
-      <c r="C415" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D415" s="9">
-        <v>1112</v>
-      </c>
-      <c r="E415" s="9">
-        <v>1112</v>
-      </c>
-      <c r="F415" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="2:16">
-      <c r="B416" s="14">
-        <v>46065</v>
-      </c>
-      <c r="C416" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D416" s="9">
-        <v>100</v>
-      </c>
-      <c r="E416" s="9">
-        <v>100</v>
-      </c>
-      <c r="F416" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="2:7">
-      <c r="B417" s="14">
-        <v>46066</v>
-      </c>
-      <c r="C417" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D417" s="9">
-        <v>1112</v>
-      </c>
-      <c r="E417" s="9">
-        <v>1112</v>
-      </c>
-      <c r="F417" s="9">
-        <v>112</v>
-      </c>
-      <c r="G417" s="9">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="418" spans="2:7">
-      <c r="B418" s="14">
-        <v>46066</v>
-      </c>
-      <c r="C418" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D418" s="9">
-        <v>1112</v>
-      </c>
-      <c r="E418" s="9">
-        <v>1112</v>
-      </c>
-      <c r="F418" s="9">
-        <v>112</v>
-      </c>
-      <c r="G418" s="9">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="419" spans="2:7">
-      <c r="B419" s="14">
-        <v>46066</v>
-      </c>
-      <c r="C419" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D419" s="9">
-        <v>1112</v>
-      </c>
-      <c r="E419" s="9">
-        <v>1112</v>
-      </c>
-      <c r="F419" s="9">
-        <v>112</v>
-      </c>
-      <c r="G419" s="9">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="420" spans="2:7">
-      <c r="B420" s="14">
-        <v>46066</v>
-      </c>
-      <c r="C420" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D420" s="9">
-        <v>1112</v>
-      </c>
-      <c r="E420" s="9">
-        <v>1112</v>
-      </c>
-      <c r="F420" s="9">
-        <v>112</v>
-      </c>
-      <c r="G420" s="9">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="421" spans="2:7">
-      <c r="B421" s="14">
-        <v>46066</v>
-      </c>
-      <c r="C421" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D421" s="9">
-        <v>1112</v>
-      </c>
-      <c r="E421" s="9">
-        <v>1112</v>
-      </c>
-      <c r="F421" s="9">
-        <v>112</v>
-      </c>
-      <c r="G421" s="9">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="422" spans="2:7">
-      <c r="B422" s="14">
-        <v>46066</v>
-      </c>
-      <c r="C422" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D422" s="9">
-        <v>1112</v>
-      </c>
-      <c r="E422" s="9">
-        <v>1112</v>
-      </c>
-      <c r="F422" s="9">
-        <v>112</v>
-      </c>
-      <c r="G422" s="9">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="423" spans="2:7">
-      <c r="B423" s="14">
-        <v>46066</v>
-      </c>
-      <c r="C423" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D423" s="9">
-        <v>1112</v>
-      </c>
-      <c r="E423" s="9">
-        <v>1112</v>
-      </c>
-      <c r="F423" s="9">
-        <v>112</v>
-      </c>
-      <c r="G423" s="9">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="424" spans="2:7">
-      <c r="B424" s="14">
-        <v>46066</v>
-      </c>
-      <c r="C424" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D424" s="9">
-        <v>1112</v>
-      </c>
-      <c r="E424" s="9">
-        <v>1112</v>
-      </c>
-      <c r="F424" s="9">
-        <v>112</v>
-      </c>
-      <c r="G424" s="9">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="425" spans="2:7">
-      <c r="B425" s="14">
-        <v>46066</v>
-      </c>
-      <c r="C425" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D425" s="9">
-        <v>1112</v>
-      </c>
-      <c r="E425" s="9">
-        <v>1112</v>
-      </c>
-      <c r="F425" s="9">
-        <v>112</v>
-      </c>
-      <c r="G425" s="9">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="426" spans="2:7">
-      <c r="B426" s="14">
-        <v>46066</v>
-      </c>
-      <c r="C426" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D426" s="9">
-        <v>1112</v>
-      </c>
-      <c r="E426" s="9">
-        <v>1112</v>
-      </c>
-      <c r="F426" s="9">
-        <v>112</v>
-      </c>
-      <c r="G426" s="9">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="427" spans="2:7">
-      <c r="B427" s="14">
-        <v>46066</v>
-      </c>
-      <c r="C427" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D427" s="9">
-        <v>1112</v>
-      </c>
-      <c r="E427" s="9">
-        <v>1112</v>
-      </c>
-      <c r="F427" s="9">
-        <v>112</v>
-      </c>
-      <c r="G427" s="9">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="428" spans="2:7">
-      <c r="B428" s="14">
-        <v>46066</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D428" s="9">
-        <v>1112</v>
-      </c>
-      <c r="E428" s="9">
-        <v>1112</v>
-      </c>
-      <c r="F428" s="9">
-        <v>112</v>
-      </c>
-      <c r="G428" s="9">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="429" spans="2:7">
-      <c r="B429" s="14">
-        <v>46066</v>
-      </c>
-      <c r="C429" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D429" s="9">
-        <v>1112</v>
-      </c>
-      <c r="E429" s="9">
-        <v>1112</v>
-      </c>
-      <c r="F429" s="9">
-        <v>112</v>
-      </c>
-      <c r="G429" s="9">
-        <v>112</v>
-      </c>
+      <c r="I436" s="44"/>
+      <c r="J436" s="44"/>
+      <c r="K436" s="44"/>
+      <c r="L436" s="44"/>
+      <c r="M436" s="44"/>
+      <c r="N436" s="44"/>
+      <c r="O436" s="44"/>
+      <c r="P436" s="44"/>
+    </row>
+    <row r="437" spans="2:16">
+      <c r="B437" s="41"/>
+      <c r="F437" s="42"/>
+    </row>
+    <row r="438" spans="2:16">
+      <c r="B438" s="27"/>
+      <c r="F438" s="8"/>
+    </row>
+    <row r="439" spans="2:16">
+      <c r="B439" s="27"/>
+      <c r="F439" s="8"/>
+    </row>
+    <row r="440" spans="2:16">
+      <c r="B440" s="27"/>
+      <c r="F440" s="8"/>
+    </row>
+    <row r="441" spans="2:16">
+      <c r="B441" s="25"/>
+      <c r="F441" s="8"/>
+    </row>
+    <row r="442" spans="2:16">
+      <c r="B442" s="25"/>
+      <c r="F442" s="8"/>
+    </row>
+    <row r="443" spans="2:16">
+      <c r="B443" s="25"/>
+      <c r="F443" s="8"/>
+    </row>
+    <row r="444" spans="2:16">
+      <c r="B444" s="25"/>
+      <c r="F444" s="8"/>
+    </row>
+    <row r="445" spans="2:16">
+      <c r="B445" s="25"/>
+      <c r="F445" s="8"/>
+    </row>
+    <row r="446" spans="2:16">
+      <c r="B446" s="25"/>
+      <c r="F446" s="8"/>
+    </row>
+    <row r="447" spans="2:16">
+      <c r="B447" s="25"/>
+      <c r="F447" s="8"/>
+    </row>
+    <row r="448" spans="2:16">
+      <c r="B448" s="25"/>
+      <c r="F448" s="8"/>
+    </row>
+    <row r="449" spans="2:6">
+      <c r="B449" s="25"/>
+      <c r="F449" s="8"/>
+    </row>
+    <row r="450" spans="2:6">
+      <c r="B450" s="25"/>
+      <c r="F450" s="8"/>
+    </row>
+    <row r="451" spans="2:6">
+      <c r="B451" s="25"/>
+      <c r="F451" s="8"/>
+    </row>
+    <row r="452" spans="2:6">
+      <c r="B452" s="25"/>
+      <c r="F452" s="8"/>
+    </row>
+    <row r="453" spans="2:6">
+      <c r="B453" s="25"/>
+      <c r="F453" s="8"/>
+    </row>
+    <row r="454" spans="2:6">
+      <c r="B454" s="25"/>
+      <c r="F454" s="8"/>
+    </row>
+    <row r="455" spans="2:6">
+      <c r="B455" s="25"/>
+      <c r="F455" s="8"/>
+    </row>
+    <row r="456" spans="2:6">
+      <c r="B456" s="25"/>
+      <c r="F456" s="8"/>
+    </row>
+    <row r="457" spans="2:6">
+      <c r="B457" s="25"/>
+      <c r="F457" s="8"/>
+    </row>
+    <row r="458" spans="2:6">
+      <c r="B458" s="25"/>
+      <c r="F458" s="8"/>
+    </row>
+    <row r="459" spans="2:6">
+      <c r="B459" s="25"/>
+      <c r="F459" s="8"/>
+    </row>
+    <row r="460" spans="2:6">
+      <c r="B460" s="25"/>
+      <c r="F460" s="8"/>
+    </row>
+    <row r="461" spans="2:6">
+      <c r="B461" s="25"/>
+      <c r="F461" s="8"/>
+    </row>
+    <row r="462" spans="2:6">
+      <c r="B462" s="25"/>
+      <c r="F462" s="8"/>
+    </row>
+    <row r="463" spans="2:6">
+      <c r="B463" s="25"/>
+      <c r="F463" s="8"/>
+    </row>
+    <row r="464" spans="2:6">
+      <c r="B464" s="25"/>
+      <c r="F464" s="8"/>
+    </row>
+    <row r="465" spans="2:6">
+      <c r="B465" s="25"/>
+      <c r="F465" s="8"/>
+    </row>
+    <row r="466" spans="2:6">
+      <c r="B466" s="25"/>
+      <c r="F466" s="8"/>
+    </row>
+    <row r="467" spans="2:6">
+      <c r="B467" s="25"/>
+      <c r="F467" s="8"/>
+    </row>
+    <row r="468" spans="2:6">
+      <c r="B468" s="25"/>
+      <c r="F468" s="8"/>
+    </row>
+    <row r="469" spans="2:6">
+      <c r="B469" s="25"/>
+      <c r="F469" s="8"/>
+    </row>
+    <row r="470" spans="2:6">
+      <c r="B470" s="25"/>
+      <c r="F470" s="8"/>
+    </row>
+    <row r="471" spans="2:6">
+      <c r="B471" s="25"/>
+      <c r="F471" s="8"/>
+    </row>
+    <row r="472" spans="2:6">
+      <c r="B472" s="25"/>
+      <c r="F472" s="8"/>
+    </row>
+    <row r="473" spans="2:6">
+      <c r="B473" s="25"/>
+      <c r="F473" s="8"/>
+    </row>
+    <row r="474" spans="2:6">
+      <c r="B474" s="25"/>
+      <c r="F474" s="8"/>
+    </row>
+    <row r="475" spans="2:6">
+      <c r="B475" s="25"/>
+      <c r="F475" s="8"/>
+    </row>
+    <row r="476" spans="2:6">
+      <c r="B476" s="25"/>
+      <c r="F476" s="8"/>
+    </row>
+    <row r="477" spans="2:6">
+      <c r="B477" s="25"/>
+      <c r="F477" s="8"/>
+    </row>
+    <row r="478" spans="2:6">
+      <c r="B478" s="25"/>
+      <c r="F478" s="8"/>
+    </row>
+    <row r="479" spans="2:6">
+      <c r="B479" s="25"/>
+      <c r="F479" s="8"/>
+    </row>
+    <row r="480" spans="2:6">
+      <c r="B480" s="25"/>
+      <c r="F480" s="8"/>
+    </row>
+    <row r="481" spans="2:6">
+      <c r="B481" s="25"/>
+      <c r="F481" s="8"/>
+    </row>
+    <row r="482" spans="2:6">
+      <c r="B482" s="25"/>
+      <c r="F482" s="8"/>
+    </row>
+    <row r="483" spans="2:6">
+      <c r="B483" s="25"/>
+      <c r="F483" s="8"/>
+    </row>
+    <row r="484" spans="2:6">
+      <c r="B484" s="25"/>
+      <c r="F484" s="8"/>
+    </row>
+    <row r="485" spans="2:6">
+      <c r="B485" s="25"/>
+      <c r="F485" s="8"/>
+    </row>
+    <row r="486" spans="2:6">
+      <c r="B486" s="25"/>
+      <c r="F486" s="8"/>
+    </row>
+    <row r="487" spans="2:6">
+      <c r="B487" s="25"/>
+      <c r="F487" s="8"/>
+    </row>
+    <row r="488" spans="2:6">
+      <c r="B488" s="25"/>
+      <c r="F488" s="8"/>
+    </row>
+    <row r="489" spans="2:6">
+      <c r="B489" s="25"/>
+      <c r="F489" s="8"/>
+    </row>
+    <row r="490" spans="2:6">
+      <c r="B490" s="25"/>
+      <c r="F490" s="8"/>
+    </row>
+    <row r="491" spans="2:6">
+      <c r="B491" s="25"/>
+      <c r="F491" s="8"/>
+    </row>
+    <row r="492" spans="2:6">
+      <c r="B492" s="25"/>
+      <c r="F492" s="8"/>
+    </row>
+    <row r="493" spans="2:6">
+      <c r="B493" s="25"/>
+      <c r="F493" s="8"/>
+    </row>
+    <row r="494" spans="2:6">
+      <c r="B494" s="25"/>
+      <c r="F494" s="8"/>
+    </row>
+    <row r="495" spans="2:6">
+      <c r="B495" s="25"/>
+      <c r="F495" s="8"/>
+    </row>
+    <row r="496" spans="2:6">
+      <c r="B496" s="25"/>
+      <c r="F496" s="8"/>
+    </row>
+    <row r="497" spans="2:6">
+      <c r="B497" s="25"/>
+      <c r="F497" s="8"/>
+    </row>
+    <row r="498" spans="2:6">
+      <c r="B498" s="25"/>
+      <c r="F498" s="8"/>
+    </row>
+    <row r="499" spans="2:6">
+      <c r="B499" s="25"/>
+      <c r="F499" s="8"/>
+    </row>
+    <row r="500" spans="2:6">
+      <c r="B500" s="25"/>
+      <c r="F500" s="8"/>
+    </row>
+    <row r="501" spans="2:6">
+      <c r="B501" s="25"/>
+    </row>
+    <row r="502" spans="2:6">
+      <c r="B502" s="25"/>
+    </row>
+    <row r="503" spans="2:6">
+      <c r="B503" s="25"/>
+    </row>
+    <row r="504" spans="2:6">
+      <c r="B504" s="25"/>
+    </row>
+    <row r="505" spans="2:6">
+      <c r="B505" s="25"/>
+    </row>
+    <row r="506" spans="2:6">
+      <c r="B506" s="25"/>
+    </row>
+    <row r="507" spans="2:6">
+      <c r="B507" s="25"/>
+    </row>
+    <row r="508" spans="2:6">
+      <c r="B508" s="25"/>
+    </row>
+    <row r="509" spans="2:6">
+      <c r="B509" s="25"/>
+    </row>
+    <row r="510" spans="2:6">
+      <c r="B510" s="25"/>
+    </row>
+    <row r="511" spans="2:6">
+      <c r="B511" s="25"/>
+    </row>
+    <row r="512" spans="2:6">
+      <c r="B512" s="25"/>
+    </row>
+    <row r="513" spans="2:2">
+      <c r="B513" s="25"/>
+    </row>
+    <row r="514" spans="2:2">
+      <c r="B514" s="25"/>
+    </row>
+    <row r="515" spans="2:2">
+      <c r="B515" s="25"/>
+    </row>
+    <row r="516" spans="2:2">
+      <c r="B516" s="25"/>
+    </row>
+    <row r="517" spans="2:2">
+      <c r="B517" s="25"/>
+    </row>
+    <row r="518" spans="2:2">
+      <c r="B518" s="25"/>
+    </row>
+    <row r="519" spans="2:2">
+      <c r="B519" s="25"/>
+    </row>
+    <row r="520" spans="2:2">
+      <c r="B520" s="25"/>
+    </row>
+    <row r="521" spans="2:2">
+      <c r="B521" s="25"/>
+    </row>
+    <row r="522" spans="2:2">
+      <c r="B522" s="25"/>
+    </row>
+    <row r="523" spans="2:2">
+      <c r="B523" s="25"/>
+    </row>
+    <row r="524" spans="2:2">
+      <c r="B524" s="25"/>
+    </row>
+    <row r="525" spans="2:2">
+      <c r="B525" s="25"/>
+    </row>
+    <row r="526" spans="2:2">
+      <c r="B526" s="25"/>
+    </row>
+    <row r="527" spans="2:2">
+      <c r="B527" s="25"/>
+    </row>
+    <row r="528" spans="2:2">
+      <c r="B528" s="25"/>
+    </row>
+    <row r="529" spans="2:2">
+      <c r="B529" s="25"/>
+    </row>
+    <row r="530" spans="2:2">
+      <c r="B530" s="25"/>
+    </row>
+    <row r="531" spans="2:2">
+      <c r="B531" s="25"/>
+    </row>
+    <row r="532" spans="2:2">
+      <c r="B532" s="25"/>
+    </row>
+    <row r="533" spans="2:2">
+      <c r="B533" s="25"/>
+    </row>
+    <row r="534" spans="2:2">
+      <c r="B534" s="25"/>
+    </row>
+    <row r="535" spans="2:2">
+      <c r="B535" s="25"/>
+    </row>
+    <row r="536" spans="2:2">
+      <c r="B536" s="25"/>
+    </row>
+    <row r="537" spans="2:2">
+      <c r="B537" s="25"/>
+    </row>
+    <row r="538" spans="2:2">
+      <c r="B538" s="25"/>
+    </row>
+    <row r="539" spans="2:2">
+      <c r="B539" s="25"/>
+    </row>
+    <row r="540" spans="2:2">
+      <c r="B540" s="25"/>
+    </row>
+    <row r="541" spans="2:2">
+      <c r="B541" s="25"/>
+    </row>
+    <row r="542" spans="2:2">
+      <c r="B542" s="25"/>
+    </row>
+    <row r="543" spans="2:2">
+      <c r="B543" s="25"/>
+    </row>
+    <row r="544" spans="2:2">
+      <c r="B544" s="25"/>
+    </row>
+    <row r="545" spans="2:2">
+      <c r="B545" s="25"/>
+    </row>
+    <row r="546" spans="2:2">
+      <c r="B546" s="25"/>
+    </row>
+    <row r="547" spans="2:2">
+      <c r="B547" s="25"/>
+    </row>
+    <row r="548" spans="2:2">
+      <c r="B548" s="25"/>
+    </row>
+    <row r="549" spans="2:2">
+      <c r="B549" s="25"/>
+    </row>
+    <row r="550" spans="2:2">
+      <c r="B550" s="25"/>
+    </row>
+    <row r="551" spans="2:2">
+      <c r="B551" s="25"/>
+    </row>
+    <row r="552" spans="2:2">
+      <c r="B552" s="25"/>
+    </row>
+    <row r="553" spans="2:2">
+      <c r="B553" s="25"/>
+    </row>
+    <row r="554" spans="2:2">
+      <c r="B554" s="25"/>
+    </row>
+    <row r="555" spans="2:2">
+      <c r="B555" s="25"/>
+    </row>
+    <row r="556" spans="2:2">
+      <c r="B556" s="25"/>
+    </row>
+    <row r="557" spans="2:2">
+      <c r="B557" s="25"/>
+    </row>
+    <row r="558" spans="2:2">
+      <c r="B558" s="25"/>
+    </row>
+    <row r="559" spans="2:2">
+      <c r="B559" s="25"/>
+    </row>
+    <row r="560" spans="2:2">
+      <c r="B560" s="25"/>
+    </row>
+    <row r="561" spans="2:2">
+      <c r="B561" s="25"/>
+    </row>
+    <row r="562" spans="2:2">
+      <c r="B562" s="25"/>
+    </row>
+    <row r="563" spans="2:2">
+      <c r="B563" s="25"/>
+    </row>
+    <row r="564" spans="2:2">
+      <c r="B564" s="25"/>
+    </row>
+    <row r="565" spans="2:2">
+      <c r="B565" s="25"/>
+    </row>
+    <row r="566" spans="2:2">
+      <c r="B566" s="25"/>
+    </row>
+    <row r="567" spans="2:2">
+      <c r="B567" s="25"/>
+    </row>
+    <row r="568" spans="2:2">
+      <c r="B568" s="25"/>
+    </row>
+    <row r="569" spans="2:2">
+      <c r="B569" s="25"/>
+    </row>
+    <row r="570" spans="2:2">
+      <c r="B570" s="25"/>
+    </row>
+    <row r="571" spans="2:2">
+      <c r="B571" s="25"/>
+    </row>
+    <row r="572" spans="2:2">
+      <c r="B572" s="25"/>
+    </row>
+    <row r="573" spans="2:2">
+      <c r="B573" s="25"/>
+    </row>
+    <row r="574" spans="2:2">
+      <c r="B574" s="25"/>
+    </row>
+    <row r="575" spans="2:2">
+      <c r="B575" s="25"/>
+    </row>
+    <row r="576" spans="2:2">
+      <c r="B576" s="25"/>
+    </row>
+    <row r="577" spans="2:2">
+      <c r="B577" s="25"/>
+    </row>
+    <row r="578" spans="2:2">
+      <c r="B578" s="25"/>
+    </row>
+    <row r="579" spans="2:2">
+      <c r="B579" s="25"/>
+    </row>
+    <row r="580" spans="2:2">
+      <c r="B580" s="25"/>
+    </row>
+    <row r="581" spans="2:2">
+      <c r="B581" s="25"/>
+    </row>
+    <row r="582" spans="2:2">
+      <c r="B582" s="25"/>
+    </row>
+    <row r="583" spans="2:2">
+      <c r="B583" s="25"/>
+    </row>
+    <row r="584" spans="2:2">
+      <c r="B584" s="25"/>
+    </row>
+    <row r="585" spans="2:2">
+      <c r="B585" s="25"/>
+    </row>
+    <row r="586" spans="2:2">
+      <c r="B586" s="25"/>
+    </row>
+    <row r="587" spans="2:2">
+      <c r="B587" s="25"/>
+    </row>
+    <row r="588" spans="2:2">
+      <c r="B588" s="25"/>
+    </row>
+    <row r="589" spans="2:2">
+      <c r="B589" s="25"/>
+    </row>
+    <row r="590" spans="2:2">
+      <c r="B590" s="25"/>
+    </row>
+    <row r="591" spans="2:2">
+      <c r="B591" s="25"/>
+    </row>
+    <row r="592" spans="2:2">
+      <c r="B592" s="25"/>
+    </row>
+    <row r="593" spans="2:2">
+      <c r="B593" s="25"/>
+    </row>
+    <row r="594" spans="2:2">
+      <c r="B594" s="25"/>
+    </row>
+    <row r="595" spans="2:2">
+      <c r="B595" s="25"/>
+    </row>
+    <row r="596" spans="2:2">
+      <c r="B596" s="25"/>
+    </row>
+    <row r="597" spans="2:2">
+      <c r="B597" s="25"/>
+    </row>
+    <row r="598" spans="2:2">
+      <c r="B598" s="25"/>
+    </row>
+    <row r="599" spans="2:2">
+      <c r="B599" s="25"/>
+    </row>
+    <row r="600" spans="2:2">
+      <c r="B600" s="25"/>
+    </row>
+    <row r="601" spans="2:2">
+      <c r="B601" s="25"/>
+    </row>
+    <row r="602" spans="2:2">
+      <c r="B602" s="25"/>
+    </row>
+    <row r="603" spans="2:2">
+      <c r="B603" s="25"/>
+    </row>
+    <row r="604" spans="2:2">
+      <c r="B604" s="25"/>
+    </row>
+    <row r="605" spans="2:2">
+      <c r="B605" s="25"/>
+    </row>
+    <row r="606" spans="2:2">
+      <c r="B606" s="25"/>
+    </row>
+    <row r="607" spans="2:2">
+      <c r="B607" s="25"/>
+    </row>
+    <row r="608" spans="2:2">
+      <c r="B608" s="25"/>
+    </row>
+    <row r="609" spans="2:2">
+      <c r="B609" s="25"/>
+    </row>
+    <row r="610" spans="2:2">
+      <c r="B610" s="25"/>
+    </row>
+    <row r="611" spans="2:2">
+      <c r="B611" s="25"/>
+    </row>
+    <row r="612" spans="2:2">
+      <c r="B612" s="25"/>
+    </row>
+    <row r="613" spans="2:2">
+      <c r="B613" s="25"/>
+    </row>
+    <row r="614" spans="2:2">
+      <c r="B614" s="25"/>
+    </row>
+    <row r="615" spans="2:2">
+      <c r="B615" s="25"/>
+    </row>
+    <row r="616" spans="2:2">
+      <c r="B616" s="25"/>
+    </row>
+    <row r="617" spans="2:2">
+      <c r="B617" s="25"/>
+    </row>
+    <row r="618" spans="2:2">
+      <c r="B618" s="25"/>
+    </row>
+    <row r="619" spans="2:2">
+      <c r="B619" s="25"/>
+    </row>
+    <row r="620" spans="2:2">
+      <c r="B620" s="25"/>
+    </row>
+    <row r="621" spans="2:2">
+      <c r="B621" s="25"/>
+    </row>
+    <row r="622" spans="2:2">
+      <c r="B622" s="25"/>
+    </row>
+    <row r="623" spans="2:2">
+      <c r="B623" s="25"/>
+    </row>
+    <row r="624" spans="2:2">
+      <c r="B624" s="25"/>
+    </row>
+    <row r="625" spans="2:2">
+      <c r="B625" s="25"/>
+    </row>
+    <row r="626" spans="2:2">
+      <c r="B626" s="25"/>
+    </row>
+    <row r="627" spans="2:2">
+      <c r="B627" s="25"/>
+    </row>
+    <row r="628" spans="2:2">
+      <c r="B628" s="25"/>
+    </row>
+    <row r="629" spans="2:2">
+      <c r="B629" s="25"/>
+    </row>
+    <row r="630" spans="2:2">
+      <c r="B630" s="25"/>
+    </row>
+    <row r="631" spans="2:2">
+      <c r="B631" s="25"/>
+    </row>
+    <row r="632" spans="2:2">
+      <c r="B632" s="25"/>
+    </row>
+    <row r="633" spans="2:2">
+      <c r="B633" s="25"/>
+    </row>
+    <row r="634" spans="2:2">
+      <c r="B634" s="25"/>
+    </row>
+    <row r="635" spans="2:2">
+      <c r="B635" s="25"/>
+    </row>
+    <row r="636" spans="2:2">
+      <c r="B636" s="25"/>
+    </row>
+    <row r="637" spans="2:2">
+      <c r="B637" s="25"/>
+    </row>
+    <row r="638" spans="2:2">
+      <c r="B638" s="25"/>
+    </row>
+    <row r="639" spans="2:2">
+      <c r="B639" s="25"/>
+    </row>
+    <row r="640" spans="2:2">
+      <c r="B640" s="25"/>
+    </row>
+    <row r="641" spans="2:2">
+      <c r="B641" s="25"/>
+    </row>
+    <row r="642" spans="2:2">
+      <c r="B642" s="25"/>
+    </row>
+    <row r="643" spans="2:2">
+      <c r="B643" s="25"/>
+    </row>
+    <row r="644" spans="2:2">
+      <c r="B644" s="25"/>
+    </row>
+    <row r="645" spans="2:2">
+      <c r="B645" s="25"/>
+    </row>
+    <row r="646" spans="2:2">
+      <c r="B646" s="25"/>
+    </row>
+    <row r="647" spans="2:2">
+      <c r="B647" s="25"/>
+    </row>
+    <row r="648" spans="2:2">
+      <c r="B648" s="25"/>
+    </row>
+    <row r="649" spans="2:2">
+      <c r="B649" s="25"/>
+    </row>
+    <row r="650" spans="2:2">
+      <c r="B650" s="25"/>
+    </row>
+    <row r="651" spans="2:2">
+      <c r="B651" s="25"/>
+    </row>
+    <row r="652" spans="2:2">
+      <c r="B652" s="25"/>
+    </row>
+    <row r="653" spans="2:2">
+      <c r="B653" s="25"/>
+    </row>
+    <row r="654" spans="2:2">
+      <c r="B654" s="25"/>
+    </row>
+    <row r="655" spans="2:2">
+      <c r="B655" s="25"/>
+    </row>
+    <row r="656" spans="2:2">
+      <c r="B656" s="25"/>
+    </row>
+    <row r="657" spans="2:2">
+      <c r="B657" s="25"/>
     </row>
     <row r="63289" spans="2:2">
       <c r="B63289" s="15"/>
@@ -12549,7 +15117,7 @@
       <c r="B1040329" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:P162"/>
+  <autoFilter ref="B3:P162" xr:uid="{99BC34A0-7885-4B17-9A44-9155E3A920C9}"/>
   <mergeCells count="2">
     <mergeCell ref="G2:P2"/>
     <mergeCell ref="B2:F2"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\★※품질 자료※★\일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCDB9CC9-8C10-4F9F-A909-49AFAB465B3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6F3255-7E3A-4CF6-9AAE-AD9CCDE2BF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7FBDE3CB-3BE6-4858-BD36-C283BF315A42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7FBDE3CB-3BE6-4858-BD36-C283BF315A42}"/>
   </bookViews>
   <sheets>
     <sheet name="2026" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="203">
   <si>
     <t>사출 불량 유형</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -715,6 +715,41 @@
   </si>
   <si>
     <t>QV TRAY-SMALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME FRONT(WHITE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TESLA CVR TMX 2R PODIUM OTB LH TOP / INR #5827</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS FRT MOLDING LH (EV)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS RR MOLDING LH (EV)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6252 JL HDL RH HANDLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NQ5PE GRILLECTR SPEAKER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECORATION(FEBBLE GRAY)</t>
+  </si>
+  <si>
+    <t>DECORATION(WHITE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GARNISH-LWR-LH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -726,7 +761,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -847,7 +882,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -937,19 +972,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -978,7 +1000,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1105,16 +1127,13 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1459,11 +1478,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BC34A0-7885-4B17-9A44-9155E3A920C9}">
   <dimension ref="B2:Q1040329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D443" sqref="D443"/>
+    <sheetView tabSelected="1" topLeftCell="A418" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F458" sqref="F458"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.125" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="17" bestFit="1" customWidth="1"/>
@@ -1477,28 +1496,28 @@
     <col min="16" max="16" width="8.25" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="31.5" customHeight="1">
-      <c r="B2" s="47" t="s">
+    <row r="2" spans="2:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-    </row>
-    <row r="3" spans="2:16" s="1" customFormat="1">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+    </row>
+    <row r="3" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
@@ -1545,7 +1564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="14">
         <v>46048</v>
       </c>
@@ -1576,7 +1595,7 @@
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="14">
         <v>46048</v>
       </c>
@@ -1607,7 +1626,7 @@
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="14">
         <v>46048</v>
       </c>
@@ -1636,7 +1655,7 @@
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="14">
         <v>46048</v>
       </c>
@@ -1665,7 +1684,7 @@
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="14">
         <v>46048</v>
       </c>
@@ -1694,7 +1713,7 @@
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="14">
         <v>46048</v>
       </c>
@@ -1723,7 +1742,7 @@
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="14">
         <v>46048</v>
       </c>
@@ -1756,7 +1775,7 @@
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="14">
         <v>46048</v>
       </c>
@@ -1785,7 +1804,7 @@
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="14">
         <v>46048</v>
       </c>
@@ -1814,7 +1833,7 @@
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="14">
         <v>46048</v>
       </c>
@@ -1845,7 +1864,7 @@
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="14">
         <v>46048</v>
       </c>
@@ -1880,7 +1899,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="14">
         <v>46048</v>
       </c>
@@ -1913,7 +1932,7 @@
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="14">
         <v>46048</v>
       </c>
@@ -1942,7 +1961,7 @@
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="14">
         <v>46048</v>
       </c>
@@ -1971,7 +1990,7 @@
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="14">
         <v>46048</v>
       </c>
@@ -2002,7 +2021,7 @@
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="14">
         <v>46048</v>
       </c>
@@ -2031,7 +2050,7 @@
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="14">
         <v>46048</v>
       </c>
@@ -2060,7 +2079,7 @@
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="14">
         <v>46048</v>
       </c>
@@ -2089,7 +2108,7 @@
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="14">
         <v>46048</v>
       </c>
@@ -2118,7 +2137,7 @@
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="14">
         <v>46048</v>
       </c>
@@ -2149,7 +2168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="14">
         <v>46048</v>
       </c>
@@ -2182,7 +2201,7 @@
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="14">
         <v>46048</v>
       </c>
@@ -2213,7 +2232,7 @@
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="14">
         <v>46048</v>
       </c>
@@ -2244,7 +2263,7 @@
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="14">
         <v>46048</v>
       </c>
@@ -2275,7 +2294,7 @@
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="14">
         <v>46048</v>
       </c>
@@ -2304,7 +2323,7 @@
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="14">
         <v>46049</v>
       </c>
@@ -2331,7 +2350,7 @@
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="14">
         <v>46049</v>
       </c>
@@ -2358,7 +2377,7 @@
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="14">
         <v>46049</v>
       </c>
@@ -2385,7 +2404,7 @@
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="14">
         <v>46049</v>
       </c>
@@ -2414,7 +2433,7 @@
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B33" s="14">
         <v>46049</v>
       </c>
@@ -2445,7 +2464,7 @@
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" s="14">
         <v>46049</v>
       </c>
@@ -2474,7 +2493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="14">
         <v>46049</v>
       </c>
@@ -2505,7 +2524,7 @@
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="14">
         <v>46049</v>
       </c>
@@ -2532,7 +2551,7 @@
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" s="14">
         <v>46049</v>
       </c>
@@ -2561,7 +2580,7 @@
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="14">
         <v>46049</v>
       </c>
@@ -2590,7 +2609,7 @@
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B39" s="14">
         <v>46049</v>
       </c>
@@ -2619,7 +2638,7 @@
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="14">
         <v>46049</v>
       </c>
@@ -2650,7 +2669,7 @@
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B41" s="14">
         <v>46049</v>
       </c>
@@ -2679,7 +2698,7 @@
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="14">
         <v>46049</v>
       </c>
@@ -2706,7 +2725,7 @@
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="14">
         <v>46049</v>
       </c>
@@ -2737,7 +2756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B44" s="14">
         <v>46049</v>
       </c>
@@ -2766,7 +2785,7 @@
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B45" s="14">
         <v>46049</v>
       </c>
@@ -2795,7 +2814,7 @@
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B46" s="14">
         <v>46049</v>
       </c>
@@ -2822,7 +2841,7 @@
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B47" s="14">
         <v>46049</v>
       </c>
@@ -2849,7 +2868,7 @@
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B48" s="14">
         <v>46049</v>
       </c>
@@ -2878,7 +2897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="2:16">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49" s="14">
         <v>46049</v>
       </c>
@@ -2907,7 +2926,7 @@
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
     </row>
-    <row r="50" spans="2:16">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="14">
         <v>46049</v>
       </c>
@@ -2934,7 +2953,7 @@
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
     </row>
-    <row r="51" spans="2:16">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="14">
         <v>46049</v>
       </c>
@@ -2961,7 +2980,7 @@
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
     </row>
-    <row r="52" spans="2:16">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" s="14">
         <v>46049</v>
       </c>
@@ -2992,7 +3011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:16">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B53" s="14">
         <v>46049</v>
       </c>
@@ -3019,7 +3038,7 @@
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
     </row>
-    <row r="54" spans="2:16">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B54" s="14">
         <v>46049</v>
       </c>
@@ -3046,7 +3065,7 @@
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
     </row>
-    <row r="55" spans="2:16">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B55" s="14">
         <v>46050</v>
       </c>
@@ -3077,7 +3096,7 @@
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
     </row>
-    <row r="56" spans="2:16">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B56" s="14">
         <v>46050</v>
       </c>
@@ -3106,7 +3125,7 @@
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
     </row>
-    <row r="57" spans="2:16">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B57" s="14">
         <v>46050</v>
       </c>
@@ -3133,7 +3152,7 @@
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
     </row>
-    <row r="58" spans="2:16">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B58" s="14">
         <v>46050</v>
       </c>
@@ -3164,7 +3183,7 @@
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
     </row>
-    <row r="59" spans="2:16">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B59" s="14">
         <v>46050</v>
       </c>
@@ -3193,7 +3212,7 @@
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
     </row>
-    <row r="60" spans="2:16">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B60" s="14">
         <v>46050</v>
       </c>
@@ -3222,7 +3241,7 @@
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
     </row>
-    <row r="61" spans="2:16">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B61" s="14">
         <v>46050</v>
       </c>
@@ -3251,7 +3270,7 @@
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
     </row>
-    <row r="62" spans="2:16">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B62" s="14">
         <v>46050</v>
       </c>
@@ -3280,7 +3299,7 @@
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
     </row>
-    <row r="63" spans="2:16">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B63" s="14">
         <v>46050</v>
       </c>
@@ -3313,7 +3332,7 @@
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
     </row>
-    <row r="64" spans="2:16">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B64" s="14">
         <v>46050</v>
       </c>
@@ -3340,7 +3359,7 @@
       <c r="O64" s="11"/>
       <c r="P64" s="11"/>
     </row>
-    <row r="65" spans="2:16">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B65" s="14">
         <v>46050</v>
       </c>
@@ -3369,7 +3388,7 @@
       <c r="O65" s="11"/>
       <c r="P65" s="11"/>
     </row>
-    <row r="66" spans="2:16">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B66" s="14">
         <v>46050</v>
       </c>
@@ -3396,7 +3415,7 @@
       <c r="O66" s="11"/>
       <c r="P66" s="11"/>
     </row>
-    <row r="67" spans="2:16">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B67" s="14">
         <v>46050</v>
       </c>
@@ -3425,7 +3444,7 @@
       <c r="O67" s="11"/>
       <c r="P67" s="11"/>
     </row>
-    <row r="68" spans="2:16">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B68" s="14">
         <v>46050</v>
       </c>
@@ -3452,7 +3471,7 @@
       <c r="O68" s="11"/>
       <c r="P68" s="11"/>
     </row>
-    <row r="69" spans="2:16">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B69" s="14">
         <v>46050</v>
       </c>
@@ -3481,7 +3500,7 @@
       <c r="O69" s="11"/>
       <c r="P69" s="11"/>
     </row>
-    <row r="70" spans="2:16">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B70" s="14">
         <v>46050</v>
       </c>
@@ -3508,7 +3527,7 @@
       <c r="O70" s="11"/>
       <c r="P70" s="11"/>
     </row>
-    <row r="71" spans="2:16">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B71" s="14">
         <v>46050</v>
       </c>
@@ -3535,7 +3554,7 @@
       <c r="O71" s="11"/>
       <c r="P71" s="11"/>
     </row>
-    <row r="72" spans="2:16">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B72" s="14">
         <v>46050</v>
       </c>
@@ -3562,7 +3581,7 @@
       <c r="O72" s="11"/>
       <c r="P72" s="11"/>
     </row>
-    <row r="73" spans="2:16">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B73" s="14">
         <v>46050</v>
       </c>
@@ -3591,7 +3610,7 @@
       <c r="O73" s="11"/>
       <c r="P73" s="11"/>
     </row>
-    <row r="74" spans="2:16">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B74" s="14">
         <v>46050</v>
       </c>
@@ -3620,7 +3639,7 @@
       <c r="O74" s="11"/>
       <c r="P74" s="11"/>
     </row>
-    <row r="75" spans="2:16">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B75" s="14">
         <v>46050</v>
       </c>
@@ -3647,7 +3666,7 @@
       <c r="O75" s="11"/>
       <c r="P75" s="11"/>
     </row>
-    <row r="76" spans="2:16">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B76" s="14">
         <v>46050</v>
       </c>
@@ -3676,7 +3695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="2:16">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B77" s="14">
         <v>46050</v>
       </c>
@@ -3703,7 +3722,7 @@
       <c r="O77" s="11"/>
       <c r="P77" s="11"/>
     </row>
-    <row r="78" spans="2:16">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B78" s="14">
         <v>46051</v>
       </c>
@@ -3734,7 +3753,7 @@
       <c r="O78" s="11"/>
       <c r="P78" s="11"/>
     </row>
-    <row r="79" spans="2:16">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B79" s="14">
         <v>46051</v>
       </c>
@@ -3763,7 +3782,7 @@
       <c r="O79" s="11"/>
       <c r="P79" s="11"/>
     </row>
-    <row r="80" spans="2:16">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B80" s="14">
         <v>46051</v>
       </c>
@@ -3790,7 +3809,7 @@
       <c r="O80" s="11"/>
       <c r="P80" s="11"/>
     </row>
-    <row r="81" spans="2:16">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B81" s="14">
         <v>46051</v>
       </c>
@@ -3821,7 +3840,7 @@
       <c r="O81" s="11"/>
       <c r="P81" s="11"/>
     </row>
-    <row r="82" spans="2:16">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B82" s="14">
         <v>46051</v>
       </c>
@@ -3850,7 +3869,7 @@
       <c r="O82" s="11"/>
       <c r="P82" s="11"/>
     </row>
-    <row r="83" spans="2:16">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B83" s="14">
         <v>46051</v>
       </c>
@@ -3879,7 +3898,7 @@
       <c r="O83" s="11"/>
       <c r="P83" s="11"/>
     </row>
-    <row r="84" spans="2:16">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B84" s="14">
         <v>46051</v>
       </c>
@@ -3908,7 +3927,7 @@
       <c r="O84" s="11"/>
       <c r="P84" s="11"/>
     </row>
-    <row r="85" spans="2:16">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B85" s="14">
         <v>46051</v>
       </c>
@@ -3937,7 +3956,7 @@
       <c r="O85" s="11"/>
       <c r="P85" s="11"/>
     </row>
-    <row r="86" spans="2:16">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B86" s="14">
         <v>46051</v>
       </c>
@@ -3970,7 +3989,7 @@
       <c r="O86" s="11"/>
       <c r="P86" s="11"/>
     </row>
-    <row r="87" spans="2:16">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B87" s="14">
         <v>46051</v>
       </c>
@@ -3997,7 +4016,7 @@
       <c r="O87" s="11"/>
       <c r="P87" s="11"/>
     </row>
-    <row r="88" spans="2:16">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B88" s="14">
         <v>46051</v>
       </c>
@@ -4026,7 +4045,7 @@
       <c r="O88" s="11"/>
       <c r="P88" s="11"/>
     </row>
-    <row r="89" spans="2:16">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B89" s="14">
         <v>46051</v>
       </c>
@@ -4053,7 +4072,7 @@
       <c r="O89" s="11"/>
       <c r="P89" s="11"/>
     </row>
-    <row r="90" spans="2:16">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B90" s="14">
         <v>46051</v>
       </c>
@@ -4082,7 +4101,7 @@
       <c r="O90" s="11"/>
       <c r="P90" s="11"/>
     </row>
-    <row r="91" spans="2:16">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B91" s="14">
         <v>46051</v>
       </c>
@@ -4109,7 +4128,7 @@
       <c r="O91" s="11"/>
       <c r="P91" s="11"/>
     </row>
-    <row r="92" spans="2:16">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B92" s="14">
         <v>46051</v>
       </c>
@@ -4138,7 +4157,7 @@
       <c r="O92" s="11"/>
       <c r="P92" s="11"/>
     </row>
-    <row r="93" spans="2:16">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B93" s="14">
         <v>46051</v>
       </c>
@@ -4165,7 +4184,7 @@
       <c r="O93" s="11"/>
       <c r="P93" s="11"/>
     </row>
-    <row r="94" spans="2:16">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B94" s="14">
         <v>46051</v>
       </c>
@@ -4192,7 +4211,7 @@
       <c r="O94" s="11"/>
       <c r="P94" s="11"/>
     </row>
-    <row r="95" spans="2:16">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B95" s="14">
         <v>46051</v>
       </c>
@@ -4219,7 +4238,7 @@
       <c r="O95" s="11"/>
       <c r="P95" s="11"/>
     </row>
-    <row r="96" spans="2:16">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B96" s="14">
         <v>46051</v>
       </c>
@@ -4248,7 +4267,7 @@
       <c r="O96" s="11"/>
       <c r="P96" s="11"/>
     </row>
-    <row r="97" spans="2:16">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B97" s="14">
         <v>46051</v>
       </c>
@@ -4277,7 +4296,7 @@
       <c r="O97" s="11"/>
       <c r="P97" s="11"/>
     </row>
-    <row r="98" spans="2:16">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B98" s="14">
         <v>46051</v>
       </c>
@@ -4304,7 +4323,7 @@
       <c r="O98" s="11"/>
       <c r="P98" s="11"/>
     </row>
-    <row r="99" spans="2:16">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B99" s="14">
         <v>46051</v>
       </c>
@@ -4333,7 +4352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="2:16">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B100" s="14">
         <v>46051</v>
       </c>
@@ -4360,7 +4379,7 @@
       <c r="O100" s="11"/>
       <c r="P100" s="11"/>
     </row>
-    <row r="101" spans="2:16">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B101" s="14">
         <v>46052</v>
       </c>
@@ -4389,7 +4408,7 @@
       <c r="O101" s="11"/>
       <c r="P101" s="11"/>
     </row>
-    <row r="102" spans="2:16">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B102" s="14">
         <v>46052</v>
       </c>
@@ -4420,7 +4439,7 @@
       <c r="O102" s="11"/>
       <c r="P102" s="11"/>
     </row>
-    <row r="103" spans="2:16">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B103" s="14">
         <v>46052</v>
       </c>
@@ -4449,7 +4468,7 @@
       <c r="O103" s="11"/>
       <c r="P103" s="11"/>
     </row>
-    <row r="104" spans="2:16">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B104" s="14">
         <v>46052</v>
       </c>
@@ -4478,7 +4497,7 @@
       <c r="O104" s="11"/>
       <c r="P104" s="11"/>
     </row>
-    <row r="105" spans="2:16">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B105" s="14">
         <v>46052</v>
       </c>
@@ -4509,7 +4528,7 @@
       <c r="O105" s="11"/>
       <c r="P105" s="11"/>
     </row>
-    <row r="106" spans="2:16">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B106" s="14">
         <v>46052</v>
       </c>
@@ -4540,7 +4559,7 @@
       <c r="O106" s="11"/>
       <c r="P106" s="11"/>
     </row>
-    <row r="107" spans="2:16">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B107" s="14">
         <v>46052</v>
       </c>
@@ -4571,7 +4590,7 @@
       <c r="O107" s="11"/>
       <c r="P107" s="11"/>
     </row>
-    <row r="108" spans="2:16">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B108" s="14">
         <v>46052</v>
       </c>
@@ -4600,7 +4619,7 @@
       <c r="O108" s="11"/>
       <c r="P108" s="11"/>
     </row>
-    <row r="109" spans="2:16">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B109" s="14">
         <v>46052</v>
       </c>
@@ -4629,7 +4648,7 @@
       <c r="O109" s="11"/>
       <c r="P109" s="11"/>
     </row>
-    <row r="110" spans="2:16">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B110" s="14">
         <v>46052</v>
       </c>
@@ -4658,7 +4677,7 @@
       <c r="O110" s="11"/>
       <c r="P110" s="11"/>
     </row>
-    <row r="111" spans="2:16">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B111" s="14">
         <v>46052</v>
       </c>
@@ -4685,7 +4704,7 @@
       <c r="O111" s="11"/>
       <c r="P111" s="11"/>
     </row>
-    <row r="112" spans="2:16">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B112" s="14">
         <v>46052</v>
       </c>
@@ -4712,7 +4731,7 @@
       <c r="O112" s="11"/>
       <c r="P112" s="11"/>
     </row>
-    <row r="113" spans="2:16">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B113" s="14">
         <v>46052</v>
       </c>
@@ -4741,7 +4760,7 @@
       <c r="O113" s="11"/>
       <c r="P113" s="11"/>
     </row>
-    <row r="114" spans="2:16">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B114" s="14">
         <v>46052</v>
       </c>
@@ -4768,7 +4787,7 @@
       <c r="O114" s="11"/>
       <c r="P114" s="11"/>
     </row>
-    <row r="115" spans="2:16">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B115" s="14">
         <v>46052</v>
       </c>
@@ -4795,7 +4814,7 @@
       <c r="O115" s="11"/>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="2:16">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B116" s="14">
         <v>46052</v>
       </c>
@@ -4822,7 +4841,7 @@
       <c r="O116" s="11"/>
       <c r="P116" s="11"/>
     </row>
-    <row r="117" spans="2:16">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B117" s="14">
         <v>46052</v>
       </c>
@@ -4849,7 +4868,7 @@
       <c r="O117" s="11"/>
       <c r="P117" s="11"/>
     </row>
-    <row r="118" spans="2:16">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B118" s="14">
         <v>46052</v>
       </c>
@@ -4878,7 +4897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="2:16">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B119" s="14">
         <v>46052</v>
       </c>
@@ -4905,7 +4924,7 @@
       <c r="O119" s="11"/>
       <c r="P119" s="11"/>
     </row>
-    <row r="120" spans="2:16">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B120" s="14">
         <v>46052</v>
       </c>
@@ -4932,7 +4951,7 @@
       <c r="O120" s="11"/>
       <c r="P120" s="11"/>
     </row>
-    <row r="121" spans="2:16">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B121" s="14">
         <v>46052</v>
       </c>
@@ -4959,7 +4978,7 @@
       <c r="O121" s="11"/>
       <c r="P121" s="11"/>
     </row>
-    <row r="122" spans="2:16">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B122" s="14">
         <v>46052</v>
       </c>
@@ -4986,7 +5005,7 @@
       <c r="O122" s="11"/>
       <c r="P122" s="11"/>
     </row>
-    <row r="123" spans="2:16">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B123" s="14">
         <v>46052</v>
       </c>
@@ -5013,7 +5032,7 @@
       <c r="O123" s="11"/>
       <c r="P123" s="11"/>
     </row>
-    <row r="124" spans="2:16">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B124" s="14">
         <v>46052</v>
       </c>
@@ -5040,7 +5059,7 @@
       <c r="O124" s="11"/>
       <c r="P124" s="11"/>
     </row>
-    <row r="125" spans="2:16">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B125" s="14">
         <v>46052</v>
       </c>
@@ -5069,7 +5088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="2:16">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B126" s="14">
         <v>46052</v>
       </c>
@@ -5100,7 +5119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="2:16">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B127" s="14">
         <v>46052</v>
       </c>
@@ -5129,7 +5148,7 @@
       <c r="O127" s="11"/>
       <c r="P127" s="11"/>
     </row>
-    <row r="128" spans="2:16">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B128" s="14">
         <v>46052</v>
       </c>
@@ -5158,7 +5177,7 @@
       <c r="O128" s="11"/>
       <c r="P128" s="11"/>
     </row>
-    <row r="129" spans="2:16">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B129" s="14">
         <v>46052</v>
       </c>
@@ -5187,7 +5206,7 @@
       <c r="O129" s="11"/>
       <c r="P129" s="11"/>
     </row>
-    <row r="130" spans="2:16">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B130" s="14">
         <v>46052</v>
       </c>
@@ -5214,7 +5233,7 @@
       <c r="O130" s="11"/>
       <c r="P130" s="11"/>
     </row>
-    <row r="131" spans="2:16">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B131" s="14">
         <v>46052</v>
       </c>
@@ -5243,7 +5262,7 @@
       <c r="O131" s="11"/>
       <c r="P131" s="11"/>
     </row>
-    <row r="132" spans="2:16">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B132" s="14">
         <v>46052</v>
       </c>
@@ -5274,7 +5293,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="2:16">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B133" s="14">
         <v>46053</v>
       </c>
@@ -5303,7 +5322,7 @@
       <c r="O133" s="11"/>
       <c r="P133" s="11"/>
     </row>
-    <row r="134" spans="2:16">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B134" s="14">
         <v>46053</v>
       </c>
@@ -5332,7 +5351,7 @@
       <c r="O134" s="11"/>
       <c r="P134" s="11"/>
     </row>
-    <row r="135" spans="2:16">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B135" s="14">
         <v>46053</v>
       </c>
@@ -5361,7 +5380,7 @@
       <c r="O135" s="11"/>
       <c r="P135" s="11"/>
     </row>
-    <row r="136" spans="2:16">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B136" s="14">
         <v>46053</v>
       </c>
@@ -5390,7 +5409,7 @@
       <c r="O136" s="11"/>
       <c r="P136" s="11"/>
     </row>
-    <row r="137" spans="2:16">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B137" s="14">
         <v>46053</v>
       </c>
@@ -5421,7 +5440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="2:16">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B138" s="14">
         <v>46053</v>
       </c>
@@ -5448,7 +5467,7 @@
       <c r="O138" s="11"/>
       <c r="P138" s="11"/>
     </row>
-    <row r="139" spans="2:16">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B139" s="14">
         <v>46053</v>
       </c>
@@ -5479,7 +5498,7 @@
       <c r="O139" s="11"/>
       <c r="P139" s="11"/>
     </row>
-    <row r="140" spans="2:16">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B140" s="14">
         <v>46053</v>
       </c>
@@ -5508,7 +5527,7 @@
       <c r="O140" s="11"/>
       <c r="P140" s="11"/>
     </row>
-    <row r="141" spans="2:16">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B141" s="14">
         <v>46053</v>
       </c>
@@ -5537,7 +5556,7 @@
       <c r="O141" s="11"/>
       <c r="P141" s="11"/>
     </row>
-    <row r="142" spans="2:16">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B142" s="14">
         <v>46053</v>
       </c>
@@ -5566,7 +5585,7 @@
       <c r="O142" s="11"/>
       <c r="P142" s="11"/>
     </row>
-    <row r="143" spans="2:16">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B143" s="14">
         <v>46053</v>
       </c>
@@ -5595,7 +5614,7 @@
       <c r="O143" s="11"/>
       <c r="P143" s="11"/>
     </row>
-    <row r="144" spans="2:16">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B144" s="14">
         <v>46053</v>
       </c>
@@ -5626,7 +5645,7 @@
       <c r="O144" s="11"/>
       <c r="P144" s="11"/>
     </row>
-    <row r="145" spans="2:16">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B145" s="14">
         <v>46053</v>
       </c>
@@ -5655,7 +5674,7 @@
       <c r="O145" s="11"/>
       <c r="P145" s="11"/>
     </row>
-    <row r="146" spans="2:16">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B146" s="14">
         <v>46053</v>
       </c>
@@ -5684,7 +5703,7 @@
       <c r="O146" s="11"/>
       <c r="P146" s="11"/>
     </row>
-    <row r="147" spans="2:16">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B147" s="14">
         <v>46053</v>
       </c>
@@ -5711,7 +5730,7 @@
       <c r="O147" s="11"/>
       <c r="P147" s="11"/>
     </row>
-    <row r="148" spans="2:16">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B148" s="14">
         <v>46053</v>
       </c>
@@ -5740,7 +5759,7 @@
       <c r="O148" s="11"/>
       <c r="P148" s="11"/>
     </row>
-    <row r="149" spans="2:16">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B149" s="14">
         <v>46053</v>
       </c>
@@ -5767,7 +5786,7 @@
       <c r="O149" s="11"/>
       <c r="P149" s="11"/>
     </row>
-    <row r="150" spans="2:16">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B150" s="14">
         <v>46053</v>
       </c>
@@ -5796,7 +5815,7 @@
       <c r="O150" s="11"/>
       <c r="P150" s="11"/>
     </row>
-    <row r="151" spans="2:16">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B151" s="14">
         <v>46053</v>
       </c>
@@ -5823,7 +5842,7 @@
       <c r="O151" s="11"/>
       <c r="P151" s="11"/>
     </row>
-    <row r="152" spans="2:16">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B152" s="14">
         <v>46053</v>
       </c>
@@ -5850,7 +5869,7 @@
       <c r="O152" s="11"/>
       <c r="P152" s="11"/>
     </row>
-    <row r="153" spans="2:16">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B153" s="14">
         <v>46053</v>
       </c>
@@ -5879,7 +5898,7 @@
       <c r="O153" s="11"/>
       <c r="P153" s="11"/>
     </row>
-    <row r="154" spans="2:16">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B154" s="14">
         <v>46053</v>
       </c>
@@ -5908,7 +5927,7 @@
       <c r="O154" s="11"/>
       <c r="P154" s="11"/>
     </row>
-    <row r="155" spans="2:16">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B155" s="14">
         <v>46053</v>
       </c>
@@ -5935,7 +5954,7 @@
       <c r="O155" s="11"/>
       <c r="P155" s="11"/>
     </row>
-    <row r="156" spans="2:16">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B156" s="14">
         <v>46053</v>
       </c>
@@ -5964,7 +5983,7 @@
       <c r="O156" s="11"/>
       <c r="P156" s="11"/>
     </row>
-    <row r="157" spans="2:16">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B157" s="14">
         <v>46053</v>
       </c>
@@ -5997,7 +6016,7 @@
       <c r="O157" s="11"/>
       <c r="P157" s="11"/>
     </row>
-    <row r="158" spans="2:16">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B158" s="14">
         <v>46053</v>
       </c>
@@ -6026,7 +6045,7 @@
       <c r="O158" s="11"/>
       <c r="P158" s="11"/>
     </row>
-    <row r="159" spans="2:16">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B159" s="14">
         <v>46053</v>
       </c>
@@ -6055,7 +6074,7 @@
       <c r="O159" s="11"/>
       <c r="P159" s="11"/>
     </row>
-    <row r="160" spans="2:16">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B160" s="14">
         <v>46053</v>
       </c>
@@ -6084,7 +6103,7 @@
       <c r="O160" s="11"/>
       <c r="P160" s="11"/>
     </row>
-    <row r="161" spans="2:16">
+    <row r="161" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B161" s="14">
         <v>46053</v>
       </c>
@@ -6111,7 +6130,7 @@
       <c r="O161" s="11"/>
       <c r="P161" s="11"/>
     </row>
-    <row r="162" spans="2:16">
+    <row r="162" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B162" s="14">
         <v>46053</v>
       </c>
@@ -6140,7 +6159,7 @@
       <c r="O162" s="11"/>
       <c r="P162" s="11"/>
     </row>
-    <row r="163" spans="2:16">
+    <row r="163" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B163" s="14">
         <v>46055</v>
       </c>
@@ -6171,7 +6190,7 @@
       <c r="O163" s="19"/>
       <c r="P163" s="20"/>
     </row>
-    <row r="164" spans="2:16">
+    <row r="164" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B164" s="14">
         <v>46055</v>
       </c>
@@ -6202,7 +6221,7 @@
       <c r="O164" s="19"/>
       <c r="P164" s="19"/>
     </row>
-    <row r="165" spans="2:16">
+    <row r="165" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B165" s="14">
         <v>46055</v>
       </c>
@@ -6231,7 +6250,7 @@
       <c r="O165" s="19"/>
       <c r="P165" s="19"/>
     </row>
-    <row r="166" spans="2:16">
+    <row r="166" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B166" s="14">
         <v>46055</v>
       </c>
@@ -6260,7 +6279,7 @@
       <c r="O166" s="19"/>
       <c r="P166" s="19"/>
     </row>
-    <row r="167" spans="2:16">
+    <row r="167" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B167" s="14">
         <v>46055</v>
       </c>
@@ -6289,7 +6308,7 @@
       <c r="O167" s="19"/>
       <c r="P167" s="19"/>
     </row>
-    <row r="168" spans="2:16">
+    <row r="168" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B168" s="14">
         <v>46055</v>
       </c>
@@ -6318,7 +6337,7 @@
       <c r="O168" s="19"/>
       <c r="P168" s="19"/>
     </row>
-    <row r="169" spans="2:16">
+    <row r="169" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B169" s="14">
         <v>46055</v>
       </c>
@@ -6351,7 +6370,7 @@
       <c r="O169" s="19"/>
       <c r="P169" s="19"/>
     </row>
-    <row r="170" spans="2:16">
+    <row r="170" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B170" s="14">
         <v>46055</v>
       </c>
@@ -6380,7 +6399,7 @@
       <c r="O170" s="19"/>
       <c r="P170" s="19"/>
     </row>
-    <row r="171" spans="2:16">
+    <row r="171" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B171" s="14">
         <v>46055</v>
       </c>
@@ -6409,7 +6428,7 @@
       <c r="O171" s="19"/>
       <c r="P171" s="19"/>
     </row>
-    <row r="172" spans="2:16">
+    <row r="172" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B172" s="14">
         <v>46055</v>
       </c>
@@ -6440,7 +6459,7 @@
       <c r="O172" s="19"/>
       <c r="P172" s="19"/>
     </row>
-    <row r="173" spans="2:16">
+    <row r="173" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B173" s="14">
         <v>46055</v>
       </c>
@@ -6475,7 +6494,7 @@
       <c r="O173" s="19"/>
       <c r="P173" s="19"/>
     </row>
-    <row r="174" spans="2:16">
+    <row r="174" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B174" s="14">
         <v>46055</v>
       </c>
@@ -6508,7 +6527,7 @@
       <c r="O174" s="19"/>
       <c r="P174" s="19"/>
     </row>
-    <row r="175" spans="2:16">
+    <row r="175" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B175" s="14">
         <v>46055</v>
       </c>
@@ -6537,7 +6556,7 @@
       <c r="O175" s="19"/>
       <c r="P175" s="19"/>
     </row>
-    <row r="176" spans="2:16">
+    <row r="176" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B176" s="14">
         <v>46055</v>
       </c>
@@ -6566,7 +6585,7 @@
       <c r="O176" s="19"/>
       <c r="P176" s="19"/>
     </row>
-    <row r="177" spans="2:16">
+    <row r="177" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B177" s="14">
         <v>46055</v>
       </c>
@@ -6597,7 +6616,7 @@
       <c r="O177" s="19"/>
       <c r="P177" s="19"/>
     </row>
-    <row r="178" spans="2:16">
+    <row r="178" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B178" s="14">
         <v>46055</v>
       </c>
@@ -6626,7 +6645,7 @@
       <c r="O178" s="19"/>
       <c r="P178" s="19"/>
     </row>
-    <row r="179" spans="2:16">
+    <row r="179" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B179" s="14">
         <v>46055</v>
       </c>
@@ -6655,7 +6674,7 @@
       <c r="O179" s="19"/>
       <c r="P179" s="19"/>
     </row>
-    <row r="180" spans="2:16">
+    <row r="180" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B180" s="14">
         <v>46055</v>
       </c>
@@ -6684,7 +6703,7 @@
       <c r="O180" s="19"/>
       <c r="P180" s="19"/>
     </row>
-    <row r="181" spans="2:16">
+    <row r="181" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B181" s="14">
         <v>46055</v>
       </c>
@@ -6713,7 +6732,7 @@
       <c r="O181" s="19"/>
       <c r="P181" s="19"/>
     </row>
-    <row r="182" spans="2:16">
+    <row r="182" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B182" s="14">
         <v>46055</v>
       </c>
@@ -6744,7 +6763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="2:16">
+    <row r="183" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B183" s="14">
         <v>46055</v>
       </c>
@@ -6777,7 +6796,7 @@
       <c r="O183" s="19"/>
       <c r="P183" s="19"/>
     </row>
-    <row r="184" spans="2:16">
+    <row r="184" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B184" s="14">
         <v>46055</v>
       </c>
@@ -6808,7 +6827,7 @@
       <c r="O184" s="19"/>
       <c r="P184" s="19"/>
     </row>
-    <row r="185" spans="2:16">
+    <row r="185" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B185" s="14">
         <v>46055</v>
       </c>
@@ -6839,7 +6858,7 @@
       <c r="O185" s="19"/>
       <c r="P185" s="19"/>
     </row>
-    <row r="186" spans="2:16">
+    <row r="186" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B186" s="14">
         <v>46055</v>
       </c>
@@ -6870,7 +6889,7 @@
       <c r="O186" s="19"/>
       <c r="P186" s="19"/>
     </row>
-    <row r="187" spans="2:16">
+    <row r="187" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B187" s="14">
         <v>46055</v>
       </c>
@@ -6899,7 +6918,7 @@
       <c r="O187" s="19"/>
       <c r="P187" s="19"/>
     </row>
-    <row r="188" spans="2:16">
+    <row r="188" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B188" s="14">
         <v>46056</v>
       </c>
@@ -6930,7 +6949,7 @@
       <c r="O188" s="19"/>
       <c r="P188" s="20"/>
     </row>
-    <row r="189" spans="2:16">
+    <row r="189" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B189" s="14">
         <v>46056</v>
       </c>
@@ -6961,7 +6980,7 @@
       <c r="O189" s="19"/>
       <c r="P189" s="19"/>
     </row>
-    <row r="190" spans="2:16">
+    <row r="190" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B190" s="14">
         <v>46056</v>
       </c>
@@ -6990,7 +7009,7 @@
       <c r="O190" s="19"/>
       <c r="P190" s="19"/>
     </row>
-    <row r="191" spans="2:16">
+    <row r="191" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B191" s="14">
         <v>46056</v>
       </c>
@@ -7021,7 +7040,7 @@
       <c r="O191" s="19"/>
       <c r="P191" s="19"/>
     </row>
-    <row r="192" spans="2:16">
+    <row r="192" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B192" s="14">
         <v>46056</v>
       </c>
@@ -7052,7 +7071,7 @@
       <c r="O192" s="19"/>
       <c r="P192" s="19"/>
     </row>
-    <row r="193" spans="2:16">
+    <row r="193" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B193" s="14">
         <v>46056</v>
       </c>
@@ -7083,7 +7102,7 @@
       <c r="O193" s="19"/>
       <c r="P193" s="19"/>
     </row>
-    <row r="194" spans="2:16">
+    <row r="194" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B194" s="14">
         <v>46056</v>
       </c>
@@ -7112,7 +7131,7 @@
       <c r="O194" s="19"/>
       <c r="P194" s="19"/>
     </row>
-    <row r="195" spans="2:16">
+    <row r="195" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B195" s="14">
         <v>46056</v>
       </c>
@@ -7141,7 +7160,7 @@
       <c r="O195" s="19"/>
       <c r="P195" s="19"/>
     </row>
-    <row r="196" spans="2:16">
+    <row r="196" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B196" s="14">
         <v>46056</v>
       </c>
@@ -7170,7 +7189,7 @@
       <c r="O196" s="19"/>
       <c r="P196" s="19"/>
     </row>
-    <row r="197" spans="2:16">
+    <row r="197" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B197" s="14">
         <v>46056</v>
       </c>
@@ -7205,7 +7224,7 @@
       <c r="O197" s="19"/>
       <c r="P197" s="19"/>
     </row>
-    <row r="198" spans="2:16">
+    <row r="198" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B198" s="14">
         <v>46056</v>
       </c>
@@ -7238,7 +7257,7 @@
       <c r="O198" s="19"/>
       <c r="P198" s="19"/>
     </row>
-    <row r="199" spans="2:16">
+    <row r="199" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B199" s="14">
         <v>46056</v>
       </c>
@@ -7271,7 +7290,7 @@
       <c r="O199" s="19"/>
       <c r="P199" s="19"/>
     </row>
-    <row r="200" spans="2:16">
+    <row r="200" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B200" s="14">
         <v>46056</v>
       </c>
@@ -7300,7 +7319,7 @@
       <c r="O200" s="19"/>
       <c r="P200" s="19"/>
     </row>
-    <row r="201" spans="2:16">
+    <row r="201" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B201" s="14">
         <v>46056</v>
       </c>
@@ -7331,7 +7350,7 @@
       <c r="O201" s="19"/>
       <c r="P201" s="19"/>
     </row>
-    <row r="202" spans="2:16">
+    <row r="202" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B202" s="14">
         <v>46056</v>
       </c>
@@ -7360,7 +7379,7 @@
       <c r="O202" s="19"/>
       <c r="P202" s="19"/>
     </row>
-    <row r="203" spans="2:16">
+    <row r="203" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B203" s="14">
         <v>46056</v>
       </c>
@@ -7389,7 +7408,7 @@
       <c r="O203" s="19"/>
       <c r="P203" s="19"/>
     </row>
-    <row r="204" spans="2:16">
+    <row r="204" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B204" s="14">
         <v>46056</v>
       </c>
@@ -7418,7 +7437,7 @@
       <c r="O204" s="19"/>
       <c r="P204" s="19"/>
     </row>
-    <row r="205" spans="2:16">
+    <row r="205" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B205" s="14">
         <v>46056</v>
       </c>
@@ -7451,7 +7470,7 @@
       <c r="O205" s="19"/>
       <c r="P205" s="19"/>
     </row>
-    <row r="206" spans="2:16">
+    <row r="206" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B206" s="14">
         <v>46056</v>
       </c>
@@ -7484,7 +7503,7 @@
       <c r="O206" s="19"/>
       <c r="P206" s="19"/>
     </row>
-    <row r="207" spans="2:16">
+    <row r="207" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B207" s="14">
         <v>46056</v>
       </c>
@@ -7515,7 +7534,7 @@
       <c r="O207" s="19"/>
       <c r="P207" s="19"/>
     </row>
-    <row r="208" spans="2:16">
+    <row r="208" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B208" s="14">
         <v>46056</v>
       </c>
@@ -7546,7 +7565,7 @@
       <c r="O208" s="19"/>
       <c r="P208" s="19"/>
     </row>
-    <row r="209" spans="2:17">
+    <row r="209" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B209" s="14">
         <v>46057</v>
       </c>
@@ -7576,7 +7595,7 @@
       <c r="P209" s="19"/>
       <c r="Q209" s="18"/>
     </row>
-    <row r="210" spans="2:17">
+    <row r="210" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B210" s="14">
         <v>46057</v>
       </c>
@@ -7606,7 +7625,7 @@
       <c r="P210" s="19"/>
       <c r="Q210" s="18"/>
     </row>
-    <row r="211" spans="2:17">
+    <row r="211" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B211" s="14">
         <v>46057</v>
       </c>
@@ -7636,7 +7655,7 @@
       <c r="P211" s="19"/>
       <c r="Q211" s="18"/>
     </row>
-    <row r="212" spans="2:17">
+    <row r="212" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B212" s="14">
         <v>46057</v>
       </c>
@@ -7664,7 +7683,7 @@
       <c r="P212" s="19"/>
       <c r="Q212" s="18"/>
     </row>
-    <row r="213" spans="2:17">
+    <row r="213" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B213" s="14">
         <v>46057</v>
       </c>
@@ -7692,7 +7711,7 @@
       <c r="P213" s="19"/>
       <c r="Q213" s="18"/>
     </row>
-    <row r="214" spans="2:17">
+    <row r="214" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B214" s="14">
         <v>46057</v>
       </c>
@@ -7724,7 +7743,7 @@
       <c r="P214" s="19"/>
       <c r="Q214" s="18"/>
     </row>
-    <row r="215" spans="2:17">
+    <row r="215" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B215" s="14">
         <v>46057</v>
       </c>
@@ -7756,7 +7775,7 @@
       <c r="P215" s="19"/>
       <c r="Q215" s="18"/>
     </row>
-    <row r="216" spans="2:17">
+    <row r="216" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B216" s="14">
         <v>46057</v>
       </c>
@@ -7786,7 +7805,7 @@
       <c r="P216" s="19"/>
       <c r="Q216" s="18"/>
     </row>
-    <row r="217" spans="2:17">
+    <row r="217" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B217" s="14">
         <v>46057</v>
       </c>
@@ -7814,7 +7833,7 @@
       <c r="P217" s="19"/>
       <c r="Q217" s="18"/>
     </row>
-    <row r="218" spans="2:17">
+    <row r="218" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B218" s="14">
         <v>46057</v>
       </c>
@@ -7844,7 +7863,7 @@
       <c r="P218" s="19"/>
       <c r="Q218" s="18"/>
     </row>
-    <row r="219" spans="2:17">
+    <row r="219" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B219" s="14">
         <v>46057</v>
       </c>
@@ -7874,7 +7893,7 @@
       <c r="P219" s="19"/>
       <c r="Q219" s="18"/>
     </row>
-    <row r="220" spans="2:17">
+    <row r="220" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B220" s="14">
         <v>46057</v>
       </c>
@@ -7902,7 +7921,7 @@
       <c r="P220" s="19"/>
       <c r="Q220" s="18"/>
     </row>
-    <row r="221" spans="2:17">
+    <row r="221" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B221" s="14">
         <v>46057</v>
       </c>
@@ -7932,7 +7951,7 @@
       <c r="P221" s="19"/>
       <c r="Q221" s="18"/>
     </row>
-    <row r="222" spans="2:17">
+    <row r="222" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B222" s="14">
         <v>46057</v>
       </c>
@@ -7962,7 +7981,7 @@
       <c r="P222" s="19"/>
       <c r="Q222" s="18"/>
     </row>
-    <row r="223" spans="2:17">
+    <row r="223" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B223" s="14">
         <v>46057</v>
       </c>
@@ -7990,7 +8009,7 @@
       <c r="P223" s="19"/>
       <c r="Q223" s="18"/>
     </row>
-    <row r="224" spans="2:17">
+    <row r="224" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B224" s="14">
         <v>46057</v>
       </c>
@@ -8018,7 +8037,7 @@
       <c r="P224" s="19"/>
       <c r="Q224" s="18"/>
     </row>
-    <row r="225" spans="2:17">
+    <row r="225" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B225" s="14">
         <v>46057</v>
       </c>
@@ -8046,7 +8065,7 @@
       <c r="P225" s="19"/>
       <c r="Q225" s="18"/>
     </row>
-    <row r="226" spans="2:17">
+    <row r="226" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B226" s="14">
         <v>46057</v>
       </c>
@@ -8074,7 +8093,7 @@
       <c r="P226" s="19"/>
       <c r="Q226" s="18"/>
     </row>
-    <row r="227" spans="2:17">
+    <row r="227" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B227" s="14">
         <v>46057</v>
       </c>
@@ -8102,7 +8121,7 @@
       <c r="P227" s="19"/>
       <c r="Q227" s="18"/>
     </row>
-    <row r="228" spans="2:17">
+    <row r="228" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B228" s="14">
         <v>46057</v>
       </c>
@@ -8130,7 +8149,7 @@
       <c r="P228" s="19"/>
       <c r="Q228" s="18"/>
     </row>
-    <row r="229" spans="2:17">
+    <row r="229" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B229" s="14">
         <v>46057</v>
       </c>
@@ -8158,7 +8177,7 @@
       <c r="P229" s="19"/>
       <c r="Q229" s="18"/>
     </row>
-    <row r="230" spans="2:17">
+    <row r="230" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B230" s="14">
         <v>46057</v>
       </c>
@@ -8188,7 +8207,7 @@
       </c>
       <c r="Q230" s="18"/>
     </row>
-    <row r="231" spans="2:17">
+    <row r="231" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B231" s="14">
         <v>46057</v>
       </c>
@@ -8218,7 +8237,7 @@
       <c r="P231" s="19"/>
       <c r="Q231" s="18"/>
     </row>
-    <row r="232" spans="2:17">
+    <row r="232" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B232" s="14">
         <v>46057</v>
       </c>
@@ -8248,7 +8267,7 @@
       <c r="P232" s="19"/>
       <c r="Q232" s="18"/>
     </row>
-    <row r="233" spans="2:17">
+    <row r="233" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B233" s="14">
         <v>46057</v>
       </c>
@@ -8278,7 +8297,7 @@
       <c r="P233" s="19"/>
       <c r="Q233" s="18"/>
     </row>
-    <row r="234" spans="2:17">
+    <row r="234" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B234" s="14">
         <v>46057</v>
       </c>
@@ -8308,7 +8327,7 @@
       <c r="P234" s="19"/>
       <c r="Q234" s="18"/>
     </row>
-    <row r="235" spans="2:17">
+    <row r="235" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B235" s="14">
         <v>46057</v>
       </c>
@@ -8338,7 +8357,7 @@
       <c r="P235" s="19"/>
       <c r="Q235" s="18"/>
     </row>
-    <row r="236" spans="2:17">
+    <row r="236" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B236" s="14">
         <v>46058</v>
       </c>
@@ -8365,7 +8384,7 @@
       <c r="O236" s="11"/>
       <c r="P236" s="11"/>
     </row>
-    <row r="237" spans="2:17">
+    <row r="237" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B237" s="14">
         <v>46058</v>
       </c>
@@ -8392,7 +8411,7 @@
       <c r="O237" s="11"/>
       <c r="P237" s="11"/>
     </row>
-    <row r="238" spans="2:17">
+    <row r="238" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B238" s="14">
         <v>46058</v>
       </c>
@@ -8423,7 +8442,7 @@
       <c r="O238" s="11"/>
       <c r="P238" s="11"/>
     </row>
-    <row r="239" spans="2:17">
+    <row r="239" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B239" s="14">
         <v>46058</v>
       </c>
@@ -8450,7 +8469,7 @@
       <c r="O239" s="11"/>
       <c r="P239" s="11"/>
     </row>
-    <row r="240" spans="2:17">
+    <row r="240" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B240" s="14">
         <v>46058</v>
       </c>
@@ -8481,7 +8500,7 @@
       <c r="O240" s="11"/>
       <c r="P240" s="11"/>
     </row>
-    <row r="241" spans="2:16">
+    <row r="241" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B241" s="14">
         <v>46058</v>
       </c>
@@ -8510,7 +8529,7 @@
       <c r="O241" s="11"/>
       <c r="P241" s="11"/>
     </row>
-    <row r="242" spans="2:16">
+    <row r="242" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B242" s="14">
         <v>46058</v>
       </c>
@@ -8539,7 +8558,7 @@
       <c r="O242" s="11"/>
       <c r="P242" s="11"/>
     </row>
-    <row r="243" spans="2:16">
+    <row r="243" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B243" s="14">
         <v>46058</v>
       </c>
@@ -8568,7 +8587,7 @@
       <c r="O243" s="11"/>
       <c r="P243" s="11"/>
     </row>
-    <row r="244" spans="2:16">
+    <row r="244" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B244" s="14">
         <v>46058</v>
       </c>
@@ -8595,7 +8614,7 @@
       <c r="O244" s="11"/>
       <c r="P244" s="11"/>
     </row>
-    <row r="245" spans="2:16">
+    <row r="245" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B245" s="14">
         <v>46058</v>
       </c>
@@ -8622,7 +8641,7 @@
       <c r="O245" s="11"/>
       <c r="P245" s="11"/>
     </row>
-    <row r="246" spans="2:16">
+    <row r="246" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B246" s="14">
         <v>46058</v>
       </c>
@@ -8649,7 +8668,7 @@
       <c r="O246" s="11"/>
       <c r="P246" s="11"/>
     </row>
-    <row r="247" spans="2:16">
+    <row r="247" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B247" s="14">
         <v>46058</v>
       </c>
@@ -8676,7 +8695,7 @@
       <c r="O247" s="11"/>
       <c r="P247" s="11"/>
     </row>
-    <row r="248" spans="2:16">
+    <row r="248" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B248" s="14">
         <v>46058</v>
       </c>
@@ -8703,7 +8722,7 @@
       <c r="O248" s="11"/>
       <c r="P248" s="11"/>
     </row>
-    <row r="249" spans="2:16">
+    <row r="249" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B249" s="14">
         <v>46058</v>
       </c>
@@ -8730,7 +8749,7 @@
       <c r="O249" s="11"/>
       <c r="P249" s="11"/>
     </row>
-    <row r="250" spans="2:16">
+    <row r="250" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B250" s="14">
         <v>46058</v>
       </c>
@@ -8757,7 +8776,7 @@
       <c r="O250" s="11"/>
       <c r="P250" s="11"/>
     </row>
-    <row r="251" spans="2:16">
+    <row r="251" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B251" s="14">
         <v>46058</v>
       </c>
@@ -8784,7 +8803,7 @@
       <c r="O251" s="11"/>
       <c r="P251" s="11"/>
     </row>
-    <row r="252" spans="2:16">
+    <row r="252" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B252" s="14">
         <v>46058</v>
       </c>
@@ -8815,7 +8834,7 @@
       <c r="O252" s="11"/>
       <c r="P252" s="11"/>
     </row>
-    <row r="253" spans="2:16">
+    <row r="253" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B253" s="14">
         <v>46058</v>
       </c>
@@ -8844,7 +8863,7 @@
       <c r="O253" s="11"/>
       <c r="P253" s="11"/>
     </row>
-    <row r="254" spans="2:16">
+    <row r="254" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B254" s="14">
         <v>46058</v>
       </c>
@@ -8871,7 +8890,7 @@
       <c r="O254" s="11"/>
       <c r="P254" s="11"/>
     </row>
-    <row r="255" spans="2:16">
+    <row r="255" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B255" s="14">
         <v>46058</v>
       </c>
@@ -8898,7 +8917,7 @@
       <c r="O255" s="11"/>
       <c r="P255" s="11"/>
     </row>
-    <row r="256" spans="2:16">
+    <row r="256" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B256" s="14">
         <v>46058</v>
       </c>
@@ -8925,7 +8944,7 @@
       <c r="O256" s="11"/>
       <c r="P256" s="11"/>
     </row>
-    <row r="257" spans="2:16">
+    <row r="257" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B257" s="14">
         <v>46058</v>
       </c>
@@ -8954,7 +8973,7 @@
       <c r="O257" s="11"/>
       <c r="P257" s="11"/>
     </row>
-    <row r="258" spans="2:16">
+    <row r="258" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B258" s="14">
         <v>46058</v>
       </c>
@@ -8985,7 +9004,7 @@
       <c r="O258" s="11"/>
       <c r="P258" s="11"/>
     </row>
-    <row r="259" spans="2:16">
+    <row r="259" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B259" s="14">
         <v>46058</v>
       </c>
@@ -9012,7 +9031,7 @@
       <c r="O259" s="11"/>
       <c r="P259" s="11"/>
     </row>
-    <row r="260" spans="2:16">
+    <row r="260" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B260" s="14">
         <v>46058</v>
       </c>
@@ -9039,7 +9058,7 @@
       <c r="O260" s="11"/>
       <c r="P260" s="11"/>
     </row>
-    <row r="261" spans="2:16">
+    <row r="261" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B261" s="14">
         <v>46058</v>
       </c>
@@ -9066,7 +9085,7 @@
       <c r="O261" s="11"/>
       <c r="P261" s="11"/>
     </row>
-    <row r="262" spans="2:16">
+    <row r="262" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B262" s="14">
         <v>46058</v>
       </c>
@@ -9093,7 +9112,7 @@
       <c r="O262" s="11"/>
       <c r="P262" s="11"/>
     </row>
-    <row r="263" spans="2:16">
+    <row r="263" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B263" s="14">
         <v>46058</v>
       </c>
@@ -9120,7 +9139,7 @@
       <c r="O263" s="11"/>
       <c r="P263" s="11"/>
     </row>
-    <row r="264" spans="2:16">
+    <row r="264" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B264" s="14">
         <v>46059</v>
       </c>
@@ -9149,7 +9168,7 @@
       <c r="O264" s="11"/>
       <c r="P264" s="11"/>
     </row>
-    <row r="265" spans="2:16">
+    <row r="265" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B265" s="14">
         <v>46059</v>
       </c>
@@ -9178,7 +9197,7 @@
       <c r="O265" s="11"/>
       <c r="P265" s="11"/>
     </row>
-    <row r="266" spans="2:16">
+    <row r="266" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B266" s="14">
         <v>46059</v>
       </c>
@@ -9211,7 +9230,7 @@
       <c r="O266" s="11"/>
       <c r="P266" s="11"/>
     </row>
-    <row r="267" spans="2:16">
+    <row r="267" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B267" s="14">
         <v>46059</v>
       </c>
@@ -9244,7 +9263,7 @@
       <c r="O267" s="11"/>
       <c r="P267" s="11"/>
     </row>
-    <row r="268" spans="2:16">
+    <row r="268" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B268" s="14">
         <v>46059</v>
       </c>
@@ -9280,7 +9299,7 @@
       <c r="O268" s="11"/>
       <c r="P268" s="11"/>
     </row>
-    <row r="269" spans="2:16">
+    <row r="269" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B269" s="14">
         <v>46059</v>
       </c>
@@ -9311,7 +9330,7 @@
       <c r="O269" s="11"/>
       <c r="P269" s="11"/>
     </row>
-    <row r="270" spans="2:16">
+    <row r="270" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B270" s="14">
         <v>46059</v>
       </c>
@@ -9342,7 +9361,7 @@
       <c r="O270" s="11"/>
       <c r="P270" s="11"/>
     </row>
-    <row r="271" spans="2:16">
+    <row r="271" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B271" s="14">
         <v>46059</v>
       </c>
@@ -9371,7 +9390,7 @@
       <c r="O271" s="11"/>
       <c r="P271" s="11"/>
     </row>
-    <row r="272" spans="2:16">
+    <row r="272" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B272" s="14">
         <v>46059</v>
       </c>
@@ -9400,7 +9419,7 @@
       <c r="O272" s="11"/>
       <c r="P272" s="11"/>
     </row>
-    <row r="273" spans="2:16">
+    <row r="273" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B273" s="14">
         <v>46059</v>
       </c>
@@ -9431,7 +9450,7 @@
       <c r="O273" s="11"/>
       <c r="P273" s="11"/>
     </row>
-    <row r="274" spans="2:16">
+    <row r="274" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B274" s="14">
         <v>46059</v>
       </c>
@@ -9460,7 +9479,7 @@
       <c r="O274" s="11"/>
       <c r="P274" s="11"/>
     </row>
-    <row r="275" spans="2:16">
+    <row r="275" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B275" s="14">
         <v>46059</v>
       </c>
@@ -9493,7 +9512,7 @@
       <c r="O275" s="11"/>
       <c r="P275" s="11"/>
     </row>
-    <row r="276" spans="2:16">
+    <row r="276" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B276" s="14">
         <v>46059</v>
       </c>
@@ -9522,7 +9541,7 @@
       <c r="O276" s="11"/>
       <c r="P276" s="11"/>
     </row>
-    <row r="277" spans="2:16">
+    <row r="277" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B277" s="14">
         <v>46059</v>
       </c>
@@ -9551,7 +9570,7 @@
       <c r="O277" s="11"/>
       <c r="P277" s="11"/>
     </row>
-    <row r="278" spans="2:16">
+    <row r="278" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B278" s="14">
         <v>46059</v>
       </c>
@@ -9580,7 +9599,7 @@
       <c r="O278" s="11"/>
       <c r="P278" s="11"/>
     </row>
-    <row r="279" spans="2:16">
+    <row r="279" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B279" s="14">
         <v>46059</v>
       </c>
@@ -9609,7 +9628,7 @@
       <c r="O279" s="11"/>
       <c r="P279" s="11"/>
     </row>
-    <row r="280" spans="2:16">
+    <row r="280" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B280" s="14">
         <v>46059</v>
       </c>
@@ -9638,7 +9657,7 @@
       <c r="O280" s="11"/>
       <c r="P280" s="11"/>
     </row>
-    <row r="281" spans="2:16">
+    <row r="281" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B281" s="14">
         <v>46059</v>
       </c>
@@ -9669,7 +9688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="2:16">
+    <row r="282" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B282" s="14">
         <v>46059</v>
       </c>
@@ -9704,7 +9723,7 @@
       <c r="O282" s="11"/>
       <c r="P282" s="11"/>
     </row>
-    <row r="283" spans="2:16">
+    <row r="283" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B283" s="14">
         <v>46059</v>
       </c>
@@ -9735,7 +9754,7 @@
       <c r="O283" s="11"/>
       <c r="P283" s="11"/>
     </row>
-    <row r="284" spans="2:16">
+    <row r="284" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B284" s="14">
         <v>46059</v>
       </c>
@@ -9764,7 +9783,7 @@
       <c r="O284" s="11"/>
       <c r="P284" s="11"/>
     </row>
-    <row r="285" spans="2:16">
+    <row r="285" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B285" s="14">
         <v>46059</v>
       </c>
@@ -9793,7 +9812,7 @@
       <c r="O285" s="11"/>
       <c r="P285" s="11"/>
     </row>
-    <row r="286" spans="2:16">
+    <row r="286" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B286" s="25">
         <v>46062</v>
       </c>
@@ -9826,7 +9845,7 @@
       <c r="O286" s="26"/>
       <c r="P286" s="33"/>
     </row>
-    <row r="287" spans="2:16">
+    <row r="287" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B287" s="25">
         <v>46062</v>
       </c>
@@ -9855,7 +9874,7 @@
       <c r="O287" s="26"/>
       <c r="P287" s="26"/>
     </row>
-    <row r="288" spans="2:16">
+    <row r="288" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B288" s="25">
         <v>46062</v>
       </c>
@@ -9886,7 +9905,7 @@
       <c r="O288" s="26"/>
       <c r="P288" s="26"/>
     </row>
-    <row r="289" spans="2:16">
+    <row r="289" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B289" s="27">
         <v>46062</v>
       </c>
@@ -9917,7 +9936,7 @@
       <c r="O289" s="26"/>
       <c r="P289" s="26"/>
     </row>
-    <row r="290" spans="2:16">
+    <row r="290" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B290" s="27">
         <v>46062</v>
       </c>
@@ -9948,7 +9967,7 @@
       <c r="O290" s="26"/>
       <c r="P290" s="26"/>
     </row>
-    <row r="291" spans="2:16">
+    <row r="291" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B291" s="27">
         <v>46062</v>
       </c>
@@ -9977,7 +9996,7 @@
       <c r="O291" s="26"/>
       <c r="P291" s="26"/>
     </row>
-    <row r="292" spans="2:16">
+    <row r="292" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B292" s="27">
         <v>46062</v>
       </c>
@@ -10008,7 +10027,7 @@
       <c r="O292" s="26"/>
       <c r="P292" s="26"/>
     </row>
-    <row r="293" spans="2:16">
+    <row r="293" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B293" s="27">
         <v>46062</v>
       </c>
@@ -10041,7 +10060,7 @@
       <c r="O293" s="26"/>
       <c r="P293" s="26"/>
     </row>
-    <row r="294" spans="2:16">
+    <row r="294" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B294" s="27">
         <v>46062</v>
       </c>
@@ -10074,7 +10093,7 @@
       <c r="O294" s="26"/>
       <c r="P294" s="26"/>
     </row>
-    <row r="295" spans="2:16">
+    <row r="295" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B295" s="27">
         <v>46062</v>
       </c>
@@ -10103,7 +10122,7 @@
       <c r="O295" s="26"/>
       <c r="P295" s="26"/>
     </row>
-    <row r="296" spans="2:16">
+    <row r="296" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B296" s="27">
         <v>46062</v>
       </c>
@@ -10134,7 +10153,7 @@
       <c r="O296" s="26"/>
       <c r="P296" s="26"/>
     </row>
-    <row r="297" spans="2:16">
+    <row r="297" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B297" s="27">
         <v>46062</v>
       </c>
@@ -10163,7 +10182,7 @@
       <c r="O297" s="26"/>
       <c r="P297" s="26"/>
     </row>
-    <row r="298" spans="2:16">
+    <row r="298" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B298" s="27">
         <v>46062</v>
       </c>
@@ -10196,7 +10215,7 @@
       <c r="O298" s="26"/>
       <c r="P298" s="26"/>
     </row>
-    <row r="299" spans="2:16">
+    <row r="299" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B299" s="27">
         <v>46062</v>
       </c>
@@ -10227,7 +10246,7 @@
       <c r="O299" s="26"/>
       <c r="P299" s="26"/>
     </row>
-    <row r="300" spans="2:16">
+    <row r="300" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B300" s="27">
         <v>46062</v>
       </c>
@@ -10256,7 +10275,7 @@
       <c r="O300" s="26"/>
       <c r="P300" s="26"/>
     </row>
-    <row r="301" spans="2:16">
+    <row r="301" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B301" s="27">
         <v>46062</v>
       </c>
@@ -10287,7 +10306,7 @@
       <c r="O301" s="26"/>
       <c r="P301" s="26"/>
     </row>
-    <row r="302" spans="2:16">
+    <row r="302" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B302" s="27">
         <v>46062</v>
       </c>
@@ -10316,7 +10335,7 @@
       <c r="O302" s="26"/>
       <c r="P302" s="26"/>
     </row>
-    <row r="303" spans="2:16">
+    <row r="303" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B303" s="27">
         <v>46062</v>
       </c>
@@ -10345,7 +10364,7 @@
       <c r="O303" s="26"/>
       <c r="P303" s="26"/>
     </row>
-    <row r="304" spans="2:16">
+    <row r="304" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B304" s="27">
         <v>46062</v>
       </c>
@@ -10374,7 +10393,7 @@
       <c r="O304" s="26"/>
       <c r="P304" s="26"/>
     </row>
-    <row r="305" spans="2:16">
+    <row r="305" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B305" s="27">
         <v>46062</v>
       </c>
@@ -10394,7 +10413,6 @@
       </c>
       <c r="G305" s="26"/>
       <c r="H305" s="26"/>
-      <c r="I305" s="26"/>
       <c r="J305" s="26"/>
       <c r="K305" s="26"/>
       <c r="L305" s="26"/>
@@ -10403,7 +10421,7 @@
       <c r="O305" s="26"/>
       <c r="P305" s="26"/>
     </row>
-    <row r="306" spans="2:16">
+    <row r="306" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B306" s="27">
         <v>46062</v>
       </c>
@@ -10434,7 +10452,7 @@
       <c r="O306" s="26"/>
       <c r="P306" s="26"/>
     </row>
-    <row r="307" spans="2:16">
+    <row r="307" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B307" s="27">
         <v>46062</v>
       </c>
@@ -10463,7 +10481,7 @@
       <c r="O307" s="26"/>
       <c r="P307" s="26"/>
     </row>
-    <row r="308" spans="2:16">
+    <row r="308" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B308" s="27">
         <v>46062</v>
       </c>
@@ -10492,7 +10510,7 @@
       <c r="O308" s="26"/>
       <c r="P308" s="26"/>
     </row>
-    <row r="309" spans="2:16">
+    <row r="309" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B309" s="27">
         <v>46062</v>
       </c>
@@ -10521,7 +10539,7 @@
       <c r="O309" s="26"/>
       <c r="P309" s="26"/>
     </row>
-    <row r="310" spans="2:16">
+    <row r="310" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B310" s="36">
         <v>46062</v>
       </c>
@@ -10550,7 +10568,7 @@
       <c r="O310" s="26"/>
       <c r="P310" s="26"/>
     </row>
-    <row r="311" spans="2:16">
+    <row r="311" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B311" s="27">
         <v>46063</v>
       </c>
@@ -10579,7 +10597,7 @@
       <c r="O311" s="26"/>
       <c r="P311" s="33"/>
     </row>
-    <row r="312" spans="2:16">
+    <row r="312" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B312" s="27">
         <v>46063</v>
       </c>
@@ -10608,7 +10626,7 @@
       <c r="O312" s="26"/>
       <c r="P312" s="26"/>
     </row>
-    <row r="313" spans="2:16">
+    <row r="313" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B313" s="27">
         <v>46063</v>
       </c>
@@ -10639,7 +10657,7 @@
       <c r="O313" s="26"/>
       <c r="P313" s="26"/>
     </row>
-    <row r="314" spans="2:16">
+    <row r="314" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B314" s="27">
         <v>46063</v>
       </c>
@@ -10670,7 +10688,7 @@
       <c r="O314" s="26"/>
       <c r="P314" s="26"/>
     </row>
-    <row r="315" spans="2:16">
+    <row r="315" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B315" s="27">
         <v>46063</v>
       </c>
@@ -10699,7 +10717,7 @@
       <c r="O315" s="26"/>
       <c r="P315" s="26"/>
     </row>
-    <row r="316" spans="2:16">
+    <row r="316" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B316" s="27">
         <v>46063</v>
       </c>
@@ -10732,7 +10750,7 @@
       <c r="O316" s="26"/>
       <c r="P316" s="26"/>
     </row>
-    <row r="317" spans="2:16">
+    <row r="317" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B317" s="27">
         <v>46063</v>
       </c>
@@ -10761,7 +10779,7 @@
       <c r="O317" s="26"/>
       <c r="P317" s="26"/>
     </row>
-    <row r="318" spans="2:16">
+    <row r="318" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B318" s="27">
         <v>46063</v>
       </c>
@@ -10792,7 +10810,7 @@
       <c r="O318" s="26"/>
       <c r="P318" s="26"/>
     </row>
-    <row r="319" spans="2:16">
+    <row r="319" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B319" s="27">
         <v>46063</v>
       </c>
@@ -10821,7 +10839,7 @@
       <c r="O319" s="26"/>
       <c r="P319" s="26"/>
     </row>
-    <row r="320" spans="2:16">
+    <row r="320" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B320" s="27">
         <v>46063</v>
       </c>
@@ -10850,7 +10868,7 @@
       <c r="O320" s="26"/>
       <c r="P320" s="26"/>
     </row>
-    <row r="321" spans="2:16">
+    <row r="321" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B321" s="27">
         <v>46063</v>
       </c>
@@ -10881,7 +10899,7 @@
       <c r="O321" s="26"/>
       <c r="P321" s="26"/>
     </row>
-    <row r="322" spans="2:16">
+    <row r="322" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B322" s="27">
         <v>46063</v>
       </c>
@@ -10912,7 +10930,7 @@
       <c r="O322" s="26"/>
       <c r="P322" s="26"/>
     </row>
-    <row r="323" spans="2:16">
+    <row r="323" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B323" s="27">
         <v>46063</v>
       </c>
@@ -10941,7 +10959,7 @@
       <c r="O323" s="26"/>
       <c r="P323" s="26"/>
     </row>
-    <row r="324" spans="2:16">
+    <row r="324" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B324" s="27">
         <v>46063</v>
       </c>
@@ -10972,7 +10990,7 @@
       <c r="O324" s="26"/>
       <c r="P324" s="26"/>
     </row>
-    <row r="325" spans="2:16">
+    <row r="325" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B325" s="27">
         <v>46063</v>
       </c>
@@ -11003,7 +11021,7 @@
       <c r="O325" s="26"/>
       <c r="P325" s="26"/>
     </row>
-    <row r="326" spans="2:16">
+    <row r="326" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B326" s="27">
         <v>46063</v>
       </c>
@@ -11032,7 +11050,7 @@
       <c r="O326" s="26"/>
       <c r="P326" s="26"/>
     </row>
-    <row r="327" spans="2:16">
+    <row r="327" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B327" s="27">
         <v>46063</v>
       </c>
@@ -11061,7 +11079,7 @@
       <c r="O327" s="26"/>
       <c r="P327" s="26"/>
     </row>
-    <row r="328" spans="2:16">
+    <row r="328" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B328" s="27">
         <v>46063</v>
       </c>
@@ -11090,7 +11108,7 @@
       <c r="O328" s="26"/>
       <c r="P328" s="26"/>
     </row>
-    <row r="329" spans="2:16">
+    <row r="329" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B329" s="27">
         <v>46063</v>
       </c>
@@ -11119,7 +11137,7 @@
       <c r="O329" s="26"/>
       <c r="P329" s="26"/>
     </row>
-    <row r="330" spans="2:16">
+    <row r="330" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B330" s="27">
         <v>46063</v>
       </c>
@@ -11148,7 +11166,7 @@
       <c r="O330" s="26"/>
       <c r="P330" s="26"/>
     </row>
-    <row r="331" spans="2:16">
+    <row r="331" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B331" s="27">
         <v>46063</v>
       </c>
@@ -11177,7 +11195,7 @@
       <c r="O331" s="26"/>
       <c r="P331" s="26"/>
     </row>
-    <row r="332" spans="2:16">
+    <row r="332" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B332" s="27">
         <v>46063</v>
       </c>
@@ -11208,7 +11226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="2:16">
+    <row r="333" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B333" s="27">
         <v>46063</v>
       </c>
@@ -11239,7 +11257,7 @@
       <c r="O333" s="26"/>
       <c r="P333" s="26"/>
     </row>
-    <row r="334" spans="2:16">
+    <row r="334" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B334" s="27">
         <v>46063</v>
       </c>
@@ -11268,7 +11286,7 @@
       <c r="O334" s="26"/>
       <c r="P334" s="26"/>
     </row>
-    <row r="335" spans="2:16">
+    <row r="335" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B335" s="27">
         <v>46063</v>
       </c>
@@ -11301,7 +11319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="2:16">
+    <row r="336" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B336" s="36">
         <v>46064</v>
       </c>
@@ -11334,7 +11352,7 @@
       <c r="O336" s="26"/>
       <c r="P336" s="33"/>
     </row>
-    <row r="337" spans="2:16">
+    <row r="337" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B337" s="27">
         <v>46064</v>
       </c>
@@ -11367,7 +11385,7 @@
       <c r="O337" s="26"/>
       <c r="P337" s="26"/>
     </row>
-    <row r="338" spans="2:16">
+    <row r="338" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B338" s="36">
         <v>46064</v>
       </c>
@@ -11396,7 +11414,7 @@
       <c r="O338" s="26"/>
       <c r="P338" s="26"/>
     </row>
-    <row r="339" spans="2:16">
+    <row r="339" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B339" s="27">
         <v>46064</v>
       </c>
@@ -11425,7 +11443,7 @@
       <c r="O339" s="26"/>
       <c r="P339" s="26"/>
     </row>
-    <row r="340" spans="2:16">
+    <row r="340" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B340" s="36">
         <v>46064</v>
       </c>
@@ -11454,7 +11472,7 @@
       <c r="O340" s="26"/>
       <c r="P340" s="26"/>
     </row>
-    <row r="341" spans="2:16">
+    <row r="341" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B341" s="27">
         <v>46064</v>
       </c>
@@ -11483,7 +11501,7 @@
       <c r="O341" s="26"/>
       <c r="P341" s="26"/>
     </row>
-    <row r="342" spans="2:16">
+    <row r="342" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B342" s="36">
         <v>46064</v>
       </c>
@@ -11512,7 +11530,7 @@
       <c r="O342" s="26"/>
       <c r="P342" s="26"/>
     </row>
-    <row r="343" spans="2:16">
+    <row r="343" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B343" s="27">
         <v>46064</v>
       </c>
@@ -11543,7 +11561,7 @@
       <c r="O343" s="26"/>
       <c r="P343" s="26"/>
     </row>
-    <row r="344" spans="2:16">
+    <row r="344" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B344" s="36">
         <v>46064</v>
       </c>
@@ -11572,7 +11590,7 @@
       <c r="O344" s="26"/>
       <c r="P344" s="26"/>
     </row>
-    <row r="345" spans="2:16">
+    <row r="345" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B345" s="27">
         <v>46064</v>
       </c>
@@ -11601,7 +11619,7 @@
       <c r="O345" s="26"/>
       <c r="P345" s="26"/>
     </row>
-    <row r="346" spans="2:16">
+    <row r="346" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B346" s="36">
         <v>46064</v>
       </c>
@@ -11632,7 +11650,7 @@
       <c r="O346" s="26"/>
       <c r="P346" s="26"/>
     </row>
-    <row r="347" spans="2:16">
+    <row r="347" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B347" s="27">
         <v>46064</v>
       </c>
@@ -11661,7 +11679,7 @@
       <c r="O347" s="26"/>
       <c r="P347" s="26"/>
     </row>
-    <row r="348" spans="2:16">
+    <row r="348" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B348" s="36">
         <v>46064</v>
       </c>
@@ -11692,7 +11710,7 @@
       <c r="O348" s="26"/>
       <c r="P348" s="26"/>
     </row>
-    <row r="349" spans="2:16">
+    <row r="349" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B349" s="27">
         <v>46064</v>
       </c>
@@ -11721,7 +11739,7 @@
       <c r="O349" s="26"/>
       <c r="P349" s="26"/>
     </row>
-    <row r="350" spans="2:16">
+    <row r="350" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B350" s="36">
         <v>46064</v>
       </c>
@@ -11750,7 +11768,7 @@
       <c r="O350" s="26"/>
       <c r="P350" s="26"/>
     </row>
-    <row r="351" spans="2:16">
+    <row r="351" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B351" s="27">
         <v>46064</v>
       </c>
@@ -11779,7 +11797,7 @@
       <c r="O351" s="26"/>
       <c r="P351" s="26"/>
     </row>
-    <row r="352" spans="2:16">
+    <row r="352" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B352" s="36">
         <v>46064</v>
       </c>
@@ -11810,7 +11828,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="353" spans="2:16">
+    <row r="353" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B353" s="27">
         <v>46064</v>
       </c>
@@ -11841,7 +11859,7 @@
       <c r="O353" s="26"/>
       <c r="P353" s="26"/>
     </row>
-    <row r="354" spans="2:16">
+    <row r="354" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B354" s="36">
         <v>46064</v>
       </c>
@@ -11870,7 +11888,7 @@
       <c r="O354" s="26"/>
       <c r="P354" s="26"/>
     </row>
-    <row r="355" spans="2:16">
+    <row r="355" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B355" s="27">
         <v>46064</v>
       </c>
@@ -11899,7 +11917,7 @@
       <c r="O355" s="26"/>
       <c r="P355" s="26"/>
     </row>
-    <row r="356" spans="2:16">
+    <row r="356" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B356" s="36">
         <v>46064</v>
       </c>
@@ -11928,7 +11946,7 @@
       <c r="O356" s="26"/>
       <c r="P356" s="26"/>
     </row>
-    <row r="357" spans="2:16">
+    <row r="357" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B357" s="27">
         <v>46064</v>
       </c>
@@ -11959,7 +11977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="2:16">
+    <row r="358" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B358" s="36">
         <v>46064</v>
       </c>
@@ -11990,7 +12008,7 @@
       <c r="O358" s="26"/>
       <c r="P358" s="26"/>
     </row>
-    <row r="359" spans="2:16">
+    <row r="359" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B359" s="27">
         <v>46064</v>
       </c>
@@ -12023,7 +12041,7 @@
       <c r="O359" s="26"/>
       <c r="P359" s="26"/>
     </row>
-    <row r="360" spans="2:16">
+    <row r="360" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B360" s="36">
         <v>46064</v>
       </c>
@@ -12056,7 +12074,7 @@
       <c r="O360" s="26"/>
       <c r="P360" s="26"/>
     </row>
-    <row r="361" spans="2:16">
+    <row r="361" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B361" s="27">
         <v>46064</v>
       </c>
@@ -12085,7 +12103,7 @@
       <c r="O361" s="26"/>
       <c r="P361" s="26"/>
     </row>
-    <row r="362" spans="2:16">
+    <row r="362" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B362" s="36">
         <v>46065</v>
       </c>
@@ -12118,7 +12136,7 @@
       <c r="O362" s="28"/>
       <c r="P362" s="39"/>
     </row>
-    <row r="363" spans="2:16">
+    <row r="363" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B363" s="27">
         <v>46065</v>
       </c>
@@ -12149,7 +12167,7 @@
       <c r="O363" s="28"/>
       <c r="P363" s="28"/>
     </row>
-    <row r="364" spans="2:16">
+    <row r="364" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B364" s="36">
         <v>46065</v>
       </c>
@@ -12180,7 +12198,7 @@
       <c r="O364" s="28"/>
       <c r="P364" s="28"/>
     </row>
-    <row r="365" spans="2:16">
+    <row r="365" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B365" s="27">
         <v>46065</v>
       </c>
@@ -12211,7 +12229,7 @@
       <c r="O365" s="28"/>
       <c r="P365" s="28"/>
     </row>
-    <row r="366" spans="2:16">
+    <row r="366" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B366" s="36">
         <v>46065</v>
       </c>
@@ -12242,7 +12260,7 @@
       <c r="O366" s="28"/>
       <c r="P366" s="28"/>
     </row>
-    <row r="367" spans="2:16">
+    <row r="367" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B367" s="27">
         <v>46065</v>
       </c>
@@ -12271,7 +12289,7 @@
       <c r="O367" s="28"/>
       <c r="P367" s="28"/>
     </row>
-    <row r="368" spans="2:16">
+    <row r="368" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B368" s="36">
         <v>46065</v>
       </c>
@@ -12300,7 +12318,7 @@
       <c r="O368" s="28"/>
       <c r="P368" s="28"/>
     </row>
-    <row r="369" spans="2:16">
+    <row r="369" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B369" s="27">
         <v>46065</v>
       </c>
@@ -12329,7 +12347,7 @@
       <c r="O369" s="28"/>
       <c r="P369" s="28"/>
     </row>
-    <row r="370" spans="2:16">
+    <row r="370" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B370" s="36">
         <v>46065</v>
       </c>
@@ -12358,7 +12376,7 @@
       <c r="O370" s="28"/>
       <c r="P370" s="28"/>
     </row>
-    <row r="371" spans="2:16">
+    <row r="371" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B371" s="27">
         <v>46065</v>
       </c>
@@ -12389,7 +12407,7 @@
       <c r="O371" s="28"/>
       <c r="P371" s="28"/>
     </row>
-    <row r="372" spans="2:16">
+    <row r="372" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B372" s="36">
         <v>46065</v>
       </c>
@@ -12418,7 +12436,7 @@
       <c r="O372" s="28"/>
       <c r="P372" s="28"/>
     </row>
-    <row r="373" spans="2:16">
+    <row r="373" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B373" s="27">
         <v>46065</v>
       </c>
@@ -12447,7 +12465,7 @@
       <c r="O373" s="28"/>
       <c r="P373" s="28"/>
     </row>
-    <row r="374" spans="2:16">
+    <row r="374" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B374" s="36">
         <v>46065</v>
       </c>
@@ -12476,7 +12494,7 @@
       <c r="O374" s="28"/>
       <c r="P374" s="28"/>
     </row>
-    <row r="375" spans="2:16">
+    <row r="375" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B375" s="27">
         <v>46065</v>
       </c>
@@ -12505,7 +12523,7 @@
       <c r="O375" s="28"/>
       <c r="P375" s="28"/>
     </row>
-    <row r="376" spans="2:16">
+    <row r="376" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B376" s="36">
         <v>46065</v>
       </c>
@@ -12534,7 +12552,7 @@
       <c r="O376" s="28"/>
       <c r="P376" s="28"/>
     </row>
-    <row r="377" spans="2:16">
+    <row r="377" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B377" s="27">
         <v>46065</v>
       </c>
@@ -12565,7 +12583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="2:16">
+    <row r="378" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B378" s="36">
         <v>46065</v>
       </c>
@@ -12594,7 +12612,7 @@
       <c r="O378" s="28"/>
       <c r="P378" s="28"/>
     </row>
-    <row r="379" spans="2:16">
+    <row r="379" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B379" s="27">
         <v>46065</v>
       </c>
@@ -12627,7 +12645,7 @@
       <c r="O379" s="28"/>
       <c r="P379" s="28"/>
     </row>
-    <row r="380" spans="2:16">
+    <row r="380" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B380" s="36">
         <v>46065</v>
       </c>
@@ -12656,7 +12674,7 @@
       <c r="O380" s="28"/>
       <c r="P380" s="28"/>
     </row>
-    <row r="381" spans="2:16">
+    <row r="381" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B381" s="27">
         <v>46065</v>
       </c>
@@ -12685,7 +12703,7 @@
       <c r="O381" s="28"/>
       <c r="P381" s="28"/>
     </row>
-    <row r="382" spans="2:16">
+    <row r="382" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B382" s="36">
         <v>46065</v>
       </c>
@@ -12718,7 +12736,7 @@
       <c r="O382" s="28"/>
       <c r="P382" s="28"/>
     </row>
-    <row r="383" spans="2:16">
+    <row r="383" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B383" s="27">
         <v>46065</v>
       </c>
@@ -12749,7 +12767,7 @@
       <c r="O383" s="28"/>
       <c r="P383" s="28"/>
     </row>
-    <row r="384" spans="2:16">
+    <row r="384" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B384" s="36">
         <v>46065</v>
       </c>
@@ -12780,7 +12798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="385" spans="2:16">
+    <row r="385" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B385" s="27">
         <v>46065</v>
       </c>
@@ -12809,7 +12827,7 @@
       <c r="O385" s="28"/>
       <c r="P385" s="28"/>
     </row>
-    <row r="386" spans="2:16">
+    <row r="386" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B386" s="36">
         <v>46065</v>
       </c>
@@ -12838,7 +12856,7 @@
       <c r="O386" s="28"/>
       <c r="P386" s="28"/>
     </row>
-    <row r="387" spans="2:16">
+    <row r="387" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B387" s="27">
         <v>46066</v>
       </c>
@@ -12869,7 +12887,7 @@
       <c r="O387" s="26"/>
       <c r="P387" s="33"/>
     </row>
-    <row r="388" spans="2:16">
+    <row r="388" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B388" s="27">
         <v>46066</v>
       </c>
@@ -12898,7 +12916,7 @@
       <c r="O388" s="26"/>
       <c r="P388" s="26"/>
     </row>
-    <row r="389" spans="2:16">
+    <row r="389" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B389" s="27">
         <v>46066</v>
       </c>
@@ -12931,7 +12949,7 @@
       <c r="O389" s="26"/>
       <c r="P389" s="26"/>
     </row>
-    <row r="390" spans="2:16">
+    <row r="390" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B390" s="27">
         <v>46066</v>
       </c>
@@ -12962,7 +12980,7 @@
       <c r="O390" s="26"/>
       <c r="P390" s="26"/>
     </row>
-    <row r="391" spans="2:16">
+    <row r="391" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B391" s="27">
         <v>46066</v>
       </c>
@@ -12993,7 +13011,7 @@
       <c r="O391" s="26"/>
       <c r="P391" s="26"/>
     </row>
-    <row r="392" spans="2:16">
+    <row r="392" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B392" s="27">
         <v>46066</v>
       </c>
@@ -13022,7 +13040,7 @@
       <c r="O392" s="26"/>
       <c r="P392" s="26"/>
     </row>
-    <row r="393" spans="2:16">
+    <row r="393" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B393" s="27">
         <v>46066</v>
       </c>
@@ -13037,7 +13055,7 @@
         <v>391</v>
       </c>
       <c r="F393" s="8">
-        <f t="shared" ref="F393:F436" si="11">SUM(G393:P393)</f>
+        <f t="shared" ref="F393:F456" si="11">SUM(G393:P393)</f>
         <v>0</v>
       </c>
       <c r="G393" s="26"/>
@@ -13051,7 +13069,7 @@
       <c r="O393" s="26"/>
       <c r="P393" s="26"/>
     </row>
-    <row r="394" spans="2:16">
+    <row r="394" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B394" s="27">
         <v>46066</v>
       </c>
@@ -13080,7 +13098,7 @@
       <c r="O394" s="26"/>
       <c r="P394" s="26"/>
     </row>
-    <row r="395" spans="2:16">
+    <row r="395" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B395" s="27">
         <v>46066</v>
       </c>
@@ -13109,7 +13127,7 @@
       <c r="O395" s="26"/>
       <c r="P395" s="26"/>
     </row>
-    <row r="396" spans="2:16">
+    <row r="396" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B396" s="27">
         <v>46066</v>
       </c>
@@ -13140,7 +13158,7 @@
       <c r="O396" s="26"/>
       <c r="P396" s="26"/>
     </row>
-    <row r="397" spans="2:16">
+    <row r="397" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B397" s="27">
         <v>46066</v>
       </c>
@@ -13173,7 +13191,7 @@
       <c r="O397" s="26"/>
       <c r="P397" s="26"/>
     </row>
-    <row r="398" spans="2:16">
+    <row r="398" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B398" s="27">
         <v>46066</v>
       </c>
@@ -13208,7 +13226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="2:16">
+    <row r="399" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B399" s="27">
         <v>46066</v>
       </c>
@@ -13239,7 +13257,7 @@
       <c r="O399" s="26"/>
       <c r="P399" s="26"/>
     </row>
-    <row r="400" spans="2:16">
+    <row r="400" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B400" s="27">
         <v>46072</v>
       </c>
@@ -13272,7 +13290,7 @@
       <c r="O400" s="26"/>
       <c r="P400" s="33"/>
     </row>
-    <row r="401" spans="2:16">
+    <row r="401" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B401" s="27">
         <v>46072</v>
       </c>
@@ -13283,7 +13301,7 @@
         <v>149</v>
       </c>
       <c r="E401" s="26">
-        <f t="shared" ref="E401:E436" si="12">D401-F401</f>
+        <f t="shared" ref="E401:E461" si="12">D401-F401</f>
         <v>145</v>
       </c>
       <c r="F401" s="8">
@@ -13303,7 +13321,7 @@
       <c r="O401" s="26"/>
       <c r="P401" s="26"/>
     </row>
-    <row r="402" spans="2:16">
+    <row r="402" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B402" s="27">
         <v>46072</v>
       </c>
@@ -13334,7 +13352,7 @@
       <c r="O402" s="26"/>
       <c r="P402" s="26"/>
     </row>
-    <row r="403" spans="2:16">
+    <row r="403" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B403" s="27">
         <v>46072</v>
       </c>
@@ -13365,7 +13383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="2:16">
+    <row r="404" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B404" s="27">
         <v>46072</v>
       </c>
@@ -13398,7 +13416,7 @@
       <c r="O404" s="26"/>
       <c r="P404" s="26"/>
     </row>
-    <row r="405" spans="2:16">
+    <row r="405" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B405" s="27">
         <v>46072</v>
       </c>
@@ -13433,7 +13451,7 @@
       <c r="O405" s="26"/>
       <c r="P405" s="26"/>
     </row>
-    <row r="406" spans="2:16">
+    <row r="406" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B406" s="27">
         <v>46072</v>
       </c>
@@ -13464,7 +13482,7 @@
       <c r="O406" s="26"/>
       <c r="P406" s="26"/>
     </row>
-    <row r="407" spans="2:16">
+    <row r="407" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B407" s="27">
         <v>46072</v>
       </c>
@@ -13497,7 +13515,7 @@
       <c r="O407" s="26"/>
       <c r="P407" s="26"/>
     </row>
-    <row r="408" spans="2:16">
+    <row r="408" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B408" s="27">
         <v>46072</v>
       </c>
@@ -13528,7 +13546,7 @@
       </c>
       <c r="P408" s="26"/>
     </row>
-    <row r="409" spans="2:16">
+    <row r="409" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B409" s="27">
         <v>46072</v>
       </c>
@@ -13557,7 +13575,7 @@
       <c r="O409" s="26"/>
       <c r="P409" s="26"/>
     </row>
-    <row r="410" spans="2:16">
+    <row r="410" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B410" s="27">
         <v>46072</v>
       </c>
@@ -13590,7 +13608,7 @@
       <c r="O410" s="26"/>
       <c r="P410" s="26"/>
     </row>
-    <row r="411" spans="2:16">
+    <row r="411" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B411" s="27">
         <v>46072</v>
       </c>
@@ -13619,7 +13637,7 @@
       <c r="O411" s="26"/>
       <c r="P411" s="26"/>
     </row>
-    <row r="412" spans="2:16">
+    <row r="412" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B412" s="27">
         <v>46072</v>
       </c>
@@ -13648,7 +13666,7 @@
       <c r="O412" s="26"/>
       <c r="P412" s="26"/>
     </row>
-    <row r="413" spans="2:16">
+    <row r="413" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B413" s="27">
         <v>46072</v>
       </c>
@@ -13677,7 +13695,7 @@
       <c r="O413" s="26"/>
       <c r="P413" s="26"/>
     </row>
-    <row r="414" spans="2:16">
+    <row r="414" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B414" s="27">
         <v>46072</v>
       </c>
@@ -13706,7 +13724,7 @@
       <c r="O414" s="26"/>
       <c r="P414" s="26"/>
     </row>
-    <row r="415" spans="2:16">
+    <row r="415" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B415" s="27">
         <v>46072</v>
       </c>
@@ -13739,7 +13757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="2:16">
+    <row r="416" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B416" s="27">
         <v>46072</v>
       </c>
@@ -13772,7 +13790,7 @@
       <c r="O416" s="26"/>
       <c r="P416" s="26"/>
     </row>
-    <row r="417" spans="2:16">
+    <row r="417" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B417" s="27">
         <v>46072</v>
       </c>
@@ -13803,7 +13821,7 @@
       <c r="O417" s="26"/>
       <c r="P417" s="26"/>
     </row>
-    <row r="418" spans="2:16">
+    <row r="418" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B418" s="27">
         <v>46072</v>
       </c>
@@ -13832,7 +13850,7 @@
       <c r="O418" s="26"/>
       <c r="P418" s="26"/>
     </row>
-    <row r="419" spans="2:16">
+    <row r="419" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B419" s="27">
         <v>46072</v>
       </c>
@@ -13861,7 +13879,7 @@
       <c r="O419" s="26"/>
       <c r="P419" s="26"/>
     </row>
-    <row r="420" spans="2:16">
+    <row r="420" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B420" s="27">
         <v>46073</v>
       </c>
@@ -13892,7 +13910,7 @@
       <c r="O420" s="26"/>
       <c r="P420" s="33"/>
     </row>
-    <row r="421" spans="2:16">
+    <row r="421" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B421" s="27">
         <v>46073</v>
       </c>
@@ -13925,7 +13943,7 @@
       <c r="O421" s="26"/>
       <c r="P421" s="26"/>
     </row>
-    <row r="422" spans="2:16">
+    <row r="422" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B422" s="27">
         <v>46073</v>
       </c>
@@ -13954,7 +13972,7 @@
       <c r="O422" s="26"/>
       <c r="P422" s="26"/>
     </row>
-    <row r="423" spans="2:16">
+    <row r="423" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B423" s="27">
         <v>46073</v>
       </c>
@@ -13983,7 +14001,7 @@
       <c r="O423" s="26"/>
       <c r="P423" s="26"/>
     </row>
-    <row r="424" spans="2:16">
+    <row r="424" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B424" s="27">
         <v>46073</v>
       </c>
@@ -14012,7 +14030,7 @@
       <c r="O424" s="26"/>
       <c r="P424" s="26"/>
     </row>
-    <row r="425" spans="2:16">
+    <row r="425" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B425" s="27">
         <v>46073</v>
       </c>
@@ -14041,7 +14059,7 @@
       <c r="O425" s="26"/>
       <c r="P425" s="26"/>
     </row>
-    <row r="426" spans="2:16">
+    <row r="426" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B426" s="27">
         <v>46073</v>
       </c>
@@ -14072,7 +14090,7 @@
       <c r="O426" s="26"/>
       <c r="P426" s="26"/>
     </row>
-    <row r="427" spans="2:16">
+    <row r="427" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B427" s="27">
         <v>46073</v>
       </c>
@@ -14103,7 +14121,7 @@
       <c r="O427" s="26"/>
       <c r="P427" s="26"/>
     </row>
-    <row r="428" spans="2:16">
+    <row r="428" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B428" s="27">
         <v>46073</v>
       </c>
@@ -14134,7 +14152,7 @@
       <c r="O428" s="26"/>
       <c r="P428" s="26"/>
     </row>
-    <row r="429" spans="2:16">
+    <row r="429" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B429" s="27">
         <v>46073</v>
       </c>
@@ -14163,7 +14181,7 @@
       <c r="O429" s="26"/>
       <c r="P429" s="26"/>
     </row>
-    <row r="430" spans="2:16">
+    <row r="430" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B430" s="27">
         <v>46073</v>
       </c>
@@ -14196,7 +14214,7 @@
       <c r="O430" s="26"/>
       <c r="P430" s="26"/>
     </row>
-    <row r="431" spans="2:16">
+    <row r="431" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B431" s="27">
         <v>46073</v>
       </c>
@@ -14225,7 +14243,7 @@
       <c r="O431" s="26"/>
       <c r="P431" s="26"/>
     </row>
-    <row r="432" spans="2:16">
+    <row r="432" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B432" s="27">
         <v>46073</v>
       </c>
@@ -14258,7 +14276,7 @@
       <c r="O432" s="26"/>
       <c r="P432" s="26"/>
     </row>
-    <row r="433" spans="2:16">
+    <row r="433" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B433" s="27">
         <v>46073</v>
       </c>
@@ -14287,7 +14305,7 @@
       <c r="O433" s="26"/>
       <c r="P433" s="26"/>
     </row>
-    <row r="434" spans="2:16">
+    <row r="434" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B434" s="27">
         <v>46073</v>
       </c>
@@ -14316,7 +14334,7 @@
       <c r="O434" s="26"/>
       <c r="P434" s="26"/>
     </row>
-    <row r="435" spans="2:16">
+    <row r="435" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B435" s="27">
         <v>46073</v>
       </c>
@@ -14349,17 +14367,17 @@
       <c r="O435" s="26"/>
       <c r="P435" s="26"/>
     </row>
-    <row r="436" spans="2:16">
+    <row r="436" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B436" s="27">
         <v>46073</v>
       </c>
-      <c r="C436" s="43" t="s">
+      <c r="C436" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="D436" s="44">
+      <c r="D436" s="43">
         <v>1685</v>
       </c>
-      <c r="E436" s="44">
+      <c r="E436" s="43">
         <f t="shared" si="12"/>
         <v>1670</v>
       </c>
@@ -14367,753 +14385,1412 @@
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="G436" s="44"/>
-      <c r="H436" s="45">
+      <c r="G436" s="43"/>
+      <c r="H436" s="44">
         <v>15</v>
       </c>
-      <c r="I436" s="44"/>
-      <c r="J436" s="44"/>
-      <c r="K436" s="44"/>
-      <c r="L436" s="44"/>
-      <c r="M436" s="44"/>
-      <c r="N436" s="44"/>
-      <c r="O436" s="44"/>
-      <c r="P436" s="44"/>
-    </row>
-    <row r="437" spans="2:16">
-      <c r="B437" s="41"/>
-      <c r="F437" s="42"/>
-    </row>
-    <row r="438" spans="2:16">
-      <c r="B438" s="27"/>
-      <c r="F438" s="8"/>
-    </row>
-    <row r="439" spans="2:16">
-      <c r="B439" s="27"/>
-      <c r="F439" s="8"/>
-    </row>
-    <row r="440" spans="2:16">
-      <c r="B440" s="27"/>
-      <c r="F440" s="8"/>
-    </row>
-    <row r="441" spans="2:16">
-      <c r="B441" s="25"/>
-      <c r="F441" s="8"/>
-    </row>
-    <row r="442" spans="2:16">
-      <c r="B442" s="25"/>
-      <c r="F442" s="8"/>
-    </row>
-    <row r="443" spans="2:16">
-      <c r="B443" s="25"/>
-      <c r="F443" s="8"/>
-    </row>
-    <row r="444" spans="2:16">
-      <c r="B444" s="25"/>
-      <c r="F444" s="8"/>
-    </row>
-    <row r="445" spans="2:16">
-      <c r="B445" s="25"/>
-      <c r="F445" s="8"/>
-    </row>
-    <row r="446" spans="2:16">
-      <c r="B446" s="25"/>
-      <c r="F446" s="8"/>
-    </row>
-    <row r="447" spans="2:16">
-      <c r="B447" s="25"/>
-      <c r="F447" s="8"/>
-    </row>
-    <row r="448" spans="2:16">
-      <c r="B448" s="25"/>
-      <c r="F448" s="8"/>
-    </row>
-    <row r="449" spans="2:6">
-      <c r="B449" s="25"/>
-      <c r="F449" s="8"/>
-    </row>
-    <row r="450" spans="2:6">
-      <c r="B450" s="25"/>
-      <c r="F450" s="8"/>
-    </row>
-    <row r="451" spans="2:6">
-      <c r="B451" s="25"/>
-      <c r="F451" s="8"/>
-    </row>
-    <row r="452" spans="2:6">
-      <c r="B452" s="25"/>
-      <c r="F452" s="8"/>
-    </row>
-    <row r="453" spans="2:6">
-      <c r="B453" s="25"/>
-      <c r="F453" s="8"/>
-    </row>
-    <row r="454" spans="2:6">
-      <c r="B454" s="25"/>
-      <c r="F454" s="8"/>
-    </row>
-    <row r="455" spans="2:6">
-      <c r="B455" s="25"/>
-      <c r="F455" s="8"/>
-    </row>
-    <row r="456" spans="2:6">
-      <c r="B456" s="25"/>
-      <c r="F456" s="8"/>
-    </row>
-    <row r="457" spans="2:6">
-      <c r="B457" s="25"/>
-      <c r="F457" s="8"/>
-    </row>
-    <row r="458" spans="2:6">
-      <c r="B458" s="25"/>
-      <c r="F458" s="8"/>
-    </row>
-    <row r="459" spans="2:6">
-      <c r="B459" s="25"/>
-      <c r="F459" s="8"/>
-    </row>
-    <row r="460" spans="2:6">
-      <c r="B460" s="25"/>
-      <c r="F460" s="8"/>
-    </row>
-    <row r="461" spans="2:6">
-      <c r="B461" s="25"/>
-      <c r="F461" s="8"/>
-    </row>
-    <row r="462" spans="2:6">
+      <c r="I436" s="43"/>
+      <c r="J436" s="43"/>
+      <c r="K436" s="43"/>
+      <c r="L436" s="43"/>
+      <c r="M436" s="43"/>
+      <c r="N436" s="43"/>
+      <c r="O436" s="43"/>
+      <c r="P436" s="43"/>
+    </row>
+    <row r="437" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B437" s="41">
+        <v>46076</v>
+      </c>
+      <c r="C437" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D437" s="26">
+        <v>520</v>
+      </c>
+      <c r="E437" s="43">
+        <f t="shared" si="12"/>
+        <v>520</v>
+      </c>
+      <c r="F437" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G437" s="26"/>
+      <c r="H437" s="26"/>
+      <c r="I437" s="33"/>
+      <c r="J437" s="33"/>
+      <c r="K437" s="33"/>
+      <c r="L437" s="26"/>
+      <c r="M437" s="26"/>
+      <c r="N437" s="26"/>
+      <c r="O437" s="26"/>
+      <c r="P437" s="33"/>
+    </row>
+    <row r="438" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B438" s="41">
+        <v>46076</v>
+      </c>
+      <c r="C438" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D438" s="26">
+        <v>166</v>
+      </c>
+      <c r="E438" s="43">
+        <f t="shared" si="12"/>
+        <v>162</v>
+      </c>
+      <c r="F438" s="8">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="G438" s="26"/>
+      <c r="H438" s="26">
+        <v>4</v>
+      </c>
+      <c r="I438" s="26"/>
+      <c r="J438" s="26"/>
+      <c r="K438" s="26"/>
+      <c r="L438" s="26"/>
+      <c r="M438" s="26"/>
+      <c r="N438" s="26"/>
+      <c r="O438" s="26"/>
+      <c r="P438" s="26"/>
+    </row>
+    <row r="439" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B439" s="41">
+        <v>46076</v>
+      </c>
+      <c r="C439" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="D439" s="26">
+        <v>927</v>
+      </c>
+      <c r="E439" s="43">
+        <f t="shared" si="12"/>
+        <v>900</v>
+      </c>
+      <c r="F439" s="8">
+        <f t="shared" si="11"/>
+        <v>27</v>
+      </c>
+      <c r="G439" s="26">
+        <v>10</v>
+      </c>
+      <c r="H439" s="26"/>
+      <c r="I439" s="26"/>
+      <c r="J439" s="26"/>
+      <c r="K439" s="26"/>
+      <c r="L439" s="26">
+        <v>17</v>
+      </c>
+      <c r="M439" s="26"/>
+      <c r="N439" s="26"/>
+      <c r="O439" s="26"/>
+      <c r="P439" s="26"/>
+    </row>
+    <row r="440" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B440" s="41">
+        <v>46076</v>
+      </c>
+      <c r="C440" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="D440" s="26">
+        <v>144</v>
+      </c>
+      <c r="E440" s="43">
+        <f t="shared" si="12"/>
+        <v>144</v>
+      </c>
+      <c r="F440" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G440" s="26"/>
+      <c r="H440" s="26"/>
+      <c r="I440" s="26"/>
+      <c r="J440" s="26"/>
+      <c r="K440" s="26"/>
+      <c r="L440" s="26"/>
+      <c r="M440" s="26"/>
+      <c r="N440" s="26"/>
+      <c r="O440" s="26"/>
+      <c r="P440" s="26"/>
+    </row>
+    <row r="441" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B441" s="41">
+        <v>46076</v>
+      </c>
+      <c r="C441" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D441" s="26">
+        <v>520</v>
+      </c>
+      <c r="E441" s="43">
+        <f t="shared" si="12"/>
+        <v>520</v>
+      </c>
+      <c r="F441" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G441" s="26"/>
+      <c r="H441" s="26"/>
+      <c r="I441" s="26"/>
+      <c r="J441" s="26"/>
+      <c r="K441" s="26"/>
+      <c r="L441" s="26"/>
+      <c r="M441" s="26"/>
+      <c r="N441" s="26"/>
+      <c r="O441" s="26"/>
+      <c r="P441" s="26"/>
+    </row>
+    <row r="442" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B442" s="41">
+        <v>46076</v>
+      </c>
+      <c r="C442" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D442" s="26">
+        <v>1284</v>
+      </c>
+      <c r="E442" s="43">
+        <f t="shared" si="12"/>
+        <v>1280</v>
+      </c>
+      <c r="F442" s="8">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="G442" s="26"/>
+      <c r="H442" s="26">
+        <v>2</v>
+      </c>
+      <c r="I442" s="26"/>
+      <c r="J442" s="26"/>
+      <c r="K442" s="26"/>
+      <c r="L442" s="26">
+        <v>2</v>
+      </c>
+      <c r="M442" s="26"/>
+      <c r="N442" s="26"/>
+      <c r="O442" s="26"/>
+      <c r="P442" s="26"/>
+    </row>
+    <row r="443" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B443" s="41">
+        <v>46076</v>
+      </c>
+      <c r="C443" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="D443" s="26">
+        <v>100</v>
+      </c>
+      <c r="E443" s="43">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="F443" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G443" s="26"/>
+      <c r="H443" s="26"/>
+      <c r="I443" s="26"/>
+      <c r="J443" s="26"/>
+      <c r="K443" s="26"/>
+      <c r="L443" s="26"/>
+      <c r="M443" s="26"/>
+      <c r="N443" s="26"/>
+      <c r="O443" s="26"/>
+      <c r="P443" s="26"/>
+    </row>
+    <row r="444" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B444" s="41">
+        <v>46076</v>
+      </c>
+      <c r="C444" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="D444" s="26">
+        <v>100</v>
+      </c>
+      <c r="E444" s="43">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="F444" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G444" s="26"/>
+      <c r="H444" s="26"/>
+      <c r="I444" s="26"/>
+      <c r="J444" s="26"/>
+      <c r="K444" s="26"/>
+      <c r="L444" s="26"/>
+      <c r="M444" s="26"/>
+      <c r="N444" s="26"/>
+      <c r="O444" s="26"/>
+      <c r="P444" s="26"/>
+    </row>
+    <row r="445" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B445" s="41">
+        <v>46076</v>
+      </c>
+      <c r="C445" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D445" s="26">
+        <v>367</v>
+      </c>
+      <c r="E445" s="43">
+        <f t="shared" si="12"/>
+        <v>360</v>
+      </c>
+      <c r="F445" s="8">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="G445" s="26">
+        <v>3</v>
+      </c>
+      <c r="H445" s="26">
+        <v>2</v>
+      </c>
+      <c r="I445" s="26"/>
+      <c r="J445" s="26">
+        <v>2</v>
+      </c>
+      <c r="K445" s="26"/>
+      <c r="L445" s="26"/>
+      <c r="M445" s="26"/>
+      <c r="N445" s="26"/>
+      <c r="O445" s="26"/>
+      <c r="P445" s="26"/>
+    </row>
+    <row r="446" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B446" s="41">
+        <v>46076</v>
+      </c>
+      <c r="C446" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D446" s="26">
+        <v>367</v>
+      </c>
+      <c r="E446" s="43">
+        <f t="shared" si="12"/>
+        <v>360</v>
+      </c>
+      <c r="F446" s="8">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="G446" s="26">
+        <v>3</v>
+      </c>
+      <c r="H446" s="26">
+        <v>2</v>
+      </c>
+      <c r="I446" s="26"/>
+      <c r="J446" s="26">
+        <v>2</v>
+      </c>
+      <c r="K446" s="26"/>
+      <c r="L446" s="34"/>
+      <c r="M446" s="26"/>
+      <c r="N446" s="26"/>
+      <c r="O446" s="26"/>
+      <c r="P446" s="26"/>
+    </row>
+    <row r="447" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B447" s="41">
+        <v>46076</v>
+      </c>
+      <c r="C447" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="D447" s="26">
+        <v>60</v>
+      </c>
+      <c r="E447" s="43">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="F447" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G447" s="26"/>
+      <c r="H447" s="26"/>
+      <c r="I447" s="26"/>
+      <c r="J447" s="26"/>
+      <c r="K447" s="26"/>
+      <c r="L447" s="26"/>
+      <c r="M447" s="26"/>
+      <c r="N447" s="26"/>
+      <c r="O447" s="26"/>
+      <c r="P447" s="26"/>
+    </row>
+    <row r="448" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B448" s="41">
+        <v>46076</v>
+      </c>
+      <c r="C448" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D448" s="26">
+        <v>497</v>
+      </c>
+      <c r="E448" s="43">
+        <f t="shared" si="12"/>
+        <v>497</v>
+      </c>
+      <c r="F448" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G448" s="26"/>
+      <c r="H448" s="26"/>
+      <c r="I448" s="26"/>
+      <c r="J448" s="26"/>
+      <c r="K448" s="26"/>
+      <c r="L448" s="26"/>
+      <c r="M448" s="26"/>
+      <c r="N448" s="26"/>
+      <c r="O448" s="26"/>
+      <c r="P448" s="26"/>
+    </row>
+    <row r="449" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B449" s="41">
+        <v>46076</v>
+      </c>
+      <c r="C449" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D449" s="26">
+        <v>128</v>
+      </c>
+      <c r="E449" s="43">
+        <f t="shared" si="12"/>
+        <v>128</v>
+      </c>
+      <c r="F449" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G449" s="26"/>
+      <c r="H449" s="26"/>
+      <c r="I449" s="26"/>
+      <c r="J449" s="26"/>
+      <c r="K449" s="26"/>
+      <c r="L449" s="26"/>
+      <c r="M449" s="26"/>
+      <c r="N449" s="26"/>
+      <c r="O449" s="26"/>
+      <c r="P449" s="26"/>
+    </row>
+    <row r="450" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B450" s="41">
+        <v>46076</v>
+      </c>
+      <c r="C450" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D450" s="26">
+        <v>865</v>
+      </c>
+      <c r="E450" s="43">
+        <f t="shared" si="12"/>
+        <v>865</v>
+      </c>
+      <c r="F450" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G450" s="26"/>
+      <c r="H450" s="26"/>
+      <c r="I450" s="26"/>
+      <c r="J450" s="26"/>
+      <c r="K450" s="26"/>
+      <c r="L450" s="26"/>
+      <c r="M450" s="26"/>
+      <c r="N450" s="26"/>
+      <c r="O450" s="26"/>
+      <c r="P450" s="26"/>
+    </row>
+    <row r="451" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B451" s="41">
+        <v>46076</v>
+      </c>
+      <c r="C451" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="D451" s="26">
+        <v>50</v>
+      </c>
+      <c r="E451" s="43">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="F451" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G451" s="26"/>
+      <c r="H451" s="26"/>
+      <c r="I451" s="26"/>
+      <c r="J451" s="26"/>
+      <c r="K451" s="26"/>
+      <c r="L451" s="26"/>
+      <c r="M451" s="26"/>
+      <c r="N451" s="26"/>
+      <c r="O451" s="26"/>
+      <c r="P451" s="26"/>
+    </row>
+    <row r="452" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B452" s="41">
+        <v>46076</v>
+      </c>
+      <c r="C452" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D452" s="26">
+        <v>858</v>
+      </c>
+      <c r="E452" s="43">
+        <f t="shared" si="12"/>
+        <v>848</v>
+      </c>
+      <c r="F452" s="8">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="G452" s="26">
+        <v>8</v>
+      </c>
+      <c r="H452" s="26">
+        <v>2</v>
+      </c>
+      <c r="I452" s="26"/>
+      <c r="J452" s="26"/>
+      <c r="K452" s="26"/>
+      <c r="L452" s="26"/>
+      <c r="M452" s="26"/>
+      <c r="N452" s="26"/>
+      <c r="O452" s="26"/>
+      <c r="P452" s="26"/>
+    </row>
+    <row r="453" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B453" s="41">
+        <v>46076</v>
+      </c>
+      <c r="C453" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D453" s="26">
+        <v>440</v>
+      </c>
+      <c r="E453" s="43">
+        <f t="shared" si="12"/>
+        <v>440</v>
+      </c>
+      <c r="F453" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G453" s="26"/>
+      <c r="H453" s="26"/>
+      <c r="I453" s="26"/>
+      <c r="J453" s="26"/>
+      <c r="K453" s="26"/>
+      <c r="L453" s="26"/>
+      <c r="M453" s="26"/>
+      <c r="N453" s="26"/>
+      <c r="O453" s="26"/>
+      <c r="P453" s="26"/>
+    </row>
+    <row r="454" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B454" s="41">
+        <v>46076</v>
+      </c>
+      <c r="C454" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D454" s="26">
+        <v>329</v>
+      </c>
+      <c r="E454" s="43">
+        <f t="shared" si="12"/>
+        <v>329</v>
+      </c>
+      <c r="F454" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G454" s="26"/>
+      <c r="H454" s="26"/>
+      <c r="I454" s="26"/>
+      <c r="J454" s="26"/>
+      <c r="K454" s="26"/>
+      <c r="L454" s="26"/>
+      <c r="M454" s="26"/>
+      <c r="N454" s="26"/>
+      <c r="O454" s="26"/>
+      <c r="P454" s="26"/>
+    </row>
+    <row r="455" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B455" s="41">
+        <v>46076</v>
+      </c>
+      <c r="C455" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D455" s="26">
+        <v>1350</v>
+      </c>
+      <c r="E455" s="43">
+        <f t="shared" si="12"/>
+        <v>1350</v>
+      </c>
+      <c r="F455" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G455" s="26"/>
+      <c r="H455" s="35"/>
+      <c r="I455" s="26"/>
+      <c r="J455" s="26"/>
+      <c r="K455" s="26"/>
+      <c r="L455" s="26"/>
+      <c r="M455" s="26"/>
+      <c r="N455" s="26"/>
+      <c r="O455" s="26"/>
+      <c r="P455" s="26"/>
+    </row>
+    <row r="456" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B456" s="41">
+        <v>46076</v>
+      </c>
+      <c r="C456" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D456" s="26">
+        <v>130</v>
+      </c>
+      <c r="E456" s="43">
+        <f t="shared" si="12"/>
+        <v>130</v>
+      </c>
+      <c r="F456" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G456" s="26"/>
+      <c r="H456" s="26"/>
+      <c r="I456" s="26"/>
+      <c r="J456" s="26"/>
+      <c r="K456" s="26"/>
+      <c r="L456" s="26"/>
+      <c r="M456" s="26"/>
+      <c r="N456" s="26"/>
+      <c r="O456" s="26"/>
+      <c r="P456" s="26"/>
+    </row>
+    <row r="457" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B457" s="41">
+        <v>46076</v>
+      </c>
+      <c r="C457" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D457" s="26">
+        <v>124</v>
+      </c>
+      <c r="E457" s="43">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
+      <c r="F457" s="8">
+        <f t="shared" ref="F457:F461" si="13">SUM(G457:P457)</f>
+        <v>4</v>
+      </c>
+      <c r="G457" s="26"/>
+      <c r="H457" s="26"/>
+      <c r="I457" s="26"/>
+      <c r="J457" s="26"/>
+      <c r="K457" s="26"/>
+      <c r="L457" s="26"/>
+      <c r="M457" s="26"/>
+      <c r="N457" s="26"/>
+      <c r="O457" s="26"/>
+      <c r="P457" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="458" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B458" s="41">
+        <v>46076</v>
+      </c>
+      <c r="C458" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D458" s="26">
+        <v>371</v>
+      </c>
+      <c r="E458" s="43">
+        <f t="shared" si="12"/>
+        <v>371</v>
+      </c>
+      <c r="F458" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G458" s="26"/>
+      <c r="H458" s="26"/>
+      <c r="I458" s="26"/>
+      <c r="J458" s="26"/>
+      <c r="K458" s="26"/>
+      <c r="L458" s="26"/>
+      <c r="M458" s="26"/>
+      <c r="N458" s="26"/>
+      <c r="O458" s="26"/>
+      <c r="P458" s="26"/>
+    </row>
+    <row r="459" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B459" s="41">
+        <v>46076</v>
+      </c>
+      <c r="C459" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="D459" s="26">
+        <v>93</v>
+      </c>
+      <c r="E459" s="43">
+        <f t="shared" si="12"/>
+        <v>93</v>
+      </c>
+      <c r="F459" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G459" s="26"/>
+      <c r="H459" s="26"/>
+      <c r="I459" s="26"/>
+      <c r="J459" s="26"/>
+      <c r="K459" s="26"/>
+      <c r="L459" s="26"/>
+      <c r="M459" s="26"/>
+      <c r="N459" s="26"/>
+      <c r="O459" s="26"/>
+      <c r="P459" s="26"/>
+    </row>
+    <row r="460" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B460" s="41">
+        <v>46076</v>
+      </c>
+      <c r="C460" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D460" s="26">
+        <v>771</v>
+      </c>
+      <c r="E460" s="43">
+        <f t="shared" si="12"/>
+        <v>770</v>
+      </c>
+      <c r="F460" s="8">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="G460" s="26"/>
+      <c r="H460" s="26">
+        <v>1</v>
+      </c>
+      <c r="I460" s="26"/>
+      <c r="J460" s="26"/>
+      <c r="K460" s="26"/>
+      <c r="L460" s="26"/>
+      <c r="M460" s="26"/>
+      <c r="N460" s="26"/>
+      <c r="O460" s="26"/>
+      <c r="P460" s="26"/>
+    </row>
+    <row r="461" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B461" s="41">
+        <v>46076</v>
+      </c>
+      <c r="C461" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="D461" s="26">
+        <v>418</v>
+      </c>
+      <c r="E461" s="43">
+        <f t="shared" si="12"/>
+        <v>400</v>
+      </c>
+      <c r="F461" s="8">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="G461" s="26">
+        <v>10</v>
+      </c>
+      <c r="H461" s="26">
+        <v>8</v>
+      </c>
+      <c r="I461" s="26"/>
+      <c r="J461" s="26"/>
+      <c r="K461" s="26"/>
+      <c r="L461" s="26"/>
+      <c r="M461" s="26"/>
+      <c r="N461" s="26"/>
+      <c r="O461" s="26"/>
+      <c r="P461" s="26"/>
+    </row>
+    <row r="462" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B462" s="25"/>
       <c r="F462" s="8"/>
     </row>
-    <row r="463" spans="2:6">
+    <row r="463" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B463" s="25"/>
       <c r="F463" s="8"/>
     </row>
-    <row r="464" spans="2:6">
+    <row r="464" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B464" s="25"/>
       <c r="F464" s="8"/>
     </row>
-    <row r="465" spans="2:6">
+    <row r="465" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B465" s="25"/>
       <c r="F465" s="8"/>
     </row>
-    <row r="466" spans="2:6">
+    <row r="466" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B466" s="25"/>
       <c r="F466" s="8"/>
     </row>
-    <row r="467" spans="2:6">
+    <row r="467" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B467" s="25"/>
       <c r="F467" s="8"/>
     </row>
-    <row r="468" spans="2:6">
+    <row r="468" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B468" s="25"/>
       <c r="F468" s="8"/>
     </row>
-    <row r="469" spans="2:6">
+    <row r="469" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B469" s="25"/>
       <c r="F469" s="8"/>
     </row>
-    <row r="470" spans="2:6">
+    <row r="470" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B470" s="25"/>
       <c r="F470" s="8"/>
     </row>
-    <row r="471" spans="2:6">
+    <row r="471" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B471" s="25"/>
       <c r="F471" s="8"/>
     </row>
-    <row r="472" spans="2:6">
+    <row r="472" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B472" s="25"/>
       <c r="F472" s="8"/>
     </row>
-    <row r="473" spans="2:6">
+    <row r="473" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B473" s="25"/>
       <c r="F473" s="8"/>
     </row>
-    <row r="474" spans="2:6">
+    <row r="474" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B474" s="25"/>
       <c r="F474" s="8"/>
     </row>
-    <row r="475" spans="2:6">
+    <row r="475" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B475" s="25"/>
       <c r="F475" s="8"/>
     </row>
-    <row r="476" spans="2:6">
+    <row r="476" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B476" s="25"/>
       <c r="F476" s="8"/>
     </row>
-    <row r="477" spans="2:6">
+    <row r="477" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B477" s="25"/>
       <c r="F477" s="8"/>
     </row>
-    <row r="478" spans="2:6">
+    <row r="478" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B478" s="25"/>
       <c r="F478" s="8"/>
     </row>
-    <row r="479" spans="2:6">
+    <row r="479" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B479" s="25"/>
       <c r="F479" s="8"/>
     </row>
-    <row r="480" spans="2:6">
+    <row r="480" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B480" s="25"/>
       <c r="F480" s="8"/>
     </row>
-    <row r="481" spans="2:6">
+    <row r="481" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B481" s="25"/>
       <c r="F481" s="8"/>
     </row>
-    <row r="482" spans="2:6">
+    <row r="482" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B482" s="25"/>
       <c r="F482" s="8"/>
     </row>
-    <row r="483" spans="2:6">
+    <row r="483" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B483" s="25"/>
       <c r="F483" s="8"/>
     </row>
-    <row r="484" spans="2:6">
+    <row r="484" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B484" s="25"/>
       <c r="F484" s="8"/>
     </row>
-    <row r="485" spans="2:6">
+    <row r="485" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B485" s="25"/>
       <c r="F485" s="8"/>
     </row>
-    <row r="486" spans="2:6">
+    <row r="486" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B486" s="25"/>
       <c r="F486" s="8"/>
     </row>
-    <row r="487" spans="2:6">
+    <row r="487" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B487" s="25"/>
       <c r="F487" s="8"/>
     </row>
-    <row r="488" spans="2:6">
+    <row r="488" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B488" s="25"/>
       <c r="F488" s="8"/>
     </row>
-    <row r="489" spans="2:6">
+    <row r="489" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B489" s="25"/>
       <c r="F489" s="8"/>
     </row>
-    <row r="490" spans="2:6">
+    <row r="490" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B490" s="25"/>
       <c r="F490" s="8"/>
     </row>
-    <row r="491" spans="2:6">
+    <row r="491" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B491" s="25"/>
       <c r="F491" s="8"/>
     </row>
-    <row r="492" spans="2:6">
+    <row r="492" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B492" s="25"/>
       <c r="F492" s="8"/>
     </row>
-    <row r="493" spans="2:6">
+    <row r="493" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B493" s="25"/>
       <c r="F493" s="8"/>
     </row>
-    <row r="494" spans="2:6">
+    <row r="494" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B494" s="25"/>
       <c r="F494" s="8"/>
     </row>
-    <row r="495" spans="2:6">
+    <row r="495" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B495" s="25"/>
       <c r="F495" s="8"/>
     </row>
-    <row r="496" spans="2:6">
+    <row r="496" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B496" s="25"/>
       <c r="F496" s="8"/>
     </row>
-    <row r="497" spans="2:6">
+    <row r="497" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B497" s="25"/>
       <c r="F497" s="8"/>
     </row>
-    <row r="498" spans="2:6">
+    <row r="498" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B498" s="25"/>
       <c r="F498" s="8"/>
     </row>
-    <row r="499" spans="2:6">
+    <row r="499" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B499" s="25"/>
       <c r="F499" s="8"/>
     </row>
-    <row r="500" spans="2:6">
+    <row r="500" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B500" s="25"/>
       <c r="F500" s="8"/>
     </row>
-    <row r="501" spans="2:6">
+    <row r="501" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B501" s="25"/>
     </row>
-    <row r="502" spans="2:6">
+    <row r="502" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B502" s="25"/>
     </row>
-    <row r="503" spans="2:6">
+    <row r="503" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B503" s="25"/>
     </row>
-    <row r="504" spans="2:6">
+    <row r="504" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B504" s="25"/>
     </row>
-    <row r="505" spans="2:6">
+    <row r="505" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B505" s="25"/>
     </row>
-    <row r="506" spans="2:6">
+    <row r="506" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B506" s="25"/>
     </row>
-    <row r="507" spans="2:6">
+    <row r="507" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B507" s="25"/>
     </row>
-    <row r="508" spans="2:6">
+    <row r="508" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B508" s="25"/>
     </row>
-    <row r="509" spans="2:6">
+    <row r="509" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B509" s="25"/>
     </row>
-    <row r="510" spans="2:6">
+    <row r="510" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B510" s="25"/>
     </row>
-    <row r="511" spans="2:6">
+    <row r="511" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B511" s="25"/>
     </row>
-    <row r="512" spans="2:6">
+    <row r="512" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B512" s="25"/>
     </row>
-    <row r="513" spans="2:2">
+    <row r="513" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B513" s="25"/>
     </row>
-    <row r="514" spans="2:2">
+    <row r="514" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B514" s="25"/>
     </row>
-    <row r="515" spans="2:2">
+    <row r="515" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B515" s="25"/>
     </row>
-    <row r="516" spans="2:2">
+    <row r="516" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B516" s="25"/>
     </row>
-    <row r="517" spans="2:2">
+    <row r="517" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B517" s="25"/>
     </row>
-    <row r="518" spans="2:2">
+    <row r="518" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B518" s="25"/>
     </row>
-    <row r="519" spans="2:2">
+    <row r="519" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B519" s="25"/>
     </row>
-    <row r="520" spans="2:2">
+    <row r="520" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B520" s="25"/>
     </row>
-    <row r="521" spans="2:2">
+    <row r="521" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B521" s="25"/>
     </row>
-    <row r="522" spans="2:2">
+    <row r="522" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B522" s="25"/>
     </row>
-    <row r="523" spans="2:2">
+    <row r="523" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B523" s="25"/>
     </row>
-    <row r="524" spans="2:2">
+    <row r="524" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B524" s="25"/>
     </row>
-    <row r="525" spans="2:2">
+    <row r="525" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B525" s="25"/>
     </row>
-    <row r="526" spans="2:2">
+    <row r="526" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B526" s="25"/>
     </row>
-    <row r="527" spans="2:2">
+    <row r="527" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B527" s="25"/>
     </row>
-    <row r="528" spans="2:2">
+    <row r="528" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B528" s="25"/>
     </row>
-    <row r="529" spans="2:2">
+    <row r="529" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B529" s="25"/>
     </row>
-    <row r="530" spans="2:2">
+    <row r="530" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B530" s="25"/>
     </row>
-    <row r="531" spans="2:2">
+    <row r="531" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B531" s="25"/>
     </row>
-    <row r="532" spans="2:2">
+    <row r="532" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B532" s="25"/>
     </row>
-    <row r="533" spans="2:2">
+    <row r="533" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B533" s="25"/>
     </row>
-    <row r="534" spans="2:2">
+    <row r="534" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B534" s="25"/>
     </row>
-    <row r="535" spans="2:2">
+    <row r="535" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B535" s="25"/>
     </row>
-    <row r="536" spans="2:2">
+    <row r="536" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B536" s="25"/>
     </row>
-    <row r="537" spans="2:2">
+    <row r="537" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B537" s="25"/>
     </row>
-    <row r="538" spans="2:2">
+    <row r="538" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B538" s="25"/>
     </row>
-    <row r="539" spans="2:2">
+    <row r="539" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B539" s="25"/>
     </row>
-    <row r="540" spans="2:2">
+    <row r="540" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B540" s="25"/>
     </row>
-    <row r="541" spans="2:2">
+    <row r="541" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B541" s="25"/>
     </row>
-    <row r="542" spans="2:2">
+    <row r="542" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B542" s="25"/>
     </row>
-    <row r="543" spans="2:2">
+    <row r="543" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B543" s="25"/>
     </row>
-    <row r="544" spans="2:2">
+    <row r="544" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B544" s="25"/>
     </row>
-    <row r="545" spans="2:2">
+    <row r="545" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B545" s="25"/>
     </row>
-    <row r="546" spans="2:2">
+    <row r="546" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B546" s="25"/>
     </row>
-    <row r="547" spans="2:2">
+    <row r="547" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B547" s="25"/>
     </row>
-    <row r="548" spans="2:2">
+    <row r="548" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B548" s="25"/>
     </row>
-    <row r="549" spans="2:2">
+    <row r="549" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B549" s="25"/>
     </row>
-    <row r="550" spans="2:2">
+    <row r="550" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B550" s="25"/>
     </row>
-    <row r="551" spans="2:2">
+    <row r="551" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B551" s="25"/>
     </row>
-    <row r="552" spans="2:2">
+    <row r="552" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B552" s="25"/>
     </row>
-    <row r="553" spans="2:2">
+    <row r="553" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B553" s="25"/>
     </row>
-    <row r="554" spans="2:2">
+    <row r="554" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B554" s="25"/>
     </row>
-    <row r="555" spans="2:2">
+    <row r="555" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B555" s="25"/>
     </row>
-    <row r="556" spans="2:2">
+    <row r="556" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B556" s="25"/>
     </row>
-    <row r="557" spans="2:2">
+    <row r="557" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B557" s="25"/>
     </row>
-    <row r="558" spans="2:2">
+    <row r="558" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B558" s="25"/>
     </row>
-    <row r="559" spans="2:2">
+    <row r="559" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B559" s="25"/>
     </row>
-    <row r="560" spans="2:2">
+    <row r="560" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B560" s="25"/>
     </row>
-    <row r="561" spans="2:2">
+    <row r="561" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B561" s="25"/>
     </row>
-    <row r="562" spans="2:2">
+    <row r="562" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B562" s="25"/>
     </row>
-    <row r="563" spans="2:2">
+    <row r="563" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B563" s="25"/>
     </row>
-    <row r="564" spans="2:2">
+    <row r="564" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B564" s="25"/>
     </row>
-    <row r="565" spans="2:2">
+    <row r="565" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B565" s="25"/>
     </row>
-    <row r="566" spans="2:2">
+    <row r="566" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B566" s="25"/>
     </row>
-    <row r="567" spans="2:2">
+    <row r="567" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B567" s="25"/>
     </row>
-    <row r="568" spans="2:2">
+    <row r="568" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B568" s="25"/>
     </row>
-    <row r="569" spans="2:2">
+    <row r="569" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B569" s="25"/>
     </row>
-    <row r="570" spans="2:2">
+    <row r="570" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B570" s="25"/>
     </row>
-    <row r="571" spans="2:2">
+    <row r="571" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B571" s="25"/>
     </row>
-    <row r="572" spans="2:2">
+    <row r="572" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B572" s="25"/>
     </row>
-    <row r="573" spans="2:2">
+    <row r="573" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B573" s="25"/>
     </row>
-    <row r="574" spans="2:2">
+    <row r="574" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B574" s="25"/>
     </row>
-    <row r="575" spans="2:2">
+    <row r="575" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B575" s="25"/>
     </row>
-    <row r="576" spans="2:2">
+    <row r="576" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B576" s="25"/>
     </row>
-    <row r="577" spans="2:2">
+    <row r="577" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B577" s="25"/>
     </row>
-    <row r="578" spans="2:2">
+    <row r="578" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B578" s="25"/>
     </row>
-    <row r="579" spans="2:2">
+    <row r="579" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B579" s="25"/>
     </row>
-    <row r="580" spans="2:2">
+    <row r="580" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B580" s="25"/>
     </row>
-    <row r="581" spans="2:2">
+    <row r="581" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B581" s="25"/>
     </row>
-    <row r="582" spans="2:2">
+    <row r="582" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B582" s="25"/>
     </row>
-    <row r="583" spans="2:2">
+    <row r="583" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B583" s="25"/>
     </row>
-    <row r="584" spans="2:2">
+    <row r="584" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B584" s="25"/>
     </row>
-    <row r="585" spans="2:2">
+    <row r="585" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B585" s="25"/>
     </row>
-    <row r="586" spans="2:2">
+    <row r="586" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B586" s="25"/>
     </row>
-    <row r="587" spans="2:2">
+    <row r="587" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B587" s="25"/>
     </row>
-    <row r="588" spans="2:2">
+    <row r="588" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B588" s="25"/>
     </row>
-    <row r="589" spans="2:2">
+    <row r="589" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B589" s="25"/>
     </row>
-    <row r="590" spans="2:2">
+    <row r="590" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B590" s="25"/>
     </row>
-    <row r="591" spans="2:2">
+    <row r="591" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B591" s="25"/>
     </row>
-    <row r="592" spans="2:2">
+    <row r="592" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B592" s="25"/>
     </row>
-    <row r="593" spans="2:2">
+    <row r="593" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B593" s="25"/>
     </row>
-    <row r="594" spans="2:2">
+    <row r="594" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B594" s="25"/>
     </row>
-    <row r="595" spans="2:2">
+    <row r="595" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B595" s="25"/>
     </row>
-    <row r="596" spans="2:2">
+    <row r="596" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B596" s="25"/>
     </row>
-    <row r="597" spans="2:2">
+    <row r="597" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B597" s="25"/>
     </row>
-    <row r="598" spans="2:2">
+    <row r="598" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B598" s="25"/>
     </row>
-    <row r="599" spans="2:2">
+    <row r="599" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B599" s="25"/>
     </row>
-    <row r="600" spans="2:2">
+    <row r="600" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B600" s="25"/>
     </row>
-    <row r="601" spans="2:2">
+    <row r="601" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B601" s="25"/>
     </row>
-    <row r="602" spans="2:2">
+    <row r="602" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B602" s="25"/>
     </row>
-    <row r="603" spans="2:2">
+    <row r="603" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B603" s="25"/>
     </row>
-    <row r="604" spans="2:2">
+    <row r="604" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B604" s="25"/>
     </row>
-    <row r="605" spans="2:2">
+    <row r="605" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B605" s="25"/>
     </row>
-    <row r="606" spans="2:2">
+    <row r="606" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B606" s="25"/>
     </row>
-    <row r="607" spans="2:2">
+    <row r="607" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B607" s="25"/>
     </row>
-    <row r="608" spans="2:2">
+    <row r="608" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B608" s="25"/>
     </row>
-    <row r="609" spans="2:2">
+    <row r="609" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B609" s="25"/>
     </row>
-    <row r="610" spans="2:2">
+    <row r="610" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B610" s="25"/>
     </row>
-    <row r="611" spans="2:2">
+    <row r="611" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B611" s="25"/>
     </row>
-    <row r="612" spans="2:2">
+    <row r="612" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B612" s="25"/>
     </row>
-    <row r="613" spans="2:2">
+    <row r="613" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B613" s="25"/>
     </row>
-    <row r="614" spans="2:2">
+    <row r="614" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B614" s="25"/>
     </row>
-    <row r="615" spans="2:2">
+    <row r="615" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B615" s="25"/>
     </row>
-    <row r="616" spans="2:2">
+    <row r="616" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B616" s="25"/>
     </row>
-    <row r="617" spans="2:2">
+    <row r="617" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B617" s="25"/>
     </row>
-    <row r="618" spans="2:2">
+    <row r="618" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B618" s="25"/>
     </row>
-    <row r="619" spans="2:2">
+    <row r="619" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B619" s="25"/>
     </row>
-    <row r="620" spans="2:2">
+    <row r="620" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B620" s="25"/>
     </row>
-    <row r="621" spans="2:2">
+    <row r="621" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B621" s="25"/>
     </row>
-    <row r="622" spans="2:2">
+    <row r="622" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B622" s="25"/>
     </row>
-    <row r="623" spans="2:2">
+    <row r="623" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B623" s="25"/>
     </row>
-    <row r="624" spans="2:2">
+    <row r="624" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B624" s="25"/>
     </row>
-    <row r="625" spans="2:2">
+    <row r="625" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B625" s="25"/>
     </row>
-    <row r="626" spans="2:2">
+    <row r="626" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B626" s="25"/>
     </row>
-    <row r="627" spans="2:2">
+    <row r="627" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B627" s="25"/>
     </row>
-    <row r="628" spans="2:2">
+    <row r="628" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B628" s="25"/>
     </row>
-    <row r="629" spans="2:2">
+    <row r="629" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B629" s="25"/>
     </row>
-    <row r="630" spans="2:2">
+    <row r="630" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B630" s="25"/>
     </row>
-    <row r="631" spans="2:2">
+    <row r="631" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B631" s="25"/>
     </row>
-    <row r="632" spans="2:2">
+    <row r="632" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B632" s="25"/>
     </row>
-    <row r="633" spans="2:2">
+    <row r="633" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B633" s="25"/>
     </row>
-    <row r="634" spans="2:2">
+    <row r="634" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B634" s="25"/>
     </row>
-    <row r="635" spans="2:2">
+    <row r="635" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B635" s="25"/>
     </row>
-    <row r="636" spans="2:2">
+    <row r="636" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B636" s="25"/>
     </row>
-    <row r="637" spans="2:2">
+    <row r="637" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B637" s="25"/>
     </row>
-    <row r="638" spans="2:2">
+    <row r="638" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B638" s="25"/>
     </row>
-    <row r="639" spans="2:2">
+    <row r="639" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B639" s="25"/>
     </row>
-    <row r="640" spans="2:2">
+    <row r="640" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B640" s="25"/>
     </row>
-    <row r="641" spans="2:2">
+    <row r="641" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B641" s="25"/>
     </row>
-    <row r="642" spans="2:2">
+    <row r="642" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B642" s="25"/>
     </row>
-    <row r="643" spans="2:2">
+    <row r="643" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B643" s="25"/>
     </row>
-    <row r="644" spans="2:2">
+    <row r="644" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B644" s="25"/>
     </row>
-    <row r="645" spans="2:2">
+    <row r="645" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B645" s="25"/>
     </row>
-    <row r="646" spans="2:2">
+    <row r="646" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B646" s="25"/>
     </row>
-    <row r="647" spans="2:2">
+    <row r="647" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B647" s="25"/>
     </row>
-    <row r="648" spans="2:2">
+    <row r="648" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B648" s="25"/>
     </row>
-    <row r="649" spans="2:2">
+    <row r="649" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B649" s="25"/>
     </row>
-    <row r="650" spans="2:2">
+    <row r="650" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B650" s="25"/>
     </row>
-    <row r="651" spans="2:2">
+    <row r="651" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B651" s="25"/>
     </row>
-    <row r="652" spans="2:2">
+    <row r="652" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B652" s="25"/>
     </row>
-    <row r="653" spans="2:2">
+    <row r="653" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B653" s="25"/>
     </row>
-    <row r="654" spans="2:2">
+    <row r="654" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B654" s="25"/>
     </row>
-    <row r="655" spans="2:2">
+    <row r="655" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B655" s="25"/>
     </row>
-    <row r="656" spans="2:2">
+    <row r="656" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B656" s="25"/>
     </row>
-    <row r="657" spans="2:2">
+    <row r="657" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B657" s="25"/>
     </row>
-    <row r="63289" spans="2:2">
+    <row r="63289" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63289" s="15"/>
     </row>
-    <row r="1028285" spans="2:2">
+    <row r="1028285" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1028285" s="16"/>
     </row>
-    <row r="1040329" spans="2:2">
+    <row r="1040329" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1040329" s="16"/>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\★※품질 자료※★\일일업무\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QC\Downloads\namdogeum-dashboard-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6F3255-7E3A-4CF6-9AAE-AD9CCDE2BF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70149AA-03F7-4980-8E43-631983B0A44C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7FBDE3CB-3BE6-4858-BD36-C283BF315A42}"/>
   </bookViews>
@@ -23,15 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -40,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="209">
   <si>
     <t>사출 불량 유형</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -751,6 +742,29 @@
   <si>
     <t>GARNISH-LWR-LH</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRKT-RR BEAM UPR MTG CTR  86632-BS000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSPE  COVER FR FOG BLANK,G L/RH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BRKT-RR BUMPER NO.2/3  86626/7-P1700   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PY BASE CONSOLE(태형)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COVER-SHELVES FR,LH/RH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#7627 Air Vent Chiclet</t>
   </si>
 </sst>
 </file>
@@ -761,7 +775,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1478,11 +1492,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BC34A0-7885-4B17-9A44-9155E3A920C9}">
   <dimension ref="B2:Q1040329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F458" sqref="F458"/>
+    <sheetView tabSelected="1" topLeftCell="A448" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B462" sqref="B462:P510"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.125" customWidth="1"/>
     <col min="2" max="2" width="11.125" style="17" bestFit="1" customWidth="1"/>
@@ -1496,7 +1510,7 @@
     <col min="16" max="16" width="8.25" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="31.5" customHeight="1">
       <c r="B2" s="46" t="s">
         <v>41</v>
       </c>
@@ -1517,7 +1531,7 @@
       <c r="O2" s="45"/>
       <c r="P2" s="45"/>
     </row>
-    <row r="3" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" s="1" customFormat="1">
       <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
@@ -1564,7 +1578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16">
       <c r="B4" s="14">
         <v>46048</v>
       </c>
@@ -1595,7 +1609,7 @@
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16">
       <c r="B5" s="14">
         <v>46048</v>
       </c>
@@ -1626,7 +1640,7 @@
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16">
       <c r="B6" s="14">
         <v>46048</v>
       </c>
@@ -1655,7 +1669,7 @@
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16">
       <c r="B7" s="14">
         <v>46048</v>
       </c>
@@ -1684,7 +1698,7 @@
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16">
       <c r="B8" s="14">
         <v>46048</v>
       </c>
@@ -1713,7 +1727,7 @@
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16">
       <c r="B9" s="14">
         <v>46048</v>
       </c>
@@ -1742,7 +1756,7 @@
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16">
       <c r="B10" s="14">
         <v>46048</v>
       </c>
@@ -1775,7 +1789,7 @@
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16">
       <c r="B11" s="14">
         <v>46048</v>
       </c>
@@ -1804,7 +1818,7 @@
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16">
       <c r="B12" s="14">
         <v>46048</v>
       </c>
@@ -1833,7 +1847,7 @@
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16">
       <c r="B13" s="14">
         <v>46048</v>
       </c>
@@ -1864,7 +1878,7 @@
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16">
       <c r="B14" s="14">
         <v>46048</v>
       </c>
@@ -1899,7 +1913,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16">
       <c r="B15" s="14">
         <v>46048</v>
       </c>
@@ -1932,7 +1946,7 @@
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16">
       <c r="B16" s="14">
         <v>46048</v>
       </c>
@@ -1961,7 +1975,7 @@
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16">
       <c r="B17" s="14">
         <v>46048</v>
       </c>
@@ -1990,7 +2004,7 @@
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16">
       <c r="B18" s="14">
         <v>46048</v>
       </c>
@@ -2021,7 +2035,7 @@
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16">
       <c r="B19" s="14">
         <v>46048</v>
       </c>
@@ -2050,7 +2064,7 @@
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16">
       <c r="B20" s="14">
         <v>46048</v>
       </c>
@@ -2079,7 +2093,7 @@
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16">
       <c r="B21" s="14">
         <v>46048</v>
       </c>
@@ -2108,7 +2122,7 @@
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16">
       <c r="B22" s="14">
         <v>46048</v>
       </c>
@@ -2137,7 +2151,7 @@
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16">
       <c r="B23" s="14">
         <v>46048</v>
       </c>
@@ -2168,7 +2182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16">
       <c r="B24" s="14">
         <v>46048</v>
       </c>
@@ -2201,7 +2215,7 @@
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16">
       <c r="B25" s="14">
         <v>46048</v>
       </c>
@@ -2232,7 +2246,7 @@
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16">
       <c r="B26" s="14">
         <v>46048</v>
       </c>
@@ -2263,7 +2277,7 @@
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16">
       <c r="B27" s="14">
         <v>46048</v>
       </c>
@@ -2294,7 +2308,7 @@
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16">
       <c r="B28" s="14">
         <v>46048</v>
       </c>
@@ -2323,7 +2337,7 @@
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16">
       <c r="B29" s="14">
         <v>46049</v>
       </c>
@@ -2350,7 +2364,7 @@
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16">
       <c r="B30" s="14">
         <v>46049</v>
       </c>
@@ -2377,7 +2391,7 @@
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16">
       <c r="B31" s="14">
         <v>46049</v>
       </c>
@@ -2404,7 +2418,7 @@
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16">
       <c r="B32" s="14">
         <v>46049</v>
       </c>
@@ -2433,7 +2447,7 @@
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16">
       <c r="B33" s="14">
         <v>46049</v>
       </c>
@@ -2464,7 +2478,7 @@
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16">
       <c r="B34" s="14">
         <v>46049</v>
       </c>
@@ -2493,7 +2507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:16">
       <c r="B35" s="14">
         <v>46049</v>
       </c>
@@ -2524,7 +2538,7 @@
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:16">
       <c r="B36" s="14">
         <v>46049</v>
       </c>
@@ -2551,7 +2565,7 @@
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16">
       <c r="B37" s="14">
         <v>46049</v>
       </c>
@@ -2580,7 +2594,7 @@
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16">
       <c r="B38" s="14">
         <v>46049</v>
       </c>
@@ -2609,7 +2623,7 @@
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16">
       <c r="B39" s="14">
         <v>46049</v>
       </c>
@@ -2638,7 +2652,7 @@
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:16">
       <c r="B40" s="14">
         <v>46049</v>
       </c>
@@ -2669,7 +2683,7 @@
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:16">
       <c r="B41" s="14">
         <v>46049</v>
       </c>
@@ -2698,7 +2712,7 @@
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16">
       <c r="B42" s="14">
         <v>46049</v>
       </c>
@@ -2725,7 +2739,7 @@
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16">
       <c r="B43" s="14">
         <v>46049</v>
       </c>
@@ -2756,7 +2770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16">
       <c r="B44" s="14">
         <v>46049</v>
       </c>
@@ -2785,7 +2799,7 @@
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16">
       <c r="B45" s="14">
         <v>46049</v>
       </c>
@@ -2814,7 +2828,7 @@
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16">
       <c r="B46" s="14">
         <v>46049</v>
       </c>
@@ -2841,7 +2855,7 @@
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16">
       <c r="B47" s="14">
         <v>46049</v>
       </c>
@@ -2868,7 +2882,7 @@
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16">
       <c r="B48" s="14">
         <v>46049</v>
       </c>
@@ -2897,7 +2911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:16">
       <c r="B49" s="14">
         <v>46049</v>
       </c>
@@ -2926,7 +2940,7 @@
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:16">
       <c r="B50" s="14">
         <v>46049</v>
       </c>
@@ -2953,7 +2967,7 @@
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:16">
       <c r="B51" s="14">
         <v>46049</v>
       </c>
@@ -2980,7 +2994,7 @@
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:16">
       <c r="B52" s="14">
         <v>46049</v>
       </c>
@@ -3011,7 +3025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:16">
       <c r="B53" s="14">
         <v>46049</v>
       </c>
@@ -3038,7 +3052,7 @@
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:16">
       <c r="B54" s="14">
         <v>46049</v>
       </c>
@@ -3065,7 +3079,7 @@
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:16">
       <c r="B55" s="14">
         <v>46050</v>
       </c>
@@ -3096,7 +3110,7 @@
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:16">
       <c r="B56" s="14">
         <v>46050</v>
       </c>
@@ -3125,7 +3139,7 @@
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:16">
       <c r="B57" s="14">
         <v>46050</v>
       </c>
@@ -3152,7 +3166,7 @@
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:16">
       <c r="B58" s="14">
         <v>46050</v>
       </c>
@@ -3183,7 +3197,7 @@
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:16">
       <c r="B59" s="14">
         <v>46050</v>
       </c>
@@ -3212,7 +3226,7 @@
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:16">
       <c r="B60" s="14">
         <v>46050</v>
       </c>
@@ -3241,7 +3255,7 @@
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:16">
       <c r="B61" s="14">
         <v>46050</v>
       </c>
@@ -3270,7 +3284,7 @@
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:16">
       <c r="B62" s="14">
         <v>46050</v>
       </c>
@@ -3299,7 +3313,7 @@
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:16">
       <c r="B63" s="14">
         <v>46050</v>
       </c>
@@ -3332,7 +3346,7 @@
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:16">
       <c r="B64" s="14">
         <v>46050</v>
       </c>
@@ -3359,7 +3373,7 @@
       <c r="O64" s="11"/>
       <c r="P64" s="11"/>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:16">
       <c r="B65" s="14">
         <v>46050</v>
       </c>
@@ -3388,7 +3402,7 @@
       <c r="O65" s="11"/>
       <c r="P65" s="11"/>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:16">
       <c r="B66" s="14">
         <v>46050</v>
       </c>
@@ -3415,7 +3429,7 @@
       <c r="O66" s="11"/>
       <c r="P66" s="11"/>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16">
       <c r="B67" s="14">
         <v>46050</v>
       </c>
@@ -3444,7 +3458,7 @@
       <c r="O67" s="11"/>
       <c r="P67" s="11"/>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:16">
       <c r="B68" s="14">
         <v>46050</v>
       </c>
@@ -3471,7 +3485,7 @@
       <c r="O68" s="11"/>
       <c r="P68" s="11"/>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:16">
       <c r="B69" s="14">
         <v>46050</v>
       </c>
@@ -3500,7 +3514,7 @@
       <c r="O69" s="11"/>
       <c r="P69" s="11"/>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:16">
       <c r="B70" s="14">
         <v>46050</v>
       </c>
@@ -3527,7 +3541,7 @@
       <c r="O70" s="11"/>
       <c r="P70" s="11"/>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:16">
       <c r="B71" s="14">
         <v>46050</v>
       </c>
@@ -3554,7 +3568,7 @@
       <c r="O71" s="11"/>
       <c r="P71" s="11"/>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:16">
       <c r="B72" s="14">
         <v>46050</v>
       </c>
@@ -3581,7 +3595,7 @@
       <c r="O72" s="11"/>
       <c r="P72" s="11"/>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16">
       <c r="B73" s="14">
         <v>46050</v>
       </c>
@@ -3610,7 +3624,7 @@
       <c r="O73" s="11"/>
       <c r="P73" s="11"/>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:16">
       <c r="B74" s="14">
         <v>46050</v>
       </c>
@@ -3639,7 +3653,7 @@
       <c r="O74" s="11"/>
       <c r="P74" s="11"/>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:16">
       <c r="B75" s="14">
         <v>46050</v>
       </c>
@@ -3666,7 +3680,7 @@
       <c r="O75" s="11"/>
       <c r="P75" s="11"/>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:16">
       <c r="B76" s="14">
         <v>46050</v>
       </c>
@@ -3695,7 +3709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16">
       <c r="B77" s="14">
         <v>46050</v>
       </c>
@@ -3722,7 +3736,7 @@
       <c r="O77" s="11"/>
       <c r="P77" s="11"/>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:16">
       <c r="B78" s="14">
         <v>46051</v>
       </c>
@@ -3753,7 +3767,7 @@
       <c r="O78" s="11"/>
       <c r="P78" s="11"/>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:16">
       <c r="B79" s="14">
         <v>46051</v>
       </c>
@@ -3782,7 +3796,7 @@
       <c r="O79" s="11"/>
       <c r="P79" s="11"/>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16">
       <c r="B80" s="14">
         <v>46051</v>
       </c>
@@ -3809,7 +3823,7 @@
       <c r="O80" s="11"/>
       <c r="P80" s="11"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:16">
       <c r="B81" s="14">
         <v>46051</v>
       </c>
@@ -3840,7 +3854,7 @@
       <c r="O81" s="11"/>
       <c r="P81" s="11"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:16">
       <c r="B82" s="14">
         <v>46051</v>
       </c>
@@ -3869,7 +3883,7 @@
       <c r="O82" s="11"/>
       <c r="P82" s="11"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:16">
       <c r="B83" s="14">
         <v>46051</v>
       </c>
@@ -3898,7 +3912,7 @@
       <c r="O83" s="11"/>
       <c r="P83" s="11"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:16">
       <c r="B84" s="14">
         <v>46051</v>
       </c>
@@ -3927,7 +3941,7 @@
       <c r="O84" s="11"/>
       <c r="P84" s="11"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:16">
       <c r="B85" s="14">
         <v>46051</v>
       </c>
@@ -3956,7 +3970,7 @@
       <c r="O85" s="11"/>
       <c r="P85" s="11"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:16">
       <c r="B86" s="14">
         <v>46051</v>
       </c>
@@ -3989,7 +4003,7 @@
       <c r="O86" s="11"/>
       <c r="P86" s="11"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:16">
       <c r="B87" s="14">
         <v>46051</v>
       </c>
@@ -4016,7 +4030,7 @@
       <c r="O87" s="11"/>
       <c r="P87" s="11"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:16">
       <c r="B88" s="14">
         <v>46051</v>
       </c>
@@ -4045,7 +4059,7 @@
       <c r="O88" s="11"/>
       <c r="P88" s="11"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:16">
       <c r="B89" s="14">
         <v>46051</v>
       </c>
@@ -4072,7 +4086,7 @@
       <c r="O89" s="11"/>
       <c r="P89" s="11"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:16">
       <c r="B90" s="14">
         <v>46051</v>
       </c>
@@ -4101,7 +4115,7 @@
       <c r="O90" s="11"/>
       <c r="P90" s="11"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:16">
       <c r="B91" s="14">
         <v>46051</v>
       </c>
@@ -4128,7 +4142,7 @@
       <c r="O91" s="11"/>
       <c r="P91" s="11"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:16">
       <c r="B92" s="14">
         <v>46051</v>
       </c>
@@ -4157,7 +4171,7 @@
       <c r="O92" s="11"/>
       <c r="P92" s="11"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:16">
       <c r="B93" s="14">
         <v>46051</v>
       </c>
@@ -4184,7 +4198,7 @@
       <c r="O93" s="11"/>
       <c r="P93" s="11"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:16">
       <c r="B94" s="14">
         <v>46051</v>
       </c>
@@ -4211,7 +4225,7 @@
       <c r="O94" s="11"/>
       <c r="P94" s="11"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:16">
       <c r="B95" s="14">
         <v>46051</v>
       </c>
@@ -4238,7 +4252,7 @@
       <c r="O95" s="11"/>
       <c r="P95" s="11"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:16">
       <c r="B96" s="14">
         <v>46051</v>
       </c>
@@ -4267,7 +4281,7 @@
       <c r="O96" s="11"/>
       <c r="P96" s="11"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:16">
       <c r="B97" s="14">
         <v>46051</v>
       </c>
@@ -4296,7 +4310,7 @@
       <c r="O97" s="11"/>
       <c r="P97" s="11"/>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:16">
       <c r="B98" s="14">
         <v>46051</v>
       </c>
@@ -4323,7 +4337,7 @@
       <c r="O98" s="11"/>
       <c r="P98" s="11"/>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:16">
       <c r="B99" s="14">
         <v>46051</v>
       </c>
@@ -4352,7 +4366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:16">
       <c r="B100" s="14">
         <v>46051</v>
       </c>
@@ -4379,7 +4393,7 @@
       <c r="O100" s="11"/>
       <c r="P100" s="11"/>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:16">
       <c r="B101" s="14">
         <v>46052</v>
       </c>
@@ -4408,7 +4422,7 @@
       <c r="O101" s="11"/>
       <c r="P101" s="11"/>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:16">
       <c r="B102" s="14">
         <v>46052</v>
       </c>
@@ -4439,7 +4453,7 @@
       <c r="O102" s="11"/>
       <c r="P102" s="11"/>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:16">
       <c r="B103" s="14">
         <v>46052</v>
       </c>
@@ -4468,7 +4482,7 @@
       <c r="O103" s="11"/>
       <c r="P103" s="11"/>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:16">
       <c r="B104" s="14">
         <v>46052</v>
       </c>
@@ -4497,7 +4511,7 @@
       <c r="O104" s="11"/>
       <c r="P104" s="11"/>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:16">
       <c r="B105" s="14">
         <v>46052</v>
       </c>
@@ -4528,7 +4542,7 @@
       <c r="O105" s="11"/>
       <c r="P105" s="11"/>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:16">
       <c r="B106" s="14">
         <v>46052</v>
       </c>
@@ -4559,7 +4573,7 @@
       <c r="O106" s="11"/>
       <c r="P106" s="11"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:16">
       <c r="B107" s="14">
         <v>46052</v>
       </c>
@@ -4590,7 +4604,7 @@
       <c r="O107" s="11"/>
       <c r="P107" s="11"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:16">
       <c r="B108" s="14">
         <v>46052</v>
       </c>
@@ -4619,7 +4633,7 @@
       <c r="O108" s="11"/>
       <c r="P108" s="11"/>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:16">
       <c r="B109" s="14">
         <v>46052</v>
       </c>
@@ -4648,7 +4662,7 @@
       <c r="O109" s="11"/>
       <c r="P109" s="11"/>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:16">
       <c r="B110" s="14">
         <v>46052</v>
       </c>
@@ -4677,7 +4691,7 @@
       <c r="O110" s="11"/>
       <c r="P110" s="11"/>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:16">
       <c r="B111" s="14">
         <v>46052</v>
       </c>
@@ -4704,7 +4718,7 @@
       <c r="O111" s="11"/>
       <c r="P111" s="11"/>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:16">
       <c r="B112" s="14">
         <v>46052</v>
       </c>
@@ -4731,7 +4745,7 @@
       <c r="O112" s="11"/>
       <c r="P112" s="11"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:16">
       <c r="B113" s="14">
         <v>46052</v>
       </c>
@@ -4760,7 +4774,7 @@
       <c r="O113" s="11"/>
       <c r="P113" s="11"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:16">
       <c r="B114" s="14">
         <v>46052</v>
       </c>
@@ -4787,7 +4801,7 @@
       <c r="O114" s="11"/>
       <c r="P114" s="11"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:16">
       <c r="B115" s="14">
         <v>46052</v>
       </c>
@@ -4814,7 +4828,7 @@
       <c r="O115" s="11"/>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:16">
       <c r="B116" s="14">
         <v>46052</v>
       </c>
@@ -4841,7 +4855,7 @@
       <c r="O116" s="11"/>
       <c r="P116" s="11"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:16">
       <c r="B117" s="14">
         <v>46052</v>
       </c>
@@ -4868,7 +4882,7 @@
       <c r="O117" s="11"/>
       <c r="P117" s="11"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:16">
       <c r="B118" s="14">
         <v>46052</v>
       </c>
@@ -4897,7 +4911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:16">
       <c r="B119" s="14">
         <v>46052</v>
       </c>
@@ -4924,7 +4938,7 @@
       <c r="O119" s="11"/>
       <c r="P119" s="11"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:16">
       <c r="B120" s="14">
         <v>46052</v>
       </c>
@@ -4951,7 +4965,7 @@
       <c r="O120" s="11"/>
       <c r="P120" s="11"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:16">
       <c r="B121" s="14">
         <v>46052</v>
       </c>
@@ -4978,7 +4992,7 @@
       <c r="O121" s="11"/>
       <c r="P121" s="11"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:16">
       <c r="B122" s="14">
         <v>46052</v>
       </c>
@@ -5005,7 +5019,7 @@
       <c r="O122" s="11"/>
       <c r="P122" s="11"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:16">
       <c r="B123" s="14">
         <v>46052</v>
       </c>
@@ -5032,7 +5046,7 @@
       <c r="O123" s="11"/>
       <c r="P123" s="11"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:16">
       <c r="B124" s="14">
         <v>46052</v>
       </c>
@@ -5059,7 +5073,7 @@
       <c r="O124" s="11"/>
       <c r="P124" s="11"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:16">
       <c r="B125" s="14">
         <v>46052</v>
       </c>
@@ -5088,7 +5102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:16">
       <c r="B126" s="14">
         <v>46052</v>
       </c>
@@ -5119,7 +5133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:16">
       <c r="B127" s="14">
         <v>46052</v>
       </c>
@@ -5148,7 +5162,7 @@
       <c r="O127" s="11"/>
       <c r="P127" s="11"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:16">
       <c r="B128" s="14">
         <v>46052</v>
       </c>
@@ -5177,7 +5191,7 @@
       <c r="O128" s="11"/>
       <c r="P128" s="11"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:16">
       <c r="B129" s="14">
         <v>46052</v>
       </c>
@@ -5206,7 +5220,7 @@
       <c r="O129" s="11"/>
       <c r="P129" s="11"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:16">
       <c r="B130" s="14">
         <v>46052</v>
       </c>
@@ -5233,7 +5247,7 @@
       <c r="O130" s="11"/>
       <c r="P130" s="11"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:16">
       <c r="B131" s="14">
         <v>46052</v>
       </c>
@@ -5262,7 +5276,7 @@
       <c r="O131" s="11"/>
       <c r="P131" s="11"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:16">
       <c r="B132" s="14">
         <v>46052</v>
       </c>
@@ -5293,7 +5307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:16">
       <c r="B133" s="14">
         <v>46053</v>
       </c>
@@ -5322,7 +5336,7 @@
       <c r="O133" s="11"/>
       <c r="P133" s="11"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:16">
       <c r="B134" s="14">
         <v>46053</v>
       </c>
@@ -5351,7 +5365,7 @@
       <c r="O134" s="11"/>
       <c r="P134" s="11"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:16">
       <c r="B135" s="14">
         <v>46053</v>
       </c>
@@ -5380,7 +5394,7 @@
       <c r="O135" s="11"/>
       <c r="P135" s="11"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:16">
       <c r="B136" s="14">
         <v>46053</v>
       </c>
@@ -5409,7 +5423,7 @@
       <c r="O136" s="11"/>
       <c r="P136" s="11"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:16">
       <c r="B137" s="14">
         <v>46053</v>
       </c>
@@ -5440,7 +5454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:16">
       <c r="B138" s="14">
         <v>46053</v>
       </c>
@@ -5467,7 +5481,7 @@
       <c r="O138" s="11"/>
       <c r="P138" s="11"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:16">
       <c r="B139" s="14">
         <v>46053</v>
       </c>
@@ -5498,7 +5512,7 @@
       <c r="O139" s="11"/>
       <c r="P139" s="11"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:16">
       <c r="B140" s="14">
         <v>46053</v>
       </c>
@@ -5527,7 +5541,7 @@
       <c r="O140" s="11"/>
       <c r="P140" s="11"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:16">
       <c r="B141" s="14">
         <v>46053</v>
       </c>
@@ -5556,7 +5570,7 @@
       <c r="O141" s="11"/>
       <c r="P141" s="11"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:16">
       <c r="B142" s="14">
         <v>46053</v>
       </c>
@@ -5585,7 +5599,7 @@
       <c r="O142" s="11"/>
       <c r="P142" s="11"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:16">
       <c r="B143" s="14">
         <v>46053</v>
       </c>
@@ -5614,7 +5628,7 @@
       <c r="O143" s="11"/>
       <c r="P143" s="11"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:16">
       <c r="B144" s="14">
         <v>46053</v>
       </c>
@@ -5645,7 +5659,7 @@
       <c r="O144" s="11"/>
       <c r="P144" s="11"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:16">
       <c r="B145" s="14">
         <v>46053</v>
       </c>
@@ -5674,7 +5688,7 @@
       <c r="O145" s="11"/>
       <c r="P145" s="11"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:16">
       <c r="B146" s="14">
         <v>46053</v>
       </c>
@@ -5703,7 +5717,7 @@
       <c r="O146" s="11"/>
       <c r="P146" s="11"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:16">
       <c r="B147" s="14">
         <v>46053</v>
       </c>
@@ -5730,7 +5744,7 @@
       <c r="O147" s="11"/>
       <c r="P147" s="11"/>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:16">
       <c r="B148" s="14">
         <v>46053</v>
       </c>
@@ -5759,7 +5773,7 @@
       <c r="O148" s="11"/>
       <c r="P148" s="11"/>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:16">
       <c r="B149" s="14">
         <v>46053</v>
       </c>
@@ -5786,7 +5800,7 @@
       <c r="O149" s="11"/>
       <c r="P149" s="11"/>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:16">
       <c r="B150" s="14">
         <v>46053</v>
       </c>
@@ -5815,7 +5829,7 @@
       <c r="O150" s="11"/>
       <c r="P150" s="11"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:16">
       <c r="B151" s="14">
         <v>46053</v>
       </c>
@@ -5842,7 +5856,7 @@
       <c r="O151" s="11"/>
       <c r="P151" s="11"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:16">
       <c r="B152" s="14">
         <v>46053</v>
       </c>
@@ -5869,7 +5883,7 @@
       <c r="O152" s="11"/>
       <c r="P152" s="11"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:16">
       <c r="B153" s="14">
         <v>46053</v>
       </c>
@@ -5898,7 +5912,7 @@
       <c r="O153" s="11"/>
       <c r="P153" s="11"/>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:16">
       <c r="B154" s="14">
         <v>46053</v>
       </c>
@@ -5927,7 +5941,7 @@
       <c r="O154" s="11"/>
       <c r="P154" s="11"/>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:16">
       <c r="B155" s="14">
         <v>46053</v>
       </c>
@@ -5954,7 +5968,7 @@
       <c r="O155" s="11"/>
       <c r="P155" s="11"/>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:16">
       <c r="B156" s="14">
         <v>46053</v>
       </c>
@@ -5983,7 +5997,7 @@
       <c r="O156" s="11"/>
       <c r="P156" s="11"/>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:16">
       <c r="B157" s="14">
         <v>46053</v>
       </c>
@@ -6016,7 +6030,7 @@
       <c r="O157" s="11"/>
       <c r="P157" s="11"/>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:16">
       <c r="B158" s="14">
         <v>46053</v>
       </c>
@@ -6045,7 +6059,7 @@
       <c r="O158" s="11"/>
       <c r="P158" s="11"/>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:16">
       <c r="B159" s="14">
         <v>46053</v>
       </c>
@@ -6074,7 +6088,7 @@
       <c r="O159" s="11"/>
       <c r="P159" s="11"/>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:16">
       <c r="B160" s="14">
         <v>46053</v>
       </c>
@@ -6103,7 +6117,7 @@
       <c r="O160" s="11"/>
       <c r="P160" s="11"/>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:16">
       <c r="B161" s="14">
         <v>46053</v>
       </c>
@@ -6130,7 +6144,7 @@
       <c r="O161" s="11"/>
       <c r="P161" s="11"/>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:16">
       <c r="B162" s="14">
         <v>46053</v>
       </c>
@@ -6159,7 +6173,7 @@
       <c r="O162" s="11"/>
       <c r="P162" s="11"/>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:16">
       <c r="B163" s="14">
         <v>46055</v>
       </c>
@@ -6190,7 +6204,7 @@
       <c r="O163" s="19"/>
       <c r="P163" s="20"/>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:16">
       <c r="B164" s="14">
         <v>46055</v>
       </c>
@@ -6221,7 +6235,7 @@
       <c r="O164" s="19"/>
       <c r="P164" s="19"/>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:16">
       <c r="B165" s="14">
         <v>46055</v>
       </c>
@@ -6250,7 +6264,7 @@
       <c r="O165" s="19"/>
       <c r="P165" s="19"/>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:16">
       <c r="B166" s="14">
         <v>46055</v>
       </c>
@@ -6279,7 +6293,7 @@
       <c r="O166" s="19"/>
       <c r="P166" s="19"/>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:16">
       <c r="B167" s="14">
         <v>46055</v>
       </c>
@@ -6308,7 +6322,7 @@
       <c r="O167" s="19"/>
       <c r="P167" s="19"/>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:16">
       <c r="B168" s="14">
         <v>46055</v>
       </c>
@@ -6337,7 +6351,7 @@
       <c r="O168" s="19"/>
       <c r="P168" s="19"/>
     </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:16">
       <c r="B169" s="14">
         <v>46055</v>
       </c>
@@ -6370,7 +6384,7 @@
       <c r="O169" s="19"/>
       <c r="P169" s="19"/>
     </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:16">
       <c r="B170" s="14">
         <v>46055</v>
       </c>
@@ -6399,7 +6413,7 @@
       <c r="O170" s="19"/>
       <c r="P170" s="19"/>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:16">
       <c r="B171" s="14">
         <v>46055</v>
       </c>
@@ -6428,7 +6442,7 @@
       <c r="O171" s="19"/>
       <c r="P171" s="19"/>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:16">
       <c r="B172" s="14">
         <v>46055</v>
       </c>
@@ -6459,7 +6473,7 @@
       <c r="O172" s="19"/>
       <c r="P172" s="19"/>
     </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:16">
       <c r="B173" s="14">
         <v>46055</v>
       </c>
@@ -6494,7 +6508,7 @@
       <c r="O173" s="19"/>
       <c r="P173" s="19"/>
     </row>
-    <row r="174" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:16">
       <c r="B174" s="14">
         <v>46055</v>
       </c>
@@ -6527,7 +6541,7 @@
       <c r="O174" s="19"/>
       <c r="P174" s="19"/>
     </row>
-    <row r="175" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:16">
       <c r="B175" s="14">
         <v>46055</v>
       </c>
@@ -6556,7 +6570,7 @@
       <c r="O175" s="19"/>
       <c r="P175" s="19"/>
     </row>
-    <row r="176" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:16">
       <c r="B176" s="14">
         <v>46055</v>
       </c>
@@ -6585,7 +6599,7 @@
       <c r="O176" s="19"/>
       <c r="P176" s="19"/>
     </row>
-    <row r="177" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:16">
       <c r="B177" s="14">
         <v>46055</v>
       </c>
@@ -6616,7 +6630,7 @@
       <c r="O177" s="19"/>
       <c r="P177" s="19"/>
     </row>
-    <row r="178" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:16">
       <c r="B178" s="14">
         <v>46055</v>
       </c>
@@ -6645,7 +6659,7 @@
       <c r="O178" s="19"/>
       <c r="P178" s="19"/>
     </row>
-    <row r="179" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:16">
       <c r="B179" s="14">
         <v>46055</v>
       </c>
@@ -6674,7 +6688,7 @@
       <c r="O179" s="19"/>
       <c r="P179" s="19"/>
     </row>
-    <row r="180" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:16">
       <c r="B180" s="14">
         <v>46055</v>
       </c>
@@ -6703,7 +6717,7 @@
       <c r="O180" s="19"/>
       <c r="P180" s="19"/>
     </row>
-    <row r="181" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:16">
       <c r="B181" s="14">
         <v>46055</v>
       </c>
@@ -6732,7 +6746,7 @@
       <c r="O181" s="19"/>
       <c r="P181" s="19"/>
     </row>
-    <row r="182" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:16">
       <c r="B182" s="14">
         <v>46055</v>
       </c>
@@ -6763,7 +6777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:16">
       <c r="B183" s="14">
         <v>46055</v>
       </c>
@@ -6796,7 +6810,7 @@
       <c r="O183" s="19"/>
       <c r="P183" s="19"/>
     </row>
-    <row r="184" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:16">
       <c r="B184" s="14">
         <v>46055</v>
       </c>
@@ -6827,7 +6841,7 @@
       <c r="O184" s="19"/>
       <c r="P184" s="19"/>
     </row>
-    <row r="185" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:16">
       <c r="B185" s="14">
         <v>46055</v>
       </c>
@@ -6858,7 +6872,7 @@
       <c r="O185" s="19"/>
       <c r="P185" s="19"/>
     </row>
-    <row r="186" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:16">
       <c r="B186" s="14">
         <v>46055</v>
       </c>
@@ -6889,7 +6903,7 @@
       <c r="O186" s="19"/>
       <c r="P186" s="19"/>
     </row>
-    <row r="187" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:16">
       <c r="B187" s="14">
         <v>46055</v>
       </c>
@@ -6918,7 +6932,7 @@
       <c r="O187" s="19"/>
       <c r="P187" s="19"/>
     </row>
-    <row r="188" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:16">
       <c r="B188" s="14">
         <v>46056</v>
       </c>
@@ -6949,7 +6963,7 @@
       <c r="O188" s="19"/>
       <c r="P188" s="20"/>
     </row>
-    <row r="189" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:16">
       <c r="B189" s="14">
         <v>46056</v>
       </c>
@@ -6980,7 +6994,7 @@
       <c r="O189" s="19"/>
       <c r="P189" s="19"/>
     </row>
-    <row r="190" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:16">
       <c r="B190" s="14">
         <v>46056</v>
       </c>
@@ -7009,7 +7023,7 @@
       <c r="O190" s="19"/>
       <c r="P190" s="19"/>
     </row>
-    <row r="191" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:16">
       <c r="B191" s="14">
         <v>46056</v>
       </c>
@@ -7040,7 +7054,7 @@
       <c r="O191" s="19"/>
       <c r="P191" s="19"/>
     </row>
-    <row r="192" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:16">
       <c r="B192" s="14">
         <v>46056</v>
       </c>
@@ -7071,7 +7085,7 @@
       <c r="O192" s="19"/>
       <c r="P192" s="19"/>
     </row>
-    <row r="193" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:16">
       <c r="B193" s="14">
         <v>46056</v>
       </c>
@@ -7102,7 +7116,7 @@
       <c r="O193" s="19"/>
       <c r="P193" s="19"/>
     </row>
-    <row r="194" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:16">
       <c r="B194" s="14">
         <v>46056</v>
       </c>
@@ -7131,7 +7145,7 @@
       <c r="O194" s="19"/>
       <c r="P194" s="19"/>
     </row>
-    <row r="195" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:16">
       <c r="B195" s="14">
         <v>46056</v>
       </c>
@@ -7160,7 +7174,7 @@
       <c r="O195" s="19"/>
       <c r="P195" s="19"/>
     </row>
-    <row r="196" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:16">
       <c r="B196" s="14">
         <v>46056</v>
       </c>
@@ -7189,7 +7203,7 @@
       <c r="O196" s="19"/>
       <c r="P196" s="19"/>
     </row>
-    <row r="197" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:16">
       <c r="B197" s="14">
         <v>46056</v>
       </c>
@@ -7224,7 +7238,7 @@
       <c r="O197" s="19"/>
       <c r="P197" s="19"/>
     </row>
-    <row r="198" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:16">
       <c r="B198" s="14">
         <v>46056</v>
       </c>
@@ -7257,7 +7271,7 @@
       <c r="O198" s="19"/>
       <c r="P198" s="19"/>
     </row>
-    <row r="199" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:16">
       <c r="B199" s="14">
         <v>46056</v>
       </c>
@@ -7290,7 +7304,7 @@
       <c r="O199" s="19"/>
       <c r="P199" s="19"/>
     </row>
-    <row r="200" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:16">
       <c r="B200" s="14">
         <v>46056</v>
       </c>
@@ -7319,7 +7333,7 @@
       <c r="O200" s="19"/>
       <c r="P200" s="19"/>
     </row>
-    <row r="201" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:16">
       <c r="B201" s="14">
         <v>46056</v>
       </c>
@@ -7350,7 +7364,7 @@
       <c r="O201" s="19"/>
       <c r="P201" s="19"/>
     </row>
-    <row r="202" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:16">
       <c r="B202" s="14">
         <v>46056</v>
       </c>
@@ -7379,7 +7393,7 @@
       <c r="O202" s="19"/>
       <c r="P202" s="19"/>
     </row>
-    <row r="203" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:16">
       <c r="B203" s="14">
         <v>46056</v>
       </c>
@@ -7408,7 +7422,7 @@
       <c r="O203" s="19"/>
       <c r="P203" s="19"/>
     </row>
-    <row r="204" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:16">
       <c r="B204" s="14">
         <v>46056</v>
       </c>
@@ -7437,7 +7451,7 @@
       <c r="O204" s="19"/>
       <c r="P204" s="19"/>
     </row>
-    <row r="205" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:16">
       <c r="B205" s="14">
         <v>46056</v>
       </c>
@@ -7470,7 +7484,7 @@
       <c r="O205" s="19"/>
       <c r="P205" s="19"/>
     </row>
-    <row r="206" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:16">
       <c r="B206" s="14">
         <v>46056</v>
       </c>
@@ -7503,7 +7517,7 @@
       <c r="O206" s="19"/>
       <c r="P206" s="19"/>
     </row>
-    <row r="207" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:16">
       <c r="B207" s="14">
         <v>46056</v>
       </c>
@@ -7534,7 +7548,7 @@
       <c r="O207" s="19"/>
       <c r="P207" s="19"/>
     </row>
-    <row r="208" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:16">
       <c r="B208" s="14">
         <v>46056</v>
       </c>
@@ -7565,7 +7579,7 @@
       <c r="O208" s="19"/>
       <c r="P208" s="19"/>
     </row>
-    <row r="209" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:17">
       <c r="B209" s="14">
         <v>46057</v>
       </c>
@@ -7595,7 +7609,7 @@
       <c r="P209" s="19"/>
       <c r="Q209" s="18"/>
     </row>
-    <row r="210" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:17">
       <c r="B210" s="14">
         <v>46057</v>
       </c>
@@ -7625,7 +7639,7 @@
       <c r="P210" s="19"/>
       <c r="Q210" s="18"/>
     </row>
-    <row r="211" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:17">
       <c r="B211" s="14">
         <v>46057</v>
       </c>
@@ -7655,7 +7669,7 @@
       <c r="P211" s="19"/>
       <c r="Q211" s="18"/>
     </row>
-    <row r="212" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:17">
       <c r="B212" s="14">
         <v>46057</v>
       </c>
@@ -7683,7 +7697,7 @@
       <c r="P212" s="19"/>
       <c r="Q212" s="18"/>
     </row>
-    <row r="213" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:17">
       <c r="B213" s="14">
         <v>46057</v>
       </c>
@@ -7711,7 +7725,7 @@
       <c r="P213" s="19"/>
       <c r="Q213" s="18"/>
     </row>
-    <row r="214" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:17">
       <c r="B214" s="14">
         <v>46057</v>
       </c>
@@ -7743,7 +7757,7 @@
       <c r="P214" s="19"/>
       <c r="Q214" s="18"/>
     </row>
-    <row r="215" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:17">
       <c r="B215" s="14">
         <v>46057</v>
       </c>
@@ -7775,7 +7789,7 @@
       <c r="P215" s="19"/>
       <c r="Q215" s="18"/>
     </row>
-    <row r="216" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:17">
       <c r="B216" s="14">
         <v>46057</v>
       </c>
@@ -7805,7 +7819,7 @@
       <c r="P216" s="19"/>
       <c r="Q216" s="18"/>
     </row>
-    <row r="217" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:17">
       <c r="B217" s="14">
         <v>46057</v>
       </c>
@@ -7833,7 +7847,7 @@
       <c r="P217" s="19"/>
       <c r="Q217" s="18"/>
     </row>
-    <row r="218" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:17">
       <c r="B218" s="14">
         <v>46057</v>
       </c>
@@ -7863,7 +7877,7 @@
       <c r="P218" s="19"/>
       <c r="Q218" s="18"/>
     </row>
-    <row r="219" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:17">
       <c r="B219" s="14">
         <v>46057</v>
       </c>
@@ -7893,7 +7907,7 @@
       <c r="P219" s="19"/>
       <c r="Q219" s="18"/>
     </row>
-    <row r="220" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:17">
       <c r="B220" s="14">
         <v>46057</v>
       </c>
@@ -7921,7 +7935,7 @@
       <c r="P220" s="19"/>
       <c r="Q220" s="18"/>
     </row>
-    <row r="221" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:17">
       <c r="B221" s="14">
         <v>46057</v>
       </c>
@@ -7951,7 +7965,7 @@
       <c r="P221" s="19"/>
       <c r="Q221" s="18"/>
     </row>
-    <row r="222" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:17">
       <c r="B222" s="14">
         <v>46057</v>
       </c>
@@ -7981,7 +7995,7 @@
       <c r="P222" s="19"/>
       <c r="Q222" s="18"/>
     </row>
-    <row r="223" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:17">
       <c r="B223" s="14">
         <v>46057</v>
       </c>
@@ -8009,7 +8023,7 @@
       <c r="P223" s="19"/>
       <c r="Q223" s="18"/>
     </row>
-    <row r="224" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:17">
       <c r="B224" s="14">
         <v>46057</v>
       </c>
@@ -8037,7 +8051,7 @@
       <c r="P224" s="19"/>
       <c r="Q224" s="18"/>
     </row>
-    <row r="225" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:17">
       <c r="B225" s="14">
         <v>46057</v>
       </c>
@@ -8065,7 +8079,7 @@
       <c r="P225" s="19"/>
       <c r="Q225" s="18"/>
     </row>
-    <row r="226" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:17">
       <c r="B226" s="14">
         <v>46057</v>
       </c>
@@ -8093,7 +8107,7 @@
       <c r="P226" s="19"/>
       <c r="Q226" s="18"/>
     </row>
-    <row r="227" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:17">
       <c r="B227" s="14">
         <v>46057</v>
       </c>
@@ -8121,7 +8135,7 @@
       <c r="P227" s="19"/>
       <c r="Q227" s="18"/>
     </row>
-    <row r="228" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:17">
       <c r="B228" s="14">
         <v>46057</v>
       </c>
@@ -8149,7 +8163,7 @@
       <c r="P228" s="19"/>
       <c r="Q228" s="18"/>
     </row>
-    <row r="229" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:17">
       <c r="B229" s="14">
         <v>46057</v>
       </c>
@@ -8177,7 +8191,7 @@
       <c r="P229" s="19"/>
       <c r="Q229" s="18"/>
     </row>
-    <row r="230" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:17">
       <c r="B230" s="14">
         <v>46057</v>
       </c>
@@ -8207,7 +8221,7 @@
       </c>
       <c r="Q230" s="18"/>
     </row>
-    <row r="231" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:17">
       <c r="B231" s="14">
         <v>46057</v>
       </c>
@@ -8237,7 +8251,7 @@
       <c r="P231" s="19"/>
       <c r="Q231" s="18"/>
     </row>
-    <row r="232" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:17">
       <c r="B232" s="14">
         <v>46057</v>
       </c>
@@ -8267,7 +8281,7 @@
       <c r="P232" s="19"/>
       <c r="Q232" s="18"/>
     </row>
-    <row r="233" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:17">
       <c r="B233" s="14">
         <v>46057</v>
       </c>
@@ -8297,7 +8311,7 @@
       <c r="P233" s="19"/>
       <c r="Q233" s="18"/>
     </row>
-    <row r="234" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:17">
       <c r="B234" s="14">
         <v>46057</v>
       </c>
@@ -8327,7 +8341,7 @@
       <c r="P234" s="19"/>
       <c r="Q234" s="18"/>
     </row>
-    <row r="235" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:17">
       <c r="B235" s="14">
         <v>46057</v>
       </c>
@@ -8357,7 +8371,7 @@
       <c r="P235" s="19"/>
       <c r="Q235" s="18"/>
     </row>
-    <row r="236" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:17">
       <c r="B236" s="14">
         <v>46058</v>
       </c>
@@ -8384,7 +8398,7 @@
       <c r="O236" s="11"/>
       <c r="P236" s="11"/>
     </row>
-    <row r="237" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:17">
       <c r="B237" s="14">
         <v>46058</v>
       </c>
@@ -8411,7 +8425,7 @@
       <c r="O237" s="11"/>
       <c r="P237" s="11"/>
     </row>
-    <row r="238" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:17">
       <c r="B238" s="14">
         <v>46058</v>
       </c>
@@ -8442,7 +8456,7 @@
       <c r="O238" s="11"/>
       <c r="P238" s="11"/>
     </row>
-    <row r="239" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:17">
       <c r="B239" s="14">
         <v>46058</v>
       </c>
@@ -8469,7 +8483,7 @@
       <c r="O239" s="11"/>
       <c r="P239" s="11"/>
     </row>
-    <row r="240" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:17">
       <c r="B240" s="14">
         <v>46058</v>
       </c>
@@ -8500,7 +8514,7 @@
       <c r="O240" s="11"/>
       <c r="P240" s="11"/>
     </row>
-    <row r="241" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:16">
       <c r="B241" s="14">
         <v>46058</v>
       </c>
@@ -8529,7 +8543,7 @@
       <c r="O241" s="11"/>
       <c r="P241" s="11"/>
     </row>
-    <row r="242" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:16">
       <c r="B242" s="14">
         <v>46058</v>
       </c>
@@ -8558,7 +8572,7 @@
       <c r="O242" s="11"/>
       <c r="P242" s="11"/>
     </row>
-    <row r="243" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:16">
       <c r="B243" s="14">
         <v>46058</v>
       </c>
@@ -8587,7 +8601,7 @@
       <c r="O243" s="11"/>
       <c r="P243" s="11"/>
     </row>
-    <row r="244" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:16">
       <c r="B244" s="14">
         <v>46058</v>
       </c>
@@ -8614,7 +8628,7 @@
       <c r="O244" s="11"/>
       <c r="P244" s="11"/>
     </row>
-    <row r="245" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:16">
       <c r="B245" s="14">
         <v>46058</v>
       </c>
@@ -8641,7 +8655,7 @@
       <c r="O245" s="11"/>
       <c r="P245" s="11"/>
     </row>
-    <row r="246" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:16">
       <c r="B246" s="14">
         <v>46058</v>
       </c>
@@ -8668,7 +8682,7 @@
       <c r="O246" s="11"/>
       <c r="P246" s="11"/>
     </row>
-    <row r="247" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:16">
       <c r="B247" s="14">
         <v>46058</v>
       </c>
@@ -8695,7 +8709,7 @@
       <c r="O247" s="11"/>
       <c r="P247" s="11"/>
     </row>
-    <row r="248" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:16">
       <c r="B248" s="14">
         <v>46058</v>
       </c>
@@ -8722,7 +8736,7 @@
       <c r="O248" s="11"/>
       <c r="P248" s="11"/>
     </row>
-    <row r="249" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:16">
       <c r="B249" s="14">
         <v>46058</v>
       </c>
@@ -8749,7 +8763,7 @@
       <c r="O249" s="11"/>
       <c r="P249" s="11"/>
     </row>
-    <row r="250" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:16">
       <c r="B250" s="14">
         <v>46058</v>
       </c>
@@ -8776,7 +8790,7 @@
       <c r="O250" s="11"/>
       <c r="P250" s="11"/>
     </row>
-    <row r="251" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:16">
       <c r="B251" s="14">
         <v>46058</v>
       </c>
@@ -8803,7 +8817,7 @@
       <c r="O251" s="11"/>
       <c r="P251" s="11"/>
     </row>
-    <row r="252" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:16">
       <c r="B252" s="14">
         <v>46058</v>
       </c>
@@ -8834,7 +8848,7 @@
       <c r="O252" s="11"/>
       <c r="P252" s="11"/>
     </row>
-    <row r="253" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:16">
       <c r="B253" s="14">
         <v>46058</v>
       </c>
@@ -8863,7 +8877,7 @@
       <c r="O253" s="11"/>
       <c r="P253" s="11"/>
     </row>
-    <row r="254" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:16">
       <c r="B254" s="14">
         <v>46058</v>
       </c>
@@ -8890,7 +8904,7 @@
       <c r="O254" s="11"/>
       <c r="P254" s="11"/>
     </row>
-    <row r="255" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:16">
       <c r="B255" s="14">
         <v>46058</v>
       </c>
@@ -8917,7 +8931,7 @@
       <c r="O255" s="11"/>
       <c r="P255" s="11"/>
     </row>
-    <row r="256" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:16">
       <c r="B256" s="14">
         <v>46058</v>
       </c>
@@ -8944,7 +8958,7 @@
       <c r="O256" s="11"/>
       <c r="P256" s="11"/>
     </row>
-    <row r="257" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:16">
       <c r="B257" s="14">
         <v>46058</v>
       </c>
@@ -8973,7 +8987,7 @@
       <c r="O257" s="11"/>
       <c r="P257" s="11"/>
     </row>
-    <row r="258" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:16">
       <c r="B258" s="14">
         <v>46058</v>
       </c>
@@ -9004,7 +9018,7 @@
       <c r="O258" s="11"/>
       <c r="P258" s="11"/>
     </row>
-    <row r="259" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:16">
       <c r="B259" s="14">
         <v>46058</v>
       </c>
@@ -9031,7 +9045,7 @@
       <c r="O259" s="11"/>
       <c r="P259" s="11"/>
     </row>
-    <row r="260" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:16">
       <c r="B260" s="14">
         <v>46058</v>
       </c>
@@ -9058,7 +9072,7 @@
       <c r="O260" s="11"/>
       <c r="P260" s="11"/>
     </row>
-    <row r="261" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:16">
       <c r="B261" s="14">
         <v>46058</v>
       </c>
@@ -9085,7 +9099,7 @@
       <c r="O261" s="11"/>
       <c r="P261" s="11"/>
     </row>
-    <row r="262" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:16">
       <c r="B262" s="14">
         <v>46058</v>
       </c>
@@ -9112,7 +9126,7 @@
       <c r="O262" s="11"/>
       <c r="P262" s="11"/>
     </row>
-    <row r="263" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:16">
       <c r="B263" s="14">
         <v>46058</v>
       </c>
@@ -9139,7 +9153,7 @@
       <c r="O263" s="11"/>
       <c r="P263" s="11"/>
     </row>
-    <row r="264" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:16">
       <c r="B264" s="14">
         <v>46059</v>
       </c>
@@ -9168,7 +9182,7 @@
       <c r="O264" s="11"/>
       <c r="P264" s="11"/>
     </row>
-    <row r="265" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:16">
       <c r="B265" s="14">
         <v>46059</v>
       </c>
@@ -9197,7 +9211,7 @@
       <c r="O265" s="11"/>
       <c r="P265" s="11"/>
     </row>
-    <row r="266" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:16">
       <c r="B266" s="14">
         <v>46059</v>
       </c>
@@ -9230,7 +9244,7 @@
       <c r="O266" s="11"/>
       <c r="P266" s="11"/>
     </row>
-    <row r="267" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:16">
       <c r="B267" s="14">
         <v>46059</v>
       </c>
@@ -9263,7 +9277,7 @@
       <c r="O267" s="11"/>
       <c r="P267" s="11"/>
     </row>
-    <row r="268" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:16">
       <c r="B268" s="14">
         <v>46059</v>
       </c>
@@ -9299,7 +9313,7 @@
       <c r="O268" s="11"/>
       <c r="P268" s="11"/>
     </row>
-    <row r="269" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:16">
       <c r="B269" s="14">
         <v>46059</v>
       </c>
@@ -9330,7 +9344,7 @@
       <c r="O269" s="11"/>
       <c r="P269" s="11"/>
     </row>
-    <row r="270" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:16">
       <c r="B270" s="14">
         <v>46059</v>
       </c>
@@ -9361,7 +9375,7 @@
       <c r="O270" s="11"/>
       <c r="P270" s="11"/>
     </row>
-    <row r="271" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:16">
       <c r="B271" s="14">
         <v>46059</v>
       </c>
@@ -9390,7 +9404,7 @@
       <c r="O271" s="11"/>
       <c r="P271" s="11"/>
     </row>
-    <row r="272" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:16">
       <c r="B272" s="14">
         <v>46059</v>
       </c>
@@ -9419,7 +9433,7 @@
       <c r="O272" s="11"/>
       <c r="P272" s="11"/>
     </row>
-    <row r="273" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:16">
       <c r="B273" s="14">
         <v>46059</v>
       </c>
@@ -9450,7 +9464,7 @@
       <c r="O273" s="11"/>
       <c r="P273" s="11"/>
     </row>
-    <row r="274" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:16">
       <c r="B274" s="14">
         <v>46059</v>
       </c>
@@ -9479,7 +9493,7 @@
       <c r="O274" s="11"/>
       <c r="P274" s="11"/>
     </row>
-    <row r="275" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:16">
       <c r="B275" s="14">
         <v>46059</v>
       </c>
@@ -9512,7 +9526,7 @@
       <c r="O275" s="11"/>
       <c r="P275" s="11"/>
     </row>
-    <row r="276" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:16">
       <c r="B276" s="14">
         <v>46059</v>
       </c>
@@ -9541,7 +9555,7 @@
       <c r="O276" s="11"/>
       <c r="P276" s="11"/>
     </row>
-    <row r="277" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:16">
       <c r="B277" s="14">
         <v>46059</v>
       </c>
@@ -9570,7 +9584,7 @@
       <c r="O277" s="11"/>
       <c r="P277" s="11"/>
     </row>
-    <row r="278" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:16">
       <c r="B278" s="14">
         <v>46059</v>
       </c>
@@ -9599,7 +9613,7 @@
       <c r="O278" s="11"/>
       <c r="P278" s="11"/>
     </row>
-    <row r="279" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:16">
       <c r="B279" s="14">
         <v>46059</v>
       </c>
@@ -9628,7 +9642,7 @@
       <c r="O279" s="11"/>
       <c r="P279" s="11"/>
     </row>
-    <row r="280" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:16">
       <c r="B280" s="14">
         <v>46059</v>
       </c>
@@ -9657,7 +9671,7 @@
       <c r="O280" s="11"/>
       <c r="P280" s="11"/>
     </row>
-    <row r="281" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:16">
       <c r="B281" s="14">
         <v>46059</v>
       </c>
@@ -9688,7 +9702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:16">
       <c r="B282" s="14">
         <v>46059</v>
       </c>
@@ -9723,7 +9737,7 @@
       <c r="O282" s="11"/>
       <c r="P282" s="11"/>
     </row>
-    <row r="283" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:16">
       <c r="B283" s="14">
         <v>46059</v>
       </c>
@@ -9754,7 +9768,7 @@
       <c r="O283" s="11"/>
       <c r="P283" s="11"/>
     </row>
-    <row r="284" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:16">
       <c r="B284" s="14">
         <v>46059</v>
       </c>
@@ -9783,7 +9797,7 @@
       <c r="O284" s="11"/>
       <c r="P284" s="11"/>
     </row>
-    <row r="285" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:16">
       <c r="B285" s="14">
         <v>46059</v>
       </c>
@@ -9812,7 +9826,7 @@
       <c r="O285" s="11"/>
       <c r="P285" s="11"/>
     </row>
-    <row r="286" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:16">
       <c r="B286" s="25">
         <v>46062</v>
       </c>
@@ -9845,7 +9859,7 @@
       <c r="O286" s="26"/>
       <c r="P286" s="33"/>
     </row>
-    <row r="287" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:16">
       <c r="B287" s="25">
         <v>46062</v>
       </c>
@@ -9874,7 +9888,7 @@
       <c r="O287" s="26"/>
       <c r="P287" s="26"/>
     </row>
-    <row r="288" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:16">
       <c r="B288" s="25">
         <v>46062</v>
       </c>
@@ -9905,7 +9919,7 @@
       <c r="O288" s="26"/>
       <c r="P288" s="26"/>
     </row>
-    <row r="289" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:16">
       <c r="B289" s="27">
         <v>46062</v>
       </c>
@@ -9936,7 +9950,7 @@
       <c r="O289" s="26"/>
       <c r="P289" s="26"/>
     </row>
-    <row r="290" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:16">
       <c r="B290" s="27">
         <v>46062</v>
       </c>
@@ -9967,7 +9981,7 @@
       <c r="O290" s="26"/>
       <c r="P290" s="26"/>
     </row>
-    <row r="291" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:16">
       <c r="B291" s="27">
         <v>46062</v>
       </c>
@@ -9996,7 +10010,7 @@
       <c r="O291" s="26"/>
       <c r="P291" s="26"/>
     </row>
-    <row r="292" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:16">
       <c r="B292" s="27">
         <v>46062</v>
       </c>
@@ -10027,7 +10041,7 @@
       <c r="O292" s="26"/>
       <c r="P292" s="26"/>
     </row>
-    <row r="293" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:16">
       <c r="B293" s="27">
         <v>46062</v>
       </c>
@@ -10060,7 +10074,7 @@
       <c r="O293" s="26"/>
       <c r="P293" s="26"/>
     </row>
-    <row r="294" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:16">
       <c r="B294" s="27">
         <v>46062</v>
       </c>
@@ -10093,7 +10107,7 @@
       <c r="O294" s="26"/>
       <c r="P294" s="26"/>
     </row>
-    <row r="295" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:16">
       <c r="B295" s="27">
         <v>46062</v>
       </c>
@@ -10122,7 +10136,7 @@
       <c r="O295" s="26"/>
       <c r="P295" s="26"/>
     </row>
-    <row r="296" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:16">
       <c r="B296" s="27">
         <v>46062</v>
       </c>
@@ -10153,7 +10167,7 @@
       <c r="O296" s="26"/>
       <c r="P296" s="26"/>
     </row>
-    <row r="297" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:16">
       <c r="B297" s="27">
         <v>46062</v>
       </c>
@@ -10182,7 +10196,7 @@
       <c r="O297" s="26"/>
       <c r="P297" s="26"/>
     </row>
-    <row r="298" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:16">
       <c r="B298" s="27">
         <v>46062</v>
       </c>
@@ -10215,7 +10229,7 @@
       <c r="O298" s="26"/>
       <c r="P298" s="26"/>
     </row>
-    <row r="299" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:16">
       <c r="B299" s="27">
         <v>46062</v>
       </c>
@@ -10246,7 +10260,7 @@
       <c r="O299" s="26"/>
       <c r="P299" s="26"/>
     </row>
-    <row r="300" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:16">
       <c r="B300" s="27">
         <v>46062</v>
       </c>
@@ -10275,7 +10289,7 @@
       <c r="O300" s="26"/>
       <c r="P300" s="26"/>
     </row>
-    <row r="301" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:16">
       <c r="B301" s="27">
         <v>46062</v>
       </c>
@@ -10306,7 +10320,7 @@
       <c r="O301" s="26"/>
       <c r="P301" s="26"/>
     </row>
-    <row r="302" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:16">
       <c r="B302" s="27">
         <v>46062</v>
       </c>
@@ -10335,7 +10349,7 @@
       <c r="O302" s="26"/>
       <c r="P302" s="26"/>
     </row>
-    <row r="303" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:16">
       <c r="B303" s="27">
         <v>46062</v>
       </c>
@@ -10364,7 +10378,7 @@
       <c r="O303" s="26"/>
       <c r="P303" s="26"/>
     </row>
-    <row r="304" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:16">
       <c r="B304" s="27">
         <v>46062</v>
       </c>
@@ -10393,7 +10407,7 @@
       <c r="O304" s="26"/>
       <c r="P304" s="26"/>
     </row>
-    <row r="305" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:16">
       <c r="B305" s="27">
         <v>46062</v>
       </c>
@@ -10421,7 +10435,7 @@
       <c r="O305" s="26"/>
       <c r="P305" s="26"/>
     </row>
-    <row r="306" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:16">
       <c r="B306" s="27">
         <v>46062</v>
       </c>
@@ -10452,7 +10466,7 @@
       <c r="O306" s="26"/>
       <c r="P306" s="26"/>
     </row>
-    <row r="307" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:16">
       <c r="B307" s="27">
         <v>46062</v>
       </c>
@@ -10481,7 +10495,7 @@
       <c r="O307" s="26"/>
       <c r="P307" s="26"/>
     </row>
-    <row r="308" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:16">
       <c r="B308" s="27">
         <v>46062</v>
       </c>
@@ -10510,7 +10524,7 @@
       <c r="O308" s="26"/>
       <c r="P308" s="26"/>
     </row>
-    <row r="309" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:16">
       <c r="B309" s="27">
         <v>46062</v>
       </c>
@@ -10539,7 +10553,7 @@
       <c r="O309" s="26"/>
       <c r="P309" s="26"/>
     </row>
-    <row r="310" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:16">
       <c r="B310" s="36">
         <v>46062</v>
       </c>
@@ -10568,7 +10582,7 @@
       <c r="O310" s="26"/>
       <c r="P310" s="26"/>
     </row>
-    <row r="311" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:16">
       <c r="B311" s="27">
         <v>46063</v>
       </c>
@@ -10597,7 +10611,7 @@
       <c r="O311" s="26"/>
       <c r="P311" s="33"/>
     </row>
-    <row r="312" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:16">
       <c r="B312" s="27">
         <v>46063</v>
       </c>
@@ -10626,7 +10640,7 @@
       <c r="O312" s="26"/>
       <c r="P312" s="26"/>
     </row>
-    <row r="313" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:16">
       <c r="B313" s="27">
         <v>46063</v>
       </c>
@@ -10657,7 +10671,7 @@
       <c r="O313" s="26"/>
       <c r="P313" s="26"/>
     </row>
-    <row r="314" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:16">
       <c r="B314" s="27">
         <v>46063</v>
       </c>
@@ -10688,7 +10702,7 @@
       <c r="O314" s="26"/>
       <c r="P314" s="26"/>
     </row>
-    <row r="315" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:16">
       <c r="B315" s="27">
         <v>46063</v>
       </c>
@@ -10717,7 +10731,7 @@
       <c r="O315" s="26"/>
       <c r="P315" s="26"/>
     </row>
-    <row r="316" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:16">
       <c r="B316" s="27">
         <v>46063</v>
       </c>
@@ -10750,7 +10764,7 @@
       <c r="O316" s="26"/>
       <c r="P316" s="26"/>
     </row>
-    <row r="317" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:16">
       <c r="B317" s="27">
         <v>46063</v>
       </c>
@@ -10779,7 +10793,7 @@
       <c r="O317" s="26"/>
       <c r="P317" s="26"/>
     </row>
-    <row r="318" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:16">
       <c r="B318" s="27">
         <v>46063</v>
       </c>
@@ -10810,7 +10824,7 @@
       <c r="O318" s="26"/>
       <c r="P318" s="26"/>
     </row>
-    <row r="319" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:16">
       <c r="B319" s="27">
         <v>46063</v>
       </c>
@@ -10839,7 +10853,7 @@
       <c r="O319" s="26"/>
       <c r="P319" s="26"/>
     </row>
-    <row r="320" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:16">
       <c r="B320" s="27">
         <v>46063</v>
       </c>
@@ -10868,7 +10882,7 @@
       <c r="O320" s="26"/>
       <c r="P320" s="26"/>
     </row>
-    <row r="321" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:16">
       <c r="B321" s="27">
         <v>46063</v>
       </c>
@@ -10899,7 +10913,7 @@
       <c r="O321" s="26"/>
       <c r="P321" s="26"/>
     </row>
-    <row r="322" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:16">
       <c r="B322" s="27">
         <v>46063</v>
       </c>
@@ -10930,7 +10944,7 @@
       <c r="O322" s="26"/>
       <c r="P322" s="26"/>
     </row>
-    <row r="323" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:16">
       <c r="B323" s="27">
         <v>46063</v>
       </c>
@@ -10959,7 +10973,7 @@
       <c r="O323" s="26"/>
       <c r="P323" s="26"/>
     </row>
-    <row r="324" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:16">
       <c r="B324" s="27">
         <v>46063</v>
       </c>
@@ -10990,7 +11004,7 @@
       <c r="O324" s="26"/>
       <c r="P324" s="26"/>
     </row>
-    <row r="325" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:16">
       <c r="B325" s="27">
         <v>46063</v>
       </c>
@@ -11021,7 +11035,7 @@
       <c r="O325" s="26"/>
       <c r="P325" s="26"/>
     </row>
-    <row r="326" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:16">
       <c r="B326" s="27">
         <v>46063</v>
       </c>
@@ -11050,7 +11064,7 @@
       <c r="O326" s="26"/>
       <c r="P326" s="26"/>
     </row>
-    <row r="327" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:16">
       <c r="B327" s="27">
         <v>46063</v>
       </c>
@@ -11079,7 +11093,7 @@
       <c r="O327" s="26"/>
       <c r="P327" s="26"/>
     </row>
-    <row r="328" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:16">
       <c r="B328" s="27">
         <v>46063</v>
       </c>
@@ -11108,7 +11122,7 @@
       <c r="O328" s="26"/>
       <c r="P328" s="26"/>
     </row>
-    <row r="329" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:16">
       <c r="B329" s="27">
         <v>46063</v>
       </c>
@@ -11137,7 +11151,7 @@
       <c r="O329" s="26"/>
       <c r="P329" s="26"/>
     </row>
-    <row r="330" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:16">
       <c r="B330" s="27">
         <v>46063</v>
       </c>
@@ -11166,7 +11180,7 @@
       <c r="O330" s="26"/>
       <c r="P330" s="26"/>
     </row>
-    <row r="331" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:16">
       <c r="B331" s="27">
         <v>46063</v>
       </c>
@@ -11195,7 +11209,7 @@
       <c r="O331" s="26"/>
       <c r="P331" s="26"/>
     </row>
-    <row r="332" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:16">
       <c r="B332" s="27">
         <v>46063</v>
       </c>
@@ -11226,7 +11240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:16">
       <c r="B333" s="27">
         <v>46063</v>
       </c>
@@ -11257,7 +11271,7 @@
       <c r="O333" s="26"/>
       <c r="P333" s="26"/>
     </row>
-    <row r="334" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:16">
       <c r="B334" s="27">
         <v>46063</v>
       </c>
@@ -11286,7 +11300,7 @@
       <c r="O334" s="26"/>
       <c r="P334" s="26"/>
     </row>
-    <row r="335" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:16">
       <c r="B335" s="27">
         <v>46063</v>
       </c>
@@ -11319,7 +11333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:16">
       <c r="B336" s="36">
         <v>46064</v>
       </c>
@@ -11352,7 +11366,7 @@
       <c r="O336" s="26"/>
       <c r="P336" s="33"/>
     </row>
-    <row r="337" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:16">
       <c r="B337" s="27">
         <v>46064</v>
       </c>
@@ -11385,7 +11399,7 @@
       <c r="O337" s="26"/>
       <c r="P337" s="26"/>
     </row>
-    <row r="338" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:16">
       <c r="B338" s="36">
         <v>46064</v>
       </c>
@@ -11414,7 +11428,7 @@
       <c r="O338" s="26"/>
       <c r="P338" s="26"/>
     </row>
-    <row r="339" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:16">
       <c r="B339" s="27">
         <v>46064</v>
       </c>
@@ -11443,7 +11457,7 @@
       <c r="O339" s="26"/>
       <c r="P339" s="26"/>
     </row>
-    <row r="340" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:16">
       <c r="B340" s="36">
         <v>46064</v>
       </c>
@@ -11472,7 +11486,7 @@
       <c r="O340" s="26"/>
       <c r="P340" s="26"/>
     </row>
-    <row r="341" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:16">
       <c r="B341" s="27">
         <v>46064</v>
       </c>
@@ -11501,7 +11515,7 @@
       <c r="O341" s="26"/>
       <c r="P341" s="26"/>
     </row>
-    <row r="342" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:16">
       <c r="B342" s="36">
         <v>46064</v>
       </c>
@@ -11530,7 +11544,7 @@
       <c r="O342" s="26"/>
       <c r="P342" s="26"/>
     </row>
-    <row r="343" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:16">
       <c r="B343" s="27">
         <v>46064</v>
       </c>
@@ -11561,7 +11575,7 @@
       <c r="O343" s="26"/>
       <c r="P343" s="26"/>
     </row>
-    <row r="344" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:16">
       <c r="B344" s="36">
         <v>46064</v>
       </c>
@@ -11590,7 +11604,7 @@
       <c r="O344" s="26"/>
       <c r="P344" s="26"/>
     </row>
-    <row r="345" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:16">
       <c r="B345" s="27">
         <v>46064</v>
       </c>
@@ -11619,7 +11633,7 @@
       <c r="O345" s="26"/>
       <c r="P345" s="26"/>
     </row>
-    <row r="346" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:16">
       <c r="B346" s="36">
         <v>46064</v>
       </c>
@@ -11650,7 +11664,7 @@
       <c r="O346" s="26"/>
       <c r="P346" s="26"/>
     </row>
-    <row r="347" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:16">
       <c r="B347" s="27">
         <v>46064</v>
       </c>
@@ -11679,7 +11693,7 @@
       <c r="O347" s="26"/>
       <c r="P347" s="26"/>
     </row>
-    <row r="348" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:16">
       <c r="B348" s="36">
         <v>46064</v>
       </c>
@@ -11710,7 +11724,7 @@
       <c r="O348" s="26"/>
       <c r="P348" s="26"/>
     </row>
-    <row r="349" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:16">
       <c r="B349" s="27">
         <v>46064</v>
       </c>
@@ -11739,7 +11753,7 @@
       <c r="O349" s="26"/>
       <c r="P349" s="26"/>
     </row>
-    <row r="350" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:16">
       <c r="B350" s="36">
         <v>46064</v>
       </c>
@@ -11768,7 +11782,7 @@
       <c r="O350" s="26"/>
       <c r="P350" s="26"/>
     </row>
-    <row r="351" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:16">
       <c r="B351" s="27">
         <v>46064</v>
       </c>
@@ -11797,7 +11811,7 @@
       <c r="O351" s="26"/>
       <c r="P351" s="26"/>
     </row>
-    <row r="352" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:16">
       <c r="B352" s="36">
         <v>46064</v>
       </c>
@@ -11828,7 +11842,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="353" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:16">
       <c r="B353" s="27">
         <v>46064</v>
       </c>
@@ -11859,7 +11873,7 @@
       <c r="O353" s="26"/>
       <c r="P353" s="26"/>
     </row>
-    <row r="354" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:16">
       <c r="B354" s="36">
         <v>46064</v>
       </c>
@@ -11888,7 +11902,7 @@
       <c r="O354" s="26"/>
       <c r="P354" s="26"/>
     </row>
-    <row r="355" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:16">
       <c r="B355" s="27">
         <v>46064</v>
       </c>
@@ -11917,7 +11931,7 @@
       <c r="O355" s="26"/>
       <c r="P355" s="26"/>
     </row>
-    <row r="356" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:16">
       <c r="B356" s="36">
         <v>46064</v>
       </c>
@@ -11946,7 +11960,7 @@
       <c r="O356" s="26"/>
       <c r="P356" s="26"/>
     </row>
-    <row r="357" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:16">
       <c r="B357" s="27">
         <v>46064</v>
       </c>
@@ -11977,7 +11991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:16">
       <c r="B358" s="36">
         <v>46064</v>
       </c>
@@ -12008,7 +12022,7 @@
       <c r="O358" s="26"/>
       <c r="P358" s="26"/>
     </row>
-    <row r="359" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:16">
       <c r="B359" s="27">
         <v>46064</v>
       </c>
@@ -12041,7 +12055,7 @@
       <c r="O359" s="26"/>
       <c r="P359" s="26"/>
     </row>
-    <row r="360" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:16">
       <c r="B360" s="36">
         <v>46064</v>
       </c>
@@ -12074,7 +12088,7 @@
       <c r="O360" s="26"/>
       <c r="P360" s="26"/>
     </row>
-    <row r="361" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:16">
       <c r="B361" s="27">
         <v>46064</v>
       </c>
@@ -12103,7 +12117,7 @@
       <c r="O361" s="26"/>
       <c r="P361" s="26"/>
     </row>
-    <row r="362" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:16">
       <c r="B362" s="36">
         <v>46065</v>
       </c>
@@ -12136,7 +12150,7 @@
       <c r="O362" s="28"/>
       <c r="P362" s="39"/>
     </row>
-    <row r="363" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:16">
       <c r="B363" s="27">
         <v>46065</v>
       </c>
@@ -12167,7 +12181,7 @@
       <c r="O363" s="28"/>
       <c r="P363" s="28"/>
     </row>
-    <row r="364" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:16">
       <c r="B364" s="36">
         <v>46065</v>
       </c>
@@ -12198,7 +12212,7 @@
       <c r="O364" s="28"/>
       <c r="P364" s="28"/>
     </row>
-    <row r="365" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:16">
       <c r="B365" s="27">
         <v>46065</v>
       </c>
@@ -12229,7 +12243,7 @@
       <c r="O365" s="28"/>
       <c r="P365" s="28"/>
     </row>
-    <row r="366" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:16">
       <c r="B366" s="36">
         <v>46065</v>
       </c>
@@ -12260,7 +12274,7 @@
       <c r="O366" s="28"/>
       <c r="P366" s="28"/>
     </row>
-    <row r="367" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:16">
       <c r="B367" s="27">
         <v>46065</v>
       </c>
@@ -12289,7 +12303,7 @@
       <c r="O367" s="28"/>
       <c r="P367" s="28"/>
     </row>
-    <row r="368" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:16">
       <c r="B368" s="36">
         <v>46065</v>
       </c>
@@ -12318,7 +12332,7 @@
       <c r="O368" s="28"/>
       <c r="P368" s="28"/>
     </row>
-    <row r="369" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:16">
       <c r="B369" s="27">
         <v>46065</v>
       </c>
@@ -12347,7 +12361,7 @@
       <c r="O369" s="28"/>
       <c r="P369" s="28"/>
     </row>
-    <row r="370" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:16">
       <c r="B370" s="36">
         <v>46065</v>
       </c>
@@ -12376,7 +12390,7 @@
       <c r="O370" s="28"/>
       <c r="P370" s="28"/>
     </row>
-    <row r="371" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:16">
       <c r="B371" s="27">
         <v>46065</v>
       </c>
@@ -12407,7 +12421,7 @@
       <c r="O371" s="28"/>
       <c r="P371" s="28"/>
     </row>
-    <row r="372" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:16">
       <c r="B372" s="36">
         <v>46065</v>
       </c>
@@ -12436,7 +12450,7 @@
       <c r="O372" s="28"/>
       <c r="P372" s="28"/>
     </row>
-    <row r="373" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:16">
       <c r="B373" s="27">
         <v>46065</v>
       </c>
@@ -12465,7 +12479,7 @@
       <c r="O373" s="28"/>
       <c r="P373" s="28"/>
     </row>
-    <row r="374" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:16">
       <c r="B374" s="36">
         <v>46065</v>
       </c>
@@ -12494,7 +12508,7 @@
       <c r="O374" s="28"/>
       <c r="P374" s="28"/>
     </row>
-    <row r="375" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:16">
       <c r="B375" s="27">
         <v>46065</v>
       </c>
@@ -12523,7 +12537,7 @@
       <c r="O375" s="28"/>
       <c r="P375" s="28"/>
     </row>
-    <row r="376" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:16">
       <c r="B376" s="36">
         <v>46065</v>
       </c>
@@ -12552,7 +12566,7 @@
       <c r="O376" s="28"/>
       <c r="P376" s="28"/>
     </row>
-    <row r="377" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:16">
       <c r="B377" s="27">
         <v>46065</v>
       </c>
@@ -12583,7 +12597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:16">
       <c r="B378" s="36">
         <v>46065</v>
       </c>
@@ -12612,7 +12626,7 @@
       <c r="O378" s="28"/>
       <c r="P378" s="28"/>
     </row>
-    <row r="379" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:16">
       <c r="B379" s="27">
         <v>46065</v>
       </c>
@@ -12645,7 +12659,7 @@
       <c r="O379" s="28"/>
       <c r="P379" s="28"/>
     </row>
-    <row r="380" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:16">
       <c r="B380" s="36">
         <v>46065</v>
       </c>
@@ -12674,7 +12688,7 @@
       <c r="O380" s="28"/>
       <c r="P380" s="28"/>
     </row>
-    <row r="381" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:16">
       <c r="B381" s="27">
         <v>46065</v>
       </c>
@@ -12703,7 +12717,7 @@
       <c r="O381" s="28"/>
       <c r="P381" s="28"/>
     </row>
-    <row r="382" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:16">
       <c r="B382" s="36">
         <v>46065</v>
       </c>
@@ -12736,7 +12750,7 @@
       <c r="O382" s="28"/>
       <c r="P382" s="28"/>
     </row>
-    <row r="383" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:16">
       <c r="B383" s="27">
         <v>46065</v>
       </c>
@@ -12767,7 +12781,7 @@
       <c r="O383" s="28"/>
       <c r="P383" s="28"/>
     </row>
-    <row r="384" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:16">
       <c r="B384" s="36">
         <v>46065</v>
       </c>
@@ -12798,7 +12812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="385" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:16">
       <c r="B385" s="27">
         <v>46065</v>
       </c>
@@ -12827,7 +12841,7 @@
       <c r="O385" s="28"/>
       <c r="P385" s="28"/>
     </row>
-    <row r="386" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:16">
       <c r="B386" s="36">
         <v>46065</v>
       </c>
@@ -12856,7 +12870,7 @@
       <c r="O386" s="28"/>
       <c r="P386" s="28"/>
     </row>
-    <row r="387" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:16">
       <c r="B387" s="27">
         <v>46066</v>
       </c>
@@ -12887,7 +12901,7 @@
       <c r="O387" s="26"/>
       <c r="P387" s="33"/>
     </row>
-    <row r="388" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:16">
       <c r="B388" s="27">
         <v>46066</v>
       </c>
@@ -12916,7 +12930,7 @@
       <c r="O388" s="26"/>
       <c r="P388" s="26"/>
     </row>
-    <row r="389" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:16">
       <c r="B389" s="27">
         <v>46066</v>
       </c>
@@ -12949,7 +12963,7 @@
       <c r="O389" s="26"/>
       <c r="P389" s="26"/>
     </row>
-    <row r="390" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:16">
       <c r="B390" s="27">
         <v>46066</v>
       </c>
@@ -12980,7 +12994,7 @@
       <c r="O390" s="26"/>
       <c r="P390" s="26"/>
     </row>
-    <row r="391" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:16">
       <c r="B391" s="27">
         <v>46066</v>
       </c>
@@ -13011,7 +13025,7 @@
       <c r="O391" s="26"/>
       <c r="P391" s="26"/>
     </row>
-    <row r="392" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:16">
       <c r="B392" s="27">
         <v>46066</v>
       </c>
@@ -13040,7 +13054,7 @@
       <c r="O392" s="26"/>
       <c r="P392" s="26"/>
     </row>
-    <row r="393" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:16">
       <c r="B393" s="27">
         <v>46066</v>
       </c>
@@ -13069,7 +13083,7 @@
       <c r="O393" s="26"/>
       <c r="P393" s="26"/>
     </row>
-    <row r="394" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:16">
       <c r="B394" s="27">
         <v>46066</v>
       </c>
@@ -13098,7 +13112,7 @@
       <c r="O394" s="26"/>
       <c r="P394" s="26"/>
     </row>
-    <row r="395" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:16">
       <c r="B395" s="27">
         <v>46066</v>
       </c>
@@ -13127,7 +13141,7 @@
       <c r="O395" s="26"/>
       <c r="P395" s="26"/>
     </row>
-    <row r="396" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:16">
       <c r="B396" s="27">
         <v>46066</v>
       </c>
@@ -13158,7 +13172,7 @@
       <c r="O396" s="26"/>
       <c r="P396" s="26"/>
     </row>
-    <row r="397" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:16">
       <c r="B397" s="27">
         <v>46066</v>
       </c>
@@ -13191,7 +13205,7 @@
       <c r="O397" s="26"/>
       <c r="P397" s="26"/>
     </row>
-    <row r="398" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:16">
       <c r="B398" s="27">
         <v>46066</v>
       </c>
@@ -13226,7 +13240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:16">
       <c r="B399" s="27">
         <v>46066</v>
       </c>
@@ -13257,7 +13271,7 @@
       <c r="O399" s="26"/>
       <c r="P399" s="26"/>
     </row>
-    <row r="400" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:16">
       <c r="B400" s="27">
         <v>46072</v>
       </c>
@@ -13290,7 +13304,7 @@
       <c r="O400" s="26"/>
       <c r="P400" s="33"/>
     </row>
-    <row r="401" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:16">
       <c r="B401" s="27">
         <v>46072</v>
       </c>
@@ -13301,7 +13315,7 @@
         <v>149</v>
       </c>
       <c r="E401" s="26">
-        <f t="shared" ref="E401:E461" si="12">D401-F401</f>
+        <f t="shared" ref="E401:E464" si="12">D401-F401</f>
         <v>145</v>
       </c>
       <c r="F401" s="8">
@@ -13321,7 +13335,7 @@
       <c r="O401" s="26"/>
       <c r="P401" s="26"/>
     </row>
-    <row r="402" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:16">
       <c r="B402" s="27">
         <v>46072</v>
       </c>
@@ -13352,7 +13366,7 @@
       <c r="O402" s="26"/>
       <c r="P402" s="26"/>
     </row>
-    <row r="403" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:16">
       <c r="B403" s="27">
         <v>46072</v>
       </c>
@@ -13383,7 +13397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:16">
       <c r="B404" s="27">
         <v>46072</v>
       </c>
@@ -13416,7 +13430,7 @@
       <c r="O404" s="26"/>
       <c r="P404" s="26"/>
     </row>
-    <row r="405" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:16">
       <c r="B405" s="27">
         <v>46072</v>
       </c>
@@ -13451,7 +13465,7 @@
       <c r="O405" s="26"/>
       <c r="P405" s="26"/>
     </row>
-    <row r="406" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:16">
       <c r="B406" s="27">
         <v>46072</v>
       </c>
@@ -13482,7 +13496,7 @@
       <c r="O406" s="26"/>
       <c r="P406" s="26"/>
     </row>
-    <row r="407" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:16">
       <c r="B407" s="27">
         <v>46072</v>
       </c>
@@ -13515,7 +13529,7 @@
       <c r="O407" s="26"/>
       <c r="P407" s="26"/>
     </row>
-    <row r="408" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:16">
       <c r="B408" s="27">
         <v>46072</v>
       </c>
@@ -13546,7 +13560,7 @@
       </c>
       <c r="P408" s="26"/>
     </row>
-    <row r="409" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:16">
       <c r="B409" s="27">
         <v>46072</v>
       </c>
@@ -13575,7 +13589,7 @@
       <c r="O409" s="26"/>
       <c r="P409" s="26"/>
     </row>
-    <row r="410" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:16">
       <c r="B410" s="27">
         <v>46072</v>
       </c>
@@ -13608,7 +13622,7 @@
       <c r="O410" s="26"/>
       <c r="P410" s="26"/>
     </row>
-    <row r="411" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:16">
       <c r="B411" s="27">
         <v>46072</v>
       </c>
@@ -13637,7 +13651,7 @@
       <c r="O411" s="26"/>
       <c r="P411" s="26"/>
     </row>
-    <row r="412" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:16">
       <c r="B412" s="27">
         <v>46072</v>
       </c>
@@ -13666,7 +13680,7 @@
       <c r="O412" s="26"/>
       <c r="P412" s="26"/>
     </row>
-    <row r="413" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:16">
       <c r="B413" s="27">
         <v>46072</v>
       </c>
@@ -13695,7 +13709,7 @@
       <c r="O413" s="26"/>
       <c r="P413" s="26"/>
     </row>
-    <row r="414" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:16">
       <c r="B414" s="27">
         <v>46072</v>
       </c>
@@ -13724,7 +13738,7 @@
       <c r="O414" s="26"/>
       <c r="P414" s="26"/>
     </row>
-    <row r="415" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:16">
       <c r="B415" s="27">
         <v>46072</v>
       </c>
@@ -13757,7 +13771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:16">
       <c r="B416" s="27">
         <v>46072</v>
       </c>
@@ -13790,7 +13804,7 @@
       <c r="O416" s="26"/>
       <c r="P416" s="26"/>
     </row>
-    <row r="417" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="417" spans="2:16">
       <c r="B417" s="27">
         <v>46072</v>
       </c>
@@ -13821,7 +13835,7 @@
       <c r="O417" s="26"/>
       <c r="P417" s="26"/>
     </row>
-    <row r="418" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="418" spans="2:16">
       <c r="B418" s="27">
         <v>46072</v>
       </c>
@@ -13850,7 +13864,7 @@
       <c r="O418" s="26"/>
       <c r="P418" s="26"/>
     </row>
-    <row r="419" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="419" spans="2:16">
       <c r="B419" s="27">
         <v>46072</v>
       </c>
@@ -13879,7 +13893,7 @@
       <c r="O419" s="26"/>
       <c r="P419" s="26"/>
     </row>
-    <row r="420" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="420" spans="2:16">
       <c r="B420" s="27">
         <v>46073</v>
       </c>
@@ -13910,7 +13924,7 @@
       <c r="O420" s="26"/>
       <c r="P420" s="33"/>
     </row>
-    <row r="421" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="421" spans="2:16">
       <c r="B421" s="27">
         <v>46073</v>
       </c>
@@ -13943,7 +13957,7 @@
       <c r="O421" s="26"/>
       <c r="P421" s="26"/>
     </row>
-    <row r="422" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="422" spans="2:16">
       <c r="B422" s="27">
         <v>46073</v>
       </c>
@@ -13972,7 +13986,7 @@
       <c r="O422" s="26"/>
       <c r="P422" s="26"/>
     </row>
-    <row r="423" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="423" spans="2:16">
       <c r="B423" s="27">
         <v>46073</v>
       </c>
@@ -14001,7 +14015,7 @@
       <c r="O423" s="26"/>
       <c r="P423" s="26"/>
     </row>
-    <row r="424" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="424" spans="2:16">
       <c r="B424" s="27">
         <v>46073</v>
       </c>
@@ -14030,7 +14044,7 @@
       <c r="O424" s="26"/>
       <c r="P424" s="26"/>
     </row>
-    <row r="425" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="425" spans="2:16">
       <c r="B425" s="27">
         <v>46073</v>
       </c>
@@ -14059,7 +14073,7 @@
       <c r="O425" s="26"/>
       <c r="P425" s="26"/>
     </row>
-    <row r="426" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="426" spans="2:16">
       <c r="B426" s="27">
         <v>46073</v>
       </c>
@@ -14090,7 +14104,7 @@
       <c r="O426" s="26"/>
       <c r="P426" s="26"/>
     </row>
-    <row r="427" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="427" spans="2:16">
       <c r="B427" s="27">
         <v>46073</v>
       </c>
@@ -14121,7 +14135,7 @@
       <c r="O427" s="26"/>
       <c r="P427" s="26"/>
     </row>
-    <row r="428" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="428" spans="2:16">
       <c r="B428" s="27">
         <v>46073</v>
       </c>
@@ -14152,7 +14166,7 @@
       <c r="O428" s="26"/>
       <c r="P428" s="26"/>
     </row>
-    <row r="429" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="429" spans="2:16">
       <c r="B429" s="27">
         <v>46073</v>
       </c>
@@ -14181,7 +14195,7 @@
       <c r="O429" s="26"/>
       <c r="P429" s="26"/>
     </row>
-    <row r="430" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="430" spans="2:16">
       <c r="B430" s="27">
         <v>46073</v>
       </c>
@@ -14214,7 +14228,7 @@
       <c r="O430" s="26"/>
       <c r="P430" s="26"/>
     </row>
-    <row r="431" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="431" spans="2:16">
       <c r="B431" s="27">
         <v>46073</v>
       </c>
@@ -14243,7 +14257,7 @@
       <c r="O431" s="26"/>
       <c r="P431" s="26"/>
     </row>
-    <row r="432" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="432" spans="2:16">
       <c r="B432" s="27">
         <v>46073</v>
       </c>
@@ -14276,7 +14290,7 @@
       <c r="O432" s="26"/>
       <c r="P432" s="26"/>
     </row>
-    <row r="433" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:16">
       <c r="B433" s="27">
         <v>46073</v>
       </c>
@@ -14305,7 +14319,7 @@
       <c r="O433" s="26"/>
       <c r="P433" s="26"/>
     </row>
-    <row r="434" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:16">
       <c r="B434" s="27">
         <v>46073</v>
       </c>
@@ -14334,7 +14348,7 @@
       <c r="O434" s="26"/>
       <c r="P434" s="26"/>
     </row>
-    <row r="435" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:16">
       <c r="B435" s="27">
         <v>46073</v>
       </c>
@@ -14367,7 +14381,7 @@
       <c r="O435" s="26"/>
       <c r="P435" s="26"/>
     </row>
-    <row r="436" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:16">
       <c r="B436" s="27">
         <v>46073</v>
       </c>
@@ -14398,7 +14412,7 @@
       <c r="O436" s="43"/>
       <c r="P436" s="43"/>
     </row>
-    <row r="437" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:16">
       <c r="B437" s="41">
         <v>46076</v>
       </c>
@@ -14427,7 +14441,7 @@
       <c r="O437" s="26"/>
       <c r="P437" s="33"/>
     </row>
-    <row r="438" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:16">
       <c r="B438" s="41">
         <v>46076</v>
       </c>
@@ -14458,7 +14472,7 @@
       <c r="O438" s="26"/>
       <c r="P438" s="26"/>
     </row>
-    <row r="439" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="439" spans="2:16">
       <c r="B439" s="41">
         <v>46076</v>
       </c>
@@ -14491,7 +14505,7 @@
       <c r="O439" s="26"/>
       <c r="P439" s="26"/>
     </row>
-    <row r="440" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:16">
       <c r="B440" s="41">
         <v>46076</v>
       </c>
@@ -14520,7 +14534,7 @@
       <c r="O440" s="26"/>
       <c r="P440" s="26"/>
     </row>
-    <row r="441" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="441" spans="2:16">
       <c r="B441" s="41">
         <v>46076</v>
       </c>
@@ -14549,7 +14563,7 @@
       <c r="O441" s="26"/>
       <c r="P441" s="26"/>
     </row>
-    <row r="442" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="442" spans="2:16">
       <c r="B442" s="41">
         <v>46076</v>
       </c>
@@ -14582,7 +14596,7 @@
       <c r="O442" s="26"/>
       <c r="P442" s="26"/>
     </row>
-    <row r="443" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="443" spans="2:16">
       <c r="B443" s="41">
         <v>46076</v>
       </c>
@@ -14611,7 +14625,7 @@
       <c r="O443" s="26"/>
       <c r="P443" s="26"/>
     </row>
-    <row r="444" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="444" spans="2:16">
       <c r="B444" s="41">
         <v>46076</v>
       </c>
@@ -14640,7 +14654,7 @@
       <c r="O444" s="26"/>
       <c r="P444" s="26"/>
     </row>
-    <row r="445" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="445" spans="2:16">
       <c r="B445" s="41">
         <v>46076</v>
       </c>
@@ -14675,7 +14689,7 @@
       <c r="O445" s="26"/>
       <c r="P445" s="26"/>
     </row>
-    <row r="446" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="446" spans="2:16">
       <c r="B446" s="41">
         <v>46076</v>
       </c>
@@ -14710,7 +14724,7 @@
       <c r="O446" s="26"/>
       <c r="P446" s="26"/>
     </row>
-    <row r="447" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="447" spans="2:16">
       <c r="B447" s="41">
         <v>46076</v>
       </c>
@@ -14739,7 +14753,7 @@
       <c r="O447" s="26"/>
       <c r="P447" s="26"/>
     </row>
-    <row r="448" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="448" spans="2:16">
       <c r="B448" s="41">
         <v>46076</v>
       </c>
@@ -14768,7 +14782,7 @@
       <c r="O448" s="26"/>
       <c r="P448" s="26"/>
     </row>
-    <row r="449" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:16">
       <c r="B449" s="41">
         <v>46076</v>
       </c>
@@ -14797,7 +14811,7 @@
       <c r="O449" s="26"/>
       <c r="P449" s="26"/>
     </row>
-    <row r="450" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="450" spans="2:16">
       <c r="B450" s="41">
         <v>46076</v>
       </c>
@@ -14826,7 +14840,7 @@
       <c r="O450" s="26"/>
       <c r="P450" s="26"/>
     </row>
-    <row r="451" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="451" spans="2:16">
       <c r="B451" s="41">
         <v>46076</v>
       </c>
@@ -14855,7 +14869,7 @@
       <c r="O451" s="26"/>
       <c r="P451" s="26"/>
     </row>
-    <row r="452" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="452" spans="2:16">
       <c r="B452" s="41">
         <v>46076</v>
       </c>
@@ -14888,7 +14902,7 @@
       <c r="O452" s="26"/>
       <c r="P452" s="26"/>
     </row>
-    <row r="453" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="453" spans="2:16">
       <c r="B453" s="41">
         <v>46076</v>
       </c>
@@ -14917,7 +14931,7 @@
       <c r="O453" s="26"/>
       <c r="P453" s="26"/>
     </row>
-    <row r="454" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="454" spans="2:16">
       <c r="B454" s="41">
         <v>46076</v>
       </c>
@@ -14946,7 +14960,7 @@
       <c r="O454" s="26"/>
       <c r="P454" s="26"/>
     </row>
-    <row r="455" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="455" spans="2:16">
       <c r="B455" s="41">
         <v>46076</v>
       </c>
@@ -14975,7 +14989,7 @@
       <c r="O455" s="26"/>
       <c r="P455" s="26"/>
     </row>
-    <row r="456" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="456" spans="2:16">
       <c r="B456" s="41">
         <v>46076</v>
       </c>
@@ -15004,7 +15018,7 @@
       <c r="O456" s="26"/>
       <c r="P456" s="26"/>
     </row>
-    <row r="457" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="457" spans="2:16">
       <c r="B457" s="41">
         <v>46076</v>
       </c>
@@ -15019,7 +15033,7 @@
         <v>120</v>
       </c>
       <c r="F457" s="8">
-        <f t="shared" ref="F457:F461" si="13">SUM(G457:P457)</f>
+        <f t="shared" ref="F457:F510" si="13">SUM(G457:P457)</f>
         <v>4</v>
       </c>
       <c r="G457" s="26"/>
@@ -15035,7 +15049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="458" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="458" spans="2:16">
       <c r="B458" s="41">
         <v>46076</v>
       </c>
@@ -15064,7 +15078,7 @@
       <c r="O458" s="26"/>
       <c r="P458" s="26"/>
     </row>
-    <row r="459" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="459" spans="2:16">
       <c r="B459" s="41">
         <v>46076</v>
       </c>
@@ -15093,7 +15107,7 @@
       <c r="O459" s="26"/>
       <c r="P459" s="26"/>
     </row>
-    <row r="460" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="460" spans="2:16">
       <c r="B460" s="41">
         <v>46076</v>
       </c>
@@ -15124,7 +15138,7 @@
       <c r="O460" s="26"/>
       <c r="P460" s="26"/>
     </row>
-    <row r="461" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="461" spans="2:16">
       <c r="B461" s="41">
         <v>46076</v>
       </c>
@@ -15157,640 +15171,1941 @@
       <c r="O461" s="26"/>
       <c r="P461" s="26"/>
     </row>
-    <row r="462" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B462" s="25"/>
-      <c r="F462" s="8"/>
-    </row>
-    <row r="463" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B463" s="25"/>
-      <c r="F463" s="8"/>
-    </row>
-    <row r="464" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B464" s="25"/>
-      <c r="F464" s="8"/>
-    </row>
-    <row r="465" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B465" s="25"/>
-      <c r="F465" s="8"/>
-    </row>
-    <row r="466" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B466" s="25"/>
-      <c r="F466" s="8"/>
-    </row>
-    <row r="467" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B467" s="25"/>
-      <c r="F467" s="8"/>
-    </row>
-    <row r="468" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B468" s="25"/>
-      <c r="F468" s="8"/>
-    </row>
-    <row r="469" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B469" s="25"/>
-      <c r="F469" s="8"/>
-    </row>
-    <row r="470" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B470" s="25"/>
-      <c r="F470" s="8"/>
-    </row>
-    <row r="471" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B471" s="25"/>
-      <c r="F471" s="8"/>
-    </row>
-    <row r="472" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B472" s="25"/>
-      <c r="F472" s="8"/>
-    </row>
-    <row r="473" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B473" s="25"/>
-      <c r="F473" s="8"/>
-    </row>
-    <row r="474" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B474" s="25"/>
-      <c r="F474" s="8"/>
-    </row>
-    <row r="475" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B475" s="25"/>
-      <c r="F475" s="8"/>
-    </row>
-    <row r="476" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B476" s="25"/>
-      <c r="F476" s="8"/>
-    </row>
-    <row r="477" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B477" s="25"/>
-      <c r="F477" s="8"/>
-    </row>
-    <row r="478" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B478" s="25"/>
-      <c r="F478" s="8"/>
-    </row>
-    <row r="479" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B479" s="25"/>
-      <c r="F479" s="8"/>
-    </row>
-    <row r="480" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B480" s="25"/>
-      <c r="F480" s="8"/>
-    </row>
-    <row r="481" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B481" s="25"/>
-      <c r="F481" s="8"/>
-    </row>
-    <row r="482" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B482" s="25"/>
-      <c r="F482" s="8"/>
-    </row>
-    <row r="483" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B483" s="25"/>
-      <c r="F483" s="8"/>
-    </row>
-    <row r="484" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B484" s="25"/>
-      <c r="F484" s="8"/>
-    </row>
-    <row r="485" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B485" s="25"/>
-      <c r="F485" s="8"/>
-    </row>
-    <row r="486" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B486" s="25"/>
-      <c r="F486" s="8"/>
-    </row>
-    <row r="487" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B487" s="25"/>
-      <c r="F487" s="8"/>
-    </row>
-    <row r="488" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B488" s="25"/>
-      <c r="F488" s="8"/>
-    </row>
-    <row r="489" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B489" s="25"/>
-      <c r="F489" s="8"/>
-    </row>
-    <row r="490" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B490" s="25"/>
-      <c r="F490" s="8"/>
-    </row>
-    <row r="491" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B491" s="25"/>
-      <c r="F491" s="8"/>
-    </row>
-    <row r="492" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B492" s="25"/>
-      <c r="F492" s="8"/>
-    </row>
-    <row r="493" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B493" s="25"/>
-      <c r="F493" s="8"/>
-    </row>
-    <row r="494" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B494" s="25"/>
-      <c r="F494" s="8"/>
-    </row>
-    <row r="495" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B495" s="25"/>
-      <c r="F495" s="8"/>
-    </row>
-    <row r="496" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B496" s="25"/>
-      <c r="F496" s="8"/>
-    </row>
-    <row r="497" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B497" s="25"/>
-      <c r="F497" s="8"/>
-    </row>
-    <row r="498" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B498" s="25"/>
-      <c r="F498" s="8"/>
-    </row>
-    <row r="499" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B499" s="25"/>
-      <c r="F499" s="8"/>
-    </row>
-    <row r="500" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B500" s="25"/>
-      <c r="F500" s="8"/>
-    </row>
-    <row r="501" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B501" s="25"/>
-    </row>
-    <row r="502" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B502" s="25"/>
-    </row>
-    <row r="503" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B503" s="25"/>
-    </row>
-    <row r="504" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B504" s="25"/>
-    </row>
-    <row r="505" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B505" s="25"/>
-    </row>
-    <row r="506" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B506" s="25"/>
-    </row>
-    <row r="507" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B507" s="25"/>
-    </row>
-    <row r="508" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B508" s="25"/>
-    </row>
-    <row r="509" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B509" s="25"/>
-    </row>
-    <row r="510" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B510" s="25"/>
-    </row>
-    <row r="511" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="2:16">
+      <c r="B462" s="27">
+        <v>46077</v>
+      </c>
+      <c r="C462" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D462" s="26">
+        <v>520</v>
+      </c>
+      <c r="E462" s="43">
+        <f t="shared" si="12"/>
+        <v>510</v>
+      </c>
+      <c r="F462" s="8">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="G462" s="26">
+        <v>1</v>
+      </c>
+      <c r="H462" s="26">
+        <v>9</v>
+      </c>
+      <c r="I462" s="33"/>
+      <c r="J462" s="33"/>
+      <c r="K462" s="33"/>
+      <c r="L462" s="26"/>
+      <c r="M462" s="26"/>
+      <c r="N462" s="26"/>
+      <c r="O462" s="26"/>
+      <c r="P462" s="33"/>
+    </row>
+    <row r="463" spans="2:16">
+      <c r="B463" s="27">
+        <v>46077</v>
+      </c>
+      <c r="C463" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D463" s="26">
+        <v>393</v>
+      </c>
+      <c r="E463" s="43">
+        <f t="shared" si="12"/>
+        <v>384</v>
+      </c>
+      <c r="F463" s="8">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="G463" s="26">
+        <v>9</v>
+      </c>
+      <c r="H463" s="26"/>
+      <c r="I463" s="26"/>
+      <c r="J463" s="26"/>
+      <c r="K463" s="26"/>
+      <c r="L463" s="26"/>
+      <c r="M463" s="26"/>
+      <c r="N463" s="26"/>
+      <c r="O463" s="26"/>
+      <c r="P463" s="26"/>
+    </row>
+    <row r="464" spans="2:16">
+      <c r="B464" s="27">
+        <v>46077</v>
+      </c>
+      <c r="C464" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D464" s="26">
+        <v>182</v>
+      </c>
+      <c r="E464" s="43">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="F464" s="8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="G464" s="26"/>
+      <c r="H464" s="26"/>
+      <c r="I464" s="26"/>
+      <c r="J464" s="26"/>
+      <c r="K464" s="26"/>
+      <c r="L464" s="26">
+        <v>2</v>
+      </c>
+      <c r="M464" s="26"/>
+      <c r="N464" s="26"/>
+      <c r="O464" s="26"/>
+      <c r="P464" s="26"/>
+    </row>
+    <row r="465" spans="2:16">
+      <c r="B465" s="27">
+        <v>46077</v>
+      </c>
+      <c r="C465" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D465" s="26">
+        <v>284</v>
+      </c>
+      <c r="E465" s="43">
+        <f t="shared" ref="E465:E510" si="14">D465-F465</f>
+        <v>280</v>
+      </c>
+      <c r="F465" s="8">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="G465" s="26"/>
+      <c r="H465" s="26">
+        <v>4</v>
+      </c>
+      <c r="I465" s="26"/>
+      <c r="J465" s="26"/>
+      <c r="K465" s="26"/>
+      <c r="L465" s="26"/>
+      <c r="M465" s="26"/>
+      <c r="N465" s="26"/>
+      <c r="O465" s="26"/>
+      <c r="P465" s="26"/>
+    </row>
+    <row r="466" spans="2:16">
+      <c r="B466" s="27">
+        <v>46077</v>
+      </c>
+      <c r="C466" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D466" s="26">
+        <v>337</v>
+      </c>
+      <c r="E466" s="43">
+        <f t="shared" si="14"/>
+        <v>328</v>
+      </c>
+      <c r="F466" s="8">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="G466" s="26"/>
+      <c r="H466" s="26">
+        <v>9</v>
+      </c>
+      <c r="I466" s="26"/>
+      <c r="J466" s="26"/>
+      <c r="K466" s="26"/>
+      <c r="L466" s="26"/>
+      <c r="M466" s="26"/>
+      <c r="N466" s="26"/>
+      <c r="O466" s="26"/>
+      <c r="P466" s="26"/>
+    </row>
+    <row r="467" spans="2:16">
+      <c r="B467" s="27">
+        <v>46077</v>
+      </c>
+      <c r="C467" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D467" s="26">
+        <v>535</v>
+      </c>
+      <c r="E467" s="43">
+        <f t="shared" si="14"/>
+        <v>530</v>
+      </c>
+      <c r="F467" s="8">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="G467" s="26"/>
+      <c r="H467" s="26">
+        <v>5</v>
+      </c>
+      <c r="I467" s="26"/>
+      <c r="J467" s="26"/>
+      <c r="K467" s="26"/>
+      <c r="L467" s="26"/>
+      <c r="M467" s="26"/>
+      <c r="N467" s="26"/>
+      <c r="O467" s="26"/>
+      <c r="P467" s="26"/>
+    </row>
+    <row r="468" spans="2:16">
+      <c r="B468" s="27">
+        <v>46077</v>
+      </c>
+      <c r="C468" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D468" s="26">
+        <v>44</v>
+      </c>
+      <c r="E468" s="43">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="F468" s="8">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="G468" s="26"/>
+      <c r="H468" s="26">
+        <v>4</v>
+      </c>
+      <c r="I468" s="26"/>
+      <c r="J468" s="26"/>
+      <c r="K468" s="26"/>
+      <c r="L468" s="26"/>
+      <c r="M468" s="26"/>
+      <c r="N468" s="26"/>
+      <c r="O468" s="26"/>
+      <c r="P468" s="26"/>
+    </row>
+    <row r="469" spans="2:16">
+      <c r="B469" s="27">
+        <v>46077</v>
+      </c>
+      <c r="C469" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D469" s="26">
+        <v>1303</v>
+      </c>
+      <c r="E469" s="43">
+        <f t="shared" si="14"/>
+        <v>1280</v>
+      </c>
+      <c r="F469" s="8">
+        <f t="shared" si="13"/>
+        <v>23</v>
+      </c>
+      <c r="G469" s="26"/>
+      <c r="H469" s="26">
+        <v>23</v>
+      </c>
+      <c r="I469" s="26"/>
+      <c r="J469" s="26"/>
+      <c r="K469" s="26"/>
+      <c r="L469" s="26"/>
+      <c r="M469" s="26"/>
+      <c r="N469" s="26"/>
+      <c r="O469" s="26"/>
+      <c r="P469" s="26"/>
+    </row>
+    <row r="470" spans="2:16">
+      <c r="B470" s="27">
+        <v>46077</v>
+      </c>
+      <c r="C470" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D470" s="26">
+        <v>102</v>
+      </c>
+      <c r="E470" s="43">
+        <f t="shared" si="14"/>
+        <v>102</v>
+      </c>
+      <c r="F470" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G470" s="26"/>
+      <c r="H470" s="26"/>
+      <c r="I470" s="26"/>
+      <c r="J470" s="26"/>
+      <c r="K470" s="26"/>
+      <c r="L470" s="26"/>
+      <c r="M470" s="26"/>
+      <c r="N470" s="26"/>
+      <c r="O470" s="26"/>
+      <c r="P470" s="26"/>
+    </row>
+    <row r="471" spans="2:16">
+      <c r="B471" s="27">
+        <v>46077</v>
+      </c>
+      <c r="C471" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D471" s="26">
+        <v>424</v>
+      </c>
+      <c r="E471" s="43">
+        <f t="shared" si="14"/>
+        <v>420</v>
+      </c>
+      <c r="F471" s="8">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="G471" s="26"/>
+      <c r="H471" s="26">
+        <v>4</v>
+      </c>
+      <c r="I471" s="26"/>
+      <c r="J471" s="26"/>
+      <c r="K471" s="26"/>
+      <c r="L471" s="26"/>
+      <c r="M471" s="26"/>
+      <c r="N471" s="26"/>
+      <c r="O471" s="26"/>
+      <c r="P471" s="26"/>
+    </row>
+    <row r="472" spans="2:16">
+      <c r="B472" s="27">
+        <v>46077</v>
+      </c>
+      <c r="C472" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D472" s="26">
+        <v>424</v>
+      </c>
+      <c r="E472" s="43">
+        <f t="shared" si="14"/>
+        <v>420</v>
+      </c>
+      <c r="F472" s="8">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="G472" s="26"/>
+      <c r="H472" s="26">
+        <v>4</v>
+      </c>
+      <c r="I472" s="26"/>
+      <c r="J472" s="26"/>
+      <c r="K472" s="26"/>
+      <c r="L472" s="26"/>
+      <c r="M472" s="26"/>
+      <c r="N472" s="26"/>
+      <c r="O472" s="26"/>
+      <c r="P472" s="26"/>
+    </row>
+    <row r="473" spans="2:16">
+      <c r="B473" s="27">
+        <v>46077</v>
+      </c>
+      <c r="C473" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D473" s="26">
+        <v>1680</v>
+      </c>
+      <c r="E473" s="43">
+        <f t="shared" si="14"/>
+        <v>1680</v>
+      </c>
+      <c r="F473" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G473" s="26"/>
+      <c r="H473" s="26"/>
+      <c r="I473" s="26"/>
+      <c r="J473" s="26"/>
+      <c r="K473" s="26"/>
+      <c r="L473" s="26"/>
+      <c r="M473" s="26"/>
+      <c r="N473" s="26"/>
+      <c r="O473" s="26"/>
+      <c r="P473" s="26"/>
+    </row>
+    <row r="474" spans="2:16">
+      <c r="B474" s="27">
+        <v>46077</v>
+      </c>
+      <c r="C474" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D474" s="26">
+        <v>42</v>
+      </c>
+      <c r="E474" s="43">
+        <f t="shared" si="14"/>
+        <v>42</v>
+      </c>
+      <c r="F474" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G474" s="26"/>
+      <c r="H474" s="26"/>
+      <c r="I474" s="26"/>
+      <c r="J474" s="26"/>
+      <c r="K474" s="26"/>
+      <c r="L474" s="26"/>
+      <c r="M474" s="26"/>
+      <c r="N474" s="26"/>
+      <c r="O474" s="26"/>
+      <c r="P474" s="26"/>
+    </row>
+    <row r="475" spans="2:16">
+      <c r="B475" s="27">
+        <v>46077</v>
+      </c>
+      <c r="C475" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D475" s="26">
+        <v>593</v>
+      </c>
+      <c r="E475" s="43">
+        <f t="shared" si="14"/>
+        <v>580</v>
+      </c>
+      <c r="F475" s="8">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="G475" s="26"/>
+      <c r="H475" s="26">
+        <v>13</v>
+      </c>
+      <c r="I475" s="26"/>
+      <c r="J475" s="26"/>
+      <c r="K475" s="26"/>
+      <c r="L475" s="26"/>
+      <c r="M475" s="26"/>
+      <c r="N475" s="26"/>
+      <c r="O475" s="26"/>
+      <c r="P475" s="26"/>
+    </row>
+    <row r="476" spans="2:16">
+      <c r="B476" s="27">
+        <v>46077</v>
+      </c>
+      <c r="C476" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D476" s="26">
+        <v>1316</v>
+      </c>
+      <c r="E476" s="43">
+        <f t="shared" si="14"/>
+        <v>1316</v>
+      </c>
+      <c r="F476" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G476" s="26"/>
+      <c r="H476" s="26"/>
+      <c r="I476" s="26"/>
+      <c r="J476" s="26"/>
+      <c r="K476" s="26"/>
+      <c r="L476" s="26"/>
+      <c r="M476" s="26"/>
+      <c r="N476" s="26"/>
+      <c r="O476" s="26"/>
+      <c r="P476" s="26"/>
+    </row>
+    <row r="477" spans="2:16">
+      <c r="B477" s="27">
+        <v>46077</v>
+      </c>
+      <c r="C477" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="D477" s="26">
+        <v>3690</v>
+      </c>
+      <c r="E477" s="43">
+        <f t="shared" si="14"/>
+        <v>3690</v>
+      </c>
+      <c r="F477" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G477" s="26"/>
+      <c r="H477" s="26"/>
+      <c r="I477" s="26"/>
+      <c r="J477" s="26"/>
+      <c r="K477" s="26"/>
+      <c r="L477" s="26"/>
+      <c r="M477" s="26"/>
+      <c r="N477" s="26"/>
+      <c r="O477" s="26"/>
+      <c r="P477" s="26"/>
+    </row>
+    <row r="478" spans="2:16">
+      <c r="B478" s="27">
+        <v>46077</v>
+      </c>
+      <c r="C478" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D478" s="26">
+        <v>450</v>
+      </c>
+      <c r="E478" s="43">
+        <f t="shared" si="14"/>
+        <v>450</v>
+      </c>
+      <c r="F478" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G478" s="26"/>
+      <c r="H478" s="26"/>
+      <c r="I478" s="26"/>
+      <c r="J478" s="26"/>
+      <c r="K478" s="26"/>
+      <c r="L478" s="26"/>
+      <c r="M478" s="26"/>
+      <c r="N478" s="26"/>
+      <c r="O478" s="26"/>
+      <c r="P478" s="26"/>
+    </row>
+    <row r="479" spans="2:16">
+      <c r="B479" s="27">
+        <v>46077</v>
+      </c>
+      <c r="C479" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="D479" s="26">
+        <v>162</v>
+      </c>
+      <c r="E479" s="43">
+        <f t="shared" si="14"/>
+        <v>160</v>
+      </c>
+      <c r="F479" s="8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="G479" s="26"/>
+      <c r="H479" s="26">
+        <v>2</v>
+      </c>
+      <c r="I479" s="26"/>
+      <c r="J479" s="26"/>
+      <c r="K479" s="26"/>
+      <c r="L479" s="26"/>
+      <c r="M479" s="26"/>
+      <c r="N479" s="26"/>
+      <c r="O479" s="26"/>
+      <c r="P479" s="26"/>
+    </row>
+    <row r="480" spans="2:16">
+      <c r="B480" s="27">
+        <v>46077</v>
+      </c>
+      <c r="C480" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D480" s="26">
+        <v>616</v>
+      </c>
+      <c r="E480" s="43">
+        <f t="shared" si="14"/>
+        <v>580</v>
+      </c>
+      <c r="F480" s="8">
+        <f t="shared" si="13"/>
+        <v>36</v>
+      </c>
+      <c r="G480" s="26"/>
+      <c r="H480" s="26"/>
+      <c r="I480" s="26"/>
+      <c r="J480" s="26"/>
+      <c r="K480" s="26"/>
+      <c r="L480" s="26">
+        <v>36</v>
+      </c>
+      <c r="M480" s="26"/>
+      <c r="N480" s="26"/>
+      <c r="O480" s="26"/>
+      <c r="P480" s="26"/>
+    </row>
+    <row r="481" spans="2:16">
+      <c r="B481" s="27">
+        <v>46077</v>
+      </c>
+      <c r="C481" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="D481" s="26">
+        <v>24</v>
+      </c>
+      <c r="E481" s="43">
+        <f t="shared" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="F481" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G481" s="26"/>
+      <c r="H481" s="26"/>
+      <c r="I481" s="26"/>
+      <c r="J481" s="26"/>
+      <c r="K481" s="26"/>
+      <c r="L481" s="26"/>
+      <c r="M481" s="26"/>
+      <c r="N481" s="26"/>
+      <c r="O481" s="26"/>
+      <c r="P481" s="26"/>
+    </row>
+    <row r="482" spans="2:16">
+      <c r="B482" s="27">
+        <v>46077</v>
+      </c>
+      <c r="C482" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="D482" s="26">
+        <v>1250</v>
+      </c>
+      <c r="E482" s="43">
+        <f t="shared" si="14"/>
+        <v>1250</v>
+      </c>
+      <c r="F482" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G482" s="26"/>
+      <c r="H482" s="26"/>
+      <c r="I482" s="26"/>
+      <c r="J482" s="26"/>
+      <c r="K482" s="26"/>
+      <c r="L482" s="26"/>
+      <c r="M482" s="26"/>
+      <c r="N482" s="26"/>
+      <c r="O482" s="26"/>
+      <c r="P482" s="26"/>
+    </row>
+    <row r="483" spans="2:16">
+      <c r="B483" s="27">
+        <v>46077</v>
+      </c>
+      <c r="C483" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D483" s="26">
+        <v>62</v>
+      </c>
+      <c r="E483" s="43">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="F483" s="8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="G483" s="26"/>
+      <c r="H483" s="26"/>
+      <c r="I483" s="26"/>
+      <c r="J483" s="26"/>
+      <c r="K483" s="26"/>
+      <c r="L483" s="26"/>
+      <c r="M483" s="26"/>
+      <c r="N483" s="26"/>
+      <c r="O483" s="26"/>
+      <c r="P483" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" spans="2:16">
+      <c r="B484" s="27">
+        <v>46077</v>
+      </c>
+      <c r="C484" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D484" s="26">
+        <v>250</v>
+      </c>
+      <c r="E484" s="43">
+        <f t="shared" si="14"/>
+        <v>250</v>
+      </c>
+      <c r="F484" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G484" s="26"/>
+      <c r="H484" s="26"/>
+      <c r="I484" s="26"/>
+      <c r="J484" s="26"/>
+      <c r="K484" s="26"/>
+      <c r="L484" s="26"/>
+      <c r="M484" s="26"/>
+      <c r="N484" s="26"/>
+      <c r="O484" s="26"/>
+      <c r="P484" s="26"/>
+    </row>
+    <row r="485" spans="2:16">
+      <c r="B485" s="27">
+        <v>46077</v>
+      </c>
+      <c r="C485" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D485" s="26">
+        <v>400</v>
+      </c>
+      <c r="E485" s="43">
+        <f t="shared" si="14"/>
+        <v>370</v>
+      </c>
+      <c r="F485" s="8">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="G485" s="26"/>
+      <c r="H485" s="26">
+        <v>30</v>
+      </c>
+      <c r="I485" s="26"/>
+      <c r="J485" s="26"/>
+      <c r="K485" s="26"/>
+      <c r="L485" s="26"/>
+      <c r="M485" s="26"/>
+      <c r="N485" s="26"/>
+      <c r="O485" s="26"/>
+      <c r="P485" s="26"/>
+    </row>
+    <row r="486" spans="2:16">
+      <c r="B486" s="27">
+        <v>46077</v>
+      </c>
+      <c r="C486" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D486" s="26">
+        <v>530</v>
+      </c>
+      <c r="E486" s="43">
+        <f t="shared" si="14"/>
+        <v>530</v>
+      </c>
+      <c r="F486" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G486" s="26"/>
+      <c r="H486" s="26"/>
+      <c r="I486" s="26"/>
+      <c r="J486" s="26"/>
+      <c r="K486" s="26"/>
+      <c r="L486" s="26"/>
+      <c r="M486" s="26"/>
+      <c r="N486" s="26"/>
+      <c r="O486" s="26"/>
+      <c r="P486" s="26"/>
+    </row>
+    <row r="487" spans="2:16">
+      <c r="B487" s="27">
+        <v>46077</v>
+      </c>
+      <c r="C487" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D487" s="26">
+        <v>230</v>
+      </c>
+      <c r="E487" s="43">
+        <f t="shared" si="14"/>
+        <v>230</v>
+      </c>
+      <c r="F487" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G487" s="26"/>
+      <c r="H487" s="26"/>
+      <c r="I487" s="26"/>
+      <c r="J487" s="26"/>
+      <c r="K487" s="26"/>
+      <c r="L487" s="26"/>
+      <c r="M487" s="26"/>
+      <c r="N487" s="26"/>
+      <c r="O487" s="26"/>
+      <c r="P487" s="26"/>
+    </row>
+    <row r="488" spans="2:16">
+      <c r="B488" s="27">
+        <v>46078</v>
+      </c>
+      <c r="C488" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D488" s="26">
+        <v>528</v>
+      </c>
+      <c r="E488" s="43">
+        <f t="shared" si="14"/>
+        <v>520</v>
+      </c>
+      <c r="F488" s="8">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="G488" s="26">
+        <v>2</v>
+      </c>
+      <c r="H488" s="26">
+        <v>6</v>
+      </c>
+      <c r="I488" s="33"/>
+      <c r="J488" s="33"/>
+      <c r="K488" s="33"/>
+      <c r="L488" s="26"/>
+      <c r="M488" s="26"/>
+      <c r="N488" s="26"/>
+      <c r="O488" s="26"/>
+      <c r="P488" s="33"/>
+    </row>
+    <row r="489" spans="2:16">
+      <c r="B489" s="27">
+        <v>46078</v>
+      </c>
+      <c r="C489" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D489" s="26">
+        <v>422</v>
+      </c>
+      <c r="E489" s="43">
+        <f t="shared" si="14"/>
+        <v>400</v>
+      </c>
+      <c r="F489" s="8">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="G489" s="26">
+        <v>15</v>
+      </c>
+      <c r="H489" s="26">
+        <v>7</v>
+      </c>
+      <c r="I489" s="26"/>
+      <c r="J489" s="26"/>
+      <c r="K489" s="26"/>
+      <c r="L489" s="26"/>
+      <c r="M489" s="26"/>
+      <c r="N489" s="26"/>
+      <c r="O489" s="26"/>
+      <c r="P489" s="26"/>
+    </row>
+    <row r="490" spans="2:16">
+      <c r="B490" s="27">
+        <v>46078</v>
+      </c>
+      <c r="C490" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D490" s="26">
+        <v>609</v>
+      </c>
+      <c r="E490" s="43">
+        <f t="shared" si="14"/>
+        <v>605</v>
+      </c>
+      <c r="F490" s="8">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="G490" s="26"/>
+      <c r="H490" s="26">
+        <v>4</v>
+      </c>
+      <c r="I490" s="26"/>
+      <c r="J490" s="26"/>
+      <c r="K490" s="26"/>
+      <c r="L490" s="26"/>
+      <c r="M490" s="26"/>
+      <c r="N490" s="26"/>
+      <c r="O490" s="26"/>
+      <c r="P490" s="26"/>
+    </row>
+    <row r="491" spans="2:16">
+      <c r="B491" s="27">
+        <v>46078</v>
+      </c>
+      <c r="C491" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D491" s="26">
+        <v>529</v>
+      </c>
+      <c r="E491" s="43">
+        <f t="shared" si="14"/>
+        <v>520</v>
+      </c>
+      <c r="F491" s="8">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="G491" s="26"/>
+      <c r="H491" s="26">
+        <v>9</v>
+      </c>
+      <c r="I491" s="26"/>
+      <c r="J491" s="26"/>
+      <c r="K491" s="26"/>
+      <c r="L491" s="26"/>
+      <c r="M491" s="26"/>
+      <c r="N491" s="26"/>
+      <c r="O491" s="26"/>
+      <c r="P491" s="26"/>
+    </row>
+    <row r="492" spans="2:16">
+      <c r="B492" s="27">
+        <v>46078</v>
+      </c>
+      <c r="C492" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D492" s="26">
+        <v>948</v>
+      </c>
+      <c r="E492" s="43">
+        <f t="shared" si="14"/>
+        <v>930</v>
+      </c>
+      <c r="F492" s="8">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="G492" s="26"/>
+      <c r="H492" s="26">
+        <v>18</v>
+      </c>
+      <c r="I492" s="26"/>
+      <c r="J492" s="26"/>
+      <c r="K492" s="26"/>
+      <c r="L492" s="26"/>
+      <c r="M492" s="26"/>
+      <c r="N492" s="26"/>
+      <c r="O492" s="26"/>
+      <c r="P492" s="26"/>
+    </row>
+    <row r="493" spans="2:16">
+      <c r="B493" s="27">
+        <v>46078</v>
+      </c>
+      <c r="C493" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D493" s="26">
+        <v>1400</v>
+      </c>
+      <c r="E493" s="43">
+        <f t="shared" si="14"/>
+        <v>1400</v>
+      </c>
+      <c r="F493" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G493" s="26"/>
+      <c r="H493" s="26"/>
+      <c r="I493" s="26"/>
+      <c r="J493" s="26"/>
+      <c r="K493" s="26"/>
+      <c r="L493" s="26"/>
+      <c r="M493" s="26"/>
+      <c r="N493" s="26"/>
+      <c r="O493" s="26"/>
+      <c r="P493" s="26"/>
+    </row>
+    <row r="494" spans="2:16">
+      <c r="B494" s="27">
+        <v>46078</v>
+      </c>
+      <c r="C494" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D494" s="26">
+        <v>336</v>
+      </c>
+      <c r="E494" s="43">
+        <f t="shared" si="14"/>
+        <v>318</v>
+      </c>
+      <c r="F494" s="8">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="G494" s="26"/>
+      <c r="H494" s="26">
+        <v>18</v>
+      </c>
+      <c r="I494" s="26"/>
+      <c r="J494" s="26"/>
+      <c r="K494" s="26"/>
+      <c r="L494" s="26"/>
+      <c r="M494" s="26"/>
+      <c r="N494" s="26"/>
+      <c r="O494" s="26"/>
+      <c r="P494" s="26"/>
+    </row>
+    <row r="495" spans="2:16">
+      <c r="B495" s="27">
+        <v>46078</v>
+      </c>
+      <c r="C495" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="D495" s="26">
+        <v>40</v>
+      </c>
+      <c r="E495" s="43">
+        <f t="shared" si="14"/>
+        <v>36</v>
+      </c>
+      <c r="F495" s="8">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="G495" s="26"/>
+      <c r="H495" s="26">
+        <v>4</v>
+      </c>
+      <c r="I495" s="26"/>
+      <c r="J495" s="26"/>
+      <c r="K495" s="26"/>
+      <c r="L495" s="26"/>
+      <c r="M495" s="26"/>
+      <c r="N495" s="26"/>
+      <c r="O495" s="26"/>
+      <c r="P495" s="26"/>
+    </row>
+    <row r="496" spans="2:16">
+      <c r="B496" s="27">
+        <v>46078</v>
+      </c>
+      <c r="C496" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D496" s="26">
+        <v>374</v>
+      </c>
+      <c r="E496" s="43">
+        <f t="shared" si="14"/>
+        <v>370</v>
+      </c>
+      <c r="F496" s="8">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="G496" s="26"/>
+      <c r="H496" s="26">
+        <v>4</v>
+      </c>
+      <c r="I496" s="26"/>
+      <c r="J496" s="26"/>
+      <c r="K496" s="26"/>
+      <c r="L496" s="26"/>
+      <c r="M496" s="26"/>
+      <c r="N496" s="26"/>
+      <c r="O496" s="26"/>
+      <c r="P496" s="26"/>
+    </row>
+    <row r="497" spans="2:16">
+      <c r="B497" s="27">
+        <v>46078</v>
+      </c>
+      <c r="C497" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D497" s="26">
+        <v>374</v>
+      </c>
+      <c r="E497" s="43">
+        <f t="shared" si="14"/>
+        <v>370</v>
+      </c>
+      <c r="F497" s="8">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="G497" s="26"/>
+      <c r="H497" s="26">
+        <v>4</v>
+      </c>
+      <c r="I497" s="26"/>
+      <c r="J497" s="26"/>
+      <c r="K497" s="34"/>
+      <c r="L497" s="26"/>
+      <c r="M497" s="26"/>
+      <c r="N497" s="26"/>
+      <c r="O497" s="26"/>
+      <c r="P497" s="26"/>
+    </row>
+    <row r="498" spans="2:16">
+      <c r="B498" s="27">
+        <v>46078</v>
+      </c>
+      <c r="C498" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D498" s="26">
+        <v>1750</v>
+      </c>
+      <c r="E498" s="43">
+        <f t="shared" si="14"/>
+        <v>1750</v>
+      </c>
+      <c r="F498" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G498" s="26"/>
+      <c r="H498" s="26"/>
+      <c r="I498" s="26"/>
+      <c r="J498" s="26"/>
+      <c r="K498" s="26"/>
+      <c r="L498" s="26"/>
+      <c r="M498" s="26"/>
+      <c r="N498" s="26"/>
+      <c r="O498" s="26"/>
+      <c r="P498" s="26"/>
+    </row>
+    <row r="499" spans="2:16">
+      <c r="B499" s="27">
+        <v>46078</v>
+      </c>
+      <c r="C499" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D499" s="26">
+        <v>230</v>
+      </c>
+      <c r="E499" s="43">
+        <f t="shared" si="14"/>
+        <v>230</v>
+      </c>
+      <c r="F499" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G499" s="26"/>
+      <c r="H499" s="26"/>
+      <c r="I499" s="26"/>
+      <c r="J499" s="26"/>
+      <c r="K499" s="26"/>
+      <c r="L499" s="26"/>
+      <c r="M499" s="26"/>
+      <c r="N499" s="26"/>
+      <c r="O499" s="26"/>
+      <c r="P499" s="26"/>
+    </row>
+    <row r="500" spans="2:16">
+      <c r="B500" s="27">
+        <v>46078</v>
+      </c>
+      <c r="C500" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D500" s="26">
+        <v>811</v>
+      </c>
+      <c r="E500" s="43">
+        <f t="shared" si="14"/>
+        <v>805</v>
+      </c>
+      <c r="F500" s="8">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="G500" s="26"/>
+      <c r="H500" s="26">
+        <v>6</v>
+      </c>
+      <c r="I500" s="26"/>
+      <c r="J500" s="26"/>
+      <c r="K500" s="26"/>
+      <c r="L500" s="26"/>
+      <c r="M500" s="26"/>
+      <c r="N500" s="26"/>
+      <c r="O500" s="26"/>
+      <c r="P500" s="26"/>
+    </row>
+    <row r="501" spans="2:16">
+      <c r="B501" s="27">
+        <v>46078</v>
+      </c>
+      <c r="C501" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D501" s="26">
+        <v>958</v>
+      </c>
+      <c r="E501" s="43">
+        <f t="shared" si="14"/>
+        <v>958</v>
+      </c>
+      <c r="F501" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G501" s="26"/>
+      <c r="H501" s="26"/>
+      <c r="I501" s="26"/>
+      <c r="J501" s="26"/>
+      <c r="K501" s="26"/>
+      <c r="L501" s="26"/>
+      <c r="M501" s="26"/>
+      <c r="N501" s="26"/>
+      <c r="O501" s="26"/>
+      <c r="P501" s="26"/>
+    </row>
+    <row r="502" spans="2:16">
+      <c r="B502" s="27">
+        <v>46078</v>
+      </c>
+      <c r="C502" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D502" s="26">
+        <v>409</v>
+      </c>
+      <c r="E502" s="43">
+        <f t="shared" si="14"/>
+        <v>400</v>
+      </c>
+      <c r="F502" s="8">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="G502" s="26"/>
+      <c r="H502" s="26"/>
+      <c r="I502" s="26"/>
+      <c r="J502" s="26"/>
+      <c r="K502" s="26"/>
+      <c r="L502" s="26">
+        <v>9</v>
+      </c>
+      <c r="M502" s="26"/>
+      <c r="N502" s="26"/>
+      <c r="O502" s="26"/>
+      <c r="P502" s="26"/>
+    </row>
+    <row r="503" spans="2:16">
+      <c r="B503" s="27">
+        <v>46078</v>
+      </c>
+      <c r="C503" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D503" s="26">
+        <v>10</v>
+      </c>
+      <c r="E503" s="43">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="F503" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G503" s="26"/>
+      <c r="H503" s="26"/>
+      <c r="I503" s="26"/>
+      <c r="J503" s="26"/>
+      <c r="K503" s="26"/>
+      <c r="L503" s="26"/>
+      <c r="M503" s="26"/>
+      <c r="N503" s="26"/>
+      <c r="O503" s="26"/>
+      <c r="P503" s="26"/>
+    </row>
+    <row r="504" spans="2:16">
+      <c r="B504" s="27">
+        <v>46078</v>
+      </c>
+      <c r="C504" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D504" s="26">
+        <v>581</v>
+      </c>
+      <c r="E504" s="43">
+        <f t="shared" si="14"/>
+        <v>576</v>
+      </c>
+      <c r="F504" s="8">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="G504" s="26">
+        <v>5</v>
+      </c>
+      <c r="H504" s="26"/>
+      <c r="I504" s="26"/>
+      <c r="J504" s="26"/>
+      <c r="K504" s="26"/>
+      <c r="L504" s="26"/>
+      <c r="M504" s="26"/>
+      <c r="N504" s="26"/>
+      <c r="O504" s="26"/>
+      <c r="P504" s="26"/>
+    </row>
+    <row r="505" spans="2:16">
+      <c r="B505" s="27">
+        <v>46078</v>
+      </c>
+      <c r="C505" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D505" s="26">
+        <v>1160</v>
+      </c>
+      <c r="E505" s="43">
+        <f t="shared" si="14"/>
+        <v>1160</v>
+      </c>
+      <c r="F505" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G505" s="26"/>
+      <c r="H505" s="26"/>
+      <c r="I505" s="26"/>
+      <c r="J505" s="26"/>
+      <c r="K505" s="26"/>
+      <c r="L505" s="26"/>
+      <c r="M505" s="26"/>
+      <c r="N505" s="26"/>
+      <c r="O505" s="26"/>
+      <c r="P505" s="26"/>
+    </row>
+    <row r="506" spans="2:16">
+      <c r="B506" s="27">
+        <v>46078</v>
+      </c>
+      <c r="C506" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D506" s="26">
+        <v>630</v>
+      </c>
+      <c r="E506" s="43">
+        <f t="shared" si="14"/>
+        <v>630</v>
+      </c>
+      <c r="F506" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G506" s="26"/>
+      <c r="H506" s="26"/>
+      <c r="I506" s="26"/>
+      <c r="J506" s="26"/>
+      <c r="K506" s="26"/>
+      <c r="L506" s="26"/>
+      <c r="M506" s="26"/>
+      <c r="N506" s="26"/>
+      <c r="O506" s="26"/>
+      <c r="P506" s="26"/>
+    </row>
+    <row r="507" spans="2:16">
+      <c r="B507" s="27">
+        <v>46078</v>
+      </c>
+      <c r="C507" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D507" s="26">
+        <v>1408</v>
+      </c>
+      <c r="E507" s="43">
+        <f t="shared" si="14"/>
+        <v>1408</v>
+      </c>
+      <c r="F507" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G507" s="26"/>
+      <c r="H507" s="26"/>
+      <c r="I507" s="26"/>
+      <c r="J507" s="26"/>
+      <c r="K507" s="26"/>
+      <c r="L507" s="26"/>
+      <c r="M507" s="26"/>
+      <c r="N507" s="26"/>
+      <c r="O507" s="26"/>
+      <c r="P507" s="26"/>
+    </row>
+    <row r="508" spans="2:16">
+      <c r="B508" s="27">
+        <v>46078</v>
+      </c>
+      <c r="C508" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D508" s="26">
+        <v>330</v>
+      </c>
+      <c r="E508" s="43">
+        <f t="shared" si="14"/>
+        <v>330</v>
+      </c>
+      <c r="F508" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G508" s="26"/>
+      <c r="H508" s="26"/>
+      <c r="I508" s="26"/>
+      <c r="J508" s="26"/>
+      <c r="K508" s="26"/>
+      <c r="L508" s="26"/>
+      <c r="M508" s="26"/>
+      <c r="N508" s="26"/>
+      <c r="O508" s="26"/>
+      <c r="P508" s="26"/>
+    </row>
+    <row r="509" spans="2:16">
+      <c r="B509" s="27">
+        <v>46078</v>
+      </c>
+      <c r="C509" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="D509" s="26">
+        <v>1001</v>
+      </c>
+      <c r="E509" s="43">
+        <f t="shared" si="14"/>
+        <v>967</v>
+      </c>
+      <c r="F509" s="8">
+        <f t="shared" si="13"/>
+        <v>34</v>
+      </c>
+      <c r="G509" s="26"/>
+      <c r="H509" s="26">
+        <v>4</v>
+      </c>
+      <c r="I509" s="26"/>
+      <c r="J509" s="26"/>
+      <c r="K509" s="26"/>
+      <c r="L509" s="26">
+        <v>13</v>
+      </c>
+      <c r="M509" s="26"/>
+      <c r="N509" s="26"/>
+      <c r="O509" s="26"/>
+      <c r="P509" s="26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="510" spans="2:16">
+      <c r="B510" s="27">
+        <v>46078</v>
+      </c>
+      <c r="C510" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="D510" s="26">
+        <v>1200</v>
+      </c>
+      <c r="E510" s="43">
+        <f t="shared" si="14"/>
+        <v>1200</v>
+      </c>
+      <c r="F510" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G510" s="26"/>
+      <c r="H510" s="26"/>
+      <c r="I510" s="26"/>
+      <c r="J510" s="26"/>
+      <c r="K510" s="26"/>
+      <c r="L510" s="26"/>
+      <c r="M510" s="26"/>
+      <c r="N510" s="26"/>
+      <c r="O510" s="26"/>
+      <c r="P510" s="26"/>
+    </row>
+    <row r="511" spans="2:16">
       <c r="B511" s="25"/>
     </row>
-    <row r="512" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="2:16">
       <c r="B512" s="25"/>
     </row>
-    <row r="513" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="513" spans="2:2">
       <c r="B513" s="25"/>
     </row>
-    <row r="514" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="514" spans="2:2">
       <c r="B514" s="25"/>
     </row>
-    <row r="515" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:2">
       <c r="B515" s="25"/>
     </row>
-    <row r="516" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="516" spans="2:2">
       <c r="B516" s="25"/>
     </row>
-    <row r="517" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:2">
       <c r="B517" s="25"/>
     </row>
-    <row r="518" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="518" spans="2:2">
       <c r="B518" s="25"/>
     </row>
-    <row r="519" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="519" spans="2:2">
       <c r="B519" s="25"/>
     </row>
-    <row r="520" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="520" spans="2:2">
       <c r="B520" s="25"/>
     </row>
-    <row r="521" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="521" spans="2:2">
       <c r="B521" s="25"/>
     </row>
-    <row r="522" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="522" spans="2:2">
       <c r="B522" s="25"/>
     </row>
-    <row r="523" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="523" spans="2:2">
       <c r="B523" s="25"/>
     </row>
-    <row r="524" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="524" spans="2:2">
       <c r="B524" s="25"/>
     </row>
-    <row r="525" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="525" spans="2:2">
       <c r="B525" s="25"/>
     </row>
-    <row r="526" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="526" spans="2:2">
       <c r="B526" s="25"/>
     </row>
-    <row r="527" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="527" spans="2:2">
       <c r="B527" s="25"/>
     </row>
-    <row r="528" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:2">
       <c r="B528" s="25"/>
     </row>
-    <row r="529" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="529" spans="2:2">
       <c r="B529" s="25"/>
     </row>
-    <row r="530" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="530" spans="2:2">
       <c r="B530" s="25"/>
     </row>
-    <row r="531" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="531" spans="2:2">
       <c r="B531" s="25"/>
     </row>
-    <row r="532" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="532" spans="2:2">
       <c r="B532" s="25"/>
     </row>
-    <row r="533" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="533" spans="2:2">
       <c r="B533" s="25"/>
     </row>
-    <row r="534" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="534" spans="2:2">
       <c r="B534" s="25"/>
     </row>
-    <row r="535" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="535" spans="2:2">
       <c r="B535" s="25"/>
     </row>
-    <row r="536" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="536" spans="2:2">
       <c r="B536" s="25"/>
     </row>
-    <row r="537" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="537" spans="2:2">
       <c r="B537" s="25"/>
     </row>
-    <row r="538" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="538" spans="2:2">
       <c r="B538" s="25"/>
     </row>
-    <row r="539" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="539" spans="2:2">
       <c r="B539" s="25"/>
     </row>
-    <row r="540" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="540" spans="2:2">
       <c r="B540" s="25"/>
     </row>
-    <row r="541" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="541" spans="2:2">
       <c r="B541" s="25"/>
     </row>
-    <row r="542" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="542" spans="2:2">
       <c r="B542" s="25"/>
     </row>
-    <row r="543" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="543" spans="2:2">
       <c r="B543" s="25"/>
     </row>
-    <row r="544" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="544" spans="2:2">
       <c r="B544" s="25"/>
     </row>
-    <row r="545" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="545" spans="2:2">
       <c r="B545" s="25"/>
     </row>
-    <row r="546" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="546" spans="2:2">
       <c r="B546" s="25"/>
     </row>
-    <row r="547" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="547" spans="2:2">
       <c r="B547" s="25"/>
     </row>
-    <row r="548" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="548" spans="2:2">
       <c r="B548" s="25"/>
     </row>
-    <row r="549" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="549" spans="2:2">
       <c r="B549" s="25"/>
     </row>
-    <row r="550" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="550" spans="2:2">
       <c r="B550" s="25"/>
     </row>
-    <row r="551" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="551" spans="2:2">
       <c r="B551" s="25"/>
     </row>
-    <row r="552" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="552" spans="2:2">
       <c r="B552" s="25"/>
     </row>
-    <row r="553" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="553" spans="2:2">
       <c r="B553" s="25"/>
     </row>
-    <row r="554" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="554" spans="2:2">
       <c r="B554" s="25"/>
     </row>
-    <row r="555" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="555" spans="2:2">
       <c r="B555" s="25"/>
     </row>
-    <row r="556" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="556" spans="2:2">
       <c r="B556" s="25"/>
     </row>
-    <row r="557" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="557" spans="2:2">
       <c r="B557" s="25"/>
     </row>
-    <row r="558" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="558" spans="2:2">
       <c r="B558" s="25"/>
     </row>
-    <row r="559" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="559" spans="2:2">
       <c r="B559" s="25"/>
     </row>
-    <row r="560" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="560" spans="2:2">
       <c r="B560" s="25"/>
     </row>
-    <row r="561" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="561" spans="2:2">
       <c r="B561" s="25"/>
     </row>
-    <row r="562" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="562" spans="2:2">
       <c r="B562" s="25"/>
     </row>
-    <row r="563" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="563" spans="2:2">
       <c r="B563" s="25"/>
     </row>
-    <row r="564" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="564" spans="2:2">
       <c r="B564" s="25"/>
     </row>
-    <row r="565" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="565" spans="2:2">
       <c r="B565" s="25"/>
     </row>
-    <row r="566" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="566" spans="2:2">
       <c r="B566" s="25"/>
     </row>
-    <row r="567" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="567" spans="2:2">
       <c r="B567" s="25"/>
     </row>
-    <row r="568" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="568" spans="2:2">
       <c r="B568" s="25"/>
     </row>
-    <row r="569" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="569" spans="2:2">
       <c r="B569" s="25"/>
     </row>
-    <row r="570" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="570" spans="2:2">
       <c r="B570" s="25"/>
     </row>
-    <row r="571" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="571" spans="2:2">
       <c r="B571" s="25"/>
     </row>
-    <row r="572" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="572" spans="2:2">
       <c r="B572" s="25"/>
     </row>
-    <row r="573" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="573" spans="2:2">
       <c r="B573" s="25"/>
     </row>
-    <row r="574" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="574" spans="2:2">
       <c r="B574" s="25"/>
     </row>
-    <row r="575" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="575" spans="2:2">
       <c r="B575" s="25"/>
     </row>
-    <row r="576" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="576" spans="2:2">
       <c r="B576" s="25"/>
     </row>
-    <row r="577" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="577" spans="2:2">
       <c r="B577" s="25"/>
     </row>
-    <row r="578" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="578" spans="2:2">
       <c r="B578" s="25"/>
     </row>
-    <row r="579" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="579" spans="2:2">
       <c r="B579" s="25"/>
     </row>
-    <row r="580" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="580" spans="2:2">
       <c r="B580" s="25"/>
     </row>
-    <row r="581" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="581" spans="2:2">
       <c r="B581" s="25"/>
     </row>
-    <row r="582" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="582" spans="2:2">
       <c r="B582" s="25"/>
     </row>
-    <row r="583" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="583" spans="2:2">
       <c r="B583" s="25"/>
     </row>
-    <row r="584" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="584" spans="2:2">
       <c r="B584" s="25"/>
     </row>
-    <row r="585" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="585" spans="2:2">
       <c r="B585" s="25"/>
     </row>
-    <row r="586" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="586" spans="2:2">
       <c r="B586" s="25"/>
     </row>
-    <row r="587" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="587" spans="2:2">
       <c r="B587" s="25"/>
     </row>
-    <row r="588" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="588" spans="2:2">
       <c r="B588" s="25"/>
     </row>
-    <row r="589" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="589" spans="2:2">
       <c r="B589" s="25"/>
     </row>
-    <row r="590" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="590" spans="2:2">
       <c r="B590" s="25"/>
     </row>
-    <row r="591" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="591" spans="2:2">
       <c r="B591" s="25"/>
     </row>
-    <row r="592" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="592" spans="2:2">
       <c r="B592" s="25"/>
     </row>
-    <row r="593" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="593" spans="2:2">
       <c r="B593" s="25"/>
     </row>
-    <row r="594" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="594" spans="2:2">
       <c r="B594" s="25"/>
     </row>
-    <row r="595" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="595" spans="2:2">
       <c r="B595" s="25"/>
     </row>
-    <row r="596" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="596" spans="2:2">
       <c r="B596" s="25"/>
     </row>
-    <row r="597" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="597" spans="2:2">
       <c r="B597" s="25"/>
     </row>
-    <row r="598" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="598" spans="2:2">
       <c r="B598" s="25"/>
     </row>
-    <row r="599" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="599" spans="2:2">
       <c r="B599" s="25"/>
     </row>
-    <row r="600" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="600" spans="2:2">
       <c r="B600" s="25"/>
     </row>
-    <row r="601" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="601" spans="2:2">
       <c r="B601" s="25"/>
     </row>
-    <row r="602" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="602" spans="2:2">
       <c r="B602" s="25"/>
     </row>
-    <row r="603" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="603" spans="2:2">
       <c r="B603" s="25"/>
     </row>
-    <row r="604" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="604" spans="2:2">
       <c r="B604" s="25"/>
     </row>
-    <row r="605" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="605" spans="2:2">
       <c r="B605" s="25"/>
     </row>
-    <row r="606" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="606" spans="2:2">
       <c r="B606" s="25"/>
     </row>
-    <row r="607" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="607" spans="2:2">
       <c r="B607" s="25"/>
     </row>
-    <row r="608" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="608" spans="2:2">
       <c r="B608" s="25"/>
     </row>
-    <row r="609" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="609" spans="2:2">
       <c r="B609" s="25"/>
     </row>
-    <row r="610" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="610" spans="2:2">
       <c r="B610" s="25"/>
     </row>
-    <row r="611" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="611" spans="2:2">
       <c r="B611" s="25"/>
     </row>
-    <row r="612" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="612" spans="2:2">
       <c r="B612" s="25"/>
     </row>
-    <row r="613" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="613" spans="2:2">
       <c r="B613" s="25"/>
     </row>
-    <row r="614" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="614" spans="2:2">
       <c r="B614" s="25"/>
     </row>
-    <row r="615" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="615" spans="2:2">
       <c r="B615" s="25"/>
     </row>
-    <row r="616" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="616" spans="2:2">
       <c r="B616" s="25"/>
     </row>
-    <row r="617" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="617" spans="2:2">
       <c r="B617" s="25"/>
     </row>
-    <row r="618" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="618" spans="2:2">
       <c r="B618" s="25"/>
     </row>
-    <row r="619" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="619" spans="2:2">
       <c r="B619" s="25"/>
     </row>
-    <row r="620" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="620" spans="2:2">
       <c r="B620" s="25"/>
     </row>
-    <row r="621" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="621" spans="2:2">
       <c r="B621" s="25"/>
     </row>
-    <row r="622" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="622" spans="2:2">
       <c r="B622" s="25"/>
     </row>
-    <row r="623" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="623" spans="2:2">
       <c r="B623" s="25"/>
     </row>
-    <row r="624" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="624" spans="2:2">
       <c r="B624" s="25"/>
     </row>
-    <row r="625" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="625" spans="2:2">
       <c r="B625" s="25"/>
     </row>
-    <row r="626" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="626" spans="2:2">
       <c r="B626" s="25"/>
     </row>
-    <row r="627" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="627" spans="2:2">
       <c r="B627" s="25"/>
     </row>
-    <row r="628" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="628" spans="2:2">
       <c r="B628" s="25"/>
     </row>
-    <row r="629" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="629" spans="2:2">
       <c r="B629" s="25"/>
     </row>
-    <row r="630" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="630" spans="2:2">
       <c r="B630" s="25"/>
     </row>
-    <row r="631" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="631" spans="2:2">
       <c r="B631" s="25"/>
     </row>
-    <row r="632" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="632" spans="2:2">
       <c r="B632" s="25"/>
     </row>
-    <row r="633" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="633" spans="2:2">
       <c r="B633" s="25"/>
     </row>
-    <row r="634" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="634" spans="2:2">
       <c r="B634" s="25"/>
     </row>
-    <row r="635" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="635" spans="2:2">
       <c r="B635" s="25"/>
     </row>
-    <row r="636" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="636" spans="2:2">
       <c r="B636" s="25"/>
     </row>
-    <row r="637" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="637" spans="2:2">
       <c r="B637" s="25"/>
     </row>
-    <row r="638" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="638" spans="2:2">
       <c r="B638" s="25"/>
     </row>
-    <row r="639" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="639" spans="2:2">
       <c r="B639" s="25"/>
     </row>
-    <row r="640" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="640" spans="2:2">
       <c r="B640" s="25"/>
     </row>
-    <row r="641" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="641" spans="2:2">
       <c r="B641" s="25"/>
     </row>
-    <row r="642" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="642" spans="2:2">
       <c r="B642" s="25"/>
     </row>
-    <row r="643" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="643" spans="2:2">
       <c r="B643" s="25"/>
     </row>
-    <row r="644" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="644" spans="2:2">
       <c r="B644" s="25"/>
     </row>
-    <row r="645" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="645" spans="2:2">
       <c r="B645" s="25"/>
     </row>
-    <row r="646" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="646" spans="2:2">
       <c r="B646" s="25"/>
     </row>
-    <row r="647" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="647" spans="2:2">
       <c r="B647" s="25"/>
     </row>
-    <row r="648" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="648" spans="2:2">
       <c r="B648" s="25"/>
     </row>
-    <row r="649" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="649" spans="2:2">
       <c r="B649" s="25"/>
     </row>
-    <row r="650" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="650" spans="2:2">
       <c r="B650" s="25"/>
     </row>
-    <row r="651" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="651" spans="2:2">
       <c r="B651" s="25"/>
     </row>
-    <row r="652" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="652" spans="2:2">
       <c r="B652" s="25"/>
     </row>
-    <row r="653" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="653" spans="2:2">
       <c r="B653" s="25"/>
     </row>
-    <row r="654" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="654" spans="2:2">
       <c r="B654" s="25"/>
     </row>
-    <row r="655" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="655" spans="2:2">
       <c r="B655" s="25"/>
     </row>
-    <row r="656" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="656" spans="2:2">
       <c r="B656" s="25"/>
     </row>
-    <row r="657" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="657" spans="2:2">
       <c r="B657" s="25"/>
     </row>
-    <row r="63289" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63289" spans="2:2">
       <c r="B63289" s="15"/>
     </row>
-    <row r="1028285" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1028285" spans="2:2">
       <c r="B1028285" s="16"/>
     </row>
-    <row r="1040329" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1040329" spans="2:2">
       <c r="B1040329" s="16"/>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QC\Downloads\namdogeum-dashboard-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70149AA-03F7-4980-8E43-631983B0A44C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5461BC-FED7-4739-A4B9-DD6D072CE277}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7FBDE3CB-3BE6-4858-BD36-C283BF315A42}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="210">
   <si>
     <t>사출 불량 유형</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -765,6 +765,10 @@
   </si>
   <si>
     <t>#7627 Air Vent Chiclet</t>
+  </si>
+  <si>
+    <t>#6250 HANDLE ASSY FRT LH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1492,8 +1496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BC34A0-7885-4B17-9A44-9155E3A920C9}">
   <dimension ref="B2:Q1040329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A448" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B462" sqref="B462:P510"/>
+    <sheetView tabSelected="1" topLeftCell="A511" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B462" sqref="B462:P532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -15033,7 +15037,7 @@
         <v>120</v>
       </c>
       <c r="F457" s="8">
-        <f t="shared" ref="F457:F510" si="13">SUM(G457:P457)</f>
+        <f t="shared" ref="F457:F520" si="13">SUM(G457:P457)</f>
         <v>4</v>
       </c>
       <c r="G457" s="26"/>
@@ -15277,7 +15281,7 @@
         <v>284</v>
       </c>
       <c r="E465" s="43">
-        <f t="shared" ref="E465:E510" si="14">D465-F465</f>
+        <f t="shared" ref="E465:E528" si="14">D465-F465</f>
         <v>280</v>
       </c>
       <c r="F465" s="8">
@@ -16659,105 +16663,705 @@
       <c r="P510" s="26"/>
     </row>
     <row r="511" spans="2:16">
-      <c r="B511" s="25"/>
+      <c r="B511" s="27">
+        <v>46079</v>
+      </c>
+      <c r="C511" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D511" s="26">
+        <v>82</v>
+      </c>
+      <c r="E511" s="43">
+        <f t="shared" si="14"/>
+        <v>80</v>
+      </c>
+      <c r="F511" s="8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="G511" s="26"/>
+      <c r="H511" s="26">
+        <v>2</v>
+      </c>
+      <c r="I511" s="33"/>
+      <c r="J511" s="33"/>
+      <c r="K511" s="33"/>
+      <c r="L511" s="26"/>
+      <c r="M511" s="26"/>
+      <c r="N511" s="26"/>
+      <c r="O511" s="26"/>
+      <c r="P511" s="33"/>
     </row>
     <row r="512" spans="2:16">
-      <c r="B512" s="25"/>
-    </row>
-    <row r="513" spans="2:2">
-      <c r="B513" s="25"/>
-    </row>
-    <row r="514" spans="2:2">
-      <c r="B514" s="25"/>
-    </row>
-    <row r="515" spans="2:2">
-      <c r="B515" s="25"/>
-    </row>
-    <row r="516" spans="2:2">
-      <c r="B516" s="25"/>
-    </row>
-    <row r="517" spans="2:2">
-      <c r="B517" s="25"/>
-    </row>
-    <row r="518" spans="2:2">
-      <c r="B518" s="25"/>
-    </row>
-    <row r="519" spans="2:2">
-      <c r="B519" s="25"/>
-    </row>
-    <row r="520" spans="2:2">
-      <c r="B520" s="25"/>
-    </row>
-    <row r="521" spans="2:2">
-      <c r="B521" s="25"/>
-    </row>
-    <row r="522" spans="2:2">
-      <c r="B522" s="25"/>
-    </row>
-    <row r="523" spans="2:2">
-      <c r="B523" s="25"/>
-    </row>
-    <row r="524" spans="2:2">
-      <c r="B524" s="25"/>
-    </row>
-    <row r="525" spans="2:2">
-      <c r="B525" s="25"/>
-    </row>
-    <row r="526" spans="2:2">
-      <c r="B526" s="25"/>
-    </row>
-    <row r="527" spans="2:2">
-      <c r="B527" s="25"/>
-    </row>
-    <row r="528" spans="2:2">
-      <c r="B528" s="25"/>
-    </row>
-    <row r="529" spans="2:2">
-      <c r="B529" s="25"/>
-    </row>
-    <row r="530" spans="2:2">
-      <c r="B530" s="25"/>
-    </row>
-    <row r="531" spans="2:2">
-      <c r="B531" s="25"/>
-    </row>
-    <row r="532" spans="2:2">
-      <c r="B532" s="25"/>
-    </row>
-    <row r="533" spans="2:2">
+      <c r="B512" s="27">
+        <v>46079</v>
+      </c>
+      <c r="C512" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D512" s="26">
+        <v>401</v>
+      </c>
+      <c r="E512" s="43">
+        <f t="shared" si="14"/>
+        <v>390</v>
+      </c>
+      <c r="F512" s="8">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="G512" s="26">
+        <v>9</v>
+      </c>
+      <c r="H512" s="26">
+        <v>2</v>
+      </c>
+      <c r="I512" s="26"/>
+      <c r="J512" s="26"/>
+      <c r="K512" s="26"/>
+      <c r="L512" s="26"/>
+      <c r="M512" s="26"/>
+      <c r="N512" s="26"/>
+      <c r="O512" s="26"/>
+      <c r="P512" s="26"/>
+    </row>
+    <row r="513" spans="2:16">
+      <c r="B513" s="27">
+        <v>46079</v>
+      </c>
+      <c r="C513" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D513" s="26">
+        <v>24</v>
+      </c>
+      <c r="E513" s="43">
+        <f t="shared" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="F513" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G513" s="26"/>
+      <c r="H513" s="26"/>
+      <c r="I513" s="26"/>
+      <c r="J513" s="26"/>
+      <c r="K513" s="26"/>
+      <c r="L513" s="26"/>
+      <c r="M513" s="26"/>
+      <c r="N513" s="26"/>
+      <c r="O513" s="26"/>
+      <c r="P513" s="26"/>
+    </row>
+    <row r="514" spans="2:16">
+      <c r="B514" s="27">
+        <v>46079</v>
+      </c>
+      <c r="C514" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D514" s="26">
+        <v>672</v>
+      </c>
+      <c r="E514" s="43">
+        <f t="shared" si="14"/>
+        <v>672</v>
+      </c>
+      <c r="F514" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G514" s="26"/>
+      <c r="H514" s="26"/>
+      <c r="I514" s="26"/>
+      <c r="J514" s="26"/>
+      <c r="K514" s="26"/>
+      <c r="L514" s="26"/>
+      <c r="M514" s="26"/>
+      <c r="N514" s="26"/>
+      <c r="O514" s="26"/>
+      <c r="P514" s="26"/>
+    </row>
+    <row r="515" spans="2:16">
+      <c r="B515" s="27">
+        <v>46079</v>
+      </c>
+      <c r="C515" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D515" s="26">
+        <v>482</v>
+      </c>
+      <c r="E515" s="43">
+        <f t="shared" si="14"/>
+        <v>480</v>
+      </c>
+      <c r="F515" s="8">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="G515" s="26">
+        <v>2</v>
+      </c>
+      <c r="H515" s="26"/>
+      <c r="I515" s="26"/>
+      <c r="J515" s="26"/>
+      <c r="K515" s="26"/>
+      <c r="L515" s="26"/>
+      <c r="M515" s="26"/>
+      <c r="N515" s="26"/>
+      <c r="O515" s="26"/>
+      <c r="P515" s="26"/>
+    </row>
+    <row r="516" spans="2:16">
+      <c r="B516" s="27">
+        <v>46079</v>
+      </c>
+      <c r="C516" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D516" s="26">
+        <v>448</v>
+      </c>
+      <c r="E516" s="43">
+        <f t="shared" si="14"/>
+        <v>430</v>
+      </c>
+      <c r="F516" s="8">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="G516" s="26"/>
+      <c r="H516" s="26">
+        <v>18</v>
+      </c>
+      <c r="I516" s="26"/>
+      <c r="J516" s="26"/>
+      <c r="K516" s="26"/>
+      <c r="L516" s="26"/>
+      <c r="M516" s="26"/>
+      <c r="N516" s="26"/>
+      <c r="O516" s="26"/>
+      <c r="P516" s="26"/>
+    </row>
+    <row r="517" spans="2:16">
+      <c r="B517" s="27">
+        <v>46079</v>
+      </c>
+      <c r="C517" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D517" s="26">
+        <v>1502</v>
+      </c>
+      <c r="E517" s="43">
+        <f t="shared" si="14"/>
+        <v>1480</v>
+      </c>
+      <c r="F517" s="8">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="G517" s="26"/>
+      <c r="H517" s="26">
+        <v>6</v>
+      </c>
+      <c r="I517" s="26"/>
+      <c r="J517" s="26"/>
+      <c r="K517" s="26"/>
+      <c r="L517" s="26">
+        <v>16</v>
+      </c>
+      <c r="M517" s="26"/>
+      <c r="N517" s="26"/>
+      <c r="O517" s="26"/>
+      <c r="P517" s="26"/>
+    </row>
+    <row r="518" spans="2:16">
+      <c r="B518" s="27">
+        <v>46079</v>
+      </c>
+      <c r="C518" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D518" s="26">
+        <v>390</v>
+      </c>
+      <c r="E518" s="43">
+        <f t="shared" si="14"/>
+        <v>390</v>
+      </c>
+      <c r="F518" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G518" s="26"/>
+      <c r="H518" s="26"/>
+      <c r="I518" s="26"/>
+      <c r="J518" s="26"/>
+      <c r="K518" s="26"/>
+      <c r="L518" s="26"/>
+      <c r="M518" s="26"/>
+      <c r="N518" s="26"/>
+      <c r="O518" s="26"/>
+      <c r="P518" s="26"/>
+    </row>
+    <row r="519" spans="2:16">
+      <c r="B519" s="27">
+        <v>46079</v>
+      </c>
+      <c r="C519" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D519" s="26">
+        <v>390</v>
+      </c>
+      <c r="E519" s="43">
+        <f t="shared" si="14"/>
+        <v>390</v>
+      </c>
+      <c r="F519" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G519" s="26"/>
+      <c r="H519" s="26"/>
+      <c r="I519" s="26"/>
+      <c r="J519" s="26"/>
+      <c r="K519" s="26"/>
+      <c r="L519" s="26"/>
+      <c r="M519" s="26"/>
+      <c r="N519" s="26"/>
+      <c r="O519" s="26"/>
+      <c r="P519" s="26"/>
+    </row>
+    <row r="520" spans="2:16">
+      <c r="B520" s="27">
+        <v>46079</v>
+      </c>
+      <c r="C520" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D520" s="26">
+        <v>1650</v>
+      </c>
+      <c r="E520" s="43">
+        <f t="shared" si="14"/>
+        <v>1650</v>
+      </c>
+      <c r="F520" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G520" s="26"/>
+      <c r="H520" s="26"/>
+      <c r="I520" s="26"/>
+      <c r="J520" s="26"/>
+      <c r="K520" s="26"/>
+      <c r="L520" s="26"/>
+      <c r="M520" s="26"/>
+      <c r="N520" s="26"/>
+      <c r="O520" s="26"/>
+      <c r="P520" s="26"/>
+    </row>
+    <row r="521" spans="2:16">
+      <c r="B521" s="27">
+        <v>46079</v>
+      </c>
+      <c r="C521" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D521" s="26">
+        <v>813</v>
+      </c>
+      <c r="E521" s="43">
+        <f t="shared" si="14"/>
+        <v>810</v>
+      </c>
+      <c r="F521" s="8">
+        <f t="shared" ref="F521:F532" si="15">SUM(G521:P521)</f>
+        <v>3</v>
+      </c>
+      <c r="G521" s="26"/>
+      <c r="H521" s="26">
+        <v>3</v>
+      </c>
+      <c r="I521" s="26"/>
+      <c r="J521" s="26"/>
+      <c r="K521" s="26"/>
+      <c r="L521" s="26"/>
+      <c r="M521" s="26"/>
+      <c r="N521" s="26"/>
+      <c r="O521" s="26"/>
+      <c r="P521" s="26"/>
+    </row>
+    <row r="522" spans="2:16">
+      <c r="B522" s="27">
+        <v>46079</v>
+      </c>
+      <c r="C522" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D522" s="26">
+        <v>1095</v>
+      </c>
+      <c r="E522" s="43">
+        <f t="shared" si="14"/>
+        <v>1089</v>
+      </c>
+      <c r="F522" s="8">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="G522" s="26"/>
+      <c r="H522" s="26">
+        <v>6</v>
+      </c>
+      <c r="I522" s="26"/>
+      <c r="J522" s="26"/>
+      <c r="K522" s="26"/>
+      <c r="L522" s="26"/>
+      <c r="M522" s="26"/>
+      <c r="N522" s="26"/>
+      <c r="O522" s="26"/>
+      <c r="P522" s="26"/>
+    </row>
+    <row r="523" spans="2:16">
+      <c r="B523" s="27">
+        <v>46079</v>
+      </c>
+      <c r="C523" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D523" s="26">
+        <v>550</v>
+      </c>
+      <c r="E523" s="43">
+        <f t="shared" si="14"/>
+        <v>550</v>
+      </c>
+      <c r="F523" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G523" s="26"/>
+      <c r="H523" s="26"/>
+      <c r="I523" s="26"/>
+      <c r="J523" s="26"/>
+      <c r="K523" s="26"/>
+      <c r="L523" s="26"/>
+      <c r="M523" s="26"/>
+      <c r="N523" s="26"/>
+      <c r="O523" s="26"/>
+      <c r="P523" s="26"/>
+    </row>
+    <row r="524" spans="2:16">
+      <c r="B524" s="27">
+        <v>46079</v>
+      </c>
+      <c r="C524" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="D524" s="26">
+        <v>560</v>
+      </c>
+      <c r="E524" s="43">
+        <f t="shared" si="14"/>
+        <v>560</v>
+      </c>
+      <c r="F524" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G524" s="26"/>
+      <c r="H524" s="26"/>
+      <c r="I524" s="26"/>
+      <c r="J524" s="26"/>
+      <c r="K524" s="26"/>
+      <c r="L524" s="26"/>
+      <c r="M524" s="26"/>
+      <c r="N524" s="26"/>
+      <c r="O524" s="26"/>
+      <c r="P524" s="26"/>
+    </row>
+    <row r="525" spans="2:16">
+      <c r="B525" s="27">
+        <v>46079</v>
+      </c>
+      <c r="C525" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D525" s="26">
+        <v>322</v>
+      </c>
+      <c r="E525" s="43">
+        <f t="shared" si="14"/>
+        <v>320</v>
+      </c>
+      <c r="F525" s="8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="G525" s="26"/>
+      <c r="H525" s="26"/>
+      <c r="I525" s="26"/>
+      <c r="J525" s="26"/>
+      <c r="K525" s="26"/>
+      <c r="L525" s="26"/>
+      <c r="M525" s="26"/>
+      <c r="N525" s="26"/>
+      <c r="O525" s="26">
+        <v>2</v>
+      </c>
+      <c r="P525" s="26"/>
+    </row>
+    <row r="526" spans="2:16">
+      <c r="B526" s="27">
+        <v>46079</v>
+      </c>
+      <c r="C526" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D526" s="26">
+        <v>561</v>
+      </c>
+      <c r="E526" s="43">
+        <f t="shared" si="14"/>
+        <v>530</v>
+      </c>
+      <c r="F526" s="8">
+        <f t="shared" si="15"/>
+        <v>31</v>
+      </c>
+      <c r="G526" s="26"/>
+      <c r="H526" s="26">
+        <v>16</v>
+      </c>
+      <c r="I526" s="26"/>
+      <c r="J526" s="26"/>
+      <c r="K526" s="26"/>
+      <c r="L526" s="26">
+        <v>15</v>
+      </c>
+      <c r="M526" s="26"/>
+      <c r="N526" s="26"/>
+      <c r="O526" s="26"/>
+      <c r="P526" s="26"/>
+    </row>
+    <row r="527" spans="2:16">
+      <c r="B527" s="27">
+        <v>46079</v>
+      </c>
+      <c r="C527" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D527" s="26">
+        <v>1330</v>
+      </c>
+      <c r="E527" s="43">
+        <f t="shared" si="14"/>
+        <v>1330</v>
+      </c>
+      <c r="F527" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G527" s="26"/>
+      <c r="H527" s="26"/>
+      <c r="I527" s="26"/>
+      <c r="J527" s="26"/>
+      <c r="K527" s="26"/>
+      <c r="L527" s="26"/>
+      <c r="M527" s="26"/>
+      <c r="N527" s="26"/>
+      <c r="O527" s="26"/>
+      <c r="P527" s="26"/>
+    </row>
+    <row r="528" spans="2:16">
+      <c r="B528" s="27">
+        <v>46079</v>
+      </c>
+      <c r="C528" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D528" s="26">
+        <v>480</v>
+      </c>
+      <c r="E528" s="43">
+        <f t="shared" si="14"/>
+        <v>480</v>
+      </c>
+      <c r="F528" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G528" s="26"/>
+      <c r="H528" s="26"/>
+      <c r="I528" s="26"/>
+      <c r="J528" s="26"/>
+      <c r="K528" s="26"/>
+      <c r="L528" s="26"/>
+      <c r="M528" s="26"/>
+      <c r="N528" s="26"/>
+      <c r="O528" s="26"/>
+      <c r="P528" s="26"/>
+    </row>
+    <row r="529" spans="2:16">
+      <c r="B529" s="27">
+        <v>46079</v>
+      </c>
+      <c r="C529" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D529" s="26">
+        <v>210</v>
+      </c>
+      <c r="E529" s="43">
+        <f t="shared" ref="E529:E532" si="16">D529-F529</f>
+        <v>210</v>
+      </c>
+      <c r="F529" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G529" s="26"/>
+      <c r="H529" s="26"/>
+      <c r="I529" s="26"/>
+      <c r="J529" s="26"/>
+      <c r="K529" s="26"/>
+      <c r="L529" s="26"/>
+      <c r="M529" s="26"/>
+      <c r="N529" s="26"/>
+      <c r="O529" s="26"/>
+      <c r="P529" s="26"/>
+    </row>
+    <row r="530" spans="2:16">
+      <c r="B530" s="27">
+        <v>46079</v>
+      </c>
+      <c r="C530" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D530" s="26">
+        <v>40</v>
+      </c>
+      <c r="E530" s="43">
+        <f t="shared" si="16"/>
+        <v>40</v>
+      </c>
+      <c r="F530" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G530" s="26"/>
+      <c r="H530" s="26"/>
+      <c r="I530" s="26"/>
+      <c r="J530" s="26"/>
+      <c r="K530" s="26"/>
+      <c r="L530" s="26"/>
+      <c r="M530" s="26"/>
+      <c r="N530" s="26"/>
+      <c r="O530" s="26"/>
+      <c r="P530" s="26"/>
+    </row>
+    <row r="531" spans="2:16">
+      <c r="B531" s="27">
+        <v>46079</v>
+      </c>
+      <c r="C531" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D531" s="26">
+        <v>753</v>
+      </c>
+      <c r="E531" s="43">
+        <f t="shared" si="16"/>
+        <v>740</v>
+      </c>
+      <c r="F531" s="8">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="G531" s="26"/>
+      <c r="H531" s="26"/>
+      <c r="I531" s="26"/>
+      <c r="J531" s="26">
+        <v>6</v>
+      </c>
+      <c r="K531" s="26"/>
+      <c r="L531" s="26"/>
+      <c r="M531" s="26"/>
+      <c r="N531" s="26"/>
+      <c r="O531" s="26"/>
+      <c r="P531" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="532" spans="2:16">
+      <c r="B532" s="27">
+        <v>46079</v>
+      </c>
+      <c r="C532" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D532" s="26">
+        <v>480</v>
+      </c>
+      <c r="E532" s="43">
+        <f t="shared" si="16"/>
+        <v>480</v>
+      </c>
+      <c r="F532" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G532" s="26"/>
+      <c r="H532" s="26"/>
+      <c r="I532" s="26"/>
+      <c r="J532" s="26"/>
+      <c r="K532" s="26"/>
+      <c r="L532" s="26"/>
+      <c r="M532" s="26"/>
+      <c r="N532" s="26"/>
+      <c r="O532" s="26"/>
+      <c r="P532" s="26"/>
+    </row>
+    <row r="533" spans="2:16">
       <c r="B533" s="25"/>
     </row>
-    <row r="534" spans="2:2">
+    <row r="534" spans="2:16">
       <c r="B534" s="25"/>
     </row>
-    <row r="535" spans="2:2">
+    <row r="535" spans="2:16">
       <c r="B535" s="25"/>
     </row>
-    <row r="536" spans="2:2">
+    <row r="536" spans="2:16">
       <c r="B536" s="25"/>
     </row>
-    <row r="537" spans="2:2">
+    <row r="537" spans="2:16">
       <c r="B537" s="25"/>
     </row>
-    <row r="538" spans="2:2">
+    <row r="538" spans="2:16">
       <c r="B538" s="25"/>
     </row>
-    <row r="539" spans="2:2">
+    <row r="539" spans="2:16">
       <c r="B539" s="25"/>
     </row>
-    <row r="540" spans="2:2">
+    <row r="540" spans="2:16">
       <c r="B540" s="25"/>
     </row>
-    <row r="541" spans="2:2">
+    <row r="541" spans="2:16">
       <c r="B541" s="25"/>
     </row>
-    <row r="542" spans="2:2">
+    <row r="542" spans="2:16">
       <c r="B542" s="25"/>
     </row>
-    <row r="543" spans="2:2">
+    <row r="543" spans="2:16">
       <c r="B543" s="25"/>
     </row>
-    <row r="544" spans="2:2">
+    <row r="544" spans="2:16">
       <c r="B544" s="25"/>
     </row>
     <row r="545" spans="2:2">
